--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\PycharmProjects\Index rerum\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C51F794-EC4C-40B3-939A-4E6303EC32C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Лист1" sheetId="1" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -78,80 +87,89 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Bain A. (1873), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Mind and Body: The Theories of Their Relation</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">. New York: D. Appleton and Company;
 James W. (1890), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>The Principles of Psychology, in Two Volumes</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">. New York: Henry Holt and Company;
 McCulloch W.S., Pitts W. (1943), "A Logical Calculus of the Ideas Immanent in Nervous Activity", </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>The Bulletin of Mathematical Biophysics</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">, № 5, pp. 115-133.; 
 Hopfield J.J. (1982), "Neural Networks and Physical Systems with Emergent Collective Computational Abilities", </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Proceedings of the National Academy of Sciences</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>, № 8, pp. 2554-2558.</t>
     </r>
@@ -192,98 +210,109 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Срничек Н., Уильямс А. (2019), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Изобретая будущее. Посткапитализм и мир без труда</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>, М.: Strelka Press;
 Rifkin J. (1995),</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t> The End of Work: The Decline of the Global Labor Force and the Dawn of the Post-Market Era</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>. New York: Putnam Publishing Group;
 Guarnieri M. (2010), "The Roots of Automation Before Mechatronics"</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>,</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> IEEE Industrial Electronics Magazine, № 2, pp. 42-43.;
 Benanav A. (2020), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Automation and the Future of Work</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">. New York: Verso Books;
 Horst R., Zdziebko J. (2021), "Mechanization and Automation in the Production Processes of Polska Grupa Górnicza SA", </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Mining–Informatics, Automation and Electrical Engineering</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>, № 59, pp. 7-11.</t>
     </r>
@@ -313,134 +342,149 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Вахштайн В. (2005), Возвращение материального. «Пространства», «сети», «потоки» в акторно-сетевой теории // </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Социологическое обозрение,</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> №1, С. 94-115.;
 Callon M. (1984), "Some Elements of a Sociology of Translation: Domestication of the Scallops and the Fishermen of St. Brieuc Bay", </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>The Sociological Review</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">, № 1, pp. 196-233.;
 Callon M. (1986), "The Sociology of an Actor-Network: The Case of the Electric Vehicle". In: Callon M., Law J., Rip A. (eds.), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Mapping the Dynamics of Science and Technology: Sociology of Science in the Real World.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Houndmills, England: The Macmillan Press, pp. 19-34.;
 Jackson S. (2015), "Toward an Analytical and Methodological Understanding of Actor-Network Theory", </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Journal of Arts and Humanities,</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> №2, pp. 29-44.;
 Latour B. (1987),</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Science in Action: How to Follow Scientists and Engineers through Society.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Cambridge, Massachusetts: Harvard University Press;
 Latour B. (1999), "On Recalling ANT". In: Law J., Hassard, J. (eds.) </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Actor Network Theory and After. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Oxford: Blackwell, pp. 15-25.;
 Law J. (1992), "Notes on the Theory of the Actor-Network: Ordering, Strategy and Heterogeneity", </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Systems Practice</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>, № 5, pp. 379-393.</t>
     </r>
@@ -488,149 +532,166 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Hardensett H. (1932), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Der kapitalistische und der technische Mensch. Ein charakterologischer Beitrag zur Klärung des Verhältnisses von Technik und Wirtschaft.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> München und Berlin: Verlag von R. Oldenbourg;
 Schröter M. (1934), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Philosophie der Technik.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> München: De Gruyter;
 Heidegger M. (1954), Die Frage nach der Technik, in: Martin Heidegger, </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Vorträge und Aufsätze</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>. Pfullingen: Neske, S. 13–44. (рус. пер.: Хайдеггер М. (1993), Вопрос о технике // Хайдеггер М.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Время и бытие (статьи и выступления) </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">/ Пер. с нем. и комм. В.В. Бибихина. М.: Республика. С. 221-238);
 Ihde D. (2010), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Heidegger’s Technologies: Postphenomenological Perspectives.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> New York: Fordham University Press ; 
 Latour B. (1992), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Where Are the Missing Masses? The Sociology of a Few Mundane Artifacts.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> W. Bijker, J. Law (eds.) Shaping Technology/Building Society: Studies in </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Sociotechnical Change</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">, Cambridge, Massachusetts: MIT Press, pp. 225–259 (рус. пер.: Латур Б. (2006): </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Где недостающая масса? Социология одной двери</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>. В.С. Вахштайн (ред.) Социология вещей, М.: Изд. дом «Территория будущего»: С. 199–223).</t>
     </r>
@@ -660,97 +721,108 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Sandel M.J. (2009), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">The Case against Perfection. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Cambridge, Massachusetts:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Harvard University Press;
 Kass L. (2003), "Ageless Bodies, Happy Souls: Biotechnology and the Pursuit of Perfection", </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">New Atlantis, </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">№ 1, pp. 9–28.;
 Habermas J. (2003), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>The Future of Human Nature.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Cambridge, United Kingdom: Polity;
 Bostrom N. (2005), "In Defense of Posthuman Dignity", </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Bioethics, </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>№ 3, pp. 202-214.</t>
     </r>
@@ -785,44 +857,49 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Ивахненко А.Г., Лапа В.Г. (1965), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Кибернетические предсказывающие устройства.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Акад. наук УССР. Киев: Наукова думка;
 Dechter R. (1986), "Learning While Searching in Constraint-Satisfaction-Problems", </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>AAAI'86: Proceedings of the Fifth AAAI National Conference on Artificial Intelligence</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">, pp. 178-185. </t>
     </r>
@@ -848,62 +925,69 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Cipresso P., Giglioli I., Chicchi A., Raya I., Riva G. (2011), "The Past, Present, and Future of Virtual and Augmented Reality Research: A Network and Cluster Analysis of the Literature",</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Frontiers in Psychology</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>, № 9, Article 2086;
 Rosenberg L.B. (2022), "Augmented Reality: Reflections at Thirty Years". In: Arai, K. (ed.)</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> FTC 2021. LNNS, Vol. 358</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">, Cham: Springer International Publishing, pp. 1–11.;
 More M., Vita-More N. (eds.) (2013), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>The Transhumanist Reader: Classical and Contemporary Essays on the Science, Technology, and Philosophy of the Human Future.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Hoboken: John Wiley &amp; Sons</t>
     </r>
@@ -925,44 +1009,49 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Ryle G. (1949), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>The Concept of Mind.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> London: Hutchinson;
 Baird D. (2004), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Thing Knowledge: A Philosophy of Scientific Instruments</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>. Oakland: University of California Press
 \\ введение термина;
@@ -970,18 +1059,20 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Personal Knowledge: Towards a Post-Critical Philosophy</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>. London: Routledge and Kegan Paul
 \\ использование термина в контексте технологий;
@@ -989,18 +1080,20 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Thing Knowledge: A Philosophy of Scientific Instruments</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>. Oakland: University of California Press</t>
     </r>
@@ -1037,81 +1130,90 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Энгельмейер П.К. (1910), Теория творчества. Спб.: Образование; 
 Энгельмейер П.К. (1914, 1916), Эврология, или Общая теория творчества // </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Вопросы теории и психологии творчества.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Харьков. Т. 5. С. 131–160. Т. 7. С. 76–108.; 
 Энгельмейер П.К. (1929), Нужна ли нам философия техники? // </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Инженерный труд.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> 1929. № 2. С. 36–40;
 du Bois-Reymond A. (1906), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Erfindung und Erfinder</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">. Berlin: Julius Springer;
 Eyth M. (4. Aufl. 1924): </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Lebendige Kräfte. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Berlin: Julius Springer;  
 Schröter M. (1920), Die Kulturmöglichkeit der Technik als Formproblem der produktiven Arbeit. Berlin u. Leipzig: de Gruyter;
@@ -1119,36 +1221,40 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Technische Kultur</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">. Kempten u. München: Verlag der Kösel'schen Buchhandlung; 
 Dessauer F. (1927), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Philosophie der Technik. Das Problem der Realisierung.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Bonn: F. Cohen</t>
     </r>
@@ -1184,98 +1290,109 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Harrington A. (1969), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>The Immortalist.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> New York: Random House;
 Perry M. (2000), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Forever for All: Moral Philosophy, Cryonics, and the Scientific Prospects for Immortality. Irvine: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Universal-Publishers;
 de Grey A., Rae M. (2007), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Ending Aging: The Rejuvenation Breakthroughs that Could Reverse Human Aging in Our Lifetime.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> New York: St. Martin's Press;
 Kurzweil R. (2004), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Fantastic Voyage: Live Long Enough to Live Forever.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Emmaus: Rodale;
 Турчин А., Батин М. (2013), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Футурология. XXI век: бессмертие или глобальная катастрофа.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> М.: «БИНОМ. Лаборатория знаний».</t>
     </r>
@@ -1316,116 +1433,129 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Энгельмерйер П.К. (1925), Современные задачи инженерства // </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Инженерный труд.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> №7. С. 6—10.;
 Hardensett H. (1932), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Der kapitalistische und der technische Mensch.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> München und Berlin: Verlag von R. Oldenbourg;
 Dessauer F. (1927), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Philosophie der Technik.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Bonn: F. Cohen;
 Dessauer F. (1956), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Streit um die Technik</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">. Frankfurt a. M.: Josef Knecht;
 Weihe C. (1935), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Kultur und Technik. Ein Beitrag zur Philosophie der Technik.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Frankfurt a. M.: Selbstverlag des Verfassers;
 Poser H. (2016),</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Homo creator. Technik als philosophische Herausforderung.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Dordrecht: Springer VS.</t>
     </r>
@@ -1443,133 +1573,148 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Baum R.J. (1980), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Ethics and Engineering Curricula.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Hastings-on-Hudson: The Hastings Center;
 Davis M. (1998), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Thinking Like an Engineer: Studies in the Ethics of a Profession. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>New York and Oxford: Oxford University Press</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">;
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Davis M. (2005), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Engineering Ethics.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Aldershot/Burlington, Vermont: Ashgate;
 van de Poel I., Royakkers L. (2011),</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Ethics, Technology and Engineering</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">, Oxford: Wiley-Blackwell;
 Peterson M., Spahn A. (2011), "Can Technological Artefacts be Moral Agents?", </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Science and Engineering Ethics, </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">№ 3, pp. 411–424.;
 Taebi B., Roeser S. (eds.) (2015), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>The Ethics of Nuclear Energy: Risk, Justice, and Democracy in the Post-Fukushima Era.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Cambridge: Cambridge University Press</t>
     </r>
@@ -1636,62 +1781,69 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">McCarthy J., Minsky M.L., Rochester N., Shannon C.E. (2006), "A Proposal for the Dartmouth Summer Research Project on Artificial Intelligence, August 31, 1955", </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>AI Magazine</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">, № 4, pp. 12-14.;
 Turing A. (1950), "Computing Machinery and Intelligence", </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Mind, №</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> 236, pp. 433-460.; 
 Searle J.R. (1980), "Minds, Brains, and Programs", </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Behavioral and Brain Sciences</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>, № 3, pp. 417-424.</t>
     </r>
@@ -1719,98 +1871,109 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Latour B., Woolgar S. (1979), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Laboratory Life: the Social Construction of Scientific Facts.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Beverly Hills and London: Sage;
 MacKenzie D., Wajcman J. (1999), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>The Social Shaping of Technology.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Maidenhead: Open University Press;
 Latour B. (1987), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Science in Action: How to Follow Scientists and Engineers through Society.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Cambridge, Massachusetts: Harvard University Press;
 Callon M. (1986), "The Sociology of an Actor-Network: The Case of the Electric Vehicle". In: Callon M., Law J., Rip A. (eds.), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Mapping the Dynamics of Science and Technology: Sociology of Science in the Real World.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Houndmills, London: The Macmillan Press, pp. 19-34.;
 Law J. (2004), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>After Method: Mess in Social Science Research.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> London and New York: Routledge.</t>
     </r>
@@ -1840,80 +2003,89 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Rheingold H. (1993), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>The Virtual Community: Homesteading on the Electronic Frontier.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Boston: Addison-Wesley;
 Turkle S. (1995), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Life on the Screen: Identity in the Age of the Internet</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>, New York: Simon &amp; Schuster;
 Castells M. (1996-2003),</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> The Information Age Trilogy: The Rise of the Network Society, The Power of Identity, and End of Millennium.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Hoboken: Wiley-Blackwell;
 Poster M. (1995), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">The Second Media Age. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Cambridge, United Kingdom: Polity</t>
     </r>
@@ -1950,116 +2122,129 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Haraway D. (2000), "A Cyborg Manifesto". In: Bell D., Kennedy B. (eds.) </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>The Cybercultures Reader.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> New York: Routledge, pp. 291–324.;
 Downey G.L., Dumit J., Williams S. (1995), "Cyborg Anthropology", </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Cultural Anthropology, </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>№ 2, pp. 264–269.;
 Case A. (2014),</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> An Illustrated Dictionary of Cyborg Anthropology.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Scotts Valley: CreateSpace Independent Publishing Platform;
 Wells J. (2014), "Keep Calm and Remain Human: How We Have Always Been Cyborgs and Theories on the Technological Present of Anthropology", </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Reviews in Anthropology,</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> № 1, pp. 5–34.
 Gray C.H. (ed.) (1995), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>The Cyborg Handbook.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> New York: Routledge;
 Latour B. (2005),</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Reassembling the Social: An Introduction to Actor-Network Theory. Oxford: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Oxford University Press</t>
     </r>
@@ -2096,62 +2281,69 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">McCulloch W.S., Pitts W. (1943), "A Logical Calculus of the Ideas Immanent in Nervous Activity", </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>The Bulletin of Mathematical Biophysics,</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> № 5, pp. 115-133.;
 Putnam H. (1961), "Brains and Behavior". In: R. J. Butler, (ed.), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Analytical Philosophy, Second Series.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Oxford: Basis Blackwell, pp. 211-235.;
 Fodor J. A. (1975), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>The Language of Thought (Vol. 5).</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Cambridge, Massachusetts: Harvard University Press.</t>
     </r>
@@ -2182,115 +2374,128 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Ihde D. (1999), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Expanding Hermeneutics: Visualism in Science.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Evanston: Northwestern University Press;
 Verbeek P.-P, (2000), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">De daadkracht der Dingen: Over Techniek, Filosofie En Vormgeving. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Amsterdam: Boom. (англ. пер.: Verbeek, P.-P, (2005), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>What Things Do: Philosophical Reflections on Technology, Agency, and Design.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Translated by Robert P. Crease, University Park, PA: Penn State University Press);
 Ihde D., Selinger E. (2003), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Chasing Technoscience: Matrix for Materiality,</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Bloomington: Indiana University Press;
 Hasse C. (2020), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Posthumanist Learning: What Robots and Cyborgs Teach Us About Being Ultra-social. London: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Routledge;
 Ihde D. (2021), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Material Hermeneutics. Reversing the Linguistic Turn.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> New York: Routledge.</t>
     </r>
@@ -2322,26 +2527,32 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Samuel A.L. (1959), "Some Studies in Machine Learning Using the Game of Checkers",</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
+        <i/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> IBM Journal of Research and Development</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>, № 3, pp. 210-229.</t>
     </r>
@@ -2369,43 +2580,48 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Mumford L. (1967 (Vol.1) / 1970 (Vol.2)),</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> The Myth of the Machine.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> San Diego: Harcourt (рус. пер.: Мамфорд, Л. (2001), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Миф машины. Техника и развитие человечества.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> / Перевод с английского: Т. Азаркович, Б. Скуратов, М.: Логос</t>
     </r>
@@ -2431,62 +2647,69 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">More M. (1993), "Technological Self-Transformation: Expanding Personal Extropy", </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Extropy</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">, № 2, pp. 15–24.;
 Bostrom N. (2005), "In Defense of Posthuman Dignity", </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Bioethics, </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">№ 3, pp. 202–214.;
 Bradshaw H.G., Ter Meulen R. (2010), "A Transhumanist Fault Line Around Disability: Morphological Freedom and the Obligation to Enhance", </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Journal of Medicine and Philosophy,</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> № 6, pp. 670–684.</t>
     </r>
@@ -2511,62 +2734,69 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Longino H.E. (1990), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Science as Social Knowledge: Values and Objectivity in Scientific Inquiry.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Princeton: Princeton University Press;
 Giere R.N. (2010), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Explaining Science: A Cognitive Approach.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Chicago: University of Chicago Press;
 Douglas H. (2009), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Science, Policy, and the Value-free Ideal. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Pittsburgh: University of Pittsburgh Press</t>
     </r>
@@ -2606,62 +2836,69 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Chomsky N. (1957), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Syntactiс Structures.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Paris: Mouton &amp; Co.;
 Woods W.A. (1970), "Transition Network Grammars for Natural Language Analysis", </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Communications of the ACM</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">, № 10, pp. 591-606.;
 Schank R. (1973), "Identification of Conceptualizations Underlying Natural Language". In: Schank R., Colby K.M. (eds.) </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Computer Models of Thought and Language</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>. San Francisco: W.H. Freeman and Company, pp. 187-247.</t>
     </r>
@@ -2695,62 +2932,69 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Gunning D. (2017), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Explainable Artificial Intelligence (XAI).</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Defense Advanced Research Projects Agency (DARPA);
 Gunning D., Aha D. (2019), "DARPA’s Explainable Artificial Intelligence (XAI) Program", </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>AI Magazine</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">, № 2, pp. 44-58.; 
 Rudin C. (2019), "Stop Explaining Black Box Machine Learning Models for High Stakes Decisions and Use Interpretable Models Instead", </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Nature Machine Intelligence,</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> № 5, pp. 206-215.</t>
     </r>
@@ -2785,98 +3029,109 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Kapp E. (1877), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Grundlinien einer Philosophie der Technik. Zur Entstehung der Cultur aus neuen Gesichtspunkten. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Braunschweig: Georg Westermann;
 Флоренский П.А. (2000), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>У водоразделов мысли</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> (ч. 2) // Флоренский П.А. Сочинения в 4-х тт. Т. 3, кн. 1. М.: Мысль. С. 373–452;
 Флоренский П.А. (1969), Органопроекция // </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Декоративное искусство</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">, № 12. С. 39–42.;  
 Энгельмейер П.К. (1929), Нужна ли нам философия техники? // </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Инженерный труд</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>. 1929. № 2. С. 36–40; 
 Gehlen A. (1940),</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Der Mensch. Seine Natur und seine Stellung in der Welt. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Berlin: Junker und Dünnhaupt.</t>
     </r>
@@ -2905,62 +3160,69 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Dusseldorp M., Beecroft R. (Hrsg.) (2011), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Technikfolgen abschätzen lehren: Bildungspotenziale transdisziplinärer Methoden.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Wiesbaden: VS Verlag für Sozialwissenschaften;
 Owen R., Bessant J., Heintz M. (2013),</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t> Responsible Innovation: Managing the Responsible Emergence of Science and Innovation in Society.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Chichester: John Wiley;
 Mejlgaard N., Christensen M.V., Strand R. et al. (2018), "Teaching Responsible Research and Innovation: A Phronetic Prespective", </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Science and Engineering Ethics, № 2</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>, pp. 597–615.</t>
     </r>
@@ -2998,79 +3260,88 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Heidegger M. (1954), Die Frage nach der Technik, in: Martin Heidegger,</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Vorträge und Aufsätze</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">. Pfullingen: Neske, S. 13–44. (рус. пер.: Хайдеггер М. (1993), Вопрос о технике // Хайдеггер М. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Время и бытие (статьи и выступления)</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> / Пер. с нем. и комм. В.В. Бибихина. М.: Республика. С. 221-238.);
 Ihde D. (2010), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Heidegger’s Technologies: Postphenomenological Perspectives.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> New York: Fordham University Press;
 Бибихин В.В. (2009), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Чтение философии.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> СПб.: Наука. </t>
     </r>
@@ -3098,80 +3369,89 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Beck U. (1992),</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Risk Society: Towards a New Modernity.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> London: Sage;
 Perrow C. (1999),</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Normal Accidents: Living with High Risk Technologies.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Princeton: Princeton University Press; 
 Douglas M., Wildavsky A. (1983), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Risk and Culture: An Essay on the Selection of Technological and Environmental Dangers.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Berkeley: University of California Press;
 Slovic P. (1987), "Perception of Risk", </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Science (American Association for the Advancement of Science)</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>, № 4799, pp. 280–285.</t>
     </r>
@@ -3203,80 +3483,89 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Юревич Е.И. (2005), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Основы робототехники. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Спб.: БХВ-Петербург;
 Lem S. (1964), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Summa Technologiae.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Kraków: Wydawnictwo Literackie;
 Craig J.J. (2005), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Introduction to Robotics: Mechanics and Control. 3rd Edition.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Hoboken: Prentice Hall;
 Aylett R., Vargas P.A. (2022), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Living with Robots: What Every Anxious Human Needs to Know.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Cambridge, Massachusetts: MIT Press</t>
     </r>
@@ -3310,26 +3599,30 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Searle J.R. (1980), "Minds, Brains, and Programs", </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
+        <i/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Behavioral and Brain Sciences</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>, № 3, pp. 417-424.</t>
     </r>
@@ -3360,78 +3653,87 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Ясперс К. (1986), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Современная техника. Новая технократическая волна на Западе: Сборник статей.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> М.: Прогресс;
 Heidegger M. (1954), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Die Frage nach der Technik</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">, In: Martin Heidegger, </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Vorträge und Aufsätze.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Pfullingen: Neske, S. 13–44. (рус. пер.: Хайдеггер М. (1993), Вопрос о технике // Хайдеггер М. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Время и бытие</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> (статьи и выступления) / Пер. с нем. и комм. В.В. Бибихина. М.: Республика. С. 221-238.)</t>
     </r>
@@ -3464,80 +3766,89 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Barbour I.G. (1980), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Technology, Environment, and Human Values. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">New York: N.Y: Praeger;
 Grunwald A. (2010), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Technikfolgenabschätzung – Eine Einführung.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Berlin: Edition Sigma;
 Грунвальд А. (2008), На пути к теории социальной оценки техники // </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Эпистемология &amp; философия науки.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Т. XVII, № 3. С. 35–56;  
 Горохов В.Г. (2006), Междисциплинарные исследования научно-технического развития и инновационная политика // </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Вопросы философии.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> № 4. C. 80–96.</t>
     </r>
@@ -3576,62 +3887,69 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Trist E.L. (1981), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">The Evolution of Socio-technical Systems: a Conceptual Framework and an Action Research Program. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Toronto: Ontario Ministry of Labour, Ontario Quality of Working Life Centre;
 Johnson D.G., Wetmore J.M. (2009), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Technology and Society: Building Our Sociotechnical Future</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>. Cambridge, Massachusetts: MIT Press;
 Douglas D.G. (2012),</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> The Social Construction of Technological Systems, Anniversary Edition: New Directions in the Sociology and History of Technology.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Cambridge, Massachusetts: MIT Press.</t>
     </r>
@@ -3667,201 +3985,224 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Jasanoff S., Kim, S.-H. (2009), "Containing the Atom: Sociotechnical Imaginaries and Nuclear Power in the United States and South Korea", </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Minerva, №</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> 2, pp. 119-146.;
 Solbu G. (2018), "The Physiology of Imagined Publics: From a Deficit to an Ambivalence Model", </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Science &amp; Technology Studies</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">№ </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">2, pp. 39–54.; 
 Aspria M., Mul M. de Adams S., Bal R. (2016), "Of Blooming Flowers and Multiple Sockets: The Role of Metaphors in the Politics of Infrastructural Work", </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Science &amp; Technology Studies</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">№ </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>3, pp. 68–87.;
 Faulkner A. (2017), "Bioinformatics Imaginaries in the Engine-Room of Genomic Health Policy: Integration and Heterogeneity in India and the UK",</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Science &amp; Technology Studies</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">№ </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">3, pp. 35–53.; 
 Chiang S.-N. (2020), "Futures in the Making", </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Science &amp; Technology Studies</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">№ </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>4, pp. 72-75.;
 Dickel S., Schneider C., Thiem, C., Wenten K.-A. (2019), "Engineering Publics: The Different Modes of Civic Technoscience",</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Science &amp; Technology Studies</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">№ </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>2, pp. 8–23.</t>
     </r>
@@ -3895,26 +4236,29 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Turing A. (1950), "Computing Machinery and Intelligence", </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Mind, №</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> 236, pp. 433-460.</t>
     </r>
@@ -3970,238 +4314,265 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Ortega y Gasset J. (1935), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Meditacion de la tecnica. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Buenos Aires: La Nación (рус. пер.: Ортега-и-Гассет Х. (1993), Размышления о технике. // </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Журнал «Вопросы философии»</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">, № 5, С. 164–232.);
 Ясперс К. (1986), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Современная техника. Новая технократическая волна на Западе: Сборник статей.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> М.: Прогресс;
 Jünger F.G. (1946) </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Die Perfektion der Technik.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Frankfurt a. M.: Vittorio Klostermann GmbH (рус. пер.: Юнгер Ф.Г. (2002), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Совершенство техники.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> СПб.: Владимир Даль);
 Mumford L.  (1967 (Vol.1) / 1970 (Vol.2)),</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> The Myth of the Machine.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> San Diego: Harcourt (рус. пер.: Мамфорд, Л. (2001), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Миф машины. Техника и развитие человечества.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> / Перевод с английского: Т. Азаркович, Б. Скуратов, М.: Логос;
 Heidegger M. (1954), Die Frage nach der Technik, in: Martin Heidegger, </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Vorträge und Aufsätze</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">. Pfullingen: Neske, S. 13–44. (рус. пер.: Хайдеггер М. (1993), Вопрос о технике // Хайдеггер М. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Время и бытие (статьи и выступления) </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">/ Пер. с нем. и комм. В.В. Бибихина. М.: Республика. С. 221-238.);
 Spengler O. (1931), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Der Mensch und die Technik. Beitrag zu einer Philosophie des Lebens. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">München: C.H. Beck’sche Verlagsbuchhandlung;
 Митчем К. (1995), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Что такое философия техники? </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">/ Под ред. проф. Горохова В. Г. М.: Аспект Пресс;
 Mitcham C., Mackey R. (eds.). (1983), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Philosophy and Technology (Vol. 80).</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> New York: Simon and Schuster;
 Mitcham C. (2022), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Thinking Through Technology: The Path Between Engineering and Philosophy.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Chicago: University of Chicago Press</t>
     </r>
@@ -4231,62 +4602,69 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Von Wright G.H. (1963), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Norm and Action: A Logical Enquiry.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> London: Routledge and Kegan Paul;
 Krohn W., Layton Jr E. T., Weingart P. (eds.). (2012), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">The Dynamics of Science and Technology: Social Values, Technical Norms and Scientific Criteria in the Development of Knowledge (Vol. 2). Berlin: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Springer Science &amp; Business Media;
 Niiniluoto I. (1993), "The Aim and Structure of Applied Research", </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Erkenntnis</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>, № 1, pp. 1–21.</t>
     </r>
@@ -4322,133 +4700,148 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Marcuse H. (1941), "Some Social Implications of Modern Technology", </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Studies in Philosophy and Social Science</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">, № 3, pp. 414-439.;
 Marcuse H. (1964), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>One-Dimensional Man: Studies in the Ideology of Advanced Industrial Society.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Boston: Beacon;
 Habermas J. (1968), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Technik und Wissenschaft als Ideologie</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">. Frankfurt a. M.: Suhrkamp Verlag (Рус.пер.: Юрген Х. (2007), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Техника и наука как «идеология»</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">. М.: Праксис);
 Habermas H. (ed.) (1968), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Antworten auf Herbert Marcuse.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Frankfurt a. M.: Suhrkamp Verlag;
 Andrew F. (1992), "Subversive Rationalization: Technology, Power, and Democracy",</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Inquiry</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">, № 3-4, pp. 301-322.;
 Feenberg A. (1996), "Marcuse or Habermas: Two Critiques of Technology", </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Inquiry</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>, № 1, pp. 45-70.</t>
     </r>
@@ -4495,170 +4888,189 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Asimov I. (2004).</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> I, robot (Vol. 1).</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> New York: Spectra;
 Lem S. (1964), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Summa Technologiae.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Kraków: Wydawnictwo Literackie;
 Lem S., Jarzębski J. (1982),</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Dzienniki gwiazdowe. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Kraków: Wydawnictwo Literackie;
 Bacon F. (2016). </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>New Atlantis and the Great Instauration.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Hoboken: John Wiley &amp; Sons;
 Циолковский К.Э. (1925), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Монизм вселенной</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> (Конспект. Март 1925 г.). Калуга: Б. и., 1925 (1-я Гос. Типо-лит.);
 Циолковский К.Э. (1958), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Вне Земли. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Изд. 2-е, испр. М.: Изд-во Акад. наук СССР;
 Толстой А.Н. (1927), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Гиперболоид инженера Гарина.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> М.-Л.: Государственное издательство;
 Bradbury R. (1950), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">The Martian Chronicles. New York: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Doubleday &amp; Co.;
 Bradbury R. (1953), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Fahrenheit 451.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> New York: Ballantine Books</t>
     </r>
@@ -4689,98 +5101,109 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Winner L. (1980), "Do Artifacts Have Politics?", </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Daedalus</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">, № 1, pp. 121-136.;
 Ellul J. (1964), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">The Technological Society. New York: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Vintage Books;
 Mumford L. (1934), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Technics and Civilization</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">. San Diego: Harcourt;
 Feenberg A. (2008), "Critical Theory of Technology: An Overview", </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Inquiry</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">, № 4, pp. 351-368.;
 Cowan R., Foray D. (1997), "The Economics of Codification and the Diffusion of Knowledge", </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Industrial and Corporate Change,</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> № 3, pp. 595-622.</t>
     </r>
@@ -4822,206 +5245,229 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Kuhn T. (1962), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>The Structure of Scientific Revolutions.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Chicago: University of Chicago Press;
 Rogers E.M. (1995), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Diffusion of innovations (4th. ed.). </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">New York: The Free Press;
 Green L. (2001), "Technoculture: Another Term That Means Nothing and Gets Us Nowhere?", </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Media International Australia</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">, № 1, pp. 11-25.;
 Niiniluoto I. (1984), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Is Science Progressive?</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">. Dordrecht: Reidel;
 Ortega y Gasset J. (1939), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Meditación de la Técnica. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Madrid: Revista de Occidente;
 Popper K. (1963), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Conjectures and Refutations.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> New York: Basic Books;
 Quintanilla M.Á. (1982), "La Verosimilitud de las Teorías". In: Hidalgo A., Sánchez G.B. (eds.), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Actas del Primer Congreso de Teoría y Metodología de las Ciencias.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Oviedo: Ediciones Pentalfa, pp. 473-503.;
 Quintanilla M.Á. (1996), "The Incompleteness of Technics". In: Munévar G. (ed.), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Spanish Studies in the Philosophy of Science. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Dordrecht: Springer Netherlands, pp. 89-102.;
 Quintanilla M.Á. (1998), "Technical Systems and Technical Progress: a Conceptual Framework", </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Society for Philosophy and Technology Quarterly Electronic Journal</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">, № 1, pp. 72-79.;
 Quintanilla M.Á. (2017), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Tecnología: un enfoque filosófico y otros ensayos de filosofía de la tecnología.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Mexico City: Fondo de Cultura Económica;
 Skolimowski H. (1966), "The Structure of Thinking in Technology", </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Technology and Culture</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>, № 7, pp. 371-383.</t>
     </r>
@@ -5057,97 +5503,108 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Spengler O. (1918), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Der Untergang des Abendlandes. Band 1: Gestalt und Wirklichkeit. Wien: Braumüller</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">;
 Spengler O. (1922), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Der Untergang des Abendlandes. Band 2: Welthistorische Perspektiven. München: C. H. Beck</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>’sche Verlagsbuchhandlung</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">;
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Степин В.С., Кузнецова Л.Ф. (1994), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Научная картина мира в культуре техногенной цивилизации.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> М.: ИФ РАН;
 Ивлев В.Ю., Ивлева М.Л., &amp; Иноземцев В.А. (2013), Кризис техногенной цивилизации и формирование новой экологической парадигмы общественного сознания // </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Известия Московского государственного технического университета МАМИ</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>, № 4, С. 50-57.</t>
     </r>
@@ -5178,26 +5635,29 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Poser H. (2016),</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Homo creator. Technik als philosophische Herausforderung.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Dordrecht: Springer VS.</t>
     </r>
@@ -5236,166 +5696,185 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Veblen T. (1921), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>The Engineers and the Price System (Vol. 31)</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">. Piscataway: Transaction Publishers;
 Burnham J. (1941), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>The Managerial Revolution: What is Really Happening in the World.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> New York: John Day Co.;
 Theodore R. (1969), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>The Making of a Counter Culture.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Reflections on Technocratic Society and Its Youthful Opposition. Berkeley: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">University of California Press;
 Galbraith J.K. (2007), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>The New Industrial State (Vol. 9)</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">. Princeton: Princeton University Press;
 Lenk H. (1982), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Zur Sozialphilosophie der Technik</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Frankfurt a. M.: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Suhrkamp</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> (Рус.пер.: Ленк Х. (1996), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Размышления о современной технике</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> / Пер. с нем. под ред. В.С. Степина; Ин-т "Открытое о-во". М.: Аспект-пресc)</t>
     </r>
@@ -5425,133 +5904,148 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Kuhn T. (1962), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>The Structure of Scientific Revolutions.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Chicago: University of Chicago Press;
 Rifkin J. (2011), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>The Third Industrial Revolution: How Lateral Power is Transforming Energy, the Economy, and the World.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> London: Palgrave Macmillan;
 Mokyr J. (1992), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>The Lever of Riches: Technological Creativity and Economic Progress.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Oxford: Oxford University Press;
 Perez C. (2003), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Technological Revolutions and Financial Capital. Cheltenham: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Edward Elgar Publishing;
 Bessen J. (2015), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Learning by Doing: the Real Connection Between Innovation, Wages, and Wealth. New Haven: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Yale University Press;
 Carlsson B., Stankiewicz R. (1991), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>"On the Nature, Function and Composition of Technological Systems"</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Journal of Evolutionary Economics</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>, № 2, pp. 93-118.</t>
     </r>
@@ -5586,115 +6080,128 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Vinge V. (1993), "The Coming Technological Singularity: How to Survive in the Post-Human Era". In: Latham R. (ed.), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Science Fiction Criticism: An Anthology of Essential Writings. London: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Bloomsbury</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>,</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> pp. 352-363.;
 Kurzweil R. (2005), "The Singularity is Near". In: Sandler R.L. (ed.), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Ethics and Emerging Technologies. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">London: Palgrave Macmillan, pp. 393-406.;
 Eden A.H., Steinhart E., Pearce D., Moor J.H. (2013), "Singularity Hypotheses: An Overview". In: Eden A.H., Steinhart E., Moor J.H., Søraker J.H. (eds.), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Singularity Hypotheses: A Scientific and Philosophical Assessment. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Berlin u. Heidelberg: Springer-Verlag, pp. 1-12.;
 Bostrom N. (2014),</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Superintelligence: Paths, Dangers, Strategies.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Oxford: Oxford University Press;
 Shanahan M. (2015), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>The Technological Singularity.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Cambridge, Massachusetts: MIT Press</t>
     </r>
@@ -5734,223 +6241,248 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Морозов Е. (2014), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Техноненависть: как интернет отучил нас думать.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> М.: Common Place;  
 Agar N. (2019), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>How to be Human in the Digital Economy.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Cambridge, Massachusetts: MIT Press;
 Postman, N. (2011), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Technopoly: The Surrender of Culture to Technology</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">. New York: Vintage;
 Haraway D. (2000), "A Cyborg Manifesto". In: Bell D., Kennedy B. (eds.), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>The Cybercultures Reader</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">. London: Routledge, pp. 291–324.;
 Харауэй Д. (2016), Антропоцен, Капиталоцен, Плантациоцен, Ктулуцен: создание племени // </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Художественный 
 Журнал</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">, №99. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
         <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>URL: http://moscowartmagazine.com/issue/39/article/771.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">;
 Харауэй Д. (2005), Манифест киборгов: наука, технология и социалистический феминизм 1980-х гг. // </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Гендерная теория и искусство. Антология: 1970—2000</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">. Пер. С англ.; Под ред. Л. М. Бредихиной, К. Дипуэлл. М.: «Российская политическая энциклопедия» (РОССПЭН);
 Gendron B. (1977), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Technology and the Human Condition</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">. New York: St.Martin's Press;
 Crovitz G. (2011), "Techno-Utopians Are Mugged by Reality". </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Wall Street Journal</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
         <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>URL: https://www.wsj.com/articles/SB10001424053111903918104576506393735675856</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">;
 Hughes J. (2003), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Rediscovering Utopia.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Gainesville: Betterhumans Archives;
 Adler R. B., Proctor II R. F. (2022), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Looking Out, Looking In</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>. Boston: Cengage Learning.</t>
     </r>
@@ -5982,80 +6514,89 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Sandel M.J. (2009), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>The Case Against Perfection</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">. Cambridge, Massachusetts: Harvard University Press;
 Kass L. (2003), "Ageless Bodies, Happy Souls: Biotechnology and the Pursuit of Perfection", </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>New Atlantis</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">, № 1, pp. 9–28.;
 Habermas J. (2003), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>The Future of Human Nature</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">. Cambridge, United Kingdom: Polity;
 Bostrom N. (2005), "In Defense of Posthuman Dignity", </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Bioethics</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>, Vol.19, № 3, pp. 202-214.</t>
     </r>
@@ -6090,80 +6631,89 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Waldby C., Wakeford N., Green N. (2006), "Feminist Technoscience: Intimacy, Embodiment and Abjection in Science Studies",</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Science &amp; Technology Studies</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">, № 2, pp. 3–5.; 
 Myers N. (2006), "Animating Mechanism: Animations and the Propagation of Affect in the Lively Arts of Protein Modelling", </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Science &amp; Technology Studies</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">, № 2, pp. 6–30.;
 Landström C. (2006), "A Gendered Economy of Pleasure: Representions of Cars and Humans in Motoring Magazines", </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Science &amp; Technology Studies</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">, № 2, pp. 26–48.;
 Roberts C. (2006), "‘What Can I Do to Help Myself?’ Somatic Individuality and Contemporary Hormonal Bodies", </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Science &amp; Technology Studies</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>, № 2, pp. 54–76.</t>
     </r>
@@ -6198,44 +6748,49 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Kanda T., Ishiguro H. (2012), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Human-Robot Interaction in Social Robotics</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>. Boca Raton: CRC Press;
 Bartneck C., Belpaeme T., Eyssel F., Kanda T., Keijsers M., Šabanović S. (2019), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>Human-Robot Interaction: an Introduction.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Cambridge, United Kingdom: Cambridge University Press</t>
     </r>
@@ -6270,71 +6825,79 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">More M., Vita-More N. (eds.) (2013), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>The Transhumanist Reader: Classical and Contemporary Essays on the Science, Technology, and Philosophy of the Human Future.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Hoboken: John Wiley &amp; Sons;
 More M. (2003),</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Principles of Extropy (Version 3.11): An Evolving Framework of Values and Standards for Continuously Improving the Human Condition</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">. Extropy Institute; 
 Tomasson B., Pellissier H. (2010), </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color/>
-        <sz val="11.0"/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">The Extropist Manifesto. The Extropist Examiner (blog). </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>URL</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color/>
-        <sz val="11.0"/>
         <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>: https://extropism.tumblr.com/post/393563122/the-extropist-manifesto</t>
     </r>
@@ -6348,28 +6911,53 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
-      <color/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18.0"/>
-      <color/>
+      <sz val="18"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color/>
+      <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="6">
@@ -6377,7 +6965,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -6405,7 +6993,13 @@
     </fill>
   </fills>
   <borders count="3">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -6419,59 +7013,64 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -6550,7 +7149,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect b="0" l="0" r="0" t="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -6574,19 +7173,19 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect b="0" l="0" r="0" t="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln cap="flat" cmpd="sng" w="6350" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln cap="flat" cmpd="sng" w="12700" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln cap="flat" cmpd="sng" w="19050" algn="ctr">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -6634,36 +7233,36 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect b="0" l="0" r="0" t="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N253"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="25" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="50.29"/>
-    <col customWidth="1" min="2" max="6" width="58.86"/>
-    <col customWidth="1" min="7" max="7" width="49.57"/>
-    <col customWidth="1" min="8" max="8" width="142.86"/>
-    <col customWidth="1" min="9" max="9" width="100.57"/>
-    <col customWidth="1" min="10" max="10" width="60.57"/>
-    <col customWidth="1" min="11" max="11" width="55.86"/>
-    <col customWidth="1" min="12" max="12" width="49.0"/>
-    <col customWidth="1" min="13" max="14" width="8.57"/>
+    <col min="1" max="1" width="50.26953125" customWidth="1"/>
+    <col min="2" max="6" width="58.81640625" customWidth="1"/>
+    <col min="7" max="7" width="49.54296875" customWidth="1"/>
+    <col min="8" max="8" width="142.81640625" customWidth="1"/>
+    <col min="9" max="9" width="100.54296875" customWidth="1"/>
+    <col min="10" max="10" width="60.54296875" customWidth="1"/>
+    <col min="11" max="11" width="55.81640625" customWidth="1"/>
+    <col min="12" max="12" width="49" customWidth="1"/>
+    <col min="13" max="14" width="8.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6703,7 +7302,7 @@
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -6735,7 +7334,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>20</v>
       </c>
@@ -6767,7 +7366,7 @@
       <c r="M3" s="4"/>
       <c r="N3" s="7"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:14" ht="145" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>28</v>
       </c>
@@ -6797,7 +7396,7 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>35</v>
       </c>
@@ -6827,7 +7426,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>42</v>
       </c>
@@ -6855,7 +7454,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>48</v>
       </c>
@@ -6887,7 +7486,7 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>56</v>
       </c>
@@ -6915,7 +7514,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>61</v>
       </c>
@@ -6943,7 +7542,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>67</v>
       </c>
@@ -6973,7 +7572,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>74</v>
       </c>
@@ -7005,7 +7604,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>82</v>
       </c>
@@ -7037,7 +7636,7 @@
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>88</v>
       </c>
@@ -7063,7 +7662,7 @@
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>93</v>
       </c>
@@ -7097,7 +7696,7 @@
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>102</v>
       </c>
@@ -7127,7 +7726,7 @@
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>109</v>
       </c>
@@ -7155,7 +7754,7 @@
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>115</v>
       </c>
@@ -7185,7 +7784,7 @@
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>122</v>
       </c>
@@ -7215,7 +7814,7 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>129</v>
       </c>
@@ -7247,7 +7846,7 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>137</v>
       </c>
@@ -7275,7 +7874,7 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>143</v>
       </c>
@@ -7307,7 +7906,7 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>151</v>
       </c>
@@ -7335,7 +7934,7 @@
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>157</v>
       </c>
@@ -7365,7 +7964,7 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>163</v>
       </c>
@@ -7393,7 +7992,7 @@
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>169</v>
       </c>
@@ -7425,7 +8024,7 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>177</v>
       </c>
@@ -7457,7 +8056,7 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:14" ht="145" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>185</v>
       </c>
@@ -7485,7 +8084,7 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>191</v>
       </c>
@@ -7515,7 +8114,7 @@
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>198</v>
       </c>
@@ -7545,7 +8144,7 @@
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>205</v>
       </c>
@@ -7575,7 +8174,7 @@
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>212</v>
       </c>
@@ -7605,7 +8204,7 @@
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>219</v>
       </c>
@@ -7639,7 +8238,7 @@
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>227</v>
       </c>
@@ -7669,7 +8268,7 @@
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>234</v>
       </c>
@@ -7703,7 +8302,7 @@
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>243</v>
       </c>
@@ -7733,7 +8332,7 @@
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:14" ht="145" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>250</v>
       </c>
@@ -7763,7 +8362,7 @@
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>257</v>
       </c>
@@ -7793,7 +8392,7 @@
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>263</v>
       </c>
@@ -7827,7 +8426,7 @@
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>272</v>
       </c>
@@ -7853,7 +8452,7 @@
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>277</v>
       </c>
@@ -7887,7 +8486,7 @@
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>286</v>
       </c>
@@ -7915,7 +8514,7 @@
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>292</v>
       </c>
@@ -7945,7 +8544,7 @@
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:14" ht="203" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>299</v>
       </c>
@@ -7977,7 +8576,7 @@
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>307</v>
       </c>
@@ -8005,7 +8604,7 @@
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>313</v>
       </c>
@@ -8033,7 +8632,7 @@
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:14" ht="145" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>319</v>
       </c>
@@ -8061,7 +8660,7 @@
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>325</v>
       </c>
@@ -8091,7 +8690,7 @@
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>332</v>
       </c>
@@ -8125,7 +8724,7 @@
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>340</v>
       </c>
@@ -8155,7 +8754,7 @@
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>44</v>
       </c>
@@ -8189,7 +8788,7 @@
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>355</v>
       </c>
@@ -8219,7 +8818,7 @@
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>362</v>
       </c>
@@ -8249,7 +8848,7 @@
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>369</v>
       </c>
@@ -8279,7 +8878,7 @@
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
     </row>
-    <row r="54" ht="13.5" customHeight="1">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -8295,7 +8894,7 @@
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
     </row>
-    <row r="55" ht="13.5" customHeight="1">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -8311,7 +8910,7 @@
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
     </row>
-    <row r="56" ht="13.5" customHeight="1">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -8327,7 +8926,7 @@
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
     </row>
-    <row r="57" ht="13.5" customHeight="1">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -8343,7 +8942,7 @@
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
     </row>
-    <row r="58" ht="13.5" customHeight="1">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -8359,7 +8958,7 @@
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
     </row>
-    <row r="59" ht="13.5" customHeight="1">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -8375,7 +8974,7 @@
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
     </row>
-    <row r="60" ht="13.5" customHeight="1">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -8391,7 +8990,7 @@
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
     </row>
-    <row r="61" ht="13.5" customHeight="1">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -8407,7 +9006,7 @@
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
     </row>
-    <row r="62" ht="13.5" customHeight="1">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -8423,7 +9022,7 @@
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
     </row>
-    <row r="63" ht="13.5" customHeight="1">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -8439,7 +9038,7 @@
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
     </row>
-    <row r="64" ht="13.5" customHeight="1">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -8455,7 +9054,7 @@
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
     </row>
-    <row r="65" ht="13.5" customHeight="1">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -8471,7 +9070,7 @@
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
     </row>
-    <row r="66" ht="13.5" customHeight="1">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -8487,7 +9086,7 @@
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
     </row>
-    <row r="67" ht="13.5" customHeight="1">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -8503,7 +9102,7 @@
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
     </row>
-    <row r="68" ht="13.5" customHeight="1">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -8519,7 +9118,7 @@
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
     </row>
-    <row r="69" ht="13.5" customHeight="1">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -8535,7 +9134,7 @@
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
     </row>
-    <row r="70" ht="13.5" customHeight="1">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -8551,7 +9150,7 @@
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
     </row>
-    <row r="71" ht="13.5" customHeight="1">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -8567,7 +9166,7 @@
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
     </row>
-    <row r="72" ht="13.5" customHeight="1">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -8583,7 +9182,7 @@
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>
     </row>
-    <row r="73" ht="13.5" customHeight="1">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -8599,7 +9198,7 @@
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
     </row>
-    <row r="74" ht="13.5" customHeight="1">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -8615,7 +9214,7 @@
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
     </row>
-    <row r="75" ht="13.5" customHeight="1">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -8631,7 +9230,7 @@
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
     </row>
-    <row r="76" ht="13.5" customHeight="1">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -8647,7 +9246,7 @@
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>
     </row>
-    <row r="77" ht="13.5" customHeight="1">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -8663,7 +9262,7 @@
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
     </row>
-    <row r="78" ht="13.5" customHeight="1">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -8679,7 +9278,7 @@
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
     </row>
-    <row r="79" ht="13.5" customHeight="1">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -8695,7 +9294,7 @@
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
     </row>
-    <row r="80" ht="13.5" customHeight="1">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -8711,7 +9310,7 @@
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
     </row>
-    <row r="81" ht="13.5" customHeight="1">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -8727,7 +9326,7 @@
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
     </row>
-    <row r="82" ht="13.5" customHeight="1">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -8743,7 +9342,7 @@
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
     </row>
-    <row r="83" ht="13.5" customHeight="1">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -8759,7 +9358,7 @@
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>
     </row>
-    <row r="84" ht="13.5" customHeight="1">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -8775,7 +9374,7 @@
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
     </row>
-    <row r="85" ht="13.5" customHeight="1">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -8791,7 +9390,7 @@
       <c r="M85" s="4"/>
       <c r="N85" s="4"/>
     </row>
-    <row r="86" ht="13.5" customHeight="1">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -8807,7 +9406,7 @@
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
     </row>
-    <row r="87" ht="13.5" customHeight="1">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -8823,7 +9422,7 @@
       <c r="M87" s="4"/>
       <c r="N87" s="4"/>
     </row>
-    <row r="88" ht="13.5" customHeight="1">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -8839,7 +9438,7 @@
       <c r="M88" s="4"/>
       <c r="N88" s="4"/>
     </row>
-    <row r="89" ht="13.5" customHeight="1">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -8855,7 +9454,7 @@
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
     </row>
-    <row r="90" ht="13.5" customHeight="1">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -8871,7 +9470,7 @@
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
     </row>
-    <row r="91" ht="13.5" customHeight="1">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -8887,7 +9486,7 @@
       <c r="M91" s="4"/>
       <c r="N91" s="4"/>
     </row>
-    <row r="92" ht="13.5" customHeight="1">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -8903,7 +9502,7 @@
       <c r="M92" s="4"/>
       <c r="N92" s="4"/>
     </row>
-    <row r="93" ht="13.5" customHeight="1">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -8919,7 +9518,7 @@
       <c r="M93" s="4"/>
       <c r="N93" s="4"/>
     </row>
-    <row r="94" ht="13.5" customHeight="1">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -8935,7 +9534,7 @@
       <c r="M94" s="4"/>
       <c r="N94" s="4"/>
     </row>
-    <row r="95" ht="13.5" customHeight="1">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -8951,7 +9550,7 @@
       <c r="M95" s="4"/>
       <c r="N95" s="4"/>
     </row>
-    <row r="96" ht="13.5" customHeight="1">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -8967,7 +9566,7 @@
       <c r="M96" s="4"/>
       <c r="N96" s="4"/>
     </row>
-    <row r="97" ht="13.5" customHeight="1">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -8983,7 +9582,7 @@
       <c r="M97" s="4"/>
       <c r="N97" s="4"/>
     </row>
-    <row r="98" ht="13.5" customHeight="1">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -8999,7 +9598,7 @@
       <c r="M98" s="4"/>
       <c r="N98" s="4"/>
     </row>
-    <row r="99" ht="13.5" customHeight="1">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -9015,7 +9614,7 @@
       <c r="M99" s="4"/>
       <c r="N99" s="4"/>
     </row>
-    <row r="100" ht="13.5" customHeight="1">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -9031,7 +9630,7 @@
       <c r="M100" s="4"/>
       <c r="N100" s="4"/>
     </row>
-    <row r="101" ht="13.5" customHeight="1">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -9047,7 +9646,7 @@
       <c r="M101" s="4"/>
       <c r="N101" s="4"/>
     </row>
-    <row r="102" ht="13.5" customHeight="1">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -9063,7 +9662,7 @@
       <c r="M102" s="4"/>
       <c r="N102" s="4"/>
     </row>
-    <row r="103" ht="13.5" customHeight="1">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -9079,7 +9678,7 @@
       <c r="M103" s="4"/>
       <c r="N103" s="4"/>
     </row>
-    <row r="104" ht="13.5" customHeight="1">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -9095,7 +9694,7 @@
       <c r="M104" s="4"/>
       <c r="N104" s="4"/>
     </row>
-    <row r="105" ht="13.5" customHeight="1">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -9111,7 +9710,7 @@
       <c r="M105" s="4"/>
       <c r="N105" s="4"/>
     </row>
-    <row r="106" ht="13.5" customHeight="1">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -9127,7 +9726,7 @@
       <c r="M106" s="4"/>
       <c r="N106" s="4"/>
     </row>
-    <row r="107" ht="13.5" customHeight="1">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -9143,7 +9742,7 @@
       <c r="M107" s="4"/>
       <c r="N107" s="4"/>
     </row>
-    <row r="108" ht="13.5" customHeight="1">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -9159,7 +9758,7 @@
       <c r="M108" s="4"/>
       <c r="N108" s="4"/>
     </row>
-    <row r="109" ht="13.5" customHeight="1">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -9175,7 +9774,7 @@
       <c r="M109" s="4"/>
       <c r="N109" s="4"/>
     </row>
-    <row r="110" ht="13.5" customHeight="1">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -9191,7 +9790,7 @@
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
     </row>
-    <row r="111" ht="13.5" customHeight="1">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -9207,7 +9806,7 @@
       <c r="M111" s="4"/>
       <c r="N111" s="4"/>
     </row>
-    <row r="112" ht="13.5" customHeight="1">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -9223,7 +9822,7 @@
       <c r="M112" s="4"/>
       <c r="N112" s="4"/>
     </row>
-    <row r="113" ht="13.5" customHeight="1">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -9239,7 +9838,7 @@
       <c r="M113" s="4"/>
       <c r="N113" s="4"/>
     </row>
-    <row r="114" ht="13.5" customHeight="1">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -9255,7 +9854,7 @@
       <c r="M114" s="4"/>
       <c r="N114" s="4"/>
     </row>
-    <row r="115" ht="13.5" customHeight="1">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -9271,7 +9870,7 @@
       <c r="M115" s="4"/>
       <c r="N115" s="4"/>
     </row>
-    <row r="116" ht="13.5" customHeight="1">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -9287,7 +9886,7 @@
       <c r="M116" s="4"/>
       <c r="N116" s="4"/>
     </row>
-    <row r="117" ht="13.5" customHeight="1">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -9303,7 +9902,7 @@
       <c r="M117" s="4"/>
       <c r="N117" s="4"/>
     </row>
-    <row r="118" ht="13.5" customHeight="1">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -9319,7 +9918,7 @@
       <c r="M118" s="4"/>
       <c r="N118" s="4"/>
     </row>
-    <row r="119" ht="13.5" customHeight="1">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -9335,7 +9934,7 @@
       <c r="M119" s="4"/>
       <c r="N119" s="4"/>
     </row>
-    <row r="120" ht="13.5" customHeight="1">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -9351,7 +9950,7 @@
       <c r="M120" s="4"/>
       <c r="N120" s="4"/>
     </row>
-    <row r="121" ht="13.5" customHeight="1">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -9367,7 +9966,7 @@
       <c r="M121" s="4"/>
       <c r="N121" s="4"/>
     </row>
-    <row r="122" ht="13.5" customHeight="1">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -9383,7 +9982,7 @@
       <c r="M122" s="4"/>
       <c r="N122" s="4"/>
     </row>
-    <row r="123" ht="13.5" customHeight="1">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -9399,7 +9998,7 @@
       <c r="M123" s="4"/>
       <c r="N123" s="4"/>
     </row>
-    <row r="124" ht="13.5" customHeight="1">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -9415,7 +10014,7 @@
       <c r="M124" s="4"/>
       <c r="N124" s="4"/>
     </row>
-    <row r="125" ht="13.5" customHeight="1">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -9431,7 +10030,7 @@
       <c r="M125" s="4"/>
       <c r="N125" s="4"/>
     </row>
-    <row r="126" ht="13.5" customHeight="1">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -9447,7 +10046,7 @@
       <c r="M126" s="4"/>
       <c r="N126" s="4"/>
     </row>
-    <row r="127" ht="13.5" customHeight="1">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -9463,7 +10062,7 @@
       <c r="M127" s="4"/>
       <c r="N127" s="4"/>
     </row>
-    <row r="128" ht="13.5" customHeight="1">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -9479,7 +10078,7 @@
       <c r="M128" s="4"/>
       <c r="N128" s="4"/>
     </row>
-    <row r="129" ht="13.5" customHeight="1">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -9495,7 +10094,7 @@
       <c r="M129" s="4"/>
       <c r="N129" s="4"/>
     </row>
-    <row r="130" ht="13.5" customHeight="1">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -9511,7 +10110,7 @@
       <c r="M130" s="4"/>
       <c r="N130" s="4"/>
     </row>
-    <row r="131" ht="13.5" customHeight="1">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -9527,7 +10126,7 @@
       <c r="M131" s="4"/>
       <c r="N131" s="4"/>
     </row>
-    <row r="132" ht="13.5" customHeight="1">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -9543,7 +10142,7 @@
       <c r="M132" s="4"/>
       <c r="N132" s="4"/>
     </row>
-    <row r="133" ht="13.5" customHeight="1">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -9559,7 +10158,7 @@
       <c r="M133" s="4"/>
       <c r="N133" s="4"/>
     </row>
-    <row r="134" ht="13.5" customHeight="1">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -9575,7 +10174,7 @@
       <c r="M134" s="4"/>
       <c r="N134" s="4"/>
     </row>
-    <row r="135" ht="13.5" customHeight="1">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -9591,7 +10190,7 @@
       <c r="M135" s="4"/>
       <c r="N135" s="4"/>
     </row>
-    <row r="136" ht="13.5" customHeight="1">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -9607,7 +10206,7 @@
       <c r="M136" s="4"/>
       <c r="N136" s="4"/>
     </row>
-    <row r="137" ht="13.5" customHeight="1">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -9623,7 +10222,7 @@
       <c r="M137" s="4"/>
       <c r="N137" s="4"/>
     </row>
-    <row r="138" ht="13.5" customHeight="1">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -9639,7 +10238,7 @@
       <c r="M138" s="4"/>
       <c r="N138" s="4"/>
     </row>
-    <row r="139" ht="13.5" customHeight="1">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -9655,7 +10254,7 @@
       <c r="M139" s="4"/>
       <c r="N139" s="4"/>
     </row>
-    <row r="140" ht="13.5" customHeight="1">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -9671,7 +10270,7 @@
       <c r="M140" s="4"/>
       <c r="N140" s="4"/>
     </row>
-    <row r="141" ht="13.5" customHeight="1">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -9687,7 +10286,7 @@
       <c r="M141" s="4"/>
       <c r="N141" s="4"/>
     </row>
-    <row r="142" ht="13.5" customHeight="1">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -9703,7 +10302,7 @@
       <c r="M142" s="4"/>
       <c r="N142" s="4"/>
     </row>
-    <row r="143" ht="13.5" customHeight="1">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -9719,7 +10318,7 @@
       <c r="M143" s="4"/>
       <c r="N143" s="4"/>
     </row>
-    <row r="144" ht="13.5" customHeight="1">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -9735,7 +10334,7 @@
       <c r="M144" s="4"/>
       <c r="N144" s="4"/>
     </row>
-    <row r="145" ht="13.5" customHeight="1">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -9751,7 +10350,7 @@
       <c r="M145" s="4"/>
       <c r="N145" s="4"/>
     </row>
-    <row r="146" ht="13.5" customHeight="1">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -9767,7 +10366,7 @@
       <c r="M146" s="4"/>
       <c r="N146" s="4"/>
     </row>
-    <row r="147" ht="13.5" customHeight="1">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -9783,7 +10382,7 @@
       <c r="M147" s="4"/>
       <c r="N147" s="4"/>
     </row>
-    <row r="148" ht="13.5" customHeight="1">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -9799,7 +10398,7 @@
       <c r="M148" s="4"/>
       <c r="N148" s="4"/>
     </row>
-    <row r="149" ht="13.5" customHeight="1">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -9815,7 +10414,7 @@
       <c r="M149" s="4"/>
       <c r="N149" s="4"/>
     </row>
-    <row r="150" ht="13.5" customHeight="1">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -9831,7 +10430,7 @@
       <c r="M150" s="4"/>
       <c r="N150" s="4"/>
     </row>
-    <row r="151" ht="13.5" customHeight="1">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -9847,7 +10446,7 @@
       <c r="M151" s="4"/>
       <c r="N151" s="4"/>
     </row>
-    <row r="152" ht="13.5" customHeight="1">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -9863,7 +10462,7 @@
       <c r="M152" s="4"/>
       <c r="N152" s="4"/>
     </row>
-    <row r="153" ht="13.5" customHeight="1">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -9879,7 +10478,7 @@
       <c r="M153" s="4"/>
       <c r="N153" s="4"/>
     </row>
-    <row r="154" ht="13.5" customHeight="1">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -9895,7 +10494,7 @@
       <c r="M154" s="4"/>
       <c r="N154" s="4"/>
     </row>
-    <row r="155" ht="13.5" customHeight="1">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -9911,7 +10510,7 @@
       <c r="M155" s="4"/>
       <c r="N155" s="4"/>
     </row>
-    <row r="156" ht="13.5" customHeight="1">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -9927,7 +10526,7 @@
       <c r="M156" s="4"/>
       <c r="N156" s="4"/>
     </row>
-    <row r="157" ht="13.5" customHeight="1">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -9943,7 +10542,7 @@
       <c r="M157" s="4"/>
       <c r="N157" s="4"/>
     </row>
-    <row r="158" ht="13.5" customHeight="1">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -9959,7 +10558,7 @@
       <c r="M158" s="4"/>
       <c r="N158" s="4"/>
     </row>
-    <row r="159" ht="13.5" customHeight="1">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -9975,7 +10574,7 @@
       <c r="M159" s="4"/>
       <c r="N159" s="4"/>
     </row>
-    <row r="160" ht="13.5" customHeight="1">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -9991,7 +10590,7 @@
       <c r="M160" s="4"/>
       <c r="N160" s="4"/>
     </row>
-    <row r="161" ht="13.5" customHeight="1">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -10007,7 +10606,7 @@
       <c r="M161" s="4"/>
       <c r="N161" s="4"/>
     </row>
-    <row r="162" ht="13.5" customHeight="1">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -10023,7 +10622,7 @@
       <c r="M162" s="4"/>
       <c r="N162" s="4"/>
     </row>
-    <row r="163" ht="13.5" customHeight="1">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -10039,7 +10638,7 @@
       <c r="M163" s="4"/>
       <c r="N163" s="4"/>
     </row>
-    <row r="164" ht="13.5" customHeight="1">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -10055,7 +10654,7 @@
       <c r="M164" s="4"/>
       <c r="N164" s="4"/>
     </row>
-    <row r="165" ht="13.5" customHeight="1">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -10071,7 +10670,7 @@
       <c r="M165" s="4"/>
       <c r="N165" s="4"/>
     </row>
-    <row r="166" ht="13.5" customHeight="1">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -10087,7 +10686,7 @@
       <c r="M166" s="4"/>
       <c r="N166" s="4"/>
     </row>
-    <row r="167" ht="13.5" customHeight="1">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -10103,7 +10702,7 @@
       <c r="M167" s="4"/>
       <c r="N167" s="4"/>
     </row>
-    <row r="168" ht="13.5" customHeight="1">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -10119,7 +10718,7 @@
       <c r="M168" s="4"/>
       <c r="N168" s="4"/>
     </row>
-    <row r="169" ht="13.5" customHeight="1">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -10135,7 +10734,7 @@
       <c r="M169" s="4"/>
       <c r="N169" s="4"/>
     </row>
-    <row r="170" ht="13.5" customHeight="1">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -10151,7 +10750,7 @@
       <c r="M170" s="4"/>
       <c r="N170" s="4"/>
     </row>
-    <row r="171" ht="13.5" customHeight="1">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -10167,7 +10766,7 @@
       <c r="M171" s="4"/>
       <c r="N171" s="4"/>
     </row>
-    <row r="172" ht="13.5" customHeight="1">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -10183,7 +10782,7 @@
       <c r="M172" s="4"/>
       <c r="N172" s="4"/>
     </row>
-    <row r="173" ht="13.5" customHeight="1">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -10199,7 +10798,7 @@
       <c r="M173" s="4"/>
       <c r="N173" s="4"/>
     </row>
-    <row r="174" ht="13.5" customHeight="1">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -10215,7 +10814,7 @@
       <c r="M174" s="4"/>
       <c r="N174" s="4"/>
     </row>
-    <row r="175" ht="13.5" customHeight="1">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -10231,7 +10830,7 @@
       <c r="M175" s="4"/>
       <c r="N175" s="4"/>
     </row>
-    <row r="176" ht="13.5" customHeight="1">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -10247,7 +10846,7 @@
       <c r="M176" s="4"/>
       <c r="N176" s="4"/>
     </row>
-    <row r="177" ht="13.5" customHeight="1">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -10263,7 +10862,7 @@
       <c r="M177" s="4"/>
       <c r="N177" s="4"/>
     </row>
-    <row r="178" ht="13.5" customHeight="1">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -10279,7 +10878,7 @@
       <c r="M178" s="4"/>
       <c r="N178" s="4"/>
     </row>
-    <row r="179" ht="13.5" customHeight="1">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -10295,7 +10894,7 @@
       <c r="M179" s="4"/>
       <c r="N179" s="4"/>
     </row>
-    <row r="180" ht="13.5" customHeight="1">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -10311,7 +10910,7 @@
       <c r="M180" s="4"/>
       <c r="N180" s="4"/>
     </row>
-    <row r="181" ht="13.5" customHeight="1">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -10327,7 +10926,7 @@
       <c r="M181" s="4"/>
       <c r="N181" s="4"/>
     </row>
-    <row r="182" ht="13.5" customHeight="1">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -10343,7 +10942,7 @@
       <c r="M182" s="4"/>
       <c r="N182" s="4"/>
     </row>
-    <row r="183" ht="13.5" customHeight="1">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -10359,7 +10958,7 @@
       <c r="M183" s="4"/>
       <c r="N183" s="4"/>
     </row>
-    <row r="184" ht="13.5" customHeight="1">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -10375,7 +10974,7 @@
       <c r="M184" s="4"/>
       <c r="N184" s="4"/>
     </row>
-    <row r="185" ht="13.5" customHeight="1">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -10391,7 +10990,7 @@
       <c r="M185" s="4"/>
       <c r="N185" s="4"/>
     </row>
-    <row r="186" ht="13.5" customHeight="1">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -10407,7 +11006,7 @@
       <c r="M186" s="4"/>
       <c r="N186" s="4"/>
     </row>
-    <row r="187" ht="13.5" customHeight="1">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -10423,7 +11022,7 @@
       <c r="M187" s="4"/>
       <c r="N187" s="4"/>
     </row>
-    <row r="188" ht="13.5" customHeight="1">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -10439,7 +11038,7 @@
       <c r="M188" s="4"/>
       <c r="N188" s="4"/>
     </row>
-    <row r="189" ht="13.5" customHeight="1">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -10455,7 +11054,7 @@
       <c r="M189" s="4"/>
       <c r="N189" s="4"/>
     </row>
-    <row r="190" ht="13.5" customHeight="1">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -10471,7 +11070,7 @@
       <c r="M190" s="4"/>
       <c r="N190" s="4"/>
     </row>
-    <row r="191" ht="13.5" customHeight="1">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -10487,7 +11086,7 @@
       <c r="M191" s="4"/>
       <c r="N191" s="4"/>
     </row>
-    <row r="192" ht="13.5" customHeight="1">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -10503,7 +11102,7 @@
       <c r="M192" s="4"/>
       <c r="N192" s="4"/>
     </row>
-    <row r="193" ht="13.5" customHeight="1">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -10519,7 +11118,7 @@
       <c r="M193" s="4"/>
       <c r="N193" s="4"/>
     </row>
-    <row r="194" ht="13.5" customHeight="1">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -10535,7 +11134,7 @@
       <c r="M194" s="4"/>
       <c r="N194" s="4"/>
     </row>
-    <row r="195" ht="13.5" customHeight="1">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -10551,7 +11150,7 @@
       <c r="M195" s="4"/>
       <c r="N195" s="4"/>
     </row>
-    <row r="196" ht="13.5" customHeight="1">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -10567,7 +11166,7 @@
       <c r="M196" s="4"/>
       <c r="N196" s="4"/>
     </row>
-    <row r="197" ht="13.5" customHeight="1">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -10583,7 +11182,7 @@
       <c r="M197" s="4"/>
       <c r="N197" s="4"/>
     </row>
-    <row r="198" ht="13.5" customHeight="1">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -10599,7 +11198,7 @@
       <c r="M198" s="4"/>
       <c r="N198" s="4"/>
     </row>
-    <row r="199" ht="13.5" customHeight="1">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -10615,7 +11214,7 @@
       <c r="M199" s="4"/>
       <c r="N199" s="4"/>
     </row>
-    <row r="200" ht="13.5" customHeight="1">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -10631,7 +11230,7 @@
       <c r="M200" s="4"/>
       <c r="N200" s="4"/>
     </row>
-    <row r="201" ht="13.5" customHeight="1">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -10647,7 +11246,7 @@
       <c r="M201" s="4"/>
       <c r="N201" s="4"/>
     </row>
-    <row r="202" ht="13.5" customHeight="1">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -10663,7 +11262,7 @@
       <c r="M202" s="4"/>
       <c r="N202" s="4"/>
     </row>
-    <row r="203" ht="13.5" customHeight="1">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -10679,7 +11278,7 @@
       <c r="M203" s="4"/>
       <c r="N203" s="4"/>
     </row>
-    <row r="204" ht="13.5" customHeight="1">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -10695,7 +11294,7 @@
       <c r="M204" s="4"/>
       <c r="N204" s="4"/>
     </row>
-    <row r="205" ht="13.5" customHeight="1">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -10711,7 +11310,7 @@
       <c r="M205" s="4"/>
       <c r="N205" s="4"/>
     </row>
-    <row r="206" ht="13.5" customHeight="1">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -10727,7 +11326,7 @@
       <c r="M206" s="4"/>
       <c r="N206" s="4"/>
     </row>
-    <row r="207" ht="13.5" customHeight="1">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -10743,7 +11342,7 @@
       <c r="M207" s="4"/>
       <c r="N207" s="4"/>
     </row>
-    <row r="208" ht="13.5" customHeight="1">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -10759,7 +11358,7 @@
       <c r="M208" s="4"/>
       <c r="N208" s="4"/>
     </row>
-    <row r="209" ht="13.5" customHeight="1">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -10775,7 +11374,7 @@
       <c r="M209" s="4"/>
       <c r="N209" s="4"/>
     </row>
-    <row r="210" ht="13.5" customHeight="1">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -10791,7 +11390,7 @@
       <c r="M210" s="4"/>
       <c r="N210" s="4"/>
     </row>
-    <row r="211" ht="13.5" customHeight="1">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -10807,7 +11406,7 @@
       <c r="M211" s="4"/>
       <c r="N211" s="4"/>
     </row>
-    <row r="212" ht="13.5" customHeight="1">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -10823,7 +11422,7 @@
       <c r="M212" s="4"/>
       <c r="N212" s="4"/>
     </row>
-    <row r="213" ht="13.5" customHeight="1">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -10839,7 +11438,7 @@
       <c r="M213" s="4"/>
       <c r="N213" s="4"/>
     </row>
-    <row r="214" ht="13.5" customHeight="1">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -10855,7 +11454,7 @@
       <c r="M214" s="4"/>
       <c r="N214" s="4"/>
     </row>
-    <row r="215" ht="13.5" customHeight="1">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -10871,7 +11470,7 @@
       <c r="M215" s="4"/>
       <c r="N215" s="4"/>
     </row>
-    <row r="216" ht="13.5" customHeight="1">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -10887,7 +11486,7 @@
       <c r="M216" s="4"/>
       <c r="N216" s="4"/>
     </row>
-    <row r="217" ht="13.5" customHeight="1">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -10903,7 +11502,7 @@
       <c r="M217" s="4"/>
       <c r="N217" s="4"/>
     </row>
-    <row r="218" ht="13.5" customHeight="1">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -10919,7 +11518,7 @@
       <c r="M218" s="4"/>
       <c r="N218" s="4"/>
     </row>
-    <row r="219" ht="13.5" customHeight="1">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -10935,7 +11534,7 @@
       <c r="M219" s="4"/>
       <c r="N219" s="4"/>
     </row>
-    <row r="220" ht="13.5" customHeight="1">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -10951,7 +11550,7 @@
       <c r="M220" s="4"/>
       <c r="N220" s="4"/>
     </row>
-    <row r="221" ht="13.5" customHeight="1">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -10967,7 +11566,7 @@
       <c r="M221" s="4"/>
       <c r="N221" s="4"/>
     </row>
-    <row r="222" ht="13.5" customHeight="1">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -10983,7 +11582,7 @@
       <c r="M222" s="4"/>
       <c r="N222" s="4"/>
     </row>
-    <row r="223" ht="13.5" customHeight="1">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -10999,7 +11598,7 @@
       <c r="M223" s="4"/>
       <c r="N223" s="4"/>
     </row>
-    <row r="224" ht="13.5" customHeight="1">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
@@ -11015,7 +11614,7 @@
       <c r="M224" s="4"/>
       <c r="N224" s="4"/>
     </row>
-    <row r="225" ht="13.5" customHeight="1">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -11031,7 +11630,7 @@
       <c r="M225" s="4"/>
       <c r="N225" s="4"/>
     </row>
-    <row r="226" ht="13.5" customHeight="1">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -11047,7 +11646,7 @@
       <c r="M226" s="4"/>
       <c r="N226" s="4"/>
     </row>
-    <row r="227" ht="13.5" customHeight="1">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -11063,7 +11662,7 @@
       <c r="M227" s="4"/>
       <c r="N227" s="4"/>
     </row>
-    <row r="228" ht="13.5" customHeight="1">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
@@ -11079,7 +11678,7 @@
       <c r="M228" s="4"/>
       <c r="N228" s="4"/>
     </row>
-    <row r="229" ht="13.5" customHeight="1">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
@@ -11095,7 +11694,7 @@
       <c r="M229" s="4"/>
       <c r="N229" s="4"/>
     </row>
-    <row r="230" ht="13.5" customHeight="1">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -11111,7 +11710,7 @@
       <c r="M230" s="4"/>
       <c r="N230" s="4"/>
     </row>
-    <row r="231" ht="13.5" customHeight="1">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
@@ -11127,7 +11726,7 @@
       <c r="M231" s="4"/>
       <c r="N231" s="4"/>
     </row>
-    <row r="232" ht="13.5" customHeight="1">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
@@ -11143,7 +11742,7 @@
       <c r="M232" s="4"/>
       <c r="N232" s="4"/>
     </row>
-    <row r="233" ht="13.5" customHeight="1">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
@@ -11159,7 +11758,7 @@
       <c r="M233" s="4"/>
       <c r="N233" s="4"/>
     </row>
-    <row r="234" ht="13.5" customHeight="1">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
@@ -11175,7 +11774,7 @@
       <c r="M234" s="4"/>
       <c r="N234" s="4"/>
     </row>
-    <row r="235" ht="13.5" customHeight="1">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
@@ -11191,7 +11790,7 @@
       <c r="M235" s="4"/>
       <c r="N235" s="4"/>
     </row>
-    <row r="236" ht="13.5" customHeight="1">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
@@ -11207,7 +11806,7 @@
       <c r="M236" s="4"/>
       <c r="N236" s="4"/>
     </row>
-    <row r="237" ht="13.5" customHeight="1">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -11223,7 +11822,7 @@
       <c r="M237" s="4"/>
       <c r="N237" s="4"/>
     </row>
-    <row r="238" ht="13.5" customHeight="1">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
@@ -11239,7 +11838,7 @@
       <c r="M238" s="4"/>
       <c r="N238" s="4"/>
     </row>
-    <row r="239" ht="13.5" customHeight="1">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -11255,7 +11854,7 @@
       <c r="M239" s="4"/>
       <c r="N239" s="4"/>
     </row>
-    <row r="240" ht="13.5" customHeight="1">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
@@ -11271,7 +11870,7 @@
       <c r="M240" s="4"/>
       <c r="N240" s="4"/>
     </row>
-    <row r="241" ht="13.5" customHeight="1">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
@@ -11287,7 +11886,7 @@
       <c r="M241" s="4"/>
       <c r="N241" s="4"/>
     </row>
-    <row r="242" ht="13.5" customHeight="1">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
@@ -11303,7 +11902,7 @@
       <c r="M242" s="4"/>
       <c r="N242" s="4"/>
     </row>
-    <row r="243" ht="13.5" customHeight="1">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -11319,7 +11918,7 @@
       <c r="M243" s="4"/>
       <c r="N243" s="4"/>
     </row>
-    <row r="244" ht="13.5" customHeight="1">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -11335,7 +11934,7 @@
       <c r="M244" s="4"/>
       <c r="N244" s="4"/>
     </row>
-    <row r="245" ht="13.5" customHeight="1">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -11351,7 +11950,7 @@
       <c r="M245" s="4"/>
       <c r="N245" s="4"/>
     </row>
-    <row r="246" ht="13.5" customHeight="1">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -11367,7 +11966,7 @@
       <c r="M246" s="4"/>
       <c r="N246" s="4"/>
     </row>
-    <row r="247" ht="13.5" customHeight="1">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -11383,7 +11982,7 @@
       <c r="M247" s="4"/>
       <c r="N247" s="4"/>
     </row>
-    <row r="248" ht="13.5" customHeight="1">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
@@ -11399,7 +11998,7 @@
       <c r="M248" s="4"/>
       <c r="N248" s="4"/>
     </row>
-    <row r="249" ht="13.5" customHeight="1">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -11415,7 +12014,7 @@
       <c r="M249" s="4"/>
       <c r="N249" s="4"/>
     </row>
-    <row r="250" ht="13.5" customHeight="1">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -11431,7 +12030,7 @@
       <c r="M250" s="4"/>
       <c r="N250" s="4"/>
     </row>
-    <row r="251" ht="13.5" customHeight="1">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
@@ -11447,7 +12046,7 @@
       <c r="M251" s="4"/>
       <c r="N251" s="4"/>
     </row>
-    <row r="252" ht="13.5" customHeight="1">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -11463,7 +12062,7 @@
       <c r="M252" s="4"/>
       <c r="N252" s="4"/>
     </row>
-    <row r="253" ht="13.5" customHeight="1">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
@@ -11480,9 +12079,7 @@
       <c r="N253" s="4"/>
     </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1599,7 +1599,8 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve"> Berlin: Julius Springer. S. 36); «Die Weiterschöpfung durch Technik bedeutet: Erfüllung eines unverrückbaren Planes, die „Erfindung“» (Dessauer F. (1927), </t>
+      <t xml:space="preserve"> Berlin: Julius Springer. S. 36);
+«Die Weiterschöpfung durch Technik bedeutet: Erfüllung eines unverrückbaren Planes, die „Erfindung“» (Dessauer F. (1927), </t>
     </r>
     <r>
       <rPr>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="487">
   <si>
     <t>Понятие_rus</t>
   </si>
@@ -87,7 +87,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Bain A. (1873), </t>
+      <t>Bain A. (1873), _</t>
     </r>
     <r>
       <rPr>
@@ -96,16 +96,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Mind and Body: The Theories of Their Relation</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">. New York: D. Appleton and Company;
-James W. (1890), </t>
+      <t>Mind and Body: The Theories of Their Relation_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>. New York: D. Appleton and Company;
+James W. (1890), _</t>
     </r>
     <r>
       <rPr>
@@ -114,16 +114,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The Principles of Psychology, in Two Volumes</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">. New York: Henry Holt and Company;
-McCulloch W.S., Pitts W. (1943), "A Logical Calculus of the Ideas Immanent in Nervous Activity", </t>
+      <t>The Principles of Psychology, in Two Volumes_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>. New York: Henry Holt and Company;
+McCulloch W.S., Pitts W. (1943), "A Logical Calculus of the Ideas Immanent in Nervous Activity", _</t>
     </r>
     <r>
       <rPr>
@@ -132,16 +132,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The Bulletin of Mathematical Biophysics</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">, № 5, pp. 115-133.;
-Hopfield J.J. (1982), "Neural Networks and Physical Systems with Emergent Collective Computational Abilities", </t>
+      <t>The Bulletin of Mathematical Biophysics_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>, № 5, pp. 115-133.;
+Hopfield J.J. (1982), "Neural Networks and Physical Systems with Emergent Collective Computational Abilities", _</t>
     </r>
     <r>
       <rPr>
@@ -150,7 +150,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Proceedings of the National Academy of Sciences</t>
+      <t>Proceedings of the National Academy of Sciences_</t>
     </r>
     <r>
       <rPr>
@@ -176,7 +176,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">«For every act of memory, every exercise of bodily aptitude, every habit, recollection, train of ideas, there is a specific grouping, or co-ordination, of sensations and movements, by virtue of specific growths in the cell junctions» (Bain A. (1873), </t>
+      <t>«For every act of memory, every exercise of bodily aptitude, every habit, recollection, train of ideas, there is a specific grouping, or co-ordination, of sensations and movements, by virtue of specific growths in the cell junctions» (Bain A. (1873), _</t>
     </r>
     <r>
       <rPr>
@@ -185,16 +185,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Mind and Body: The Theories of Their Relation</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">. New York: D. Appleton and Company, P. 91);
-«Let us then assume as the basis of all our subsequent reasoning this law: When two elementary brain-processes have been active together or in immediate succession, one of them, on reoccurring, tends to propagate its excitement into the other. But, as a matter of fact, every elementary process has found itself at different times excited in conjunction with many other processes, and this by unavoidable outward causes. Which of these others it shall awaken now be comes a problem. Shall b or c be aroused next by then present a? We must make a further postulate, based, however, on the fact of tension in nerve-tissue, and on the fact of summation of excitements, each incomplete or latent in itself, into an open resultant. The process b, rather than c, will awake, if in addition to the vibrating tract a some other tract d is in a state of sub-excitement, and formerly was excited with b alone and not with a. In short, we may say: The amount of activity at any given point in the brain-cortex is the sum of the tendencies of all other points to discharge into it, such tendencies being proportionate (1) to the number of times the excitement of each other point may have accompanied that of the point in question; (2) to the intensity of such excite ments; and (3) to the absence of any rival point functionally disconnected with the first point, into which the discharges might be diverted» (James W. (1890), </t>
+      <t>Mind and Body: The Theories of Their Relation_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>. New York: D. Appleton and Company, P. 91);
+«Let us then assume as the basis of all our subsequent reasoning this law: When two elementary brain-processes have been active together or in immediate succession, one of them, on reoccurring, tends to propagate its excitement into the other. But, as a matter of fact, every elementary process has found itself at different times excited in conjunction with many other processes, and this by unavoidable outward causes. Which of these others it shall awaken now be comes a problem. Shall b or c be aroused next by then present a? We must make a further postulate, based, however, on the fact of tension in nerve-tissue, and on the fact of summation of excitements, each incomplete or latent in itself, into an open resultant. The process b, rather than c, will awake, if in addition to the vibrating tract a some other tract d is in a state of sub-excitement, and formerly was excited with b alone and not with a. In short, we may say: The amount of activity at any given point in the brain-cortex is the sum of the tendencies of all other points to discharge into it, such tendencies being proportionate (1) to the number of times the excitement of each other point may have accompanied that of the point in question;(2) to the intensity of such excite ments;and (3) to the absence of any rival point functionally disconnected with the first point, into which the discharges might be diverted» (James W. (1890), _</t>
     </r>
     <r>
       <rPr>
@@ -203,16 +203,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The Principles of Psychology</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">, in Two Volumes. New York: Henry Holt and Company. P. 566-567);
-«Theoretical neurophysiology rests on certain cardinal assumptions. The nervous system is a net of neurons, each having a soma and an axon. Their adjunctions, or synapses, are always between the axon of one neuron and the soma of another. At any instant a neuron has some threshold, which excitation must exceed to initiate an impulse. This, except for the fact  and the time of its occurence, is determined by the neuron, not by the  excitation. From the point of excitation the impulse is propagated to all parts of  the neuron» (McCulloch W.S., Pitts W. (1943), "A Logical Calculus of the Ideas Immanent in Nervous Activity". </t>
+      <t>The Principles of Psychology_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>, in Two Volumes. New York: Henry Holt and Company. P. 566-567);
+«Theoretical neurophysiology rests on certain cardinal assumptions. The nervous system is a net of neurons, each having a soma and an axon. Their adjunctions, or synapses, are always between the axon of one neuron and the soma of another. At any instant a neuron has some threshold, which excitation must exceed to initiate an impulse. This, except for the fact  and the time of its occurence, is determined by the neuron, not by the  excitation. From the point of excitation the impulse is propagated to all parts of  the neuron» (McCulloch W.S., Pitts W. (1943), "A Logical Calculus of the Ideas Immanent in Nervous Activity". _</t>
     </r>
     <r>
       <rPr>
@@ -221,16 +221,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The Bulletin of Mathematical Biophysics</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">, № 5. P. 115);
-«Given the dynamical electrochemical properties of neurons and their interconnections (synapses), we readily understand schemes that use a few neurons to obtain elementary useful biological behavior (1-3). Our understanding of such simple circuits in electronics allows us to plan larger and more complex circuits which are essential to large computers. Because evolution has no such plan, it becomes relevant to ask whether the ability of large collections of neurons to perform "computational" tasks may in part be a spontaneous collective consequence of having a large number of interacting simple neurons. In physical systems made from a large number of simple elements, interactions among large numbers of elementary components yield collective phenomena such as the stable magnetic orientations and domains in a magnetic system or the vortex patterns in fluid flow. Do analogous collective phenomena in a system of simple interacting neurons have useful "computational" correlates? For example, are the stability of memories, the construction of categories of generalization, or time-sequential memory also emergent properties and collective in origin? Thispaper examines a new modeling of this old and fundamental question (4-8) and shows that important computational properties spontaneously arise» (Hopfield J.J. (1982), "Neural Networks and Physical Systems with Emergent Collective Computational Abilities". </t>
+      <t>The Bulletin of Mathematical Biophysics_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>, № 5. P. 115);
+«Given the dynamical electrochemical properties of neurons and their interconnections (synapses), we readily understand schemes that use a few neurons to obtain elementary useful biological behavior (1-3). Our understanding of such simple circuits in electronics allows us to plan larger and more complex circuits which are essential to large computers. Because evolution has no such plan, it becomes relevant to ask whether the ability of large collections of neurons to perform "computational" tasks may in part be a spontaneous collective consequence of having a large number of interacting simple neurons. In physical systems made from a large number of simple elements, interactions among large numbers of elementary components yield collective phenomena such as the stable magnetic orientations and domains in a magnetic system or the vortex patterns in fluid flow. Do analogous collective phenomena in a system of simple interacting neurons have useful "computational" correlates? For example, are the stability of memories, the construction of categories of generalization, or time-sequential memory also emergent properties and collective in origin? Thispaper examines a new modeling of this old and fundamental question (4-8) and shows that important computational properties spontaneously arise» (Hopfield J.J. (1982), "Neural Networks and Physical Systems with Emergent Collective Computational Abilities". _</t>
     </r>
     <r>
       <rPr>
@@ -239,7 +239,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Proceedings of the National Academy of Sciences</t>
+      <t>Proceedings of the National Academy of Sciences_</t>
     </r>
     <r>
       <rPr>
@@ -294,7 +294,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Изобретая будущее. Посткапитализм и мир без труда</t>
+      <t>Изобретая будущее. _Посткапитализм и мир без труда_</t>
     </r>
     <r>
       <rPr>
@@ -312,7 +312,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t> The End of Work: The Decline of the Global Labor Force and the Dawn of the Post-Market Era</t>
+      <t> _The End of Work: The Decline of the Global Labor Force and the Dawn of the Post-Market Era_</t>
     </r>
     <r>
       <rPr>
@@ -338,8 +338,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve"> IEEE Industrial Electronics Magazine, № 2, pp. 42-43.;
-Benanav A. (2020), </t>
+      <t xml:space="preserve"> _</t>
     </r>
     <r>
       <rPr>
@@ -348,16 +347,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Automation and the Future of Work</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">. New York: Verso Books;
-Horst R., Zdziebko J. (2021), "Mechanization and Automation in the Production Processes of Polska Grupa Górnicza SA", </t>
+      <t>IEEE Industrial Electronics Magazine_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>, № 2, pp. 42-43.;
+Benanav A. (2020), _</t>
     </r>
     <r>
       <rPr>
@@ -366,7 +365,25 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Mining–Informatics, Automation and Electrical Engineering</t>
+      <t>Automation and the Future of Work_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>. New York: Verso Books;
+Horst R., Zdziebko J. (2021), "Mechanization and Automation in the Production Processes of Polska Grupa Górnicza SA", _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Mining–Informatics, Automation and Electrical Engineering_</t>
     </r>
     <r>
       <rPr>
@@ -382,10 +399,58 @@
 URL: https://research.susu.ru/</t>
   </si>
   <si>
-    <t>Полная автоматизация — это утопическое требование, которое нацелено на максимально возможное сокращение необходимого труда. (Срничек Н., Уильямс А. Изобретая будущее. М., 2019. С. 66)</t>
-  </si>
-  <si>
-    <t>Полная автоматизация. Наше первое требование — это полностью автоматизированная экономика. Используя последние достижения технологии, такая экономика будет стремиться к освобождению человечества от изнурительного труда и одновременно производить все больше благ. Без полной автоматизации посткапиталистическое будущее должно по необходимости выбирать между изобилием ценой свободы (повторение трудоцентризма Советской России) и свободой за счет изобилия, как это изображалось в примитивных антиутопиях. При автоматизации, наоборот, машины могут производить все больше необходимых товаров и услуг, одновременно освобождая от усилий по их производству человечество. Именно поэтому мы настаиваем на том, что нужно изо всех сил способствовать ускорению тенденций, направленных на автоматизацию и замену человеческого труда, и определить это как политический проект левого движения. Это проект, который берет уже существующие в капитализме тенденции и стремится вывести их за приемлемые для капиталистических общественных отношений параметры. Капитализм долгое время был синонимом быстрых технологических изменений: движимые стремлением к накоплению, средства производства постоянно меняются. (Срничек Н., Уильямс А. С. Изобретая будущее. М., 2019. С.158.)</t>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Полная автоматизация — это утопическое требование, которое нацелено на максимально возможное сокращение необходимого труда. (Срничек Н., Уильямс А. _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Изобретая будущее</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>_. М., 2019. С. 66)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Полная автоматизация. Наше первое требование — это полностью автоматизированная экономика. Используя последние достижения технологии, такая экономика будет стремиться к освобождению человечества от изнурительного труда и одновременно производить все больше благ. Без полной автоматизации посткапиталистическое будущее должно по необходимости выбирать между изобилием ценой свободы (повторение трудоцентризма Советской России) и свободой за счет изобилия, как это изображалось в примитивных антиутопиях. При автоматизации, наоборот, машины могут производить все больше необходимых товаров и услуг, одновременно освобождая от усилий по их производству человечество. Именно поэтому мы настаиваем на том, что нужно изо всех сил способствовать ускорению тенденций, направленных на автоматизацию и замену человеческого труда, и определить это как политический проект левого движения. Это проект, который берет уже существующие в капитализме тенденции и стремится вывести их за приемлемые для капиталистических общественных отношений параметры. Капитализм долгое время был синонимом быстрых технологических изменений: движимые стремлением к накоплению, средства производства постоянно меняются. (Срничек Н., Уильямс А. С. _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Изобретая будущее</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>_. М., 2019. С.158.)</t>
+    </r>
   </si>
   <si>
     <t>Актор-сеть</t>
@@ -406,14 +471,140 @@
 Шерон Джексон (Sharon Jackson)</t>
   </si>
   <si>
-    <t>Вахштайн В. (2005), Возвращение материального. «Пространства», «сети», «потоки» в акторно-сетевой теории // Социологическое обозрение, №1, С. 94-115.;
-Callon M. (1984), "Some Elements of a Sociology of Translation: Domestication of the Scallops and the Fishermen of St. Brieuc Bay", The Sociological Review, № 1, pp. 196-233.;
-Callon M. (1986), "The Sociology of an Actor-Network: The Case of the Electric Vehicle". In: Callon M., Law J., Rip A. (eds.), Mapping the Dynamics of Science and Technology: Sociology of Science in the Real World. Houndmills, England: The Macmillan Press, pp. 19-34.;
-Jackson S. (2015), "Toward an Analytical and Methodological Understanding of Actor-Network Theory", Journal of Arts and Humanities, №2, pp. 29-44.;
-Latour B. (1987), Science in Action: How to Follow Scientists and Engineers through Society. Cambridge, Massachusetts: Harvard University Press;
-Latour B. (1999), "On Recalling ANT". In: Law J., Hassard, J. (eds.) Actor Network Theory and After. Oxford: Blackwell, pp. 15-25.;
-Law J. (1992), "Notes on the Theory of the Actor-Network: Ordering, Strategy and Heterogeneity", Systems Practice, № 5, pp. 379-393;
-Латур, Б. Пересборка социального: введение в акторно-сетевую теорию / пер. с англ. И. Полонской; под ред. С. Гавриленко; М.: Изд. дом Высшей школы экономики, 2020.</t>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Вахштайн В. (2005), Возвращение материального. «Пространства», «сети», «потоки» в акторно-сетевой теории // Социологическое обозрение, №1, С. 94-115.;
+Callon M. (1984), "Some Elements of a Sociology of Translation: Domestication of the Scallops and the Fishermen of St. Brieuc Bay", _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>The Sociological Review</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>_, № 1, pp. 196-233.;
+Callon M. (1986), "The Sociology of an Actor-Network: The Case of the Electric Vehicle". In: Callon M., Law J., Rip A. (eds.), _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Mapping the Dynamics of Science and Technology: Sociology of Science in the Real World</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>_. Houndmills, England: The Macmillan Press, pp. 19-34.;
+Jackson S. (2015), "Toward an Analytical and Methodological Understanding of Actor-Network Theory", _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Journal of Arts and Humanities</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>_, №2, pp. 29-44.;
+Latour B. (1987), _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Science in Action: How to Follow Scientists and Engineers through Society</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>_. Cambridge, Massachusetts: Harvard University Press;
+Latour B. (1999), "On Recalling ANT". In: Law J., Hassard, J. (eds.) _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Actor Network Theory and After_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>. Oxford: Blackwell, pp. 15-25.;
+Law J. (1992), "Notes on the Theory of the Actor-Network: Ordering, Strategy and Heterogeneity", _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Systems Practice</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>_, № 5, pp. 379-393;
+Латур, Б. _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Пересборка социального: введение в акторно-сетевую теорию</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>_ / пер. с англ. И. Полонской;под ред. С. Гавриленко;М.: Изд. дом Высшей школы экономики, 2020.</t>
+    </r>
   </si>
   <si>
     <t>Философско-литературный журнал "Логос";
@@ -430,7 +621,31 @@
 Технонаука (Technoscience)</t>
   </si>
   <si>
-    <t>"Акторы-сети — это не акторы, как простые действующие лица, и не сети, как классические совокупности неких связанных компонентов — это некие объединения, гибриды действующих лиц (не всегда представленных живым существом), связей (социальных, химических, биологических, физических), приборов, концепций, идей, обстоятельств (исторических, топологических, климатических, экономических) и, что самое важное, самих действий, которые эти гибриды предпринимают." - Бруно Латур и криминалистика: почему важно идти за акторами. Syg.ma [Электронный ресурс]. URL: https://syg.ma/@mstkazakovvvv/bruno-latur-i-kriminalistika-pochiemu-vazhno-idti-za-aktorami (Дата обращения: 23.03.2024)</t>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>"Акторы-сети — это не акторы, как простые действующие лица, и не сети, как классические совокупности неких связанных компонентов — это некие объединения, гибриды действующих лиц (не всегда представленных живым существом), связей (социальных, химических, биологических, физических), приборов, концепций, идей, обстоятельств (исторических, топологических, климатических, экономических) и, что самое важное, самих действий, которые эти гибриды предпринимают." - _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Бруно Латур и криминалистика: почему важно идти за акторами_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>. Syg.ma [Электронный ресурс]. URL: https://syg.ma/@mstkazakovvvv/bruno-latur-i-kriminalistika-pochiemu-vazhno-idti-za-aktorami (Дата обращения: 23.03.2024)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -448,27 +663,27 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve"> Пересборка социального: введение в акторно-сетевую теорию</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve"> / Пер. с англ. И. Полонской; под ред. С. Гавриленко; М.: Изд. дом Высшей школы экономики);
+      <t xml:space="preserve"> _Пересборка социального: введение в акторно-сетевую теорию_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve"> / Пер. с англ. И. Полонской;под ред. С. Гавриленко;М.: Изд. дом Высшей школы экономики);
 "Actor-network - The structure and operation of an actor-world: an interrelated set of entities that have been successfully translated (see translation) or enrolled (see enrolment) by an actor that is thereby able to borrow their force and speak or act on their behalf or with their support. The entities may be seen as forming a network of simplified points (see also black box) whose simplicity is maintained by virtue of the fact that they are juxtaposed with others. The actor who speaks or acts with the support of these others also forms a part of the network (see translation centre). Hence the term actor-network, for the actor is both the network and a point therein. It should also be noted that each point entity that is enrolled in an actor-network depends on its capacity to translate other actor-network. A simplified entity that is nevertheless also a network in its own right.
 Actor-world - The world of entities generated by an actor-network. Emphasises that, for any given actor, there is nothing beyond the network which it has created, which constitutes it, and of which it forms a part.
 Black box - A way of talking of the simplified points that are linked together in an actor-network, A simplified entity that is nevertheless also a network in its own right.
 Enrolment - The definition and distribution of roles by an actor-world, It should be noted that roles are not fixed and pre-established, and neither are they necessarily successfully imposed upon others.
-Translation - The methods by which an actor enrols others. These methods involve: (a) the definition of roles, their distribution, and the delineation of a scenario; (b) the strategies in which an actor-world renders itself indispensable to others by creating a geography of obligatory passage points; and (c) the displacement imposed upon others as they are forced to follow the itinerary that has been imposed. The elementary form of translation is that of interessement. A common form of translation in science is that of problematisation.
+Translation - The methods by which an actor enrols others. These methods involve: (a) the definition of roles, their distribution, and the delineation of a scenario;(b) the strategies in which an actor-world renders itself indispensable to others by creating a geography of obligatory passage points;and (c) the displacement imposed upon others as they are forced to follow the itinerary that has been imposed. The elementary form of translation is that of interessement. A common form of translation in science is that of problematisation.
 Translation centres - Locations at which translation strategies are evolved, attempts are made to control the diverse elements that make up the actor-network (q.v.), and calculations about the return from different strategies are made . Locations which are able to turn themselves into spokesmen for other entities and, in some sense, profit from this asymmetry."
 "Актор-сеть - структура и функционирование актор-мира (q.v.): взаимосвязанный набор сущностей, которые были успешно переведены (см. перевод) или распределены (см. распределение) актором, который таким образом может заимствовать их силу и говорить или действовать от их имени или при их поддержке. Сущности можно рассматривать как сеть упрощенных точек (см. также "черный ящик"), простота которых сохраняется благодаря тому, что они сопоставляются с другими. Актор, который говорит или действует при поддержке этих других, также является частью сети (см. центр перевода). Отсюда и термин "актор-сеть", ведь актор - это и сеть, и ее точка. Следует также отметить, что каждая точечная сущность, включенная в актор-сеть, зависит от ее способности переводить других акторов-сети (q.v.). Упрощенная сущность, которая, тем не менее, также является сетью сама по себе.
 Актор-мир - мир сущностей, порождаемый актор-сетью (q.v.). Подчеркивает, что для любого данного актора не существует ничего за пределами сети, которую он создал, которая его образует и частью которой он является.
 Черный ящик - способ говорить об упрощенных точках, связанных вместе в актор-сети, упрощенная сущность, которая, тем не менее, также является сетью сама по себе.
 Распределение - определение и распределение ролей в мире-актере (q.v.), Следует отметить, что роли не являются фиксированными и заранее установленными, и они не обязательно успешно навязываются другим.
-Перевод - методы, с помощью которых актор распределяет других акторов. Эти методы включают: (а) определение ролей, их распределение и очерчивание сценария; (б) стратегии, в которых актор-мир делает себя незаменимым для других, создавая географию обязательных точек перехода; и (в) перемещение, навязываемое другим, когда они вынуждены следовать навязанному маршруту. Элементарной формой перевода является перевод по интересам. Распространенной формой перевода в науке является проблематизация.
-Центры перевода - места, в которых разрабатываются стратегии перевода, предпринимаются попытки контролировать различные элементы, составляющие актор-сеть, и производятся расчеты эффективности различных стратегий. Места, способные превращать себя в выразителей интересов других субъектов и в некотором смысле извлекать выгоду из этой асимметрии." (Callon M., Law J., Rip A. (eds.) (1986), </t>
+Перевод - методы, с помощью которых актор распределяет других акторов. Эти методы включают: (а) определение ролей, их распределение и очерчивание сценария;(б) стратегии, в которых актор-мир делает себя незаменимым для других, создавая географию обязательных точек перехода;и (в) перемещение, навязываемое другим, когда они вынуждены следовать навязанному маршруту. Элементарной формой перевода является перевод по интересам. Распространенной формой перевода в науке является проблематизация.
+Центры перевода - места, в которых разрабатываются стратегии перевода, предпринимаются попытки контролировать различные элементы, составляющие актор-сеть, и производятся расчеты эффективности различных стратегий. Места, способные превращать себя в выразителей интересов других субъектов и в некотором смысле извлекать выгоду из этой асимметрии." (Callon M., Law J., Rip A. (eds.) (1986), _</t>
     </r>
     <r>
       <rPr>
@@ -477,7 +692,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Mapping the Dynamics of Science and Technology: Sociology of Science in the Real World.</t>
+      <t>Mapping the Dynamics of Science and Technology: Sociology of Science in the Real World_.</t>
     </r>
     <r>
       <rPr>
@@ -521,7 +736,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Hardensett H. (1932), </t>
+      <t>Hardensett H. (1932), _</t>
     </r>
     <r>
       <rPr>
@@ -530,7 +745,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Der kapitalistische und der technische Mensch. Ein charakterologischer Beitrag zur Klärung des Verhältnisses von Technik und Wirtschaft.</t>
+      <t>Der kapitalistische und der technische Mensch. Ein charakterologischer Beitrag zur Klärung des Verhältnisses von Technik und Wirtschaft_.</t>
     </r>
     <r>
       <rPr>
@@ -539,7 +754,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> München und Berlin: Verlag von R. Oldenbourg;
-Schröter M. (1934), </t>
+Schröter M. (1934), _</t>
     </r>
     <r>
       <rPr>
@@ -548,7 +763,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Philosophie der Technik.</t>
+      <t>Philosophie der Technik_.</t>
     </r>
     <r>
       <rPr>
@@ -557,7 +772,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> München: De Gruyter;
-Heidegger M. (1954), Die Frage nach der Technik, in: Martin Heidegger, </t>
+Heidegger M. (1954), Die Frage nach der Technik, in: Martin Heidegger, _</t>
     </r>
     <r>
       <rPr>
@@ -566,7 +781,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Vorträge und Aufsätze</t>
+      <t>Vorträge und Aufsätze_</t>
     </r>
     <r>
       <rPr>
@@ -583,16 +798,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve"> Время и бытие (статьи и выступления) </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">/ Пер. с нем. и комм. В.В. Бибихина. М.: Республика. С. 221-238);
-Ihde D. (2010), </t>
+      <t xml:space="preserve"> _Время и бытие (статьи и выступления)_ </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>/ Пер. с нем. и комм. В.В. Бибихина. М.: Республика. С. 221-238);
+Ihde D. (2010), _</t>
     </r>
     <r>
       <rPr>
@@ -601,7 +816,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Heidegger’s Technologies: Postphenomenological Perspectives.</t>
+      <t>Heidegger’s Technologies: Postphenomenological Perspectives_.</t>
     </r>
     <r>
       <rPr>
@@ -610,7 +825,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> New York: Fordham University Press;
-Latour B. (1992), </t>
+Latour B. (1992), _</t>
     </r>
     <r>
       <rPr>
@@ -619,7 +834,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Where Are the Missing Masses? The Sociology of a Few Mundane Artifacts.</t>
+      <t>Where Are the Missing Masses? The Sociology of a Few Mundane Artifacts_.</t>
     </r>
     <r>
       <rPr>
@@ -644,7 +859,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">, Cambridge, Massachusetts: MIT Press, pp. 225–259 (рус. пер.: Латур Б. (2006): </t>
+      <t>, Cambridge, Massachusetts: MIT Press, pp. 225–259 (рус. пер.: Латур Б. (2006): _</t>
     </r>
     <r>
       <rPr>
@@ -653,7 +868,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Где недостающая масса? Социология одной двери</t>
+      <t>Где недостающая масса? Социология одной двери_</t>
     </r>
     <r>
       <rPr>
@@ -673,7 +888,7 @@
   </si>
   <si>
     <t>Технические артефакты – это общее понятие, которое охватывает технические объекты и процессы. К ним относятся инструменты и заводское оборудование, а также продукция технической деятельности. Технические объекты и процессы бывают самыми разными – как механическими и био-артефактами, так и гибридами, а также нематериальными артефактами вроде компьютерных программ (software), отличающихся от своих материальных носителей (hardware).
-Технические артефакты понимаются как средства, которые кажутся нам подходящими для достижения цели. Еще Аристотель, различая две онтологически различные области сущего – природное (physei onta) и искусственное (apo technes onta), – обратил внимание на их телеологичность, поскольку они происходят «ради чего». Целью в случае артефактов является не сам технический объект (иначе он стал бы самоцелью, как в области природного сущего); напротив, она задается «определением и рассуждением», т.е. исходит из ценностей и приписывания значений, которые лежат в основе нормативной составляющей технического действия.
+Технические артефакты понимаются как средства, которые кажутся нам подходящими для достижения цели. Еще Аристотель, различая две онтологически различные области сущего – природное (physei onta) и искусственное (apo technes onta), – обратил внимание на их телеологичность, поскольку они происходят «ради чего». Целью в случае артефактов является не сам технический объект (иначе он стал бы самоцелью, как в области природного сущего);напротив, она задается «определением и рассуждением», т.е. исходит из ценностей и приписывания значений, которые лежат в основе нормативной составляющей технического действия.
 Поскольку под артефактами появляются произведенные их создателями с конкретной целью объекты и процессы, они включают в себя, согласно определению Х. Позера, 1) каузальность (поскольку подчинены естественнонаучной рациональности), 2) креативность (поскольку являются творениями интеллекта) и 3) финальность (поскольку ценностно-нормативно нагружены). Соответственно, артефакты могут рассматриваться как система с подсистемами, встроенными в социальную метасистему. 
 В акторно-сетевой теории (АСТ) Б. Латура материальный технический артефакт понимается 1) как институт и 2) как проект. Объекты рассматриваются как обладающие способностью к действию (агентностью), но при этом агентность не является свойством объекта или даже человека. Она зависит от включенности объекта в систему отношений с людьми и другими объектами. Это превращает объект в АСТ в «социотехническую сборку», где люди и технологии связаны многочисленными отношениями друг с другом.</t>
   </si>
@@ -684,7 +899,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">«Итак, как делается [каждая вещь], такова она и есть по [своей] природе, и, какова она по [своей] природе, так и делается, если что-либо не помешает. Делается же ради чего-нибудь, следовательно, и по природе существует ради этого. Например, если бы дом был из числа природных предметов, он возникал бы так же, как теперь [создается] искусством; а если бы природные [тела] возникали не только благодаря природе, но и с помощью искусства, они возникали бы так, как им присуще быть по природе. Следовательно, одно [возникает] ради другого. Вообще же искусство в одних случаях завершает то, что природа не в состоянии произвести, в других же подражает ей. Если, таким образом, [вещи], созданные искусством, возникают ради чего-нибудь, то, очевидно, что и существующие по природе, ибо и в созданных искусством и в существующих по природе [вещах] отношение последующего к предшествующему одинаково» (Аристотель, </t>
+      <t>«Итак, как делается [каждая вещь], такова она и есть по [своей] природе, и, какова она по [своей] природе, так и делается, если что-либо не помешает. Делается же ради чего-нибудь, следовательно, и по природе существует ради этого. Например, если бы дом был из числа природных предметов, он возникал бы так же, как теперь [создается] искусством;а если бы природные [тела] возникали не только благодаря природе, но и с помощью искусства, они возникали бы так, как им присуще быть по природе. Следовательно, одно [возникает] ради другого. Вообще же искусство в одних случаях завершает то, что природа не в состоянии произвести, в других же подражает ей. Если, таким образом, [вещи], созданные искусством, возникают ради чего-нибудь, то, очевидно, что и существующие по природе, ибо и в созданных искусством и в существующих по природе [вещах] отношение последующего к предшествующему одинаково» (Аристотель, _</t>
     </r>
     <r>
       <rPr>
@@ -693,17 +908,17 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Физика</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">, 199 a 9–19);
+      <t>Физика_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>, 199 a 9–19);
 «Чтобы определить предмет и объект философии техники, необходимо различать техническое действие, техническое знание и техническое сознание. Результатом технического действия является артефакт, то есть техника в виде технического устройства. Результат технического знания есть техническое действие, направленное на создание артефакта: предписание техническому действию и описание артефакта. Результат технического сознания — выявление места и роли техники, технической деятельности и технического знания в истории и современной культуре.
-Если техника как техническое устройство (артефакт) – это объект технологии; артефакт плюс техническое действие — объект технической науки (техническое знание описывает технический объект — артефакт — и предписывает техническое действие по его созданию), то техника, техническая деятельность и техническое знание, взятые вместе как феномен культуры, являются объектом философии техники» (Горохов В.Г., Розин В.М. (1998), </t>
+Если техника как техническое устройство (артефакт) – это объект технологии;артефакт плюс техническое действие — объект технической науки (техническое знание описывает технический объект — артефакт — и предписывает техническое действие по его созданию), то техника, техническая деятельность и техническое знание, взятые вместе как феномен культуры, являются объектом философии техники» (Горохов В.Г., Розин В.М. (1998), _</t>
     </r>
     <r>
       <rPr>
@@ -712,16 +927,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Введение в философию техники. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">М.: ИНФРА-М. С. 8);
-«Bei dem technischen Idealtypus kann Zweck des Wirkenden und Zweck des Werkes nicht verschieden sein... Beim kapitalistischen Menschen dagegen divirgiert der Sinn des Wirkenden und der Sinn des Werks, des Sachwerks. Denn das Werk des kap. Menschen ist die Dividende und die Prämie, das Werk des technischen Menschen dagegen die Maschine und das Bauwerk» (Hardensett H. (1932), </t>
+      <t xml:space="preserve">Введение в философию техники_. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>М.: ИНФРА-М. С. 8);
+«Bei dem technischen Idealtypus kann Zweck des Wirkenden und Zweck des Werkes nicht verschieden sein... Beim kapitalistischen Menschen dagegen divirgiert der Sinn des Wirkenden und der Sinn des Werks, des Sachwerks. Denn das Werk des kap. Menschen ist die Dividende und die Prämie, das Werk des technischen Menschen dagegen die Maschine und das Bauwerk» (Hardensett H. (1932), _</t>
     </r>
     <r>
       <rPr>
@@ -730,7 +945,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Der kapitalistische und der technische Mensch.</t>
+      <t>Der kapitalistische und der technische Mensch_.</t>
     </r>
     <r>
       <rPr>
@@ -739,7 +954,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> München und Berlin: Verlag von R. Oldenbourg. S. 74);
-«…Kreativität, Finalität ebenso wie Kausalität und die physische Seite der Funktion sind geradeso wie Intentionalität und Verwirklichung Prozesskategorien, die zugleich durch den Bezug auf objekthafte Artefakte ihren Inhalt finden. Darüber hinaus zeigten sich Abhängigkeiten: Werte bestimmen Zwecke und liegen der Intentionalität zugrunde. Zwecke wiederum fragen nach Mitteln, die sowohl eine Funktion sichern als auch der Ganzheitsanforderung genügen. Übergreifend werden Modalkategorien herangezogen: Kreativ werden Möglichkeiten ersonnen, gar Möglichkeiten von Möglichkeiten, die im Prozess der Verwirklichung als Artefakt Gestalt annehmen» (Poser H. (2016), </t>
+«…Kreativität, Finalität ebenso wie Kausalität und die physische Seite der Funktion sind geradeso wie Intentionalität und Verwirklichung Prozesskategorien, die zugleich durch den Bezug auf objekthafte Artefakte ihren Inhalt finden. Darüber hinaus zeigten sich Abhängigkeiten: Werte bestimmen Zwecke und liegen der Intentionalität zugrunde. Zwecke wiederum fragen nach Mitteln, die sowohl eine Funktion sichern als auch der Ganzheitsanforderung genügen. Übergreifend werden Modalkategorien herangezogen: Kreativ werden Möglichkeiten ersonnen, gar Möglichkeiten von Möglichkeiten, die im Prozess der Verwirklichung als Artefakt Gestalt annehmen» (Poser H. (2016), _</t>
     </r>
     <r>
       <rPr>
@@ -748,7 +963,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Homo creator: Technik als philosophische Herausforderung.</t>
+      <t>Homo creator: Technik als philosophische Herausforderung_.</t>
     </r>
     <r>
       <rPr>
@@ -757,7 +972,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> Dodrecht: Springer VS. S. 91);
-The only way to follow engineers at work is not to look for extra- or intrasomatic delegation, but only at their work of re-inscription. The beauty of artifacts is that they take on themselves the contradictory wishes or needs of humans and non-humans. (Latour B. (1992). «Where Are the Missing Masses? The Sociology of a few mundane artifacts». In: W. Bijker, J. Law (eds). </t>
+The only way to follow engineers at work is not to look for extra- or intrasomatic delegation, but only at their work of re-inscription. The beauty of artifacts is that they take on themselves the contradictory wishes or needs of humans and non-humans. (Latour B. (1992). «Where Are the Missing Masses? The Sociology of a few mundane artifacts». In: W. Bijker, J. Law (eds). _</t>
     </r>
     <r>
       <rPr>
@@ -766,7 +981,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Shaping Technology/Building Society: Studies in Sociotechnical Change.</t>
+      <t>Shaping Technology/Building Society: Studies in Sociotechnical Change_.</t>
     </r>
     <r>
       <rPr>
@@ -775,7 +990,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> Cambridge, Mass.: MIT Press. P. 247);
-No artifact is idiot-proof because any artifact is only a portion of a program of action and of the fight necessary to win against many antiprograms (Latour B. (1992). «Where Are the Missing Masses? The Sociology of a few mundane artifacts». In: W. Bijker, J. Law (eds). </t>
+No artifact is idiot-proof because any artifact is only a portion of a program of action and of the fight necessary to win against many antiprograms (Latour B. (1992). «Where Are the Missing Masses? The Sociology of a few mundane artifacts». In: W. Bijker, J. Law (eds). _</t>
     </r>
     <r>
       <rPr>
@@ -784,7 +999,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Shaping Technology/Building Society: Studies in Sociotechnical Change.</t>
+      <t>Shaping Technology/Building Society: Studies in Sociotechnical Change_.</t>
     </r>
     <r>
       <rPr>
@@ -817,11 +1032,103 @@
 Никлас Бустрём (Niklas Boström, Nick Bostrom)</t>
   </si>
   <si>
-    <t>Sandel M.J. (2009), The Case against Perfection. Cambridge, Massachusetts: Harvard University Press;
-Kass L. (2003), "Ageless Bodies, Happy Souls: Biotechnology and the Pursuit of Perfection", New Atlantis, № 1, pp. 9–28.;
-Habermas J. (2003), The Future of Human Nature. Cambridge, United Kingdom: Polity;
-Bostrom N. (2005), "In Defense of Posthuman Dignity", Bioethics, № 3, pp. 202-214;
-Roache, R., Clarke, S. (2009) "Bioconservatism, bioliberalism, and the wisdom of reflecting on repugnance", Monash Bioethics Review, №28(1), pp.1-21.</t>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Sandel M.J. (2009), _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>The Case against Perfection</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>_. Cambridge, Massachusetts: Harvard University Press;
+Kass L. (2003), "Ageless Bodies, Happy Souls: Biotechnology and the Pursuit of Perfection", _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>New Atlanti</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>s_, № 1, pp. 9–28.;
+Habermas J. (2003), _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>The Future of Human Nature</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>_. Cambridge, United Kingdom: Polity;
+Bostrom N. (2005), "In Defense of Posthuman Dignity", _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Bioethics</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>_, № 3, pp. 202-214;
+Roache, R., Clarke, S. (2009) "Bioconservatism, bioliberalism, and the wisdom of reflecting on repugnance", _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Monash Bioethics Review</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>_, №28(1), pp. 1-21.</t>
+    </r>
   </si>
   <si>
     <t>Institute for Ethics and Emerging Technologies (IEET).
@@ -837,7 +1144,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">"There are bioconservatives, who argue against transhumanism for practical, moral, or aesthetic reasons. There are also posthumanists, who look forward to a world in which humans are replaced or eliminated by subsequent artificial intelligence. The debate over whether such posthumans might be ‘alive’ is similar in structure to the artificial life discussion ... Bioconservatives also argue against this view. Among the topics in these debates are whether a particular technology counts as therapy or enhancement, whether the risks of alteration outweigh the benefits, whether certain goals of transhumanism are even possible, and which alterations will affect the moral or ontological status of the people that receive them". (Mariscal, C. "Life" (2021) // </t>
+      <t>"There are bioconservatives, who argue against transhumanism for practical, moral, or aesthetic reasons. There are also posthumanists, who look forward to a world in which humans are replaced or eliminated by subsequent artificial intelligence. The debate over whether such posthumans might be ‘alive’ is similar in structure to the artificial life discussion ... Bioconservatives also argue against this view. Among the topics in these debates are whether a particular technology counts as therapy or enhancement, whether the risks of alteration outweigh the benefits, whether certain goals of transhumanism are even possible, and which alterations will affect the moral or ontological status of the people that receive them". (Mariscal, C. "Life" (2021) // _</t>
     </r>
     <r>
       <rPr>
@@ -854,8 +1161,8 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve"> (Winter 2021 Edition), Edward N. Zalta (ed.), https://plato.stanford.edu/archives/win2021/entries/life/ (assessed April 7, 2024));
-"To generalize: no biological agent used for purposes of self-perfection will be entirely safe. This is good conservative medical sense: anything powerful enough to enhance system A is likely to be powerful enough to harm system B, the body being a highly complex yet integrated whole in which one intervenes partially only at one’s peril". (Kass L. (2003), "Ageless Bodies, Happy Souls: Biotechnology and the Pursuit of Perfection". </t>
+      <t xml:space="preserve"> (Winter 2021 Edition)_, Edward N. Zalta (ed.), https://plato.stanford.edu/archives/win2021/entries/life/ (assessed April 7, 2024));
+"To generalize: no biological agent used for purposes of self-perfection will be entirely safe. This is good conservative medical sense: anything powerful enough to enhance system A is likely to be powerful enough to harm system B, the body being a highly complex yet integrated whole in which one intervenes partially only at one’s peril". (Kass L. (2003), "Ageless Bodies, Happy Souls: Biotechnology and the Pursuit of Perfection". _</t>
     </r>
     <r>
       <rPr>
@@ -864,7 +1171,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>New Atlantis</t>
+      <t>New Atlantis_,</t>
     </r>
     <r>
       <rPr>
@@ -873,7 +1180,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> (1). Pp. 9-28);
-"In opposition to this transhumanist view stands a bioconservative camp that argues against the use of technology to modify human nature. Prominent bioconservative writers include Leon Kass, Francis Fukuyama, George Annas, Wesley Smith, Jeremy Rifkin, and Bill McKibben. One of the central concerns of the bioconservatives is that human enhancement technologies might be ‘dehumanizing’. The worry, which has been variously expressed, is that these technologies might undermine our human dignity or inadvertently erode something that is deeply valuable about being human but that is difficult to put into words or to factor into a cost-benefit analysis. In some cases (for example, Leon Kass) the unease seems to derive from religious or crypto-religious sentiments, whereas for others (for example, Francis Fukuyama) it stems from secular grounds. The best approach, these bioconservatives argue, is to implement global bans on swathes of promising human enhancement technologies to forestall a slide down a slippery slope towards an ultimately debased, posthuman state". (Bostrom, N. (2005), "In Defense of Posthuman Dignity". </t>
+"In opposition to this transhumanist view stands a bioconservative camp that argues against the use of technology to modify human nature. Prominent bioconservative writers include Leon Kass, Francis Fukuyama, George Annas, Wesley Smith, Jeremy Rifkin, and Bill McKibben. One of the central concerns of the bioconservatives is that human enhancement technologies might be ‘dehumanizing’. The worry, which has been variously expressed, is that these technologies might undermine our human dignity or inadvertently erode something that is deeply valuable about being human but that is difficult to put into words or to factor into a cost-benefit analysis. In some cases (for example, Leon Kass) the unease seems to derive from religious or crypto-religious sentiments, whereas for others (for example, Francis Fukuyama) it stems from secular grounds. The best approach, these bioconservatives argue, is to implement global bans on swathes of promising human enhancement technologies to forestall a slide down a slippery slope towards an ultimately debased, posthuman state". (Bostrom, N. (2005), "In Defense of Posthuman Dignity". _</t>
     </r>
     <r>
       <rPr>
@@ -882,16 +1189,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Bioethics</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">. 19 (3));
-"How can it be that to bioconservatives almost any anticipated downside, predicted perhaps on the basis of the shakiest poppsychological theory, so readily achieves that status of deep philosophical insight and knockdown objection against the transhumanist project? Perhaps a part of the answer can be found in the different attitudes that transhumanists and bioconservatives have towards posthuman dignity. Bioconservatives tend to deny posthuman dignity and view posthumanity as a threat to human dignity. They are therefore tempted to look for ways to denigrate interventions that are thought to be pointing in the direction of more radical future modifications that may eventually lead to the emergence of those detestable posthumans. Bostrom, N. (2005). "In Defense of Posthuman Dignity". </t>
+      <t>Bioethics_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>. 19 (3));
+"How can it be that to bioconservatives almost any anticipated downside, predicted perhaps on the basis of the shakiest poppsychological theory, so readily achieves that status of deep philosophical insight and knockdown objection against the transhumanist project? Perhaps a part of the answer can be found in the different attitudes that transhumanists and bioconservatives have towards posthuman dignity. Bioconservatives tend to deny posthuman dignity and view posthumanity as a threat to human dignity. They are therefore tempted to look for ways to denigrate interventions that are thought to be pointing in the direction of more radical future modifications that may eventually lead to the emergence of those detestable posthumans. Bostrom, N. (2005). "In Defense of Posthuman Dignity". _</t>
     </r>
     <r>
       <rPr>
@@ -900,16 +1207,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Bioethics</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">. 19 (3);
-We consider the current debate between bioconservatives and their chief opponents — whom we dub bioliberals — about the moral acceptability of human enhancement and the policy implications of moral debates about enhancement. We argue that this debate has reached an impasse, largely because bioconservatives hold that we should honour intuitions about the special value of being human, even if we cannot identify reasons to ground those intuitions. We argue that although intuitions are often a reliable guide to belief and action, there are circumstances in which they are not reliable. Intuitions — including intuitions about enhancement — are subject to various cognitive biases rendering them unreliable in some circumstances. We argue that many bioconservative intuitions about enhancement are examples of such unreliable intuitions. Given this, it is unrealistic of bioconservatives to expect others to rely on their unexamined intuitions. Furthermore, refusing to engage in debates about the reasons and values that underpin their intuitions about enhancement will have the effect of making bioconservative voices less relevant in policy debates about enhancement than they would otherwise be". (Roache, R., Clarke, S. (2009), "Bioconservatism, bioliberalism, and the wisdom of reflecting on repugnance", </t>
+      <t>Bioethics_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>. 19 (3);
+We consider the current debate between bioconservatives and their chief opponents — whom we dub bioliberals — about the moral acceptability of human enhancement and the policy implications of moral debates about enhancement. We argue that this debate has reached an impasse, largely because bioconservatives hold that we should honour intuitions about the special value of being human, even if we cannot identify reasons to ground those intuitions. We argue that although intuitions are often a reliable guide to belief and action, there are circumstances in which they are not reliable. Intuitions — including intuitions about enhancement — are subject to various cognitive biases rendering them unreliable in some circumstances. We argue that many bioconservative intuitions about enhancement are examples of such unreliable intuitions. Given this, it is unrealistic of bioconservatives to expect others to rely on their unexamined intuitions. Furthermore, refusing to engage in debates about the reasons and values that underpin their intuitions about enhancement will have the effect of making bioconservative voices less relevant in policy debates about enhancement than they would otherwise be". (Roache, R., Clarke, S. (2009), "Bioconservatism, bioliberalism, and the wisdom of reflecting on repugnance", _</t>
     </r>
     <r>
       <rPr>
@@ -918,16 +1225,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Monash Bioethics Review</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">. №28(1). Pp.1-21);
-"Hurlbut has also made a statement that encapsulates the bioconservative fallacy as I see it. He asserts that he is “not convinced” that life extension would be good for us – and leaves it at that. He thus insinuates, without quite saying, that we should adopt the precautionary principle with regard to life extension and avoid developing it because we are uncertain whether it will benefit mankind". (de Grey, A. (2013), "Curate’s Egg of Anti-Anti-Aging Bioethics". In: More M., Vita-More N. (eds.), </t>
+      <t>Monash Bioethics Review_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>. №28(1). Pp.1-21);
+"Hurlbut has also made a statement that encapsulates the bioconservative fallacy as I see it. He asserts that he is “not convinced” that life extension would be good for us – and leaves it at that. He thus insinuates, without quite saying, that we should adopt the precautionary principle with regard to life extension and avoid developing it because we are uncertain whether it will benefit mankind". (de Grey, A. (2013), "Curate’s Egg of Anti-Anti-Aging Bioethics". In: More M., Vita-More N. (eds.), _</t>
     </r>
     <r>
       <rPr>
@@ -936,16 +1243,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The transhumanist reader: classical and contemporary essays on the science, technology, and philosophy of the human future</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">. P. 218); 
-"Both More and Walker concede that some enhancements would break personal identity by breaking the continuity of the personality pattern. But both believe, unlike many bioconservative critics, that personal continuity is nonetheless possible". (Hughes, J. (2013), "Transhumanism and Personal Identity". In: More M., Vita-More N. (eds.), </t>
+      <t>The transhumanist reader: classical and contemporary essays on the science, technology, and philosophy of the human future_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>. P. 218);
+"Both More and Walker concede that some enhancements would break personal identity by breaking the continuity of the personality pattern. But both believe, unlike many bioconservative critics, that personal continuity is nonetheless possible". (Hughes, J. (2013), "Transhumanism and Personal Identity". In: More M., Vita-More N. (eds.), _</t>
     </r>
     <r>
       <rPr>
@@ -954,16 +1261,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The transhumanist reader: classical and contemporary essays on the science, technology, and philosophy of the human future</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">. P. 231);
-"For defending enhancement, then, the goal would be to explain how enhancement would in fact be a reasonable and meaningful way to pursue the satisfaction of recognized interests. Although bioconservative critics often see enhancement as a kind of repudiation of traditional human values, we can see that the kinds of things enhancement might provide are very much in keeping with traditional understandings of worthwhile, reasonable human values and interests". (Hopkins, P.D. (2013), "Is Enhancement Worthy of Being a Right?". In: More M., Vita-More N. (eds.), </t>
+      <t>The Transhumanist Reader: Classical and Contemporary Essays on the Science, Technology, and Philosophy of the Human Future_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>. P. 231);
+"For defending enhancement, then, the goal would be to explain how enhancement would in fact be a reasonable and meaningful way to pursue the satisfaction of recognized interests. Although bioconservative critics often see enhancement as a kind of repudiation of traditional human values, we can see that the kinds of things enhancement might provide are very much in keeping with traditional understandings of worthwhile, reasonable human values and interests". (Hopkins, P.D. (2013), "Is Enhancement Worthy of Being a Right?". In: More M., Vita-More N. (eds.), _</t>
     </r>
     <r>
       <rPr>
@@ -972,15 +1279,15 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The transhumanist reader: classical and contemporary essays on the science, technology, and philosophy of the human future</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>. P. 350)</t>
+      <t>The Transhumanist Reader: Classical and Contemporary Essays on the Science, Technology, and Philosophy of the Human Future</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>_. P. 350)</t>
     </r>
   </si>
   <si>
@@ -1013,7 +1320,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Ивахненко А.Г., Лапа В.Г. (1965), </t>
+      <t>Ивахненко А.Г., Лапа В.Г. (1965), _</t>
     </r>
     <r>
       <rPr>
@@ -1022,7 +1329,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Кибернетические предсказывающие устройства.</t>
+      <t>Кибернетические предсказывающие устройства_.</t>
     </r>
     <r>
       <rPr>
@@ -1031,7 +1338,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> Акад. наук УССР. Киев: Наукова думка;
-Dechter R. (1986), "Learning While Searching in Constraint-Satisfaction-Problems", </t>
+Dechter R. (1986), "Learning While Searching in Constraint-Satisfaction-Problems", _</t>
     </r>
     <r>
       <rPr>
@@ -1040,7 +1347,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>AAAI'86: Proceedings of the Fifth AAAI National Conference on Artificial Intelligence</t>
+      <t>AAAI'86: Proceedings of the Fifth AAAI National Conference on Artificial Intelligence_</t>
     </r>
     <r>
       <rPr>
@@ -1059,7 +1366,31 @@
     <t>Подраздел машинного обучения, который использует искусственные нейронные сети с множеством слоев (от этого и глубина) для моделирования сложных структур и абстракций в данных. Этот метод позволяет моделировать более сложные иерархические структуры, обеспечивая превосходные результаты в решении задач компьютерного зрения, обработки естественного языка, распознавания образов, анализа данных и многих других областях. Глубокое обучение является одним из наиболее активно исследуемых направлений, продвигающих границы возможностей искусственного интеллекта.</t>
   </si>
   <si>
-    <t>«Finding the conflict-sets can assist backtrack not only in avoiding future dead-ends but also by backjumping to the appropriate relevant state rather then to the chronologically most recent instantiation. If only the Conf-set is identified the algorithm should go back to the most recent variable (i.e. the deepest variable) in this set. If the minimal conflict-sets m1, m2,. . . , mi are identified, and if d(mi) is the depth of the deepest variable in mi then the algorithm should jump back to the shallowest among those deep variables, i.e. to Min (d(mi)). Discovering all minimal conflict-sets amounts to acquiring all the possible information out of a dead-end. Yet, such deep learning may require considerable amount of work» (Dechter R. (1986), "Learning While Searching in Constraint-Satisfaction-Problems", AAAI'86: Proceedings of the Fifth AAAI National Conference on Artificial Intelligence. P. 180).</t>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>«Finding the conflict-sets can assist backtrack not only in avoiding future dead-ends but also by backjumping to the appropriate relevant state rather then to the chronologically most recent instantiation. If only the Conf-set is identified the algorithm should go back to the most recent variable (i.e. the deepest variable) in this set. If the minimal conflict-sets m1, m2,. . . , mi are identified, and if d(mi) is the depth of the deepest variable in mi then the algorithm should jump back to the shallowest among those deep variables, i.e. to Min (d(mi)). Discovering all minimal conflict-sets amounts to acquiring all the possible information out of a dead-end. Yet, such deep learning may require considerable amount of work» (Dechter R. (1986), "Learning While Searching in Constraint-Satisfaction-Problems", _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>AAAI'86: Proceedings of the Fifth AAAI National Conference on Artificial Intelligence_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>. P. 180).</t>
+    </r>
   </si>
   <si>
     <t>Дополненная/расширенная реальность</t>
@@ -1097,7 +1428,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve"> Frontiers in Psychology</t>
+      <t xml:space="preserve"> _Frontiers in Psychology_</t>
     </r>
     <r>
       <rPr>
@@ -1115,16 +1446,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve"> FTC 2021. LNNS, Vol. 358</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">, Cham: Springer International Publishing, pp. 1–11.;
-More M., Vita-More N. (eds.) (2013), </t>
+      <t xml:space="preserve"> _FTC 2021. LNNS_, Vol. 358</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>, Cham: Springer International Publishing, pp. 1–11.;
+More M., Vita-More N. (eds.) (2013), _</t>
     </r>
     <r>
       <rPr>
@@ -1133,7 +1464,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The Transhumanist Reader: Classical and Contemporary Essays on the Science, Technology, and Philosophy of the Human Future.</t>
+      <t>The Transhumanist Reader: Classical and Contemporary Essays on the Science, Technology, and Philosophy of the Human Future_.</t>
     </r>
     <r>
       <rPr>
@@ -1154,7 +1485,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">"I started to think seriously about the ideas of augmented perception and personalized views of reality after reading a number of Internet messages containing proposals to introduce language standards for online communications. ... While looking forward to the advantages of improved communications, I wanted see them provided by tools that would at the same time make the language mix of the Net more free and diverse. ... I suggest that active information-filtering technologies may help us approach this goal for both textual and multimedia information. I also pursue this concept further, discussing the introduction of augmented perception and Enhanced Reality (ER)". (Chislenko A. (2013), "Intelligent Information Filters and Enhanced Reality". In: More M., Vita-More N. (eds.), </t>
+      <t>"I started to think seriously about the ideas of augmented perception and personalized views of reality after reading a number of Internet messages containing proposals to introduce language standards for online communications. ... While looking forward to the advantages of improved communications, I wanted see them provided by tools that would at the same time make the language mix of the Net more free and diverse. ... I suggest that active information-filtering technologies may help us approach this goal for both textual and multimedia information. I also pursue this concept further, discussing the introduction of augmented perception and Enhanced Reality (ER)". (Chislenko A. (2013), "Intelligent Information Filters and Enhanced Reality". In: More M., Vita-More N. (eds.), _</t>
     </r>
     <r>
       <rPr>
@@ -1163,15 +1494,15 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The transhumanist reader: classical and contemporary essays on the science, technology, and philosophy of the human future</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">». P. 138;
+      <t>The Transhumanist Reader: Classical and Contemporary Essays on the Science, Technology, and Philosophy of the Human Future</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">_. P. 138;
 "It also seems possible to augment human senses with transparent external information pre-processors. ... Reality filters may help you filter all signals coming from the world the way your favorite mail reader filters your messages, based on your stated preferences or advice from your peers. With such filters you may choose to see only the objects that are worthy of your attention, and completely remove useless and annoying sounds and images (such as advertisements) from your view. ... They could also build on existing techniques that present us with recordings of the past and forecasts of the future to help people develop an immersive trans-temporal perception of reality. “World improvement” enhancements could paint things in new colors, put smiles on faces, “babify” figures of your incompetent colleagues, change night into day, erase shadows, and improve landscapes. Finally, completely artificial additions could project northern lights, meteorites, and supernovas upon your view of the sky, or populate it with flying toasters, virtualize and superimpose on the image of the real world your favorite mythical characters and imaginary companions, and provide other educational and recreational functions. I would call the resulting image of the world Enhanced Reality (ER)". (Chislenko A. (2013), "Intelligent Information Filters and Enhanced Reality". In: More M., Vita-More N. (eds.), </t>
     </r>
     <r>
@@ -1181,7 +1512,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The transhumanist reader: classical and contemporary essays on the science, technology, and philosophy of the human future.</t>
+      <t>_The Transhumanist Reader: Classical and Contemporary Essays on the Science, Technology, and Philosophy of the Human Future_.</t>
     </r>
     <r>
       <rPr>
@@ -1190,7 +1521,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> Pp. 140-141);
-"In many cases, ER may provide us with more true-to-life information than our “natural” perception of reality. It could edit out mirages, show us our “real” images in a virtual mirror instead of the mirror images provided by the real mirror, or allow us to see into – and through – solid objects. It could also show us many interesting phenomena that human sensors cannot perceive directly. Giving us knowledge of these things has been a historical role of science. Merging the obtained knowledge with our sensory perception of the world may be the most important task of Enhanced Reality". (Chislenko A. (2013), "Intelligent Information Filters and Enhanced Reality". In: More M., Vita-More N. (eds.), </t>
+"In many cases, ER may provide us with more true-to-life information than our “natural” perception of reality. It could edit out mirages, show us our “real” images in a virtual mirror instead of the mirror images provided by the real mirror, or allow us to see into – and through – solid objects. It could also show us many interesting phenomena that human sensors cannot perceive directly. Giving us knowledge of these things has been a historical role of science. Merging the obtained knowledge with our sensory perception of the world may be the most important task of Enhanced Reality". (Chislenko A. (2013), "Intelligent Information Filters and Enhanced Reality". In: More M., Vita-More N. (eds.), _</t>
     </r>
     <r>
       <rPr>
@@ -1199,16 +1530,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The transhumanist reader: classical and contemporary essays on the science, technology, and philosophy of the human future</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">». P. 142;
-"Enhanced Reality could bring good news to privacy lovers. If the filters prove sufficiently useful to become an essential part of the [post]human identity architecture, the ability to filter information about your body and other possessions out of the unauthorized observer’s view may be implemented as a standard feature of ER client software. In Privacy-Enhanced Reality, you can be effectively invisible". (Chislenko A., "Intelligent Information Filters and Enhanced Reality". In: More M., Vita-More N. (eds.), </t>
+      <t>The Transhumanist Reader: Classical and Contemporary Essays on the Science, Technology, and Philosophy of the Human Future</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>_. P. 142;
+"Enhanced Reality could bring good news to privacy lovers. If the filters prove sufficiently useful to become an essential part of the [post]human identity architecture, the ability to filter information about your body and other possessions out of the unauthorized observer’s view may be implemented as a standard feature of ER client software. In Privacy-Enhanced Reality, you can be effectively invisible". (Chislenko A., "Intelligent Information Filters and Enhanced Reality". In: More M., Vita-More N. (eds.), _</t>
     </r>
     <r>
       <rPr>
@@ -1217,15 +1548,15 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The transhumanist reader: classical and contemporary essays on the science, technology, and philosophy of the human future</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>. P. 143).</t>
+      <t>The Transhumanist Reader: Classical and Contemporary Essays on the Science, Technology, and Philosophy of the Human Future</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>_. P. 143).</t>
     </r>
   </si>
   <si>
@@ -1249,7 +1580,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Ryle G. (1949), </t>
+      <t>Ryle G. (1949), _</t>
     </r>
     <r>
       <rPr>
@@ -1258,7 +1589,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The Concept of Mind.</t>
+      <t>The Concept of Mind_.</t>
     </r>
     <r>
       <rPr>
@@ -1267,7 +1598,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> London: Hutchinson;
-Baird D. (2004), </t>
+Baird D. (2004), _</t>
     </r>
     <r>
       <rPr>
@@ -1276,7 +1607,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Thing Knowledge: A Philosophy of Scientific Instruments</t>
+      <t>Thing Knowledge: A Philosophy of Scientific Instruments_</t>
     </r>
     <r>
       <rPr>
@@ -1295,7 +1626,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Personal Knowledge: Towards a Post-Critical Philosophy</t>
+      <t>_Personal Knowledge: Towards a Post-Critical Philosophy_</t>
     </r>
     <r>
       <rPr>
@@ -1314,7 +1645,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve"> Thing Knowledge: A Philosophy of Scientific Instruments</t>
+      <t xml:space="preserve"> _Thing Knowledge: A Philosophy of Scientific Instruments_</t>
     </r>
     <r>
       <rPr>
@@ -1335,7 +1666,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">… knowledge about how to do something (know-how)… is a well-structured and action oriented knowledge we get by performing repeatedly a certain task and learning by doing it… Know-how knowledge is often called procedural knowledge since it is about performing a task in concordance with a given procedure or algorithm. (Bolisani, E., Bratianu, C. (2018). "The Elusive Definition of Knowledge". In: </t>
+      <t>… knowledge about how to do something (know-how)… is a well-structured and action oriented knowledge we get by performing repeatedly a certain task and learning by doing it… Know-how knowledge is often called procedural knowledge since it is about performing a task in concordance with a given procedure or algorithm. (Bolisani, E., Bratianu, C. (2018). "The Elusive Definition of Knowledge". In: _</t>
     </r>
     <r>
       <rPr>
@@ -1344,7 +1675,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Emergent Knowledge Strategies. Knowledge Management and Organizational Learning</t>
+      <t>Emergent Knowledge Strategies. Knowledge Management and Organizational Learning_</t>
     </r>
     <r>
       <rPr>
@@ -1396,7 +1727,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>, так и… различия. Мы говорим об обучении тому, как играть на музыкальном инструменте, аналогично тому, что нечто является фактом; говорим о том, как постригать деревья, и о том, что римляне встали лагерем в определённом месте. Мы говорим, что позабыли, как вязать рифовый узел, и что по-немецки «Messer» значит «нож». &lt;…&gt; С другой стороны, мы никогда не говорим о человеке, что он верит или полагает </t>
+      <t>, так и… различия. Мы говорим об обучении тому, как играть на музыкальном инструменте, аналогично тому, что нечто является фактом;говорим о том, как постригать деревья, и о том, что римляне встали лагерем в определённом месте. Мы говорим, что позабыли, как вязать рифовый узел, и что по-немецки «Messer» значит «нож». &lt;…&gt; С другой стороны, мы никогда не говорим о человеке, что он верит или полагает </t>
     </r>
     <r>
       <rPr>
@@ -1414,9 +1745,9 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> &lt;…&gt;. Что же содержится в наших описаниях людей в качестве знающих как шутить, &lt;…&gt;  играть в шахматы, рыбачить или вести спор?" (Ryle,1949,ch.2);
-"Laplacean knowledge which merely predicts what will happen under any given conditions cannot tell us what conditions should be given; these conditions are determined by the technical skill and peculiar interests of chemists and hence cannot be worked out on paper. Therefore, while quantum mechanics can explain in principle all chemical reactions, it cannot replace, even in principle, our knowledge of chemistry" (Polanyi 1958: 417);
+"Laplacean knowledge which merely predicts what will happen under any given conditions cannot tell us what conditions should be given;these conditions are determined by the technical skill and peculiar interests of chemists and hence cannot be worked out on paper. Therefore, while quantum mechanics can explain in principle all chemical reactions, it cannot replace, even in principle, our knowledge of chemistry" (Polanyi 1958: 417);
 "Knowing belongs to the class of achievements that are comprised by all forms of living, simply because every manifestation of life is a technical achievement, and is therefore- like the practice of technology—an applied knowledge of nature". (Polanyi 1958: 417);
-"Instruments, on par with theory, bear knowledge. Instruments are not in the intellectual basement; they occupy the same floor as our greatest theoretical contributions to understanding the world". (Baird 2004: xvii)</t>
+"Instruments, on par with theory, bear knowledge. Instruments are not in the intellectual basement;they occupy the same floor as our greatest theoretical contributions to understanding the world". (Baird 2004: xvii)</t>
     </r>
   </si>
   <si>
@@ -1452,8 +1783,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Энгельмейер П.К. (1910), Теория творчества. Спб.: Образование;
-Энгельмейер П.К. (1914, 1916), Эврология, или Общая теория творчества // </t>
+      <t>Энгельмейер П.К. (1910), _</t>
     </r>
     <r>
       <rPr>
@@ -1462,7 +1792,25 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Вопросы теории и психологии творчества.</t>
+      <t>Теория творчества</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>_. Спб.: Образование;
+Энгельмейер П.К. (1914, 1916), Эврология, или Всеобщая теория творчества // _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Вопросы теории и психологии творчества_.</t>
     </r>
     <r>
       <rPr>
@@ -1471,7 +1819,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> Харьков. Т. 5. С. 131–160. Т. 7. С. 76–108.;
-Энгельмейер П.К. (1929), Нужна ли нам философия техники? // </t>
+Энгельмейер П.К. (1929), Нужна ли нам философия техники? // _</t>
     </r>
     <r>
       <rPr>
@@ -1480,7 +1828,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Инженерный труд.</t>
+      <t>Инженерный труд_.</t>
     </r>
     <r>
       <rPr>
@@ -1489,7 +1837,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> 1929. № 2. С. 36–40;
-du Bois-Reymond A. (1906), </t>
+du Bois-Reymond A. (1906), _</t>
     </r>
     <r>
       <rPr>
@@ -1498,16 +1846,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Erfindung und Erfinder</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">. Berlin: Julius Springer;
-Eyth M. (4. Aufl. 1924): </t>
+      <t>Erfindung und Erfinder_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>. Berlin: Julius Springer;
+Eyth M. (4. Aufl. 1924): _</t>
     </r>
     <r>
       <rPr>
@@ -1516,17 +1864,17 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Lebendige Kräfte. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">Berlin: Julius Springer;
-Schröter M. (1920), Die Kulturmöglichkeit der Technik als Formproblem der produktiven Arbeit. Berlin u. Leipzig: de Gruyter;
-Dessauer F. (1908), </t>
+      <t xml:space="preserve">Lebendige Kräfte_. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Berlin: Julius Springer;
+Schröter M. (1920), _Die Kulturmöglichkeit der Technik als Formproblem der produktiven Arbeit_. Berlin u. Leipzig: de Gruyter;
+Dessauer F. (1908), _</t>
     </r>
     <r>
       <rPr>
@@ -1535,16 +1883,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Technische Kultur</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">. Kempten u. München: Verlag der Kösel'schen Buchhandlung;
-Dessauer F. (1927), </t>
+      <t>Technische Kultur_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>. Kempten u. München: Verlag der Kösel'schen Buchhandlung;
+Dessauer F. (1927), _</t>
     </r>
     <r>
       <rPr>
@@ -1553,7 +1901,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Philosophie der Technik. Das Problem der Realisierung.</t>
+      <t>Philosophie der Technik. Das Problem der Realisierung_.</t>
     </r>
     <r>
       <rPr>
@@ -1573,16 +1921,16 @@
 Теория деятельности</t>
   </si>
   <si>
-    <t>Изобретение (греч. εὕρεσις, изобретение, εὕρημα, изобретенное; лат. inventio; итал. invenzione, Scoperta; фр. invention; англ. invention) обозначает, с одной стороны, различные способы поиска, изобретения и открытия новых вещей, а с другой стороны — сами вещи, которые возникают посредством этих действий и процессов. Первоначально слово «изобретать» приравнивалось к слову «открывать». Начиная с XIX в. «изобретение» относится преимущественно к деятельности техника/инженера, который создает ранее не существовавшие вещи, тогда как «открытие» характеризует научную деятельность, которая только обнаруживает уже существующую (но неизвестную) вещь в результате систематического исследования. Философскую теорию изобретения («эврологию») значительно обогатили труды Э. Дюбуа-Реймона и П.К. Энгельмейера. Первый вводит понятие «Inventat», обозначающее техническое изобретение, которое в результате поисков изобретателя перешло из возможности в действительность. Второй разрабатывает «теорию трехакта», состоящего из трех стадий: желания, знания и умения. В первом акте изобретение предполагается, во втором доказывается, в третьем осуществляется. В первом акте все начинается с интуитивного появления гипотетической идеи. Во втором акте разрабатывается план, изобретение преобразуется в логическое представление. Третий акт не связан непосредственно с творчеством. Выполнение плана может быть поручено соответствующему специалисту. Гениальность проявляется в первом акте, талант во втором, прилежание в третьем. Теория изобретения получает развитие в философии техники Ф. Дессауэра, который исходит из «принципиальной предустановленности решения технических проблем» и характеризует изобретение как «продолжение Божественного творения».</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">«Erfindung ist ein Geisteserzeugnis, welches entweder in einem neuen Gegenstande des Gebrauchs oder in einem neuen Hilfsmittel zur Herstellung von Gebrauchsgegenständen besteht». (A. du Bois-Reymond (1906), </t>
+    <t>Изобретение (греч. εὕρεσις, изобретение, εὕρημα, изобретенное;лат. inventio;итал. invenzione, Scoperta;фр. invention;англ. invention) обозначает, с одной стороны, различные способы поиска, изобретения и открытия новых вещей, а с другой стороны — сами вещи, которые возникают посредством этих действий и процессов. Первоначально слово «изобретать» приравнивалось к слову «открывать». Начиная с XIX в. «изобретение» относится преимущественно к деятельности техника/инженера, который создает ранее не существовавшие вещи, тогда как «открытие» характеризует научную деятельность, которая только обнаруживает уже существующую (но неизвестную) вещь в результате систематического исследования. Философскую теорию изобретения («эврологию») значительно обогатили труды Э. Дюбуа-Реймона и П.К. Энгельмейера. Первый вводит понятие «Inventat», обозначающее техническое изобретение, которое в результате поисков изобретателя перешло из возможности в действительность. Второй разрабатывает «теорию трехакта», состоящего из трех стадий: желания, знания и умения. В первом акте изобретение предполагается, во втором доказывается, в третьем осуществляется. В первом акте все начинается с интуитивного появления гипотетической идеи. Во втором акте разрабатывается план, изобретение преобразуется в логическое представление. Третий акт не связан непосредственно с творчеством. Выполнение плана может быть поручено соответствующему специалисту. Гениальность проявляется в первом акте, талант во втором, прилежание в третьем. Теория изобретения получает развитие в философии техники Ф. Дессауэра, который исходит из «принципиальной предустановленности решения технических проблем» и характеризует изобретение как «продолжение Божественного творения».</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>«Erfindung ist ein Geisteserzeugnis, welches entweder in einem neuen Gegenstande des Gebrauchs oder in einem neuen Hilfsmittel zur Herstellung von Gebrauchsgegenständen besteht». (A. du Bois-Reymond (1906), _</t>
     </r>
     <r>
       <rPr>
@@ -1591,7 +1939,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Erfindung und Erfinder.</t>
+      <t>Erfindung und Erfinder_.</t>
     </r>
     <r>
       <rPr>
@@ -1600,7 +1948,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> Berlin: Julius Springer. S. 36);
-«Die Weiterschöpfung durch Technik bedeutet: Erfüllung eines unverrückbaren Planes, die „Erfindung“» (Dessauer F. (1927), </t>
+«Die Weiterschöpfung durch Technik bedeutet: Erfüllung eines unverrückbaren Planes, die „Erfindung“» (Dessauer F. (1927), _</t>
     </r>
     <r>
       <rPr>
@@ -1609,17 +1957,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Philosophie der Technik. Das Problem der Realisierung</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">. Bonn: Verlag von Friedrich Cohen. S. 19);
-«Полный процесс изобретения начинается в бессознательной душе зарождением новой мысли и распадается на три различные акта, которые состоят в том, что в первом акте создается только идея, во втором из нее вырабатывается схема или подробный план, а в третьем вещь осуществляется на деле. С этой точки зрения я назвал процесс изобретения трехактом, и неоднократно излагал этот взгляд в русской, немецкой и французской литературе в течение периода времени от 1889 по 1900 г.» (Энгельмейер П.К. (1908), «Учение об изобретении». Бюл. Политехнич. о-ва. С. 283–284);
-«Во всяком изобретении есть некоторая сущность, что в нем не все одинаково существенно. И вот, если мы подойдем к любому техническому изобретению с вопросом о том, что для него существенно, то убедимся, что „существенное“ в изобретении имеет три степени или три ступени, которые, в восходящем порядке общности и важности мы называем: конструкцией, схемой (или системой) и принципом. Таким образом, самую суть изобретения дает его принцип»» (Энгельмейер П.К. (2007), </t>
+      <t>Philosophie der Technik. Das Problem der Realisierung_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>. Bonn: Verlag von Friedrich Cohen. S. 19);
+«Полный процесс изобретения начинается в бессознательной душе зарождением новой мысли и распадается на три различные акта, которые состоят в том, что в первом акте создается только идея, во втором из нее вырабатывается схема или подробный план, а в третьем вещь осуществляется на деле. С этой точки зрения я назвал процесс изобретения трехактом, и неоднократно излагал этот взгляд в русской, немецкой и французской литературе в течение периода времени от 1889 по 1900 г.» (Энгельмейер П.К. (1908), _</t>
     </r>
     <r>
       <rPr>
@@ -1628,7 +1975,25 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Теория творчества</t>
+      <t>Учение об изобретении_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>. Бюл. Политехнич. о-ва. С. 283–284);
+«Во всяком изобретении есть некоторая сущность, что в нем не все одинаково существенно. И вот, если мы подойдем к любому техническому изобретению с вопросом о том, что для него существенно, то убедимся, что „существенное“ в изобретении имеет три степени или три ступени, которые, в восходящем порядке общности и важности мы называем: конструкцией, схемой (или системой) и принципом. Таким образом, самую суть изобретения дает его принцип»» (Энгельмейер П.К. (2007), _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Теория творчества_</t>
     </r>
     <r>
       <rPr>
@@ -1637,7 +2002,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> / С предисл. Д.Н. Овсянико-Куликовского, Э. Маха. Изд. 2-е. М.: Издательство ЛКИ. С. 74);
-Die Erfindung ist «das Schlüsselereignis der technischen Ontogenese» (Ropohl G. (1978), </t>
+Die Erfindung ist «das Schlüsselereignis der technischen Ontogenese» (Ropohl G. (1978), _</t>
     </r>
     <r>
       <rPr>
@@ -1646,7 +2011,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Allgemeine Technologie. Eine Systemtheorie der Technik. </t>
+      <t xml:space="preserve">Allgemeine Technologie. Eine Systemtheorie der Technik_. </t>
     </r>
     <r>
       <rPr>
@@ -1684,7 +2049,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Harrington A. (1969), </t>
+      <t>Harrington A. (1969), _</t>
     </r>
     <r>
       <rPr>
@@ -1693,7 +2058,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The Immortalist.</t>
+      <t>The Immortalist_.</t>
     </r>
     <r>
       <rPr>
@@ -1702,7 +2067,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> New York: Random House;
-Perry M. (2000), </t>
+Perry M. (2000), _</t>
     </r>
     <r>
       <rPr>
@@ -1711,16 +2076,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Forever for All: Moral Philosophy, Cryonics, and the Scientific Prospects for Immortality. Irvine: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">Universal-Publishers;
-de Grey A., Rae M. (2007), </t>
+      <t xml:space="preserve">Forever for All: Moral Philosophy, Cryonics, and the Scientific Prospects for Immortality_. Irvine: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Universal-Publishers;
+de Grey A., Rae M. (2007), _</t>
     </r>
     <r>
       <rPr>
@@ -1729,7 +2094,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Ending Aging: The Rejuvenation Breakthroughs that Could Reverse Human Aging in Our Lifetime.</t>
+      <t>Ending Aging: The Rejuvenation Breakthroughs that Could Reverse Human Aging in Our Lifetime_.</t>
     </r>
     <r>
       <rPr>
@@ -1738,7 +2103,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> New York: St. Martin's Press;
-Kurzweil R. (2004), </t>
+Kurzweil R. (2004), _</t>
     </r>
     <r>
       <rPr>
@@ -1747,7 +2112,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Fantastic Voyage: Live Long Enough to Live Forever.</t>
+      <t>Fantastic Voyage: Live Long Enough to Live Forever_.</t>
     </r>
     <r>
       <rPr>
@@ -1756,7 +2121,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> Emmaus: Rodale;
-Турчин А., Батин М. (2013), </t>
+Турчин А., Батин М. (2013), _</t>
     </r>
     <r>
       <rPr>
@@ -1765,7 +2130,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Футурология. XXI век: бессмертие или глобальная катастрофа.</t>
+      <t>Футурология. XXI век: бессмертие или глобальная катастрофа_.</t>
     </r>
     <r>
       <rPr>
@@ -1797,7 +2162,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">"As a leader of the crusade to defeat aging, working to demonstrate both its feasibility and its desirability, I am often seen as an implacable opponent of all arguments that defend aging and criticize this crusade. This is an oversimplification. In short, even though my conclusion is unequivocally that this crusade is not only morally justified but is the single most urgent imperative for humanity, I nonetheless feel that some of the ideas put forward by others in their process of reaching the contrary view are worthy of serious analysis". (de Grey A. (2013), "The Curate’s Egg of Anti-Anti-Aging Bioethics". In: More M., Vita-More N. (eds.), </t>
+      <t>"As a leader of the crusade to defeat aging, working to demonstrate both its feasibility and its desirability, I am often seen as an implacable opponent of all arguments that defend aging and criticize this crusade. This is an oversimplification. In short, even though my conclusion is unequivocally that this crusade is not only morally justified but is the single most urgent imperative for humanity, I nonetheless feel that some of the ideas put forward by others in their process of reaching the contrary view are worthy of serious analysis". (de Grey A. (2013), "The Curate’s Egg of Anti-Anti-Aging Bioethics". In: More M., Vita-More N. (eds.), _</t>
     </r>
     <r>
       <rPr>
@@ -1806,15 +2171,15 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The transhumanist reader: classical and contemporary essays on the science, technology, and philosophy of the human future</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">. P. 215;
+      <t>The Transhumanist Reader: Classical and Contemporary Essays on the Science, Technology, and Philosophy of the Human Future</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">_. P. 215;
 "One of the more interesting precursors to transhumanism was Nikolai Fedorovich Fedorov (1829–1903), a Russian Orthodox Christian philosopher and participant in the Russian cosmism movement, who advocated using scientific methods to achieve radical life extension, physical immortality, resurrection of the dead, and space and ocean colonization. According to Fedorov, the evolutionary process led to increased intelligence culminating, so far, in human beings. Humans must use reason and morality to shape further evolution. Especially crucial was to overcome mortality and even to restore everyone who had ever died to life. They would be restored not in their former physical forms, but in a self-creating, immortal form. Shortly after Fedorov another, less known, thinker took up the immortalist, transhumanizing cause. Jean Finot (1856–1922) advocated using science to engineer life and fabricate living matter in his book, The Philosophy of Long Life". (More, M. (2013), “The Philosophy of Transhumanism”. In: More M., Vita-More N. (eds.), </t>
     </r>
     <r>
@@ -1824,7 +2189,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The transhumanist reader: classical and contemporary essays on the science, technology, and philosophy of the human future.</t>
+      <t>_The Transhumanist Reader: Classical and Contemporary Essays on the Science, Technology, and Philosophy of the Human Future_.</t>
     </r>
     <r>
       <rPr>
@@ -1833,7 +2198,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> P. 10);
-"Recall the example of bacteria being killed by the fungus Penicillium in Alexander Fleming’s 1928 laboratory cultures leading to the widespread use of penicillin in the 1950s. This is one of better-known folk-tales of biomedical research. The laboratory manipulation of aging has thus naturally led many, especially those in the transhumanist (H+) and immortalist movement, to the hope that we could soon achieve similar things for human aging". (Rose M.R. (2013), «Immortalist Fictions and Strategies». In: More M., Vita-More N. (eds.) (2013), </t>
+"Recall the example of bacteria being killed by the fungus Penicillium in Alexander Fleming’s 1928 laboratory cultures leading to the widespread use of penicillin in the 1950s. This is one of better-known folk-tales of biomedical research. The laboratory manipulation of aging has thus naturally led many, especially those in the transhumanist (H+) and immortalist movement, to the hope that we could soon achieve similar things for human aging". (Rose M.R. (2013), «Immortalist Fictions and Strategies». In: More M., Vita-More N. (eds.) (2013), _</t>
     </r>
     <r>
       <rPr>
@@ -1842,15 +2207,15 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The transhumanist reader: classical and contemporary essays on the science, technology, and philosophy of the human future</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>. P. 196.</t>
+      <t>The Transhumanist Reader: Classical and Contemporary Essays on the Science, Technology, and Philosophy of the Human Future</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>_. P. 196.</t>
     </r>
   </si>
   <si>
@@ -1882,7 +2247,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Энгельмейер П.К. (1925), Современные задачи инженерства // </t>
+      <t>Энгельмейер П.К. (1925), Современные задачи инженерства // _</t>
     </r>
     <r>
       <rPr>
@@ -1891,7 +2256,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Инженерный труд.</t>
+      <t>Инженерный труд_.</t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +2265,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> №7. С. 6—10.;
-Hardensett H. (1932), </t>
+Hardensett H. (1932), _</t>
     </r>
     <r>
       <rPr>
@@ -1909,7 +2274,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Der kapitalistische und der technische Mensch.</t>
+      <t>Der kapitalistische und der technische Mensch_.</t>
     </r>
     <r>
       <rPr>
@@ -1918,7 +2283,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> München und Berlin: Verlag von R. Oldenbourg;
-Dessauer F. (1927), </t>
+Dessauer F. (1927), _</t>
     </r>
     <r>
       <rPr>
@@ -1927,7 +2292,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Philosophie der Technik.</t>
+      <t>Philosophie der Technik_.</t>
     </r>
     <r>
       <rPr>
@@ -1936,7 +2301,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> Bonn: F. Cohen;
-Dessauer F. (1956), </t>
+Dessauer F. (1956), _</t>
     </r>
     <r>
       <rPr>
@@ -1945,16 +2310,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Streit um die Technik</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">. Frankfurt a. M.: Josef Knecht;
-Weihe C. (1935), </t>
+      <t>Streit um die Technik_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>. Frankfurt a. M.: Josef Knecht;
+Weihe C. (1935), _</t>
     </r>
     <r>
       <rPr>
@@ -1963,7 +2328,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Kultur und Technik. Ein Beitrag zur Philosophie der Technik.</t>
+      <t>Kultur und Technik. Ein Beitrag zur Philosophie der Technik_.</t>
     </r>
     <r>
       <rPr>
@@ -1981,7 +2346,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve"> Homo creator. Technik als philosophische Herausforderung.</t>
+      <t xml:space="preserve"> _Homo creator. Technik als philosophische Herausforderung_.</t>
     </r>
     <r>
       <rPr>
@@ -2004,7 +2369,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">«Инженер и художник теперь – это не просто „техник“, каким он был в древности и Средние века, это – Творец. В своей деятельности он не просто создает жизненные удобства – он, подобно божественному творцу, творит сам бытие: красоту и уродство, смешное и жалкое, а по существу он мог бы сотворить даже светила… Художник подражает теперь не столько созданиям Бога, что, конечно, тоже имеет место, – он подражает самому творчеству Бога: в созданиях Бога, т.е. природных вещах, он стремится теперь увидеть закон их построения» (Гайденко П.П. (1980), </t>
+      <t>«Инженер и художник теперь – это не просто „техник“, каким он был в древности и Средние века, это – Творец. В своей деятельности он не просто создает жизненные удобства – он, подобно божественному творцу, творит сам бытие: красоту и уродство, смешное и жалкое, а по существу он мог бы сотворить даже светила… Художник подражает теперь не столько созданиям Бога, что, конечно, тоже имеет место, – он подражает самому творчеству Бога: в созданиях Бога, т.е. природных вещах, он стремится теперь увидеть закон их построения» (Гайденко П.П. (1980), _</t>
     </r>
     <r>
       <rPr>
@@ -2013,18 +2378,35 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Эволюция понятия науки. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">М.: Мысль. С. 516);
-«Роль инженера в современном государстве быстро и неудержимо расширяется и возвышается. Прошло то время, когда вся деятельность инженера протекала внутри мастерских и требовала от него одних только чисто технических познаний. Начать с того, что уже сами предприятия, расширяясь, требуют от руководителя и организатора, чтобы он был не только техником, но в то же самое время и юристом, и экономистом, и социологом. А тогда когда инженер поступает на общественную, городскую, земскую или государственную службу, то деятельность его принимает и должна принять характер административный, чиновничий, и здесь, для пользы родины, а также для преуспевания сословия инженеров, надо стремиться к тому, чтобы в инженере чиновник не убивал инженера, а этого достигнуть можно только при условии, чтобы инженер проникся не только технической стороной своей профессии, но и ее моральной миссией, т. е. сознанием своего нравственного долга перед родиной. Таким образом, постепенно возвышаясь, сословие инженеров в силу исторических условий дошло до необходимости думать не только так, как думает техник, но и так, как думают экономист, юрист, социолог и даже... философ. Вот в каком смысле и на каком основании все чаще и чаще раздаются голоса, доказывающие необходимость сообщать инженеру уже в школе не одни технические познания, но и глубокую умственную культуру. Я бы в заключение сказал так: надо будущему инженеру сообщать: 1) фактические познания по технологии, экономике, законоведению, политике, социологии и этике, 2) кроме этого материала для мышления, надо дать ему возможность правильно пользоваться этим материалом, другими словами выработать в нем мышление правильное, логическое, философское. К этим требованиям надо прибавить еще, 3) чтобы все его мышление, как со стороны материала или содержания, так и со стороны метода или формы, оставалось на общем фундаменте технического миросозерцания» (Энгельмейер П.К. (1915), «В защиту общих идей техники». Вестн. инженеров. Т. 1. № 3. С. 99—100);
+      <t xml:space="preserve">Эволюция понятия науки_. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>М.: Мысль. С. 516);
+«Роль инженера в современном государстве быстро и неудержимо расширяется и возвышается. Прошло то время, когда вся деятельность инженера протекала внутри мастерских и требовала от него одних только чисто технических познаний. Начать с того, что уже сами предприятия, расширяясь, требуют от руководителя и организатора, чтобы он был не только техником, но в то же самое время и юристом, и экономистом, и социологом. А тогда когда инженер поступает на общественную, городскую, земскую или государственную службу, то деятельность его принимает и должна принять характер административный, чиновничий, и здесь, для пользы родины, а также для преуспевания сословия инженеров, надо стремиться к тому, чтобы в инженере чиновник не убивал инженера, а этого достигнуть можно только при условии, чтобы инженер проникся не только технической стороной своей профессии, но и ее моральной миссией, т. е. сознанием своего нравственного долга перед родиной. Таким образом, постепенно возвышаясь, сословие инженеров в силу исторических условий дошло до необходимости думать не только так, как думает техник, но и так, как думают экономист, юрист, социолог и даже... философ. Вот в каком смысле и на каком основании все чаще и чаще раздаются голоса, доказывающие необходимость сообщать инженеру уже в школе не одни технические познания, но и глубокую умственную культуру. Я бы в заключение сказал так: надо будущему инженеру сообщать: 1) фактические познания по технологии, экономике, законоведению, политике, социологии и этике, 2) кроме этого материала для мышления, надо дать ему возможность правильно пользоваться этим материалом, другими словами выработать в нем мышление правильное, логическое, философское. К этим требованиям надо прибавить еще, 3) чтобы все его мышление, как со стороны материала или содержания, так и со стороны метода или формы, оставалось на общем фундаменте технического миросозерцания» (Энгельмейер П.К. (1915), «В защиту общих идей техники». _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Вестн. инженеров_.</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve"> Т. 1. № 3. С. 99—100);
 «Это слово английское, произошло оно от латинского ingenium, означавшего почти то же, что русское „догадка» и его синонимы: сметливость, сообразительность, прикладность, практичность. Этот смысл целиком удержался в итальянском слове ingegno (индженьо). Очень близки к нему прилагательные: французское ingénieux и английское enginuons. Эти слова означают то же, что и древнерусское «измысленный», т. е. хитро задуманный и искусно выполненный. Таким образом, сама мудрость народная, хотя и бессознательно, но верно, выделила в инженере главным образом умение найтись в затруднительных обстоятельствах, а перед новой жизненной задачей, уменье взяться за дело и его провести» (Энгельмейер П.К. (1925), «Современные задачи инженерства. Инженерный труд. № 7.С. 6);
-«Der vollentwickelte technische Idealtypus ist der Ingenieur» (Hardensett H. (1932), </t>
+«Der vollentwickelte technische Idealtypus ist der Ingenieur» (Hardensett H. (1932), _</t>
     </r>
     <r>
       <rPr>
@@ -2033,7 +2415,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Der kapitalistische und der technische Mensch.</t>
+      <t>Der kapitalistische und der technische Mensch_.</t>
     </r>
     <r>
       <rPr>
@@ -2042,7 +2424,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> München und Berlin: Verlag von R. Oldenbourg. S. 77);
-«Emotionsreich wird als ein Unterscheidungskriterium zwischen Erfahrungswissenschaften und Technikwissenschaften das Ingenium vorgeschlagen, das ein Ingenieur haben sollte, genauer, die Kreativität des Technikers, seine Fähigkeit also, neue Erfindungen zu machen, um neue Artefakte zu schaffen und die Welt zu gestalten. Dahinter steht die Vorstellung, dass der Naturwissenschaftler die Natur erfasst, wie sie ist, während der Techniker sie kreativ verändert. Kreative Ideen wären mithin im Rahmen der zweiten Festsetzung der Kern der Wissensquellen. In der Renaissance bewunderte man Erfinder wie Leonardo da Vinci oder Michelangelo, und die Kennzeichnung des Menschen als Homo creator spiegelt diese Sichtweise. Auch die zukunftgerichtete Idee des Fortschritts im Gegensatz zum Ideal einer statischen Gesellschaft lässt sich hier anknüpfen, denn sie ist unmittelbar mit der Wertschätzung des Neuen verbunden» (Poser H. (2016), </t>
+«Emotionsreich wird als ein Unterscheidungskriterium zwischen Erfahrungswissenschaften und Technikwissenschaften das Ingenium vorgeschlagen, das ein Ingenieur haben sollte, genauer, die Kreativität des Technikers, seine Fähigkeit also, neue Erfindungen zu machen, um neue Artefakte zu schaffen und die Welt zu gestalten. Dahinter steht die Vorstellung, dass der Naturwissenschaftler die Natur erfasst, wie sie ist, während der Techniker sie kreativ verändert. Kreative Ideen wären mithin im Rahmen der zweiten Festsetzung der Kern der Wissensquellen. In der Renaissance bewunderte man Erfinder wie Leonardo da Vinci oder Michelangelo, und die Kennzeichnung des Menschen als Homo creator spiegelt diese Sichtweise. Auch die zukunftgerichtete Idee des Fortschritts im Gegensatz zum Ideal einer statischen Gesellschaft lässt sich hier anknüpfen, denn sie ist unmittelbar mit der Wertschätzung des Neuen verbunden» (Poser H. (2016), _</t>
     </r>
     <r>
       <rPr>
@@ -2051,7 +2433,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Homo creator: Technik als philosophische Herausforderung.</t>
+      <t>Homo creator: Technik als philosophische Herausforderung_.</t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2442,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> Dodrecht: Springer VS. S. 301);
-«Many scholars regard engineering activity as what engineers do. This is misleading insofar as engineering is a collective activity carried out by many different engineering practitioners. It involves engineers, but also workers, managers, investors, and other stakeholders. There is no doubt that engineers are important members of the engineering community. However, other indispensable members of the engineering community are also necessarily integrated into the activity in cooperation with each other, making them an important part of engineering history. In the field of history, some historians have paid attention to engineers, while ignoring relationships with other members of the engineering community. For instance, the relationship between engineers and workers changed considerably during the twentieth century, which profoundly influenced the advancement of engineering» (Mitcham С. (ed.) (2018), </t>
+«Many scholars regard engineering activity as what engineers do. This is misleading insofar as engineering is a collective activity carried out by many different engineering practitioners. It involves engineers, but also workers, managers, investors, and other stakeholders. There is no doubt that engineers are important members of the engineering community. However, other indispensable members of the engineering community are also necessarily integrated into the activity in cooperation with each other, making them an important part of engineering history. In the field of history, some historians have paid attention to engineers, while ignoring relationships with other members of the engineering community. For instance, the relationship between engineers and workers changed considerably during the twentieth century, which profoundly influenced the advancement of engineering» (Mitcham С. (ed.) (2018), _</t>
     </r>
     <r>
       <rPr>
@@ -2069,16 +2451,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Philosophy of Engineering, East and West. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">Boston Studies in the Philosophy and History of Science. Springer. P. 9);
-«It is necessary for engineers to combine technological with non-technological factors in order to exert a positive or negative impact on nature, economy, and society. So we should study and understand engineering—along with the role and responsibilities of engineers—through relationships with nature, humans, and society» (Mitcham С. (ed.) (2018), </t>
+      <t xml:space="preserve">Philosophy of Engineering, East and West_. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Boston Studies in the Philosophy and History of Science. Springer. P. 9);
+«It is necessary for engineers to combine technological with non-technological factors in order to exert a positive or negative impact on nature, economy, and society. So we should study and understand engineering—along with the role and responsibilities of engineers—through relationships with nature, humans, and society» (Mitcham С. (ed.) (2018), _</t>
     </r>
     <r>
       <rPr>
@@ -2087,6 +2469,24 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
+      <t>Philosophy of Engineering, East and West_.</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve"> Boston Studies in the Philosophy and History of Science. Springer. P. 78);
+«In the widest interpretation, engineering encompasses activities performed by engineers beyond projects, and may include a duty to inform public debates or influence the political process in matters where engineering knowledge and experience are relevant» (Mitcham С. (ed.) (2018), _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
       <t>Philosophy of Engineering, East and West.</t>
     </r>
     <r>
@@ -2095,8 +2495,8 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve"> Boston Studies in the Philosophy and History of Science. Springer. P. 78);
-«In the widest interpretation, engineering encompasses activities performed by engineers beyond projects, and may include a duty to inform public debates or influence the political process in matters where engineering knowledge and experience are relevant» (Mitcham С. (ed.) (2018), </t>
+      <t xml:space="preserve"> Boston Studies in the Philosophy and History of Science_. Springer. P. 90);
+«Для европейской культуры XIX века инженер – это ключевой характер, в деятельности которого отражены основные морально-философские установки Нового времени: рационализм и эмпиризм, вера в социальный прогресс и преобразовательную силу науки, технологический оптимизм. В сущности, с начала промышленной революции именно инженерная деятельность рассматривалась в качестве движущей силы социального прогресса и основного способа достижения общего блага. С этой точки зрения профессия инженера имеет особый моральный смысл. В отличие от многих профессиональных этик, которые пытаются регулировать деятельность специалистов извне, инженерная этика является конституирующим элементом профессии и основой самоопределения специалиста» (Бакштановский В.И. (ред.) (2018), _</t>
     </r>
     <r>
       <rPr>
@@ -2105,25 +2505,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Philosophy of Engineering, East and West.</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve"> Boston Studies in the Philosophy and History of Science. Springer. P. 90);
-«Для европейской культуры XIX века инженер – это ключевой характер, в деятельности которого отражены основные морально-философские установки Нового времени: рационализм и эмпиризм, вера в социальный прогресс и преобразовательную силу науки, технологический оптимизм. В сущности, с начала промышленной революции именно инженерная деятельность рассматривалась в качестве движущей силы социального прогресса и основного способа достижения общего блага. С этой точки зрения профессия инженера имеет особый моральный смысл. В отличие от многих профессиональных этик, которые пытаются регулировать деятельность специалистов извне, инженерная этика является конституирующим элементом профессии и основой самоопределения специалиста» (Бакштановский В.И. (ред.) (2018), </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>Профессиональная этика инженера: Опыт коллективной рефлексии для магистр(ант)ов и профессоров: коллективная монография.</t>
+      <t>Профессиональная этика инженера: Опыт коллективной рефлексии для магистр(ант)ов и профессоров: коллективная монография_.</t>
     </r>
     <r>
       <rPr>
@@ -2148,29 +2530,152 @@
 Мартин Петерсон (Martin Peterson) </t>
   </si>
   <si>
-    <t>Baum R.J. (1980), Ethics and Engineering Curricula. Hastings-on-Hudson: The Hastings Center;
-Martin, M. W., &amp; Schinzinger, R. (1996). Ethics in engineering. New York, NY: McGraw-Hill.;
-Davis M. (1998), Thinking Like an Engineer: Studies in the Ethics of a Profession. New York and Oxford: Oxford University Press;
-Davis M. (2005), Engineering Ethics. Aldershot/Burlington, Vermont: Ashgate;
-van de Poel I., Royakkers L. (2011), Ethics, Technology and Engineering, Oxford: Wiley-Blackwell;
-Peterson M., Spahn A. (2011), "Can Technological Artefacts be Moral Agents?", Science and Engineering Ethics, № 3, pp. 411–424.;
-Taebi B., Roeser S. (eds.) (2015), The Ethics of Nuclear Energy: Risk, Justice, and Democracy in the Post-Fukushima Era. Cambridge: Cambridge University Press</t>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Baum R.J. (1980), _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Ethics and Engineering Curricula</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>_. Hastings-on-Hudson: The Hastings Center;
+Martin, M. W., &amp; Schinzinger, R. (1996). _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Ethics in engineering</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>_. New York, NY: McGraw-Hill.;
+Davis M. (1998), _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Thinking Like an Engineer: Studies in the Ethics of a Profession</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>_. New York and Oxford: Oxford University Press;
+Davis M. (2005), _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Engineering Ethics</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>_. Aldershot/Burlington, Vermont: Ashgate;
+van de Poel I., Royakkers L. (2011), _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Ethics, Technology and Engineering</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>_, Oxford: Wiley-Blackwell;
+Peterson M., Spahn A. (2011), "Can Technological Artefacts be Moral Agents?", _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Science and Engineering Ethics</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>_, № 3, pp. 411–424.;
+Taebi B., Roeser S. (eds.) (2015), _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>The Ethics of Nuclear Energy: Risk, Justice, and Democracy in the Post-Fukushima Era</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>_. Cambridge: Cambridge University Press</t>
+    </r>
   </si>
   <si>
     <t>Ethics of Specific Technologies;
 Цифровая этика</t>
   </si>
   <si>
-    <t>Engineering ethics is (1) the study of moral issues and decisions confronting individuals and organizations engaged in engineering and (2) the study of related questions about the moral ideals, character, policies and relationships of people and corporations involved in technological activity. (Martin, M. W., &amp; Schinzinger, R. (1996). Ethics in engineering. New York, NY: McGraw-Hill. p.2-3)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">Professional ethics…belongs neither to common sense nor to philosophy but to the profession in question. Knowing engineering ethics is as much a part of knowing how to engineer as knowing how to calculate stress or design a circuit is. Indeed, insofar as engineering is a profession, knowing how to calculate stress or design a circuit is in part knowing what the profession allows, forbids, or requires. (Davis, M. (1999), "Teaching ethics across the engineering curriculum". In: </t>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Engineering ethics is (1) the study of moral issues and decisions confronting individuals and organizations engaged in engineering and (2) the study of related questions about the moral ideals, character, policies and relationships of people and corporations involved in technological activity. (Martin, M. W., &amp; Schinzinger, R. (1996).</t>
     </r>
     <r>
       <rPr>
@@ -2179,7 +2684,34 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Online Proceedings of International Conference on Ethics in Engineering and Computer Science</t>
+      <t xml:space="preserve"> _Ethics in engineering_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>. New York, NY: McGraw-Hill. p.2-3)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Professional ethics…belongs neither to common sense nor to philosophy but to the profession in question. Knowing engineering ethics is as much a part of knowing how to engineer as knowing how to calculate stress or design a circuit is. Indeed, insofar as engineering is a profession, knowing how to calculate stress or design a circuit is in part knowing what the profession allows, forbids, or requires. (Davis, M. (1999), "Teaching ethics across the engineering curriculum". In: _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Online Proceedings of International Conference on Ethics in Engineering and Computer Science_</t>
     </r>
     <r>
       <rPr>
@@ -2210,7 +2742,31 @@
     <t>Ирвинг Джон Гуд (Irving John Good)</t>
   </si>
   <si>
-    <t>Good I. J. (1966), "Speculations Concerning the First Ultraintelligent Machine". In: Alt F.L., Rubinoff M. (eds.), Advances in Computers (Vol. 6). Amsterdam: Elsevier, pp. 31-88.</t>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Good I. J. (1966), "Speculations Concerning the First Ultraintelligent Machine". In: Alt F.L., Rubinoff M. (eds.), _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Advances in Computers (Vol. 6)</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>_. Amsterdam: Elsevier, pp. 31-88.</t>
+    </r>
   </si>
   <si>
     <t>Massachusetts Institute of Technology (MIT)</t>
@@ -2229,23 +2785,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>«Let an ultraintelligent machine be defined as a machine that can far surpass all the intellectual activities of any man however clever. Since the design of machines is one of these intellectual activities, an ultraintelligent machine could design even bet</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>ter machines; there would then unquestionably be an 'intelligence explosion', and the intelligence of man would be left far behind. Thus the first ultraintelligent machine is the last invention that man need ever make, provided that the machine is docile e</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">nough to tell us how to keep it under control» (Good I. J. (1966), "Speculations Concerning the First Ultraintelligent Machine". In: Alt F.L., Rubinoff M. (eds.), </t>
+      <t>«Let an ultraintelligent machine be defined as a machine that can far surpass all the intellectual activities of any man however clever. Since the design of machines is one of these intellectual activities, an ultraintelligent machine could design even better machines;there would then unquestionably be an 'intelligence explosion', and the intelligence of man would be left far behind. Thus the first ultraintelligent machine is the last invention that man need ever make, provided that the machine is docile enough to tell us how to keep it under control» (Good I. J. (1966), "Speculations Concerning the First Ultraintelligent Machine". In: Alt F.L., Rubinoff M. (eds.), _</t>
     </r>
     <r>
       <rPr>
@@ -2262,7 +2802,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve"> (Vol. 6). Amsterdam: Elsevier, P. 33).</t>
+      <t xml:space="preserve"> (Vol. 6)_. Amsterdam: Elsevier, P. 33).</t>
     </r>
   </si>
   <si>
@@ -2298,7 +2838,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">McCarthy J., Minsky M.L., Rochester N., Shannon C.E. (2006), "A Proposal for the Dartmouth Summer Research Project on Artificial Intelligence, August 31, 1955", </t>
+      <t>McCarthy J., Minsky M.L., Rochester N., Shannon C.E. (2006), "A Proposal for the Dartmouth Summer Research Project on Artificial Intelligence, August 31, 1955", _</t>
     </r>
     <r>
       <rPr>
@@ -2307,16 +2847,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>AI Magazine</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">, № 4, pp. 12-14.;
-Turing A. (1950), "Computing Machinery and Intelligence", </t>
+      <t>AI Magazine_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>, № 4, pp. 12-14.;
+Turing A. (1950), "Computing Machinery and Intelligence", _</t>
     </r>
     <r>
       <rPr>
@@ -2325,7 +2865,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Mind, №</t>
+      <t>Mind_, №</t>
     </r>
     <r>
       <rPr>
@@ -2334,7 +2874,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> 236, pp. 433-460.;
-Searle J.R. (1980), "Minds, Brains, and Programs", </t>
+Searle J.R. (1980), "Minds, Brains, and Programs", _</t>
     </r>
     <r>
       <rPr>
@@ -2343,7 +2883,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Behavioral and Brain Sciences</t>
+      <t>Behavioral and Brain Sciences_</t>
     </r>
     <r>
       <rPr>
@@ -2364,7 +2904,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">«For the present purpose the artificial intelligence problem is taken to be that of making a machine behave in ways that would be called intelligent if a human were so behaving» (McCarthy J., Minsky M.L., Rochester N., Shannon C.E. (2006), "A Proposal for the Dartmouth Summer Research Project on Artificial Intelligence, August 31, 1955". </t>
+      <t>«For the present purpose the artificial intelligence problem is taken to be that of making a machine behave in ways that would be called intelligent if a human were so behaving» (McCarthy J., Minsky M.L., Rochester N., Shannon C.E. (2006), "A Proposal for the Dartmouth Summer Research Project on Artificial Intelligence, August 31, 1955". _</t>
     </r>
     <r>
       <rPr>
@@ -2373,16 +2913,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>AI Magazine</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">, № 4. P. 12);
-«I propose to consider the question, ‘Can machines think?’ This should begin with definitions of the meaning of the terms ‘machine’ and ‘think’. The definitions might be framed so as to reflect so far as possible the normal use of the words, but this attitude is dangerous. If the meaning of the words ‘machine’ and ‘think’ are to be found by examining how they are commonly used it is difficult to escape the conclusion that the meaning and the answer to the question, ‘Can machines think?’ is to be sought in a statistical survey such as a Gallup poll. But this is absurd. Instead of attempting such a definition I shall replace the question by another, which is closely related to it and is expressed in relatively unambiguous words. The new form of the problem can be described in terms of a game which we call the ‘imitation game’» (Turing A. (1950), "Computing Machinery and Intelligence". </t>
+      <t>AI Magazine_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>, № 4. P. 12);
+«I propose to consider the question, ‘Can machines think?’ This should begin with definitions of the meaning of the terms ‘machine’ and ‘think’. The definitions might be framed so as to reflect so far as possible the normal use of the words, but this attitude is dangerous. If the meaning of the words ‘machine’ and ‘think’ are to be found by examining how they are commonly used it is difficult to escape the conclusion that the meaning and the answer to the question, ‘Can machines think?’ is to be sought in a statistical survey such as a Gallup poll. But this is absurd. Instead of attempting such a definition I shall replace the question by another, which is closely related to it and is expressed in relatively unambiguous words. The new form of the problem can be described in terms of a game which we call the ‘imitation game’» (Turing A. (1950), "Computing Machinery and Intelligence". _</t>
     </r>
     <r>
       <rPr>
@@ -2391,7 +2931,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Mind</t>
+      <t>Mind_</t>
     </r>
     <r>
       <rPr>
@@ -2429,7 +2969,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Latour B., Woolgar S. (1979), </t>
+      <t>Latour B., Woolgar S. (1979), _</t>
     </r>
     <r>
       <rPr>
@@ -2438,7 +2978,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Laboratory Life: the Social Construction of Scientific Facts.</t>
+      <t>Laboratory Life: the Social Construction of Scientific Facts_.</t>
     </r>
     <r>
       <rPr>
@@ -2447,7 +2987,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> Beverly Hills and London: Sage;
-MacKenzie D., Wajcman J. (1999), </t>
+MacKenzie D., Wajcman J. (1999), _</t>
     </r>
     <r>
       <rPr>
@@ -2456,7 +2996,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The Social Shaping of Technology.</t>
+      <t>The Social Shaping of Technology_.</t>
     </r>
     <r>
       <rPr>
@@ -2465,7 +3005,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> Maidenhead: Open University Press;
-Latour B. (1987), </t>
+Latour B. (1987), _</t>
     </r>
     <r>
       <rPr>
@@ -2474,7 +3014,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Science in Action: How to Follow Scientists and Engineers through Society.</t>
+      <t>Science in Action: How to Follow Scientists and Engineers through Society_.</t>
     </r>
     <r>
       <rPr>
@@ -2483,7 +3023,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> Cambridge, Massachusetts: Harvard University Press;
-Callon M. (1986), "The Sociology of an Actor-Network: The Case of the Electric Vehicle". In: Callon M., Law J., Rip A. (eds.), </t>
+Callon M. (1986), "The Sociology of an Actor-Network: The Case of the Electric Vehicle". In: Callon M., Law J., Rip A. (eds.), _</t>
     </r>
     <r>
       <rPr>
@@ -2492,7 +3032,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Mapping the Dynamics of Science and Technology: Sociology of Science in the Real World.</t>
+      <t>Mapping the Dynamics of Science and Technology: Sociology of Science in the Real World_.</t>
     </r>
     <r>
       <rPr>
@@ -2501,7 +3041,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> Houndmills, London: The Macmillan Press, pp. 19-34.;
-Law J. (2004), </t>
+Law J. (2004), _</t>
     </r>
     <r>
       <rPr>
@@ -2510,7 +3050,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>After Method: Mess in Social Science Research.</t>
+      <t>After Method: Mess in Social Science Research_.</t>
     </r>
     <r>
       <rPr>
@@ -2525,19 +3065,16 @@
     <t>European Inter-University Association on Society, Science and Technology (ESST);
 STS program at MIT (Massachusetts Institute of Technology);
 Cornell University;
-Центр STS ЕУСПб; https://eusp.org/sts/about?ysclid=lvz718jkzw831646621</t>
-  </si>
-  <si>
-    <t>STS is an interdisciplinary field that investigates the institutions, practices, meanings, and outcomes of science and technology and their multiple entanglements with the worlds people inhabit, their lives, and their values. &lt;…&gt;. For STS, understanding science and technology means interrogating not only how science and technology shape social life and the world around us but also how the latter in turn shape developments in science and technology. Fundamentally, STS views science and technology as historical products of human labor, investments, choices, and designs. (Ulrike Felt, Rayvon Fouché, Clark A. Miller, and Laurel Smith-Doerr (2016)Introduction to the Fourth Edition of The Handbook of Science and Technology Studies,  MIT PRESS: p.1)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">"Одной и той же аббревиатурой (STS) сначала обозначали сами себя две разные группы ученых, которые расшифровывали этот термин либо как science and technology studies (ИНТ), либо как science, technology and society (НТО). &lt;…&gt;. ИНТ объединяло тех, кто был преимущественно академически заинтересован в применении конструктивистской парадигмы к исследованиям науки и техники, а расшифровка STS как НТО под­ черкивалась теми, кто был настроен более активистски и требовал введения элементов демократического принятия решений при планировании научной политики технократами, настаивал на учете интересов населения и т. п. &lt;…&gt;ныне многие англоязычные авторы вообще не расшифровывают термин STS, считая, что различия между первоначальными лагерями во многом стерлись. Русским же исследователям, переводящим термин STS на русский, приходится в своей интерпретации все так же выбирать между уже не существующими лагерями, или - как поступают многие - просто передавать SТS русским созвучием «СТС»". (О. Хархордин (2013), "Предисловие". Латур Б. </t>
+Центр STS ЕУСПб;https://eusp.org/sts/about?ysclid=lvz718jkzw831646621</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>STS is an interdisciplinary field that investigates the institutions, practices, meanings, and outcomes of science and technology and their multiple entanglements with the worlds people inhabit, their lives, and their values. &lt;…&gt;. For STS, understanding science and technology means interrogating not only how science and technology shape social life and the world around us but also how the latter in turn shape developments in science and technology. Fundamentally, STS views science and technology as historical products of human labor, investments, choices, and designs. (Ulrike Felt, Rayvon Fouché, Clark A. Miller, and Laurel Smith-Doerr (2016), _</t>
     </r>
     <r>
       <rPr>
@@ -2546,7 +3083,34 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Наука в действии.</t>
+      <t>Introduction to the Fourth Edition of The Handbook of Science and Technology Studies</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>_, MIT PRESS: p.1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>"Одной и той же аббревиатурой (STS) сначала обозначали сами себя две разные группы ученых, которые расшифровывали этот термин либо как science and technology studies (ИНТ), либо как science, technology and society (НТО). &lt;…&gt;. ИНТ объединяло тех, кто был преимущественно академически заинтересован в применении конструктивистской парадигмы к исследованиям науки и техники, а расшифровка STS как НТО под­ черкивалась теми, кто был настроен более активистски и требовал введения элементов демократического принятия решений при планировании научной политики технократами, настаивал на учете интересов населения и т. п. &lt;…&gt;ныне многие англоязычные авторы вообще не расшифровывают термин STS, считая, что различия между первоначальными лагерями во многом стерлись. Русским же исследователям, переводящим термин STS на русский, приходится в своей интерпретации все так же выбирать между уже не существующими лагерями, или - как поступают многие - просто передавать SТS русским созвучием «СТС»". (О. Хархордин (2013), "Предисловие". Латур Б. _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Наука в действии_.</t>
     </r>
     <r>
       <rPr>
@@ -2555,7 +3119,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> СПб: Изд-во ЕУ. С. 8);
-"Технонаука - это состояние современного производства научного знания, которое характеризуется не только тем, что технические средства &lt;…&gt; постоянно используются для построения теорий и фактов, но и тем, что без воплощения нового научного факта или теории в работающем образце техники эти факты или теории могут быть поставлены под вопрос" (О. Хархордин (2013), "Предисловие". Латур Б. </t>
+"Технонаука - это состояние современного производства научного знания, которое характеризуется не только тем, что технические средства &lt;…&gt; постоянно используются для построения теорий и фактов, но и тем, что без воплощения нового научного факта или теории в работающем образце техники эти факты или теории могут быть поставлены под вопрос" (О. Хархордин (2013), "Предисловие". Латур Б. _</t>
     </r>
     <r>
       <rPr>
@@ -2564,7 +3128,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Наука в действии.</t>
+      <t>Наука в действии_.</t>
     </r>
     <r>
       <rPr>
@@ -2595,12 +3159,104 @@
 Донна Харауэй (Donna Haraway)</t>
   </si>
   <si>
-    <t xml:space="preserve">Rheingold H. (1993), The Virtual Community: Homesteading on the Electronic Frontier. Boston: Addison-Wesley;
-Turkle S. (1995), Life on the Screen: Identity in the Age of the Internet, New York: Simon &amp; Schuster;
-Castells M. (1996-2003), The Information Age Trilogy: The Rise of the Network Society, The Power of Identity, and End of Millennium. Hoboken: Wiley-Blackwell;
-Poster M. (1995), The Second Media Age. Cambridge, United Kingdom: Polity;
-David Bell (2007) Cyberculture Theorists: Manuel Castells and Donna Haraway London: Routledge
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Rheingold H. (1993), _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>The Virtual Community: Homesteading on the Electronic Frontier</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>_. Boston: Addison-Wesley;
+Turkle S. (1995), _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Life on the Screen: Identity in the Age of the Internet</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>_, New York: Simon &amp; Schuster;
+Castells M. (1996-2003), _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>The Information Age Trilogy: The Rise of the Network Society, The Power of Identity, and End of Millennium</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>_. Hoboken: Wiley-Blackwell;
+Poster M. (1995), _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>The Second Media Age</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>_. Cambridge, United Kingdom: Polity;
+David Bell (2007), _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Cyberculture Theorists: Manuel Castells and Donna Haraway</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">_, London: Routledge
 </t>
+    </r>
   </si>
   <si>
     <t>Калифорнийский университет в Беркли (The University of California, Berkeley);
@@ -2627,8 +3283,8 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">"For me, cyberculture is a way of thinking about how people and digital technolo- gies interact, how we live together – so the suffix ‘culture’ is used in that elastic way that one of the founding fathers of British cultural studies, Raymond Williams (1976), uses it, to talk of ways of life. This view of the ‘culture’ in cultural studies is also drawn on by Frow and Morris, who define culture neatly as ‘a network of embedded practices and representations (texts, images, talk, codes of behavior, and the narrative structures organizing these) that shapes every aspect of social life’. Cyberculture therefore refers here to ways of life in cyberspace, or ways of life shaped by cyberspace, where cyberspace is a matrix of embedded practices and representations."
-Для меня киберкультура - это способ мышления о том, как взаимодействуют люди и цифровые технологии, как мы живем вместе, поэтому суффикс "культура" используется в том эластичном смысле, в каком его использует один из основоположников британской культурологии Раймонд Уильямс (1976), говоря об образе жизни. Этот взгляд на "культуру" в культурных исследованиях также используется Фроу и Моррисом, которые определяют культуру как "сеть встроенных практик и репрезентаций (тексты, образы, разговоры, коды поведения и нарративные структуры, организующие их), которая формирует каждый аспект социальной жизни". Киберкультура, таким образом, относится к образу жизни в киберпространстве или образу жизни, сформированному киберпространством, где киберпространство является матрицей встроенных практик и репрезентаций." (Bell D. (2007), </t>
+      <t>"For me, cyberculture is a way of thinking about how people and digital technolo- gies interact, how we live together – so the suffix ‘culture’ is used in that elastic way that one of the founding fathers of British cultural studies, Raymond Williams (1976), uses it, to talk of ways of life. This view of the ‘culture’ in cultural studies is also drawn on by Frow and Morris, who define culture neatly as ‘a network of embedded practices and representations (texts, images, talk, codes of behavior, and the narrative structures organizing these) that shapes every aspect of social life’. Cyberculture therefore refers here to ways of life in cyberspace, or ways of life shaped by cyberspace, where cyberspace is a matrix of embedded practices and representations."
+Для меня киберкультура - это способ мышления о том, как взаимодействуют люди и цифровые технологии, как мы живем вместе, поэтому суффикс "культура" используется в том эластичном смысле, в каком его использует один из основоположников британской культурологии Раймонд Уильямс (1976), говоря об образе жизни. Этот взгляд на "культуру" в культурных исследованиях также используется Фроу и Моррисом, которые определяют культуру как "сеть встроенных практик и репрезентаций (тексты, образы, разговоры, коды поведения и нарративные структуры, организующие их), которая формирует каждый аспект социальной жизни". Киберкультура, таким образом, относится к образу жизни в киберпространстве или образу жизни, сформированному киберпространством, где киберпространство является матрицей встроенных практик и репрезентаций." (Bell D. (2007), _</t>
     </r>
     <r>
       <rPr>
@@ -2637,7 +3293,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Cyberculture Theorists: Manuel Castells and Donna Haraway.</t>
+      <t>Cyberculture Theorists: Manuel Castells and Donna Haraway_.</t>
     </r>
     <r>
       <rPr>
@@ -2672,7 +3328,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Haraway D. (2000), "A Cyborg Manifesto". In: Bell D., Kennedy B. (eds.) </t>
+      <t>Haraway D. (2000), "A Cyborg Manifesto". In: Bell D., Kennedy B. (eds.) _</t>
     </r>
     <r>
       <rPr>
@@ -2681,7 +3337,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The Cybercultures Reader.</t>
+      <t>The Cybercultures Reader_.</t>
     </r>
     <r>
       <rPr>
@@ -2690,7 +3346,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> New York: Routledge, pp. 291–324.;
-Downey G.L., Dumit J., Williams S. (1995), "Cyborg Anthropology", </t>
+Downey G.L., Dumit J., Williams S. (1995), "Cyborg Anthropology", _</t>
     </r>
     <r>
       <rPr>
@@ -2699,16 +3355,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Cultural Anthropology, </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">№ 2, pp. 264–269.;
-Wells J. (2014), "Keep Calm and Remain Human: How We Have Always Been Cyborgs and Theories on the Technological Present of Anthropology", </t>
+      <t xml:space="preserve">Cultural Anthropology_, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>№ 2, pp. 264–269.;
+Wells J. (2014), "Keep Calm and Remain Human: How We Have Always Been Cyborgs and Theories on the Technological Present of Anthropology", _</t>
     </r>
     <r>
       <rPr>
@@ -2717,7 +3373,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Reviews in Anthropology,</t>
+      <t>Reviews in Anthropology_,</t>
     </r>
     <r>
       <rPr>
@@ -2726,7 +3382,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> № 1, pp. 5–34.;
-Gray C.H. (ed.) (1995), </t>
+Gray C.H. (ed.) (1995), _</t>
     </r>
     <r>
       <rPr>
@@ -2735,7 +3391,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The Cyborg Handbook.</t>
+      <t>The Cyborg Handbook_.</t>
     </r>
     <r>
       <rPr>
@@ -2744,7 +3400,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> New York: Routledge;
-Clynes, M., Kline, N. (1960) “Cyborgs and Space” </t>
+Clynes, M., Kline, N. (1960) “Cyborgs and Space”, _</t>
     </r>
     <r>
       <rPr>
@@ -2753,7 +3409,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Astronautics</t>
+      <t>Astronautics_</t>
     </r>
     <r>
       <rPr>
@@ -2762,7 +3418,7 @@
         <sz val="12.0"/>
       </rPr>
       <t>, September. pp. 26-27, 74-76;
-More M., Vita-More N. (eds.) (2013). «</t>
+More M., Vita-More N. (eds.) (2013). _</t>
     </r>
     <r>
       <rPr>
@@ -2771,15 +3427,15 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The transhumanist reader: classical and contemporary essays on the science, technology, and philosophy of the human future</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">». 
+      <t>The  Transhumanist Reader: Classical and Contemporary Essays on the Science, Technology, and Philosophy of the Human Future_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">. Chichester, West Sussex, UK: Wiley-Blackwell.
 </t>
     </r>
   </si>
@@ -2801,7 +3457,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">"Space travel challenges mankind not only technologically but also spiritually, in that it invites man to take an active part in his own biological evolution. Scientific advances of the future may thus be utilized to permit man’s existence in environments which differ radically from those provided by nature as we know it. The task of adapting man’s body to any environment he may choose will be made easier by increased knowledge of homeostatic functioning, the cybernetic aspects of which are just beginning to be understood and investigated. In the past evolution brought about the altering of bodily functions to suit different environments. Starting as of now, it will be possible to achieve this to some degree without alteration of heredity by suitable biochemical, physiological, and electronic modifications of man’s existing modus vivendi. … What are some of the devices necessary for creating self-regulating man-machine systems? This self-regulation must function without the benefit of consciousness in order to cooperate with the body’s own autonomous homeostatic controls. For the exogenously extended organizational complex functioning as an integrated homeostatic system unconsciously, we propose the term “Cyborg.” … Solving the many technological problems involved in manned space flight by adapting man to his environment, rather than vice versa, will not only mark a significant step forward in man's scientific progress, but may well provide a new and larger dimension for man's spirit as well". (Clynes, M., Kline, N. (1960), “Cyborgs and Space". </t>
+      <t>"Space travel challenges mankind not only technologically but also spiritually, in that it invites man to take an active part in his own biological evolution. Scientific advances of the future may thus be utilized to permit man’s existence in environments which differ radically from those provided by nature as we know it. The task of adapting man’s body to any environment he may choose will be made easier by increased knowledge of homeostatic functioning, the cybernetic aspects of which are just beginning to be understood and investigated. In the past evolution brought about the altering of bodily functions to suit different environments. Starting as of now, it will be possible to achieve this to some degree without alteration of heredity by suitable biochemical, physiological, and electronic modifications of man’s existing modus vivendi. … What are some of the devices necessary for creating self-regulating man-machine systems? This self-regulation must function without the benefit of consciousness in order to cooperate with the body’s own autonomous homeostatic controls. For the exogenously extended organizational complex functioning as an integrated homeostatic system unconsciously, we propose the term “Cyborg.” … Solving the many technological problems involved in manned space flight by adapting man to his environment, rather than vice versa, will not only mark a significant step forward in man's scientific progress, but may well provide a new and larger dimension for man's spirit as well". (Clynes, M., Kline, N. (1960), “Cyborgs and Space". _</t>
     </r>
     <r>
       <rPr>
@@ -2810,16 +3466,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Astronautics</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">, September. Pp. 26-27, 74-76);
-"A cyborg is a cybernetic organism, a hybrid of machine and organism, a creature of social reality as well as a creature of fiction". (Haraway, D. (2000), "A Cyborg Manifesto". In: Bell D., Kennedy B. (eds.), </t>
+      <t>Astronautics_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>, September. Pp. 26-27, 74-76);
+"A cyborg is a cybernetic organism, a hybrid of machine and organism, a creature of social reality as well as a creature of fiction". (Haraway, D. (2000), "A Cyborg Manifesto". In: Bell D., Kennedy B. (eds.), _</t>
     </r>
     <r>
       <rPr>
@@ -2828,16 +3484,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The Cybercultures Reader</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">. Routledge. P. 291–324);
-"The cybernetic organism, or cyborg, is a recognized but often misunderstood concept in anthropology. However, the cyborg concept has the capacity to holistically cross-cut a wide swath of anthropological investigations and effectively problematize many anthropologically interesting characteristics of human subjects who, in all times and places, are dependent upon technology. The complex relationships between human beings and their technologies can be obscured with incompletely understood evolutionary forces, biased histories, mythologies, and ambiguous tensions (biological, cultural, economic, sexual, social, etc.). These can be illuminated by understanding the systems of tool use and feedback that cybernetically inform people and help guide their existence". (Wells, J. (2014), "Keep Calm and Remain Human: How We Have Always Been Cyborgs and Theories on the Technological Present of Anthropology". </t>
+      <t>The Cybercultures Reader_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>. Routledge. P. 291–324);
+"The cybernetic organism, or cyborg, is a recognized but often misunderstood concept in anthropology. However, the cyborg concept has the capacity to holistically cross-cut a wide swath of anthropological investigations and effectively problematize many anthropologically interesting characteristics of human subjects who, in all times and places, are dependent upon technology. The complex relationships between human beings and their technologies can be obscured with incompletely understood evolutionary forces, biased histories, mythologies, and ambiguous tensions (biological, cultural, economic, sexual, social, etc.). These can be illuminated by understanding the systems of tool use and feedback that cybernetically inform people and help guide their existence". (Wells, J. (2014), "Keep Calm and Remain Human: How We Have Always Been Cyborgs and Theories on the Technological Present of Anthropology". _</t>
     </r>
     <r>
       <rPr>
@@ -2846,16 +3502,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Reviews in Anthropology</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">. 43: 5–34);
-"The Cyborg (short for cybernetic organism) is an entity that mixes the mechanic and the organic, for example people who have implanted pacemakers". (Gray, C.H. (ed.) (1995), </t>
+      <t>Reviews in Anthropology_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>. 43: 5–34);
+"The Cyborg (short for cybernetic organism) is an entity that mixes the mechanic and the organic, for example people who have implanted pacemakers". (Gray, C.H. (ed.) (1995), _</t>
     </r>
     <r>
       <rPr>
@@ -2864,7 +3520,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The Cyborg Handbook</t>
+      <t>The Cyborg Handbook_</t>
     </r>
     <r>
       <rPr>
@@ -2900,7 +3556,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">The transhumanist reader: classical and contemporary essays on the science, technology, and philosophy of the human future. </t>
+      <t xml:space="preserve">_The Transhumanist Reader: Classical and Contemporary Essays on the Science, Technology, and Philosophy of the Human Future_. </t>
     </r>
     <r>
       <rPr>
@@ -2918,15 +3574,15 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The transhumanist reader: classical and contemporary essays on the science, technology, and philosophy of the human future.</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve"> Pp. 84-85).</t>
+      <t>_The Transhumanist Reader: Classical and Contemporary Essays on the Science, Technology, and Philosophy of the Human Future_.</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve"> pp. 84-85).</t>
     </r>
   </si>
   <si>
@@ -2957,7 +3613,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">McCulloch W.S., Pitts W. (1943), "A Logical Calculus of the Ideas Immanent in Nervous Activity", </t>
+      <t>McCulloch W.S., Pitts W. (1943), "A Logical Calculus of the Ideas Immanent in Nervous Activity", _</t>
     </r>
     <r>
       <rPr>
@@ -2966,7 +3622,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The Bulletin of Mathematical Biophysics,</t>
+      <t>The Bulletin of Mathematical Biophysics_,</t>
     </r>
     <r>
       <rPr>
@@ -2975,7 +3631,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> № 5, pp. 115-133.;
-Putnam H. (1961), "Brains and Behavior". In: R. J. Butler, (ed.), </t>
+Putnam H. (1961), "Brains and Behavior". In: R. J. Butler, (ed.), _</t>
     </r>
     <r>
       <rPr>
@@ -2984,7 +3640,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Analytical Philosophy, Second Series.</t>
+      <t>Analytical Philosophy, Second Series_.</t>
     </r>
     <r>
       <rPr>
@@ -2993,7 +3649,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> Oxford: Basis Blackwell, pp. 211-235.;
-Fodor J. A. (1975), </t>
+Fodor J. A. (1975), _</t>
     </r>
     <r>
       <rPr>
@@ -3002,7 +3658,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The Language of Thought (Vol. 5).</t>
+      <t>The Language of Thought (Vol. 5)_.</t>
     </r>
     <r>
       <rPr>
@@ -3032,7 +3688,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">«Thus both the formal and the final aspects of that activity which we are wont to call mental are rigorously deduceable from present neurophysiology. The psychiatrist may take comfort from the obvious conclusion concerning causality-that, for prognosis, history is never necessary. He can take little from the equally valid conclusion that his  observables are explicable only in terms of nervous activities which, until recently, have been beyond his ken. The crux of this ignorance is that inference from any sample of overt behavior to nervous nets is not unique, whereas, of imaginable nets, only one in fact exists, and may, at any moment, exhibit some unpredictable activity. Certainly for the psychiatrist it is more to the point that in such systems “Mind” no longer “goes more ghostly than a ghost.” Instead, diseased mentality can be understood without loss of scope or rigor, in the scientific terms of neurophysiology. For neurology, the theory sharpens the distinction between nets necessary or merely sufficient for given activities, and so clarifies the relations of disturbed structure to disturbed function. In its own domain the difference between equivalent nets and nets equivalent in the narrow sense indicates the appropriate use and importance of temporal studies of nervous activity: and to mathematical biophysics the theory contributes a tool for rigorous symbolic treatment of known nets and an easy method of constructing hypothetical nets of required properties» (McCulloch W.S., Pitts W. (1943), "A Logical Calculus of the Ideas Immanent in Nervous Activity". </t>
+      <t>«Thus both the formal and the final aspects of that activity which we are wont to call mental are rigorously deduceable from present neurophysiology. The psychiatrist may take comfort from the obvious conclusion concerning causality-that, for prognosis, history is never necessary. He can take little from the equally valid conclusion that his  observables are explicable only in terms of nervous activities which, until recently, have been beyond his ken. The crux of this ignorance is that inference from any sample of overt behavior to nervous nets is not unique, whereas, of imaginable nets, only one in fact exists, and may, at any moment, exhibit some unpredictable activity. Certainly for the psychiatrist it is more to the point that in such systems “Mind” no longer “goes more ghostly than a ghost.” Instead, diseased mentality can be understood without loss of scope or rigor, in the scientific terms of neurophysiology. For neurology, the theory sharpens the distinction between nets necessary or merely sufficient for given activities, and so clarifies the relations of disturbed structure to disturbed function. In its own domain the difference between equivalent nets and nets equivalent in the narrow sense indicates the appropriate use and importance of temporal studies of nervous activity: and to mathematical biophysics the theory contributes a tool for rigorous symbolic treatment of known nets and an easy method of constructing hypothetical nets of required properties» (McCulloch W.S., Pitts W. (1943), "A Logical Calculus of the Ideas Immanent in Nervous Activity". _</t>
     </r>
     <r>
       <rPr>
@@ -3041,16 +3697,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The Bulletin of Mathematical Biophysics</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">, № 5. P. 132);
-«The only psychological models of cognitive processes that seem even remotely plausible represent such processes as computational» (Fodor J. A. (1975), </t>
+      <t>The Bulletin of Mathematical Biophysics_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>, № 5. P. 132);
+«The only psychological models of cognitive processes that seem even remotely plausible represent such processes as computational» (Fodor J. A. (1975), _</t>
     </r>
     <r>
       <rPr>
@@ -3067,7 +3723,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve"> (Vol. 5). Cambridge, Massachusetts: Harvard University Press. P. 27).</t>
+      <t xml:space="preserve"> (Vol. 5)_. Cambridge, Massachusetts: Harvard University Press. P. 27).</t>
     </r>
   </si>
   <si>
@@ -3091,7 +3747,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Ihde D. (1999), </t>
+      <t>Ihde D. (1999), _</t>
     </r>
     <r>
       <rPr>
@@ -3100,7 +3756,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Expanding Hermeneutics: Visualism in Science.</t>
+      <t>Expanding Hermeneutics: Visualism in Science_.</t>
     </r>
     <r>
       <rPr>
@@ -3109,7 +3765,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> Evanston: Northwestern University Press;
-Verbeek P.-P, (2000), </t>
+Verbeek P.-P, (2000), _</t>
     </r>
     <r>
       <rPr>
@@ -3118,15 +3774,15 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">De daadkracht der Dingen: Over Techniek, Filosofie En Vormgeving. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>Amsterdam: Boom. (англ. пер.: Verbeek, P.-P, (2005), </t>
+      <t xml:space="preserve">De daadkracht der Dingen: Over Techniek, Filosofie En Vormgeving_. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Amsterdam: Boom. (англ. пер.: Verbeek, P.-P, (2005), _</t>
     </r>
     <r>
       <rPr>
@@ -3135,7 +3791,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>What Things Do: Philosophical Reflections on Technology, Agency, and Design.</t>
+      <t>What Things Do: Philosophical Reflections on Technology, Agency, and Design_.</t>
     </r>
     <r>
       <rPr>
@@ -3144,7 +3800,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> Translated by Robert P. Crease, University Park, PA: Penn State University Press);
-Ihde D., Selinger E. (2003), </t>
+Ihde D., Selinger E. (2003), _</t>
     </r>
     <r>
       <rPr>
@@ -3153,7 +3809,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Chasing Technoscience: Matrix for Materiality,</t>
+      <t>Chasing Technoscience: Matrix for Materiality_,</t>
     </r>
     <r>
       <rPr>
@@ -3162,7 +3818,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> Bloomington: Indiana University Press;
-Hasse C. (2020), </t>
+Hasse C. (2020), _</t>
     </r>
     <r>
       <rPr>
@@ -3171,16 +3827,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Posthumanist Learning: What Robots and Cyborgs Teach Us About Being Ultra-social. London: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">Routledge;
-Ihde D. (2021), </t>
+      <t xml:space="preserve">Posthumanist Learning: What Robots and Cyborgs Teach Us About Being Ultra-Social_. London: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Routledge;
+Ihde D. (2021), _</t>
     </r>
     <r>
       <rPr>
@@ -3189,7 +3845,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Material Hermeneutics. Reversing the Linguistic Turn.</t>
+      <t>Material Hermeneutics. Reversing the Linguistic Turn_.</t>
     </r>
     <r>
       <rPr>
@@ -3213,7 +3869,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">"The classical positions in the field, many of them phenomenological in nature, made a gloomy diagnosis of our technological culture. Technology was thought to alienate people from themselves and from their world... Science was seen as a reduced way of approaching reality, in which things can only be present …as 'objects' to be analyzed. Against this... Mediation has replaced alienation as the key concept for analyzing technology. Technologies are not thought to estrange people from themselves and their world anymore, but to mediate their existence and experiences. These new directions in the philosophy of technology can inform a new phenomenological approach of science" (Verbeek P.P (2003), "Material hermeneutics". </t>
+      <t>"The classical positions in the field, many of them phenomenological in nature, made a gloomy diagnosis of our technological culture. Technology was thought to alienate people from themselves and from their world... Science was seen as a reduced way of approaching reality, in which things can only be present …as 'objects' to be analyzed. Against this... Mediation has replaced alienation as the key concept for analyzing technology. Technologies are not thought to estrange people from themselves and their world anymore, but to mediate their existence and experiences. These new directions in the philosophy of technology can inform a new phenomenological approach of science" (Verbeek P.P (2003), "Material hermeneutics". _</t>
     </r>
     <r>
       <rPr>
@@ -3222,7 +3878,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Techné </t>
+      <t xml:space="preserve">Techné_ </t>
     </r>
     <r>
       <rPr>
@@ -3270,7 +3926,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve"> IBM Journal of Research and Development</t>
+      <t xml:space="preserve"> _IBM Journal of Research and Development_</t>
     </r>
     <r>
       <rPr>
@@ -3295,7 +3951,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">«The studies reported here have been concerned with the programming of a digital computer to behave in a way which, if done by human beings or animals, would be described as involving the process of learning. While this is not the place to dwell on the importance of machine-learning procedures, or to discourse on the philosophical aspects, there is obviously a very large amount of work, now done by people, which is quite trivial in its demands on the intellect but does, nevertheless, involve some learning. We have at our command computers with adequate data-handling ability and with sufficient computational speed to make use of machine-learning techniques, but our knowledge of the basic principles of these techniques is still rudimentary. Lacking such knowledge, it is necessary to specify methods of problem solution in minute and exact detail, a time-consuming and costly procedure. Programming computers to learn from experience should eventually eliminate the need for much of this detailed programming effort» (Samuel A.L. (1959), "Some Studies in Machine Learning Using the Game of Checkers". </t>
+      <t>«The studies reported here have been concerned with the programming of a digital computer to behave in a way which, if done by human beings or animals, would be described as involving the process of learning. While this is not the place to dwell on the importance of machine-learning procedures, or to discourse on the philosophical aspects, there is obviously a very large amount of work, now done by people, which is quite trivial in its demands on the intellect but does, nevertheless, involve some learning. We have at our command computers with adequate data-handling ability and with sufficient computational speed to make use of machine-learning techniques, but our knowledge of the basic principles of these techniques is still rudimentary. Lacking such knowledge, it is necessary to specify methods of problem solution in minute and exact detail, a time-consuming and costly procedure. Programming computers to learn from experience should eventually eliminate the need for much of this detailed programming effort» (Samuel A.L. (1959), "Some Studies in Machine Learning Using the Game of Checkers". _</t>
     </r>
     <r>
       <rPr>
@@ -3304,7 +3960,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>IBM Journal of Research and Development</t>
+      <t>IBM Journal of Research and Development_</t>
     </r>
     <r>
       <rPr>
@@ -3347,15 +4003,15 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve"> The Myth of the Machine.</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve"> San Diego: Harcourt (рус. пер.: Мамфорд, Л. (2001), </t>
+      <t xml:space="preserve"> _The Myth of the Machine_.</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve"> San Diego: Harcourt (рус. пер.: Мамфорд, Л. (2001), _</t>
     </r>
     <r>
       <rPr>
@@ -3364,7 +4020,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Миф машины. Техника и развитие человечества.</t>
+      <t>Миф машины. Техника и развитие человечества_.</t>
     </r>
     <r>
       <rPr>
@@ -3388,7 +4044,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">«It was during the Third Dynasty of Ur—a period of vigorous constructive activity—that all the kings except the founder claimed divinity. This evidence decisively couples divine kingship with the characteristic public works program of the megamachine. Little tasks might still be left to little men, but big tasks belonged to the king by reason of the special powers he commanded: above all, the unique power to create a colossal labor machine (Mumford L. (1967), </t>
+      <t>«It was during the Third Dynasty of Ur—a period of vigorous constructive activity—that all the kings except the founder claimed divinity. This evidence decisively couples divine kingship with the characteristic public works program of the megamachine. Little tasks might still be left to little men, but big tasks belonged to the king by reason of the special powers he commanded: above all, the unique power to create a colossal labor machine (Mumford L. (1967), _</t>
     </r>
     <r>
       <rPr>
@@ -3405,8 +4061,8 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve"> (Vol. I). P. 176);
-«The construction and cultural elevation of a whole city was largely the work of the megamachine. The rapidity of its erection and the enlargement of all its dimensions, particularly its central nucleus, the temple, the palace, and the granary, bear testimony to royal direction. Walls, fortifications, highroads, canals, and cities, remain supreme acts of the ’sovereign power.’ […] The mighty cultural heroes and kings who fabricated the megamachine and performed these tasks, from Gilgamesh Imhotep to Sargon and Alexander the Great, roused their contemporaries from a sluggish passive acceptance of cramped, ‘natural’ limits: they called upon them to ‘plan the impossible.’ And when the work was done, that which had seemed impossible of human performance had, in fact, been realized. From around 3500 B.C. on, nothing that men could imagine seemed to lie entirely beyond the reach of royal power» (Mumford L. (1967), </t>
+      <t xml:space="preserve"> (Vol. I)_. P. 176);
+«The construction and cultural elevation of a whole city was largely the work of the megamachine. The rapidity of its erection and the enlargement of all its dimensions, particularly its central nucleus, the temple, the palace, and the granary, bear testimony to royal direction. Walls, fortifications, highroads, canals, and cities, remain supreme acts of the ’sovereign power.’ […] The mighty cultural heroes and kings who fabricated the megamachine and performed these tasks, from Gilgamesh Imhotep to Sargon and Alexander the Great, roused their contemporaries from a sluggish passive acceptance of cramped, ‘natural’ limits: they called upon them to ‘plan the impossible.’ And when the work was done, that which had seemed impossible of human performance had, in fact, been realized. From around 3500 B.C. on, nothing that men could imagine seemed to lie entirely beyond the reach of royal power» (Mumford L. (1967), _</t>
     </r>
     <r>
       <rPr>
@@ -3423,8 +4079,8 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve"> (Vol. I). P. 209-210);
-«From the beginning the weight of the megamachine itself was the chief burden of civilization: not merely did it turn daily work into a grievous penalty, but it diminished the psychical rewards that compensate the hungers, farmers, and herdsmen for their sometimes exhausting labors. Never was this burden heavier than at the beginning, when the greatest public activity in Egypt was mainly directed to supporting the claim of the Pharaoh to divinity and immortality» (Mumford L. (1967), </t>
+      <t xml:space="preserve"> (Vol. I)_. P. 209-210);
+«From the beginning the weight of the megamachine itself was the chief burden of civilization: not merely did it turn daily work into a grievous penalty, but it diminished the psychical rewards that compensate the hungers, farmers, and herdsmen for their sometimes exhausting labors. Never was this burden heavier than at the beginning, when the greatest public activity in Egypt was mainly directed to supporting the claim of the Pharaoh to divinity and immortality» (Mumford L. (1967), _</t>
     </r>
     <r>
       <rPr>
@@ -3441,8 +4097,8 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve"> (Vol. I). P. 215);
-«The repeated death of civilizations from internal disintegration and outward assault, massively documented by Arnold Toynbee, underscores the fact that the evil elements in this amalgam largely cancelled the benefits and blessings. The one lasting contribution of the megamachine was the myth of the machine itself: the notion that this machine was, by its very nature, absolutely irresistible—and yet, provided one did not oppose it, ultimately beneficent. That magical spell still enthralls both the controllers and the mass victims of the megamachine today» (Mumford L. (1967), </t>
+      <t xml:space="preserve"> (Vol. I)_. P. 215);
+«The repeated death of civilizations from internal disintegration and outward assault, massively documented by Arnold Toynbee, underscores the fact that the evil elements in this amalgam largely cancelled the benefits and blessings. The one lasting contribution of the megamachine was the myth of the machine itself: the notion that this machine was, by its very nature, absolutely irresistible—and yet, provided one did not oppose it, ultimately beneficent. That magical spell still enthralls both the controllers and the mass victims of the megamachine today» (Mumford L. (1967), _</t>
     </r>
     <r>
       <rPr>
@@ -3459,7 +4115,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve"> (Vol. I). P. 224).</t>
+      <t xml:space="preserve"> (Vol. I)_. P. 224).</t>
     </r>
   </si>
   <si>
@@ -3482,7 +4138,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">More M. (1993), "Technological Self-Transformation: Expanding Personal Extropy", </t>
+      <t>More M. (1993), "Technological Self-Transformation: Expanding Personal Extropy", _</t>
     </r>
     <r>
       <rPr>
@@ -3491,16 +4147,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Extropy</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">, № 2, pp. 15–24.;
-Bostrom N. (2005), "In Defense of Posthuman Dignity", </t>
+      <t>Extropy_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>, № 2, pp. 15–24.;
+Bostrom N. (2005), "In Defense of Posthuman Dignity", _</t>
     </r>
     <r>
       <rPr>
@@ -3509,16 +4165,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Bioethics, </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">№ 3, pp. 202–214.;
-Bradshaw H.G., Ter Meulen R. (2010), "A Transhumanist Fault Line Around Disability: Morphological Freedom and the Obligation to Enhance", </t>
+      <t xml:space="preserve">Bioethics_, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>№ 3, pp. 202–214.;
+Bradshaw H.G., Ter Meulen R. (2010), "A Transhumanist Fault Line Around Disability: Morphological Freedom and the Obligation to Enhance", _</t>
     </r>
     <r>
       <rPr>
@@ -3527,7 +4183,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Journal of Medicine and Philosophy,</t>
+      <t>Journal of Medicine and Philosophy_,</t>
     </r>
     <r>
       <rPr>
@@ -3569,8 +4225,8 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">. 19 (3). Pp. 202–203);
-"Transhumanists argue that the best way to avoid a Brave New World is by vigorously defending morphological and reproductive freedoms against any would-be world controllers". (Bostrom N. (2005), "In Defense of Posthuman Dignity". </t>
+      <t>. 19 (3). Pp. 202–203);
+"Transhumanists argue that the best way to avoid a Brave New World is by vigorously defending morphological and reproductive freedoms against any would-be world controllers". (Bostrom N. (2005), "In Defense of Posthuman Dignity". _</t>
     </r>
     <r>
       <rPr>
@@ -3579,16 +4235,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Bioethics</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">. 19 (3). P. 206);
-"A liberal democracy should normally permit incursions into morphological and reproductive freedoms only in cases where somebody is abusing these freedoms to harm another person". (Bostrom N. (2005), "In Defense of Posthuman Dignity". </t>
+      <t>Bioethics_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>. 19 (3). P. 206);
+"A liberal democracy should normally permit incursions into morphological and reproductive freedoms only in cases where somebody is abusing these freedoms to harm another person". (Bostrom N. (2005), "In Defense of Posthuman Dignity". _</t>
     </r>
     <r>
       <rPr>
@@ -3597,16 +4253,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Bioethics</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">. 19 (3). P. 210);
-"Morphological freedom is a negative right – it is the right to be able to do certain things without interference but it does not create any claim on others to support one’s exercise of that right. Sandberg argues that we want morphological freedom because of an ancient drive for self-creation through self-definition. We need morphological freedom because not accepting it as a basic right would have negative effects". (More M., Vita-More N. (eds.) (2013), </t>
+      <t>Bioethics_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>. 19 (3). P. 210);
+"Morphological freedom is a negative right – it is the right to be able to do certain things without interference but it does not create any claim on others to support one’s exercise of that right. Sandberg argues that we want morphological freedom because of an ancient drive for self-creation through self-definition. We need morphological freedom because not accepting it as a basic right would have negative effects". (More M., Vita-More N. (eds.) (2013), _</t>
     </r>
     <r>
       <rPr>
@@ -3615,7 +4271,24 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The transhumanist reader: classical and contemporary essays on the science, technology, and philosophy of the human future.</t>
+      <t>The Transhumanist Reader: Classical and Contemporary Essays on the Science, Technology, and Philosophy of the Human Future</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>.</t>
     </r>
     <r>
       <rPr>
@@ -3633,7 +4306,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The transhumanist reader: classical and contemporary essays on the science, technology, and philosophy of the human future</t>
+      <t>_The Transhumanist Reader: Classical and Contemporary Essays on the Science, Technology, and Philosophy of the Human Future_</t>
     </r>
     <r>
       <rPr>
@@ -3651,7 +4324,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The transhumanist reader: classical and contemporary essays on the science, technology, and philosophy of the human future</t>
+      <t>_The Transhumanist Reader: Classical and Contemporary Essays on the Science, Technology, and Philosophy of the Human Future_</t>
     </r>
     <r>
       <rPr>
@@ -3680,7 +4353,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Longino H.E. (1990), </t>
+      <t>Longino H.E. (1990), _</t>
     </r>
     <r>
       <rPr>
@@ -3689,7 +4362,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Science as Social Knowledge: Values and Objectivity in Scientific Inquiry.</t>
+      <t>Science as Social Knowledge: Values and Objectivity in Scientific Inquiry_.</t>
     </r>
     <r>
       <rPr>
@@ -3698,7 +4371,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> Princeton: Princeton University Press;
-Giere R.N. (2010), </t>
+Giere R.N. (2010), _</t>
     </r>
     <r>
       <rPr>
@@ -3707,7 +4380,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Explaining Science: A Cognitive Approach.</t>
+      <t>Explaining Science: A Cognitive Approach_.</t>
     </r>
     <r>
       <rPr>
@@ -3716,7 +4389,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> Chicago: University of Chicago Press;
-Douglas H. (2009), </t>
+Douglas H. (2009), _</t>
     </r>
     <r>
       <rPr>
@@ -3725,7 +4398,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Science, Policy, and the Value-free Ideal. </t>
+      <t xml:space="preserve">Science, Policy, and the Value-free Ideal_. </t>
     </r>
     <r>
       <rPr>
@@ -3747,17 +4420,13 @@
 Наука научной политики (Science of Science Policy (SoSP))</t>
   </si>
   <si>
-    <t>Нормативность науки - обладание наукой «…системообразующими началами, с помощью которых на основе определенных принципов и ценностей организуется, регламентируется познавательный процесс, отделяется научное знание от ненаучного». - Гончарова, В.А. Норма и девиация в научном познании: опыт гносеологического анализа: автореф. … дис. кандидата филос. наук: 09.00.01 / Гончарова Валерия Александровна. – Магнитогорск, 2012.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">"Эрнест Дж. Лоу прямо утверждает, что естественные законы (номологические обобщения, или диспозиционные утверждения о  видах, которыми, по его мнению, являются естественные законы) нормативными, но, похоже, он придерживается двух разных смыслов нормативности. Первый - это тот же смысл, в котором нормативными являются судебные и моральные законы, предписывающие, каким должен быть нормальный индивид того типа, на который направлен закон. Он приводит в пример как естественнонаучные виды законов (и соответствующие естественные виды), такие как "Вороны черные" (вороны), так и точные науки, такие как "Электроны имеют заряд -1" . Он выражает эту точку зрения следующим образом: "Согласно нормативной концепции законов, утверждение естественного закона ("номологическое" утверждение) характерным образом подразумевает, что нормальные или типичные индивиды или образцы некоторого узнаваемого естественного вида обладают определенным диспозиционным свойством, то есть предрасположены вести себя или проявляться определенным образом (обычно в определенных специфицируемых условиях)". 
-Второе значение нормативности в изложении Лоу относится к человеческому поведению и отношению к объектам, на которые ссылаются законы. Его также можно рассматривать как реинтерпретацию первой версии нормативности Лоу, а именно - ограничения на отношение человека к миру: люди (например, ученые), применяющие законы, должны рассматривать в качестве объектов этих законов, то есть как универсум дискурса этих законов, те виды и, следовательно, индивидов, которые соответствуют спецификации закона. Например, закон "Вороны черные" должен применяться к нормальным или типичным воронам, тогда как, например, вороны-альбиносы должны рассматриваться как нетипичные по отношению к этому закону (хотя они могут быть типичными по отношению к закону о первопричинах альбинизма)." (Mets A. (2013). </t>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Нормативность науки - обладание наукой «…системообразующими началами, с помощью которых на основе определенных принципов и ценностей организуется, регламентируется познавательный процесс, отделяется научное знание от ненаучного». - Гончарова, В.А. _</t>
     </r>
     <r>
       <rPr>
@@ -3766,16 +4435,26 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Normativity of scientific laws. Institute of Philosophy and Semiotics</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">, University of Tartu);
-"&lt;...&gt; В.С. Степин, занимаясь вопросами научной нормативности, приходит к выводу о том, что основу ее составляет целая группа характерных свойств и существенных показателей, таких как целенаправленность научно-познавательной деятельности, наличие объективного взгляда в исследовании предмета, ценностные ориентации ученого, техническое оснащение (инструменты, приборы для проведения опытов и др.), методы проведения научного познания, точность и убедительность языка в изложении полученного материала, способы доказательства истинности, структурное построение знания." (Максимова Е.В., Гончарова В.В. "Роль нормативности в научном познании". </t>
+      <t>Норма и девиация в научном познании: опыт гносеологического анализа: автореф</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>_. … дис. кандидата филос. наук: 09.00.01 / Гончарова Валерия Александровна. – Магнитогорск, 2012.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>"Эрнест Дж. Лоу прямо утверждает, что естественные законы (номологические обобщения, или диспозиционные утверждения о  видах, которыми, по его мнению, являются естественные законы) нормативными, но, похоже, он придерживается двух разных смыслов нормативности. Первый - это тот же смысл, в котором нормативными являются судебные и моральные законы, предписывающие, каким должен быть нормальный индивид того типа, на который направлен закон. Он приводит в пример как естественнонаучные виды законов (и соответствующие естественные виды), такие как "Вороны черные" (вороны), так и точные науки, такие как "Электроны имеют заряд -1" . Он выражает эту точку зрения следующим образом: "Согласно нормативной концепции законов, утверждение естественного закона ("номологическое" утверждение) характерным образом подразумевает, что нормальные или типичные индивиды или образцы некоторого узнаваемого естественного вида обладают определенным диспозиционным свойством, то есть предрасположены вести себя или проявляться определенным образом (обычно в определенных специфицируемых условиях)". 
+Второе значение нормативности в изложении Лоу относится к человеческому поведению и отношению к объектам, на которые ссылаются законы. Его также можно рассматривать как реинтерпретацию первой версии нормативности Лоу, а именно - ограничения на отношение человека к миру: люди (например, ученые), применяющие законы, должны рассматривать в качестве объектов этих законов, то есть как универсум дискурса этих законов, те виды и, следовательно, индивидов, которые соответствуют спецификации закона. Например, закон "Вороны черные" должен применяться к нормальным или типичным воронам, тогда как, например, вороны-альбиносы должны рассматриваться как нетипичные по отношению к этому закону (хотя они могут быть типичными по отношению к закону о первопричинах альбинизма)." (Mets A. (2013). _</t>
     </r>
     <r>
       <rPr>
@@ -3784,7 +4463,25 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Интеллект. Инновации. Инвестиции.</t>
+      <t>Normativity of scientific laws. Institute of Philosophy and Semiotics_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>, University of Tartu);
+"&lt;...&gt; В.С. Степин, занимаясь вопросами научной нормативности, приходит к выводу о том, что основу ее составляет целая группа характерных свойств и существенных показателей, таких как целенаправленность научно-познавательной деятельности, наличие объективного взгляда в исследовании предмета, ценностные ориентации ученого, техническое оснащение (инструменты, приборы для проведения опытов и др.), методы проведения научного познания, точность и убедительность языка в изложении полученного материала, способы доказательства истинности, структурное построение знания." (Максимова Е.В., Гончарова В.В. "Роль нормативности в научном познании". _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Интеллект. Инновации. Инвестиции_.</t>
     </r>
     <r>
       <rPr>
@@ -3824,7 +4521,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Chomsky N. (1957), </t>
+      <t>Chomsky N. (1957), _</t>
     </r>
     <r>
       <rPr>
@@ -3833,7 +4530,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Syntactiс Structures.</t>
+      <t>Syntactiс Structures_.</t>
     </r>
     <r>
       <rPr>
@@ -3842,7 +4539,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> Paris: Mouton &amp; Co.;
-Woods W.A. (1970), "Transition Network Grammars for Natural Language Analysis", </t>
+Woods W.A. (1970), "Transition Network Grammars for Natural Language Analysis", _</t>
     </r>
     <r>
       <rPr>
@@ -3851,16 +4548,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Communications of the ACM</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">, № 10, pp. 591-606.;
-Schank R. (1973), "Identification of Conceptualizations Underlying Natural Language". In: Schank R., Colby K.M. (eds.) </t>
+      <t>Communications of the ACM_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>, № 10, pp. 591-606.;
+Schank R. (1973), "Identification of Conceptualizations Underlying Natural Language". In: Schank R., Colby K.M. (eds.) _</t>
     </r>
     <r>
       <rPr>
@@ -3869,7 +4566,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Computer Models of Thought and Language</t>
+      <t>Computer Models of Thought and Language_</t>
     </r>
     <r>
       <rPr>
@@ -3888,8 +4585,49 @@
     <t>Область искусственного интеллекта, которая занимается разработкой методов и технологий для взаимодействия между компьютерами и естественными языками, такими как английский, русский, китайский и т. д. Используются они в таких случаях, как, например, поисковые системы, социальные сети, медицина, финансы, автоматизация работы с текстом. Развитие этой области тесно сопряжено с использованием методов машинного обучения.</t>
   </si>
   <si>
-    <t>«The use of augmented transition network grammars for the  analysis of natural language sentences is described. Structure-building actions associated with the arcs of the grammar network allow for the reordering, restructuring, and copying of constituents necessary to produce deep-structure representations of the type normally obtained from a transformational analysis, and conditions on the arcs allow for a powerful selectivity which can rule out meaningless analyses and take advantage of semantic information to guide the parsing. The advantages of this model for natural language analysis are discussed in detail and illustrated by examples. An implementation of an experimental parsing system for transition network grammars is briefly described» (Woods W.A. (1970), "Transition Network Grammars for Natural Language Analysis", Communications of the ACM, № 10. P. 591);
-«One basic assumption presented in this work is that since it is true that people can understand natural language, it should be possible to imitate the human understanding process on a computer, if it is possible to state those processes explicitly» (Schank R. (1973), "Identification of Conceptualizations Underlying Natural Language". In: Schank R., Colby K.M. (eds.), Computer Models of Thought and Language. San Francisco: W.H. Freeman and Company. P. 187).</t>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>«The use of augmented transition network grammars for the  analysis of natural language sentences is described. Structure-building actions associated with the arcs of the grammar network allow for the reordering, restructuring, and copying of constituents necessary to produce deep-structure representations of the type normally obtained from a transformational analysis, and conditions on the arcs allow for a powerful selectivity which can rule out meaningless analyses and take advantage of semantic information to guide the parsing. The advantages of this model for natural language analysis are discussed in detail and illustrated by examples. An implementation of an experimental parsing system for transition network grammars is briefly described» (Woods W.A. (1970), "Transition Network Grammars for Natural Language Analysis", _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Communications of the ACM_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>, № 10. P. 591);
+«One basic assumption presented in this work is that since it is true that people can understand natural language, it should be possible to imitate the human understanding process on a computer, if it is possible to state those processes explicitly» (Schank R. (1973), "Identification of Conceptualizations Underlying Natural Language". In: Schank R., Colby K.M. (eds.), _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Computer Models of Thought and Language_.</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve"> San Francisco: W.H. Freeman and Company. P. 187).</t>
+    </r>
   </si>
   <si>
     <t>Объяснимый искусственный интеллект</t>
@@ -3920,7 +4658,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Gunning D. (2017), </t>
+      <t>Gunning D. (2017), _</t>
     </r>
     <r>
       <rPr>
@@ -3929,7 +4667,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Explainable Artificial Intelligence (XAI).</t>
+      <t>Explainable Artificial Intelligence (XAI)_.</t>
     </r>
     <r>
       <rPr>
@@ -3938,7 +4676,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> Defense Advanced Research Projects Agency (DARPA);
-Gunning D., Aha D. (2019), "DARPA’s Explainable Artificial Intelligence (XAI) Program", </t>
+Gunning D., Aha D. (2019), "DARPA’s Explainable Artificial Intelligence (XAI) Program", _</t>
     </r>
     <r>
       <rPr>
@@ -3947,16 +4685,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>AI Magazine</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">, № 2, pp. 44-58.;
-Rudin C. (2019), "Stop Explaining Black Box Machine Learning Models for High Stakes Decisions and Use Interpretable Models Instead", </t>
+      <t>AI Magazine_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>, № 2, pp. 44-58.;
+Rudin C. (2019), "Stop Explaining Black Box Machine Learning Models for High Stakes Decisions and Use Interpretable Models Instead", _</t>
     </r>
     <r>
       <rPr>
@@ -3965,7 +4703,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Nature Machine Intelligence,</t>
+      <t>Nature Machine Intelligence_,</t>
     </r>
     <r>
       <rPr>
@@ -3989,8 +4727,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">«The current generation of AI systems offer tremendous benefits, but their effectiveness will be limited by  the machine’s inability to explain its decisions and actions to users. Explainable AI will be essential if users are to understand, appropriately trust, and effectively manage this incoming generation of artificially intelligent partners» (Gunning D. (2017), Explainable Artificial Intelligence (XAI). Defense Advanced Research Projects Agency (DARPA). P. 2);
-«DARPA defines explainable AI as AI systems that can explain their rationale to a human user, characterize their strengths and weaknesses, and convey an understanding of how they will behave in the future. Naming this program explainable AI (rather than interpretable, comprehensible, or transparent AI, for example) reflects DARPA’s objective to create more human-understandable AI systems through the use of effective explanations. It also reflects the XAI team’s interest in the human psychology of explanation, which draws on the vast body of research and expertise in the social sciences» (Gunning D., Aha D. (2019), "DARPA’s Explainable Artificial Intelligence (XAI) Program". </t>
+      <t>«The current generation of AI systems offer tremendous benefits, but their effectiveness will be limited by  the machine’s inability to explain its decisions and actions to users. Explainable AI will be essential if users are to understand, appropriately trust, and effectively manage this incoming generation of artificially intelligent partners» (Gunning D. (2017), Explainable Artificial Intelligence (XAI). _</t>
     </r>
     <r>
       <rPr>
@@ -3999,7 +4736,25 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>AI Magazine.</t>
+      <t>Defense Advanced Research Projects Agency (DARPA)</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>_. P. 2);
+«DARPA defines explainable AI as AI systems that can explain their rationale to a human user, characterize their strengths and weaknesses, and convey an understanding of how they will behave in the future. Naming this program explainable AI (rather than interpretable, comprehensible, or transparent AI, for example) reflects DARPA’s objective to create more human-understandable AI systems through the use of effective explanations. It also reflects the XAI team’s interest in the human psychology of explanation, which draws on the vast body of research and expertise in the social sciences» (Gunning D., Aha D. (2019), "DARPA’s Explainable Artificial Intelligence (XAI) Program". _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>AI Magazine_.</t>
     </r>
     <r>
       <rPr>
@@ -4008,7 +4763,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> № 2, P. 44);
-«Black box machine learning models are currently being used for high-stakes decision making throughout society, causing problems in healthcare, criminal justice and other domains. Some people hope that creating methods for explaining these black box models will alleviate some of the problems, but trying to explain black box models, rather than creating models that are interpretable in the first place, is likely to perpetuate bad practice and can potentially cause great harm to society. The way forward is to design models that are inherently interpretable. This Perspective clarifies the chasm between explaining black boxes and  using inherently interpretable models, outlines several key reasons why explainable black boxes should be avoided in high-stakes decisions, identifies challenges to interpretable machine learning, and provides several example applications where interpretable models could potentially replace black box models in criminal justice, healthcare and computer vision» (Rudin C. (2019), "Stop Explaining Black Box Machine Learning Models for High Stakes Decisions and Use Interpretable Models Instead". </t>
+«Black box machine learning models are currently being used for high-stakes decision making throughout society, causing problems in healthcare, criminal justice and other domains. Some people hope that creating methods for explaining these black box models will alleviate some of the problems, but trying to explain black box models, rather than creating models that are interpretable in the first place, is likely to perpetuate bad practice and can potentially cause great harm to society. The way forward is to design models that are inherently interpretable. This Perspective clarifies the chasm between explaining black boxes and  using inherently interpretable models, outlines several key reasons why explainable black boxes should be avoided in high-stakes decisions, identifies challenges to interpretable machine learning, and provides several example applications where interpretable models could potentially replace black box models in criminal justice, healthcare and computer vision» (Rudin C. (2019), "Stop Explaining Black Box Machine Learning Models for High Stakes Decisions and Use Interpretable Models Instead". _</t>
     </r>
     <r>
       <rPr>
@@ -4017,7 +4772,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Nature Machine Intelligence.</t>
+      <t>Nature Machine Intelligence_.</t>
     </r>
     <r>
       <rPr>
@@ -4059,7 +4814,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Kapp E. (1877), </t>
+      <t>Kapp E. (1877), _</t>
     </r>
     <r>
       <rPr>
@@ -4068,16 +4823,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Grundlinien einer Philosophie der Technik. Zur Entstehung der Cultur aus neuen Gesichtspunkten. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">Braunschweig: Georg Westermann;
-Флоренский П.А. (2000), </t>
+      <t xml:space="preserve">Grundlinien einer Philosophie der Technik. Zur Entstehung der Cultur aus neuen Gesichtspunkten_. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Braunschweig: Georg Westermann;
+Флоренский П.А. (2000), _</t>
     </r>
     <r>
       <rPr>
@@ -4094,8 +4849,8 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve"> (ч. 2) // Флоренский П.А. Сочинения в 4-х тт. Т. 3, кн. 1. М.: Мысль. С. 373–452;
-Флоренский П.А. (1969), Органопроекция // </t>
+      <t xml:space="preserve"> (ч. 2)_ // Флоренский П.А. Сочинения в 4-х тт. Т. 3, кн. 1. М.: Мысль. С. 373–452;
+Флоренский П.А. (1969), Органопроекция // _</t>
     </r>
     <r>
       <rPr>
@@ -4104,16 +4859,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Декоративное искусство</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">, № 12. С. 39–42.;
-Энгельмейер П.К. (1929), Нужна ли нам философия техники? // </t>
+      <t>Декоративное искусство_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>, № 12. С. 39–42.;
+Энгельмейер П.К. (1929), Нужна ли нам философия техники? // _</t>
     </r>
     <r>
       <rPr>
@@ -4122,7 +4877,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Инженерный труд</t>
+      <t>Инженерный труд_</t>
     </r>
     <r>
       <rPr>
@@ -4140,7 +4895,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve"> Der Mensch. Seine Natur und seine Stellung in der Welt. </t>
+      <t xml:space="preserve"> _Der Mensch. Seine Natur und seine Stellung in der Welt_. </t>
     </r>
     <r>
       <rPr>
@@ -4158,16 +4913,16 @@
 Философская антропология</t>
   </si>
   <si>
-    <t>Понятие, введенное Э. Каппом (1877); выражает антропологическую сущность техники. Технические орудия мыслятся как продолжение человеческого тела путем подражания его органам. Капп применяет теорию органопроекции к различным областям материального мира: топор воплощает в себе руку, хрусталик — глаз, телеграфная система — нервную систему. Капп переходит от «простых» инструментов к более сложным технологиям (паровому двигателю и железнодорожной сети). В начале XX в. идею органопроекции развивает П.А. Флоренский, усматривая в ней соответствие  между  природой  и  техникой. Органопроекция говорит о неживом как продолжении живого, об уподоблении искусственно-произведенных орудий естественно выросшим органам. Поскольку цель создания орудий видится в расширении возможностей человека, к органопроекции обращаются в том числе в разных версиях трансгуманизма (ср. концепцию human enhancement).</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">«Unter Benutzung der in der unmittelbaren Umgebung zunächst „zur Hand“ befindlichen Gegenstände erscheinen die ersten Werkzeuge als Verlängerung, Verstärkung und Verschärfung leblicher Organe. Ist demnach der Vorderarm mit zur Fuast geballter Hand oder mit deren Verstärkung durch einen fassbaren Stein der natürliche Hammer, so ist der Stein mit einem Holzstiel dessen einfachste künstliche nachbildung. Denn der Stiel oder die Handhabe ist die Verlängerung des Armes, der Stein der Ersatz der Faust. &lt;…&gt; Der Hammer ist wie alles primitive Handwerkzeug eine Organprojektion oder die mechanische Nachformung einer organischen Form, in welcher  &lt;…&gt;  der Mensch die durch Handgeschicklichkeit verstärkte Armkraft beliebig darüber hinaus erweitert» (Kapp E. (1877), </t>
+    <t>Понятие, введенное Э. Каппом (1877);выражает антропологическую сущность техники. Технические орудия мыслятся как продолжение человеческого тела путем подражания его органам. Капп применяет теорию органопроекции к различным областям материального мира: топор воплощает в себе руку, хрусталик — глаз, телеграфная система — нервную систему. Капп переходит от «простых» инструментов к более сложным технологиям (паровому двигателю и железнодорожной сети). В начале XX в. идею органопроекции развивает П.А. Флоренский, усматривая в ней соответствие  между  природой  и  техникой. Органопроекция говорит о неживом как продолжении живого, об уподоблении искусственно-произведенных орудий естественно выросшим органам. Поскольку цель создания орудий видится в расширении возможностей человека, к органопроекции обращаются в том числе в разных версиях трансгуманизма (ср. концепцию human enhancement).</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>«Unter Benutzung der in der unmittelbaren Umgebung zunächst „zur Hand“ befindlichen Gegenstände erscheinen die ersten Werkzeuge als Verlängerung, Verstärkung und Verschärfung leblicher Organe. Ist demnach der Vorderarm mit zur Fuast geballter Hand oder mit deren Verstärkung durch einen fassbaren Stein der natürliche Hammer, so ist der Stein mit einem Holzstiel dessen einfachste künstliche nachbildung. Denn der Stiel oder die Handhabe ist die Verlängerung des Armes, der Stein der Ersatz der Faust. &lt;…&gt; Der Hammer ist wie alles primitive Handwerkzeug eine Organprojektion oder die mechanische Nachformung einer organischen Form, in welcher  &lt;…&gt;  der Mensch die durch Handgeschicklichkeit verstärkte Armkraft beliebig darüber hinaus erweitert» (Kapp E. (1877), _</t>
     </r>
     <r>
       <rPr>
@@ -4176,7 +4931,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Grundlinien einer Philosophie der Technik. Zur Entstehung der Cultur aus neuen Gesichtspunkten.</t>
+      <t>Grundlinien einer Philosophie der Technik. Zur Entstehung der Cultur aus neuen Gesichtspunkten_.</t>
     </r>
     <r>
       <rPr>
@@ -4185,7 +4940,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> Braunschweig: Georg Westermann. S. 42);
-«Техника есть сколок с живого тела или, точнее, с жизненного телообразующего начала, живое тело &lt;…&gt; есть первообраз всякой техники» (Флоренский П.А. (2000), </t>
+«Техника есть сколок с живого тела или, точнее, с жизненного телообразующего начала, живое тело &lt;…&gt; есть первообраз всякой техники» (Флоренский П.А. (2000), _</t>
     </r>
     <r>
       <rPr>
@@ -4202,8 +4957,8 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve"> (ч. 2). Сочинения в 4-х тт. Т. 3, кн. 1. М.: Мысль. С. С. 402);
-«Если каждое орудие порознь есть отображение какого-либо органа нашего тела с той или другой его стороны, то вся совокупность хозяйства, как одно организованное целое, есть отображение всей совокупности функций органов, в их координированности. Следовательно, жилище имеет своим первообразом все тело в его целом. Тут мы припоминаем ходячее сравнение тела – с домом души, с жилищем разума. Тело уподобляется жилищу, ибо самое жилище есть отображение тела» (Флоренский П.А. (2000), </t>
+      <t xml:space="preserve"> (ч. 2)_. Сочинения в 4-х тт. Т. 3, кн. 1. М.: Мысль. С. С. 402);
+«Если каждое орудие порознь есть отображение какого-либо органа нашего тела с той или другой его стороны, то вся совокупность хозяйства, как одно организованное целое, есть отображение всей совокупности функций органов, в их координированности. Следовательно, жилище имеет своим первообразом все тело в его целом. Тут мы припоминаем ходячее сравнение тела – с домом души, с жилищем разума. Тело уподобляется жилищу, ибо самое жилище есть отображение тела» (Флоренский П.А. (2000), _</t>
     </r>
     <r>
       <rPr>
@@ -4220,7 +4975,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve"> (ч. 2). С. 415-416).</t>
+      <t xml:space="preserve"> (ч. 2)_. С. 415-416).</t>
     </r>
   </si>
   <si>
@@ -4251,7 +5006,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Dusseldorp M., Beecroft R. (Hrsg.) (2011), </t>
+      <t>Dusseldorp M., Beecroft R. (Hrsg.) (2011), _</t>
     </r>
     <r>
       <rPr>
@@ -4260,7 +5015,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Technikfolgen abschätzen lehren: Bildungspotenziale transdisziplinärer Methoden.</t>
+      <t>Technikfolgen abschätzen lehren: Bildungspotenziale transdisziplinärer Methoden_.</t>
     </r>
     <r>
       <rPr>
@@ -4278,7 +5033,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t> Responsible Innovation: Managing the Responsible Emergence of Science and Innovation in Society.</t>
+      <t> _Responsible Innovation: Managing the Responsible Emergence of Science and Innovation in Society_.</t>
     </r>
     <r>
       <rPr>
@@ -4287,7 +5042,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> Chichester: John Wiley;
-Mejlgaard N., Christensen M.V., Strand R. et al. (2018), "Teaching Responsible Research and Innovation: A Phronetic Prespective", </t>
+Mejlgaard N., Christensen M.V., Strand R. et al. (2018), "Teaching Responsible Research and Innovation: A Phronetic Prespective", _</t>
     </r>
     <r>
       <rPr>
@@ -4296,7 +5051,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Science and Engineering Ethics, № 2</t>
+      <t>Science and Engineering Ethics_, № 2</t>
     </r>
     <r>
       <rPr>
@@ -4308,7 +5063,7 @@
     </r>
   </si>
   <si>
-    <t>"Research; Increasing Value, Reducing Waste" project, led by The Lancet;
+    <t>"Research;Increasing Value, Reducing Waste" project, led by The Lancet;
 University of Exeter Business School, UK</t>
   </si>
   <si>
@@ -4348,7 +5103,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">., Technikfolgen abschätzen lehren: Bildungspotenziale transdisziplinärer Methoden. </t>
+      <t xml:space="preserve">., _Technikfolgen abschätzen lehren: Bildungspotenziale transdisziplinärer Methoden_. </t>
     </r>
     <r>
       <rPr>
@@ -4366,7 +5121,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">"Whereas technology assessments have traditionally addressed the 'negative consequences' in terms of risks and adverse effects of technologies, the focus of attention within policy is predominantly to demonstrate potentially positive impacts of future outcomes of public policy including research policy. &lt;…&gt;This brings us naturally to the question: what are the 'right' impacts and how can policy legitimately pursue this quest for the 'right' impacts? … I will answer these questions and how they can be tackled within a new framework for responsible research and innovation" (Schomberg R. von (2011), "Prospects for technology assessment in a framework of responsible research and innovation". In: Dusseldorp M., Beecroft R., eds., </t>
+      <t>"Whereas technology assessments have traditionally addressed the 'negative consequences' in terms of risks and adverse effects of technologies, the focus of attention within policy is predominantly to demonstrate potentially positive impacts of future outcomes of public policy including research policy. &lt;…&gt;This brings us naturally to the question: what are the 'right' impacts and how can policy legitimately pursue this quest for the 'right' impacts? … I will answer these questions and how they can be tackled within a new framework for responsible research and innovation" (Schomberg R. von (2011), "Prospects for technology assessment in a framework of responsible research and innovation". In: Dusseldorp M., Beecroft R., eds., _</t>
     </r>
     <r>
       <rPr>
@@ -4375,7 +5130,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Technikfolgen abschätzen lehren: Bildungspotenziale transdisziplinärer Methoden.</t>
+      <t>Technikfolgen abschätzen lehren: Bildungspotenziale transdisziplinärer Methoden_.</t>
     </r>
     <r>
       <rPr>
@@ -4436,7 +5191,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve"> (Spruit, S. L., Hoople, G. D., &amp; Rolfe, D. A. (2015), "Just a Cog in the Machine? The individual responsibility of researchers in nanotechnology is a duty to collectivize". </t>
+      <t xml:space="preserve"> (Spruit, S. L., Hoople, G. D., &amp; Rolfe, D. A. (2015), "Just a Cog in the Machine? The individual responsibility of researchers in nanotechnology is a duty to collectivize". _</t>
     </r>
     <r>
       <rPr>
@@ -4445,7 +5200,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Science and Engineering Ethics,</t>
+      <t>Science and Engineering Ethics_,</t>
     </r>
     <r>
       <rPr>
@@ -4471,24 +5226,7 @@
         <sz val="12.0"/>
       </rPr>
       <t>(4));
-"Compared with TA, RRI is a broader concept, comprising ethical considerations as well as widespread governance issues" (Burget, M., Bardone, E. &amp; Pedaste, M. (2017), "Definitions and Conceptual Dimensions of Responsible Research and Innovation: A Literature Review". </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <i/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>Sci Eng Ethics</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t> 23, 1–19 (2017)).</t>
+"Compared with TA, RRI is a broader concept, comprising ethical considerations as well as widespread governance issues" (Burget, M., Bardone, E. &amp; Pedaste, M. (2017), "Definitions and Conceptual Dimensions of Responsible Research and Innovation: A Literature Review". _Sci Eng Ethics_, 23, 1–19 (2017)).</t>
     </r>
   </si>
   <si>
@@ -4529,15 +5267,15 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve"> Vorträge und Aufsätze</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">. Pfullingen: Neske, S. 13–44. (рус. пер.: Хайдеггер М. (1993), Вопрос о технике // Хайдеггер М. </t>
+      <t xml:space="preserve"> _Vorträge und Aufsätze_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>. Pfullingen: Neske, S. 13–44. (рус. пер.: Хайдеггер М. (1993), Вопрос о технике // Хайдеггер М. _</t>
     </r>
     <r>
       <rPr>
@@ -4546,7 +5284,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Время и бытие (статьи и выступления)</t>
+      <t>Время и бытие (статьи и выступления)_</t>
     </r>
     <r>
       <rPr>
@@ -4555,7 +5293,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> / Пер. с нем. и комм. В.В. Бибихина. М.: Республика. С. 221-238.);
-Ihde D. (2010), </t>
+Ihde D. (2010), _</t>
     </r>
     <r>
       <rPr>
@@ -4564,7 +5302,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Heidegger’s Technologies: Postphenomenological Perspectives.</t>
+      <t>Heidegger’s Technologies: Postphenomenological Perspectives_.</t>
     </r>
     <r>
       <rPr>
@@ -4573,7 +5311,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> New York: Fordham University Press;
-Бибихин В.В. (2009), </t>
+Бибихин В.В. (2009), _</t>
     </r>
     <r>
       <rPr>
@@ -4582,7 +5320,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Чтение философии.</t>
+      <t>Чтение философии_.</t>
     </r>
     <r>
       <rPr>
@@ -4651,8 +5389,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">. GA 7. Frankfurt a.M.: Vittorio Klostermann. S. 21). Перевод: «По-ставом мы называем собирающее начало той установки, которая ставит, т.е. заставляет человека выводить действительное из его потаенности способом поставления его как состоящего-в-наличии. По-ставом называется тот способ раскрытия потаенности, который правит существом современной техники, сам не являясь ничем техническим» (Хайдеггер М. (1993), «Вопрос о технике» (пер. В.В. Бибихина). С. 229);
-«Das Wort „stellen“ meint im Titel Ge-stell nicht nur das Herausfordern, es soll zugleich den Anklang an ein anderes „Stellen“ bewahren, aus dem es abstammt, nämlich an jenes Her- und Dar-stellen, das im Sinne der ποίησις das Anwesende in die Un-Verborgenheit hervorkommen läßt. Dieses hervorbringende Her-stellen, z. B. das Aufstellen eines Standbildes im Tempelbezirk und das jetzt bedachte herausfordernde Bestellen sind zwar grundverschieden und bleiben doch im Wesen verwandt. Beide sind Weisen des Entbergens, der αλήθεια. Im Ge-stell ereignet sich die Unverborgenheit, dergemäß die Arbeit der modernen Technik das Wirkliche als Bestand entbirgt. Sie ist darum weder nur ein menschliches Tun, noch gar ein bloßes Mittel innerhalb solchen Tuns. Die nur instrumentale, die nur anthropologische Bestimmung der Technik wird im Prinzip hinfällig; sie läßt sich auch nicht mehr, falls sie doch als unzureichend erkannt werden sollte, durch eine nur dahinter geschaltete metaphysische oder religiöse Erklärung ergänzen» (Heidegger M. (2000), «Die Frage nach der Technik», in: </t>
+      <t>. GA 7. Frankfurt a.M.: Vittorio Klostermann. S. 21). Перевод: «По-ставом мы называем собирающее начало той установки, которая ставит, т.е. заставляет человека выводить действительное из его потаенности способом поставления его как состоящего-в-наличии. По-ставом называется тот способ раскрытия потаенности, который правит существом современной техники, сам не являясь ничем техническим» (Хайдеггер М. (1993), _</t>
     </r>
     <r>
       <rPr>
@@ -4661,7 +5398,25 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Vorträge und Aufsätze.</t>
+      <t>Вопрос о технике</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>_ (пер. В.В. Бибихина). С. 229);
+«Das Wort „stellen“ meint im Titel Ge-stell nicht nur das Herausfordern, es soll zugleich den Anklang an ein anderes „Stellen“ bewahren, aus dem es abstammt, nämlich an jenes Her- und Dar-stellen, das im Sinne der ποίησις das Anwesende in die Un-Verborgenheit hervorkommen läßt. Dieses hervorbringende Her-stellen, z. B. das Aufstellen eines Standbildes im Tempelbezirk und das jetzt bedachte herausfordernde Bestellen sind zwar grundverschieden und bleiben doch im Wesen verwandt. Beide sind Weisen des Entbergens, der αλήθεια. Im Ge-stell ereignet sich die Unverborgenheit, dergemäß die Arbeit der modernen Technik das Wirkliche als Bestand entbirgt. Sie ist darum weder nur ein menschliches Tun, noch gar ein bloßes Mittel innerhalb solchen Tuns. Die nur instrumentale, die nur anthropologische Bestimmung der Technik wird im Prinzip hinfällig;sie läßt sich auch nicht mehr, falls sie doch als unzureichend erkannt werden sollte, durch eine nur dahinter geschaltete metaphysische oder religiöse Erklärung ergänzen» (Heidegger M. (2000), «Die Frage nach der Technik», in: _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Vorträge und Aufsätze_.</t>
     </r>
     <r>
       <rPr>
@@ -4704,8 +5459,8 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">. P. 37);
-«Потребительская цивилизация мнимых собственников тела и имущества давно только рекламная обложка, условность, встроенная в другие силы, в технический постав, который имеет свою историческую логику и допускает собственника только условным образом. Уже чистых частных собственников нет. Собственнику позволено мало, его права стеснены. Что правит, остается в тени, но тем безраздельнее правит. Похоже, успех новых начал современного общества обеспечен как раз тем, что они остаются в тени за техническим цветом, устроенным настроением. […] Распределитель сущего в целом, постав, оставляет место для всего человека, не стесняя его ничем кроме своей системы. Институты постава утверждают себя в явной или неявной взаимной борьбе. Они пристраиваются к большому предприятию природы. Доказать, что кроме большого автомата природы нужны человеческие установки, невозможно; они как могут легитимируют первым делом сами себя» (Бибихин В.В. (1998), </t>
+      <t>. P. 37);
+«Потребительская цивилизация мнимых собственников тела и имущества давно только рекламная обложка, условность, встроенная в другие силы, в технический постав, который имеет свою историческую логику и допускает собственника только условным образом. Уже чистых частных собственников нет. Собственнику позволено мало, его права стеснены. Что правит, остается в тени, но тем безраздельнее правит. Похоже, успех новых начал современного общества обеспечен как раз тем, что они остаются в тени за техническим цветом, устроенным настроением. […] Распределитель сущего в целом, постав, оставляет место для всего человека, не стесняя его ничем кроме своей системы. Институты постава утверждают себя в явной или неявной взаимной борьбе. Они пристраиваются к большому предприятию природы. Доказать, что кроме большого автомата природы нужны человеческие установки, невозможно;они как могут легитимируют первым делом сами себя» (Бибихин В.В. (1998), _</t>
     </r>
     <r>
       <rPr>
@@ -4714,7 +5469,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Узнай себя.</t>
+      <t>Узнай себя_.</t>
     </r>
     <r>
       <rPr>
@@ -4723,7 +5478,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> СПб.: Наука. С. 56);
-«Перевертывания не отменяют события, платонизм в этом смысле в перевернутом виде продолжается, он воздух, которым мы дышим, когда, например, начинаем изменять идеологию или переделывать культуру, — мы видим, что культуры у нас нет, и ясно видим, как и что надо сделать, чтобы она была. Собственно, главное, что происходит в современности, а именно распространение технической цивилизации, постава, — это продолжение платонизма. Постав — это подчиняющая себе все вещи и всех людей необходимость (я сейчас скажу, в каком сильном смысле „необходимость“) быть не „просто так“, чтобы было достаточно „такости“ вещей, чтобы их принять; мы откуда-то знаем, что такости вещей и людей недостаточно, чтобы мы их приняли, — надо, чтобы они были тем или другим способом поставлены, вставлены в систему, в систему представлений или что в сущности то же самое — в систему предоставления, ведь представление — это уже первое предоставление вещи для чего? Ближайшие цели ясны, последние — уже нет: неясно, чему в конечном счете европейская цивилизация предоставит все то, что она поставляет: пока мы видим, что и человек, ради которого как будто бы все поставляется, предоставляется, все в большей мере включается, втягивается в дело: должен себя поставить, чтобы — поставить себя так, чтобы успевать больше, полнее, без остатка всё, и себя и вещи через себя, предоставлять, кому? — опять уже другой и сложный вопрос» (Бибихин В.В. (2009), </t>
+«Перевертывания не отменяют события, платонизм в этом смысле в перевернутом виде продолжается, он воздух, которым мы дышим, когда, например, начинаем изменять идеологию или переделывать культуру, — мы видим, что культуры у нас нет, и ясно видим, как и что надо сделать, чтобы она была. Собственно, главное, что происходит в современности, а именно распространение технической цивилизации, постава, — это продолжение платонизма. Постав — это подчиняющая себе все вещи и всех людей необходимость (я сейчас скажу, в каком сильном смысле „необходимость“) быть не „просто так“, чтобы было достаточно „такости“ вещей, чтобы их принять;мы откуда-то знаем, что такости вещей и людей недостаточно, чтобы мы их приняли, — надо, чтобы они были тем или другим способом поставлены, вставлены в систему, в систему представлений или что в сущности то же самое — в систему предоставления, ведь представление — это уже первое предоставление вещи для чего? Ближайшие цели ясны, последние — уже нет: неясно, чему в конечном счете европейская цивилизация предоставит все то, что она поставляет: пока мы видим, что и человек, ради которого как будто бы все поставляется, предоставляется, все в большей мере включается, втягивается в дело: должен себя поставить, чтобы — поставить себя так, чтобы успевать больше, полнее, без остатка всё, и себя и вещи через себя, предоставлять, кому? — опять уже другой и сложный вопрос» (Бибихин В.В. (2009), _</t>
     </r>
     <r>
       <rPr>
@@ -4732,7 +5487,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Чтение философии</t>
+      <t>Чтение философии_</t>
     </r>
     <r>
       <rPr>
@@ -4759,11 +5514,103 @@
 Пол Слович (Paul Slovic)</t>
   </si>
   <si>
-    <t>Beck U. (1992), Risk Society: Towards a New Modernity. London: Sage;
-Perrow C. (1999), Normal Accidents: Living with High Risk Technologies. Princeton: Princeton University Press;
-Douglas M., Wildavsky A. (1983), Risk and Culture: An Essay on the Selection of Technological and Environmental Dangers. Berkeley: University of California Press;
-Slovic P. (1987), "Perception of Risk", Science (American Association for the Advancement of Science), № 4799, pp. 280–285.;
-Sabine Roeser (2018) Risk, Technology, and Moral Emotions. London: Routledge</t>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Beck U. (1992), _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Risk Society: Towards a New Modernity</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>_. London: Sage;
+Perrow C. (1999), _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Normal Accidents: Living with High Risk Technologies</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>_. Princeton: Princeton University Press;
+Douglas M., Wildavsky A. (1983), _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Risk and Culture: An Essay on the Selection of Technological and Environmental Dangers</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>_. Berkeley: University of California Press;
+Slovic P. (1987), "Perception of Risk", _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Science (American Association for the Advancement of Science)</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>_, № 4799, pp. 280–285.;
+Sabine Roeser (2018), _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Risk, Technology, and Moral Emotions</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>_. London: Routledge</t>
+    </r>
   </si>
   <si>
     <t>Йельский университет (Yale University);
@@ -4780,7 +5627,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">"Технологии, использование которых приводит к возникновению рисков как материального характера (таких как загрязнение окружающей среды, несчастные случаи и угроза человеческим отношениям), так и риски морального характера, актуализирующие некоторые философские вопросы ("Какое значение мы придаем эффективности технологии по сравнению с ее возможными недостатками? Какие виды недостатков следует измерять и как их соотносить друг с другом? Что хуже - технология со средним риском одного умершего человека в год или технология со средним риском пяти тяжелых инвалидов в год? Какова ценность человеческой жизни? Как распределяются риски и выгоды в обществе?")". (Roeser S. (2018), </t>
+      <t>"Технологии, использование которых приводит к возникновению рисков как материального характера (таких как загрязнение окружающей среды, несчастные случаи и угроза человеческим отношениям), так и риски морального характера, актуализирующие некоторые философские вопросы ("Какое значение мы придаем эффективности технологии по сравнению с ее возможными недостатками? Какие виды недостатков следует измерять и как их соотносить друг с другом? Что хуже - технология со средним риском одного умершего человека в год или технология со средним риском пяти тяжелых инвалидов в год? Какова ценность человеческой жизни? Как распределяются риски и выгоды в обществе?")". (Roeser S. (2018), _</t>
     </r>
     <r>
       <rPr>
@@ -4789,7 +5636,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Risk, Technology, and Moral Emotions.</t>
+      <t>Risk, Technology, and Moral Emotions_.</t>
     </r>
     <r>
       <rPr>
@@ -4827,7 +5674,7 @@
       </rPr>
       <t xml:space="preserve"> Princeton: Princeton University Press);
 "Risky technologies often give rise to intense public debates. Many technologies are developed to improve human well-being. We largely owe our contemporary standard of living, with its high degree of sanitation and possibilities for travel, transportation and communication, to technology. Unfortunately, however, inherent to most technologies is also the chance of negative side effects or risks, such as pollution, accidents and superficial human relationships. Both the positive and negative aspects of technologies need to be assessed in order to develop improved technologies that achieve a more optimal balance between and distribution of risks and benefits. This assessment partially involves quantitative approaches, such as measuring the speed of an airplane, its harmful emissions per kilometer, the probability of a crash and so on. However, it also involves moral considerations. What value do we put on the efficiency of a technology as opposed to its possible disadvantages? What kinds of disadvantages should be measured, and how should they be balanced against each other? Which is worse, a technology with an average risk of one dead person per year or a technology with an average risk of five severely handicapped people per year? What is the value of a human life? How are risks and benefits distributed across society? Even though these questions require descriptive, empirical information, that information does not as yet constitute answers to the moral questions concerning risky technologies. These questions require moral reflection."
-"Технологии, связанные с риском, часто вызывают бурные общественные дискуссии. Многие технологии разрабатываются для улучшения условий жизни людей. Нашим современным уровнем жизни с его высоким уровнем санитарии и возможностями для путешествий, транспорта и связи мы во многом обязаны технологиям. Однако, к сожалению, большинству технологий присущи и негативные побочные эффекты или риски, такие как загрязнение окружающей среды, несчастные случаи и угрозы человеческим отношениям. Необходимо оценивать как положительные, так и отрицательные аспекты технологий, чтобы разработать более совершенные технологии, обеспечивающие более оптимальный баланс между рисками и выгодами. Эта оценка частично включает в себя количественные подходы, такие как, например, измерение скорости самолета, его вредных выбросов на километр, вероятности аварии и так далее. Однако она также включает в себя моральные соображения. Какое значение мы придаем эффективности технологии по сравнению с ее возможными недостатками? Какие виды недостатков следует измерять и как их соотносить друг с другом? Что хуже - технология со средним риском смерти одного человека в год или технология со средним риском пяти тяжелых инвалидов в год? Какова ценность человеческой жизни? Как распределяются риски и выгоды в обществе? Даже если эти вопросы требуют применения описательных, эмпирических данных, эта информация еще не является ответом на моральные вопросы, касающиеся рискованных технологий. Эти вопросы требуют морального осмысления". (Roeser S. (2018), </t>
+"Технологии, связанные с риском, часто вызывают бурные общественные дискуссии. Многие технологии разрабатываются для улучшения условий жизни людей. Нашим современным уровнем жизни с его высоким уровнем санитарии и возможностями для путешествий, транспорта и связи мы во многом обязаны технологиям. Однако, к сожалению, большинству технологий присущи и негативные побочные эффекты или риски, такие как загрязнение окружающей среды, несчастные случаи и угрозы человеческим отношениям. Необходимо оценивать как положительные, так и отрицательные аспекты технологий, чтобы разработать более совершенные технологии, обеспечивающие более оптимальный баланс между рисками и выгодами. Эта оценка частично включает в себя количественные подходы, такие как, например, измерение скорости самолета, его вредных выбросов на километр, вероятности аварии и так далее. Однако она также включает в себя моральные соображения. Какое значение мы придаем эффективности технологии по сравнению с ее возможными недостатками? Какие виды недостатков следует измерять и как их соотносить друг с другом? Что хуже - технология со средним риском смерти одного человека в год или технология со средним риском пяти тяжелых инвалидов в год? Какова ценность человеческой жизни? Как распределяются риски и выгоды в обществе? Даже если эти вопросы требуют применения описательных, эмпирических данных, эта информация еще не является ответом на моральные вопросы, касающиеся рискованных технологий. Эти вопросы требуют морального осмысления". (Roeser S. (2018), _</t>
     </r>
     <r>
       <rPr>
@@ -4836,7 +5683,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Risk, Technology, and Moral Emotions.</t>
+      <t>Risk, Technology, and Moral Emotions_.</t>
     </r>
     <r>
       <rPr>
@@ -4874,7 +5721,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Юревич Е.И. (2005), </t>
+      <t>Юревич Е.И. (2005), _</t>
     </r>
     <r>
       <rPr>
@@ -4883,16 +5730,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Основы робототехники. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">СПб.: БХВ-Петербург;
-Lem S. (1964), </t>
+      <t>Основы робототехники_. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>СПб.: БХВ-Петербург;
+Lem S. (1964), _</t>
     </r>
     <r>
       <rPr>
@@ -4901,7 +5748,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Summa Technologiae.</t>
+      <t>Summa Technologiae_.</t>
     </r>
     <r>
       <rPr>
@@ -4910,7 +5757,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> Kraków: Wydawnictwo Literackie;
-Craig J.J. (2005), </t>
+Craig J.J. (2005), _</t>
     </r>
     <r>
       <rPr>
@@ -4919,7 +5766,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Introduction to Robotics: Mechanics and Control. 3rd Edition.</t>
+      <t>Introduction to Robotics: Mechanics and Control. 3rd Edition_.</t>
     </r>
     <r>
       <rPr>
@@ -4928,7 +5775,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> Hoboken: Prentice Hall;
-Aylett R., Vargas P.A. (2022), </t>
+Aylett R., Vargas P.A. (2022), _</t>
     </r>
     <r>
       <rPr>
@@ -4937,7 +5784,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Living with Robots: What Every Anxious Human Needs to Know.</t>
+      <t>Living with Robots: What Every Anxious Human Needs to Know_.</t>
     </r>
     <r>
       <rPr>
@@ -4959,8 +5806,8 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Робототехника (от робот и техника; англ. robotics — роботика, роботехника) — прикладная наука, занимающаяся разработкой автоматизированных технических систем и являющаяся важнейшей технической основой развития производства;
-"Робот – это технический комплекс, предназначенный для выполнения различных движений и некоторых интеллектуальных функций человека и обладающий необходимыми для этого исполнительными устройствами, управляющими и информационными системами, а также средствами решения вычислительно-логических задач". (Попов Е.П., Письменный Г.В. (1990), </t>
+      <t>Робототехника (от робот и техника;англ. robotics — роботика, роботехника) — прикладная наука, занимающаяся разработкой автоматизированных технических систем и являющаяся важнейшей технической основой развития производства;
+"Робот – это технический комплекс, предназначенный для выполнения различных движений и некоторых интеллектуальных функций человека и обладающий необходимыми для этого исполнительными устройствами, управляющими и информационными системами, а также средствами решения вычислительно-логических задач". (Попов Е.П., Письменный Г.В. (1990), _</t>
     </r>
     <r>
       <rPr>
@@ -4969,7 +5816,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Основы робототехники.</t>
+      <t>Основы робототехники_.</t>
     </r>
     <r>
       <rPr>
@@ -4988,11 +5835,11 @@
         <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">«Начнем с трех основных законов ро6отехники, — трех правил, которые прочно за креплены в позитронном мозгу. — В темноте он начал загибать пальцы. — Первое. Робот не может причинить вред человеку или своим бездействием допустить, чтобы человеку был причинен вред.
+      <t>«Начнем с трех основных законов ро6отехники, — трех правил, которые прочно за креплены в позитронном мозгу. — В темноте он начал загибать пальцы. — Первое. Робот не может причинить вред человеку или своим бездействием допустить, чтобы человеку был причинен вред.
 — Правильно.
 — Второе, — продолжал Пауэлл. — Робот должен повиноваться командам человека, если эти команды не противоречат Первому Закону,
 — Верно.
-— И третье. Робот должен заботиться о своей безопасности, поскольку это не противоречит Первому и Второму Законам». (Азимов А. (2003), </t>
+— И третье. Робот должен заботиться о своей безопасности, поскольку это не противоречит Первому и Второму Законам». (Азимов А. (2003), _</t>
     </r>
     <r>
       <rPr>
@@ -5001,7 +5848,7 @@
         <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Я, робот!</t>
+      <t xml:space="preserve">Я, робот!_. </t>
     </r>
     <r>
       <rPr>
@@ -5009,7 +5856,7 @@
         <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve"> М.: Центрполиграфмаш. С. 45).
+      <t xml:space="preserve">М.: Центрполиграфмаш. С. 45).
 </t>
     </r>
   </si>
@@ -5040,7 +5887,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Searle J.R. (1980), "Minds, Brains, and Programs", </t>
+      <t>Searle J.R. (1980), "Minds, Brains, and Programs", _</t>
     </r>
     <r>
       <rPr>
@@ -5049,7 +5896,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Behavioral and Brain Sciences</t>
+      <t>Behavioral and Brain Sciences_</t>
     </r>
     <r>
       <rPr>
@@ -5073,7 +5920,7 @@
         <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
-      <t>«What psychological and philosophical significance should we attach to recent efforts at computer simulations of human cognitive capacities? In answering this question, I find it useful to distinguish what I will call "strong" AI from "weak" or "cautious" AI (Artificial Intelligence). According to weak AI, the principal value of the computer in the study of the mind is that it gives US a very powerful tool. For example, it enables us to formulate and test hypotheses in a more rigorous and precise fashion. But according to strong AI, the computer is not merely a tool in the study of the mind; rather, the appropriately programmed computer really is a mind, in the sense that computers given the right programs can be literally said to understand and have other cognitive states. In strong AI, because the programmed computer has cognitive states, the programs are not mere tools that enable us to test psychological explanations; rather, the programs are themselves the explanations» (Searle J.R. (1980), "Minds, Brains, and Programs",</t>
+      <t>«What psychological and philosophical significance should we attach to recent efforts at computer simulations of human cognitive capacities? In answering this question, I find it useful to distinguish what I will call "strong" AI from "weak" or "cautious" AI (Artificial Intelligence). According to weak AI, the principal value of the computer in the study of the mind is that it gives US a very powerful tool. For example, it enables us to formulate and test hypotheses in a more rigorous and precise fashion. But according to strong AI, the computer is not merely a tool in the study of the mind;rather, the appropriately programmed computer really is a mind, in the sense that computers given the right programs can be literally said to understand and have other cognitive states. In strong AI, because the programmed computer has cognitive states, the programs are not mere tools that enable us to test psychological explanations;rather, the programs are themselves the explanations» (Searle J.R. (1980), "Minds, Brains, and Programs",</t>
     </r>
     <r>
       <rPr>
@@ -5082,7 +5929,7 @@
         <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve"> Behavioral and Brain Sciences</t>
+      <t xml:space="preserve"> _Behavioral and Brain Sciences_</t>
     </r>
     <r>
       <rPr>
@@ -5090,8 +5937,8 @@
         <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">, № 3. P. 417);
-«Какую психологическую и философскую значимость следует нам приписать недавним усилиям по компьютерному моделированию по­знавательных способностей человека? Я считаю, что, отвечая на этот вопрос, полезно отличать «сильный» AI (как я это называю) от «сла­бого» или «осторожного» AI (Artificial Intelligence — Искусственный Интеллект). Согласно слабому AI, основная ценность компьютера в изучении сознания состоит в том, что он дает нам некий очень мощ­ный инструмент. Например, он дает нам возможность более строгим и точным образом формулировать и проверять гипотезы. Согласно же сильному AI, компьютер — это не просто инструмент в исследовании сознания; компьютер, запрограммированный подходящим образом, на самом деле и есть некое сознание в том смысле, что можно буквально сказать, что при наличии подходящих программ компьютеры понима­ют, а также обладают другими когнитивными состояниями. Согласно сильному AI, поскольку снабженный программой компьютер обладает когнитивными состояниями, программы — не просто средства, позво­ляющие нам проверять психологические объяснения; сами программы суть объяснения» (Сёрл Дж. (1998), "Сознание, мозг и программы". </t>
+      <t>, № 3. P. 417);
+«Какую психологическую и философскую значимость следует нам приписать недавним усилиям по компьютерному моделированию по­знавательных способностей человека? Я считаю, что, отвечая на этот вопрос, полезно отличать «сильный» AI (как я это называю) от «сла­бого» или «осторожного» AI (Artificial Intelligence — Искусственный Интеллект). Согласно слабому AI, основная ценность компьютера в изучении сознания состоит в том, что он дает нам некий очень мощ­ный инструмент. Например, он дает нам возможность более строгим и точным образом формулировать и проверять гипотезы. Согласно же сильному AI, компьютер — это не просто инструмент в исследовании сознания;компьютер, запрограммированный подходящим образом, на самом деле и есть некое сознание в том смысле, что можно буквально сказать, что при наличии подходящих программ компьютеры понима­ют, а также обладают другими когнитивными состояниями. Согласно сильному AI, поскольку снабженный программой компьютер обладает когнитивными состояниями, программы — не просто средства, позво­ляющие нам проверять психологические объяснения;сами программы суть объяснения» (Сёрл Дж. (1998), "Сознание, мозг и программы". _</t>
     </r>
     <r>
       <rPr>
@@ -5100,7 +5947,7 @@
         <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Аналитическая философия: становление и развитие.</t>
+      <t>Аналитическая философия: становление и развитие_.</t>
     </r>
     <r>
       <rPr>
@@ -5138,7 +5985,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Ясперс К. (1986), </t>
+      <t>Ясперс К. (1986), _</t>
     </r>
     <r>
       <rPr>
@@ -5147,7 +5994,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Современная техника. Новая технократическая волна на Западе: Сборник статей.</t>
+      <t>Современная техника. Новая технократическая волна на Западе: Сборник статей_.</t>
     </r>
     <r>
       <rPr>
@@ -5173,7 +6020,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">, In: Martin Heidegger, </t>
+      <t>, In: Martin Heidegger, _</t>
     </r>
     <r>
       <rPr>
@@ -5182,15 +6029,15 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Vorträge und Aufsätze.</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve"> Pfullingen: Neske, S. 13–44. (рус. пер.: Хайдеггер М. (1993), Вопрос о технике // Хайдеггер М. </t>
+      <t>Vorträge und Aufsätze_.</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve"> Pfullingen: Neske, S. 13–44. (рус. пер.: Хайдеггер М. (1993), Вопрос о технике // Хайдеггер М. _</t>
     </r>
     <r>
       <rPr>
@@ -5199,7 +6046,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Время и бытие</t>
+      <t>Время и бытие_</t>
     </r>
     <r>
       <rPr>
@@ -5217,7 +6064,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">"Техника возникает, когда для достижения цели вводятся промежуточные средства. Непосредственная деятельность, подобно дыханию, движению, принятию пищи, ещё не называется техникой. Лишь в том случае, если эти процессы совершаются неверно, и для того, чтобы выполнять их правильно, принимаются преднамеренные действия, говорят о технике дыхания, и так далее" (Ясперс К. (1986), "Современная техника". </t>
+      <t>"Техника возникает, когда для достижения цели вводятся промежуточные средства. Непосредственная деятельность, подобно дыханию, движению, принятию пищи, ещё не называется техникой. Лишь в том случае, если эти процессы совершаются неверно, и для того, чтобы выполнять их правильно, принимаются преднамеренные действия, говорят о технике дыхания, и так далее" (Ясперс К. (1986), "Современная техника". _</t>
     </r>
     <r>
       <rPr>
@@ -5226,7 +6073,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Новая технократическая волна на Западе. Сборник статей.</t>
+      <t>Новая технократическая волна на Западе. Сборник статей_.</t>
     </r>
     <r>
       <rPr>
@@ -5244,7 +6091,7 @@
         <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">"Техника не то же, что сущность техники. Отыскивая сущность дерева, мы неизбежно увидим: то, чем пронизано всякое дерево как таковое, само не есть дерево, которое можно было бы встретить среди прочих деревьев. Точно так же и сущность техники вовсе не есть что-то техническое. Мы поэтому никогда не осмыслим своего отношения к сущности техники, пока будем просто думать о ней, пользоваться ею, управляться с нею или избегать ее. Во всех этих случаях мы еще рабски прикованы к технике, безразлично, энтузиастически ли мы ее утверждаем или отвергаем. В самом злом плену у техники, однако, мы оказываемся тогда, когда усматриваем в ней что-то нейтральное; такое представление, в наши дни особенно распространенное, делает нас совершенно слепыми к ее существу". (Хайдеггер М. (1993), </t>
+      <t>"Техника не то же, что сущность техники. Отыскивая сущность дерева, мы неизбежно увидим: то, чем пронизано всякое дерево как таковое, само не есть дерево, которое можно было бы встретить среди прочих деревьев. Точно так же и сущность техники вовсе не есть что-то техническое. Мы поэтому никогда не осмыслим своего отношения к сущности техники, пока будем просто думать о ней, пользоваться ею, управляться с нею или избегать ее. Во всех этих случаях мы еще рабски прикованы к технике, безразлично, энтузиастически ли мы ее утверждаем или отвергаем. В самом злом плену у техники, однако, мы оказываемся тогда, когда усматриваем в ней что-то нейтральное;такое представление, в наши дни особенно распространенное, делает нас совершенно слепыми к ее существу". (Хайдеггер М. (1993), _</t>
     </r>
     <r>
       <rPr>
@@ -5253,7 +6100,7 @@
         <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Время и бытие: Статьи и выступления / </t>
+      <t xml:space="preserve">Время и бытие: Статьи и выступления_ / </t>
     </r>
     <r>
       <rPr>
@@ -5261,8 +6108,8 @@
         <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Пер. с нем. В.В. Бибихина. М.: Республика. С. 221);
-"Смысл и сущность техники. Власть над природой обретает смысл лишь при наличии целей, поставленных человеком, таких, как облегчение жизни, сокращение каждодневных усилий, затрачиваемых на обеспечение физического существования, увеличение досуга и удобств. Смысл техники состоит в освобождении от власти природы. Её назначение — освободить человека как животное существо от подчинения природе с её бедствиями, угрозами и оковами. Поэтому принцип техники заключается в целенаправленном манипулировании материалами и силами природы для реализации назначения человека. Технический человек не принимает преднайденное просто как оно есть. Он рассматривает вещи под углом зрения их ценности для реализации человеческих целей и пытается приблизить формы вещей к особенности этих целей (Дессауэр). Но это ещё не исчерпывает смысла техники. Создание орудий труда подчинено идее некоего единства, а именно единства в рамках постоянно расширяющегося при своей замкнутости преобразования человеком окружающей его среды. Животное находит среду уже данной, с которой оно, не сознавая этого, неразрывно связано. Человек, также пребывая в этой связи, выводит создаваемую им самим среду за границы этой связи, в беспредельность. Жизнь в среде, отчасти созданной им самим, является признаком самой сущности человека. Он находит себя в созданной им среде на только вследствие освобождения от нужды, но и в силу воздействия на него красоты, соразмерности и формы им сотворённого. Он утверждает свою реальность, по мере того как расширяет свою среду" (Ясперс К. (1986), "Современная техника". </t>
+      <t>Пер. с нем. В.В. Бибихина. М.: Республика. С. 221);
+"Смысл и сущность техники. Власть над природой обретает смысл лишь при наличии целей, поставленных человеком, таких, как облегчение жизни, сокращение каждодневных усилий, затрачиваемых на обеспечение физического существования, увеличение досуга и удобств. Смысл техники состоит в освобождении от власти природы. Её назначение — освободить человека как животное существо от подчинения природе с её бедствиями, угрозами и оковами. Поэтому принцип техники заключается в целенаправленном манипулировании материалами и силами природы для реализации назначения человека. Технический человек не принимает преднайденное просто как оно есть. Он рассматривает вещи под углом зрения их ценности для реализации человеческих целей и пытается приблизить формы вещей к особенности этих целей (Дессауэр). Но это ещё не исчерпывает смысла техники. Создание орудий труда подчинено идее некоего единства, а именно единства в рамках постоянно расширяющегося при своей замкнутости преобразования человеком окружающей его среды. Животное находит среду уже данной, с которой оно, не сознавая этого, неразрывно связано. Человек, также пребывая в этой связи, выводит создаваемую им самим среду за границы этой связи, в беспредельность. Жизнь в среде, отчасти созданной им самим, является признаком самой сущности человека. Он находит себя в созданной им среде на только вследствие освобождения от нужды, но и в силу воздействия на него красоты, соразмерности и формы им сотворённого. Он утверждает свою реальность, по мере того как расширяет свою среду" (Ясперс К. (1986), "Современная техника". _</t>
     </r>
     <r>
       <rPr>
@@ -5271,7 +6118,7 @@
         <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Новая технократическая волна на Западе. Сборник статей.</t>
+      <t>Новая технократическая волна на Западе. Сборник статей_.</t>
     </r>
     <r>
       <rPr>
@@ -5315,7 +6162,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Barbour I.G. (1980), </t>
+      <t>Barbour I.G. (1980), _</t>
     </r>
     <r>
       <rPr>
@@ -5324,16 +6171,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Technology, Environment, and Human Values. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">New York: N.Y: Praeger;
-Grunwald A. (2010), </t>
+      <t xml:space="preserve">Technology, Environment, and Human Values_. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>New York: N.Y: Praeger;
+Grunwald A. (2010), _</t>
     </r>
     <r>
       <rPr>
@@ -5342,7 +6189,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Technikfolgenabschätzung – Eine Einführung.</t>
+      <t>Technikfolgenabschätzung – Eine Einführung_.</t>
     </r>
     <r>
       <rPr>
@@ -5351,7 +6198,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> Berlin: Edition Sigma;
-Грунвальд А. (2008), На пути к теории социальной оценки техники // </t>
+Грунвальд А. (2008), На пути к теории социальной оценки техники // _</t>
     </r>
     <r>
       <rPr>
@@ -5360,7 +6207,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Эпистемология &amp; философия науки.</t>
+      <t>Эпистемология &amp; философия науки_.</t>
     </r>
     <r>
       <rPr>
@@ -5369,7 +6216,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> Т. XVII, № 3. С. 35–56;
-Горохов В.Г. (2006), Междисциплинарные исследования научно-технического развития и инновационная политика // </t>
+Горохов В.Г. (2006), Междисциплинарные исследования научно-технического развития и инновационная политика // _</t>
     </r>
     <r>
       <rPr>
@@ -5378,7 +6225,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Вопросы философии.</t>
+      <t>Вопросы философии_.</t>
     </r>
     <r>
       <rPr>
@@ -5427,12 +6274,12 @@
         <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">«Technology assessment in action seems to work well in its diversity without having a theory-based overall picture of itself. But the question of the expected added value of a more coherent picture of technology assessment as a result of theorizing has to be answered. Taking seriously the primacy of practice over theory in TA implies that theorizing technology assessment has to contribute to improving its practice, either directly or indirectly. 
+      <t>«Technology assessment in action seems to work well in its diversity without having a theory-based overall picture of itself. But the question of the expected added value of a more coherent picture of technology assessment as a result of theorizing has to be answered. Taking seriously the primacy of practice over theory in TA implies that theorizing technology assessment has to contribute to improving its practice, either directly or indirectly. 
 Under the umbrella of this overarching postulate, it can be argued that theoretical effort should be in the service of enhancing TA’s capability to meet practical challenges by:
 - Establishing a common understanding of terms and notions widely used in TA, such as technology, impact, consequences, outcome, risk, acceptance, acceptability, uncertainty, 
 innovation, governance, sustainable development, legitimization. If a common understanding is not possible, then at the minimum a map of meanings should be provided for different contexts to improve mutual understanding across the TA community and beyond.
-- Determining the conceptual core of technology assessment by generalizing from many individual cases in practice &lt;…&gt;» (Grunwald A. (2019), Technology assessment in practice and theory. Routledge: Abingdon, Oxon ; New York, NY. P. 6);
-«...Постбэконовский творец (homo creator) может создавать, не понимая. В этом заключена главная особенность научно-технической деятельности на современном этапе развития. Инженер-инноватор творит в условиях дефицита знания, в зоне бифуркации. Именно поэтому принцип неопределенности становится основополагающим для социальной оценки техники. Сама неопределенность неустранима, риска избежать невозможно, но можно свести его к минимуму, конструируя прогностические вероятностные модели» (Середкина Е.В. (2017), «Социальная оценка техники в поворотные времена: вызовы трансдисциплинарности и национального», </t>
+- Determining the conceptual core of technology assessment by generalizing from many individual cases in practice &lt;…&gt;» (Grunwald A. (2019), Technology assessment in practice and theory. Routledge: Abingdon, Oxon ;New York, NY. P. 6);
+«...Постбэконовский творец (homo creator) может создавать, не понимая. В этом заключена главная особенность научно-технической деятельности на современном этапе развития. Инженер-инноватор творит в условиях дефицита знания, в зоне бифуркации. Именно поэтому принцип неопределенности становится основополагающим для социальной оценки техники. Сама неопределенность неустранима, риска избежать невозможно, но можно свести его к минимуму, конструируя прогностические вероятностные модели» (Середкина Е.В. (2017), «Социальная оценка техники в поворотные времена: вызовы трансдисциплинарности и национального», _</t>
     </r>
     <r>
       <rPr>
@@ -5441,7 +6288,7 @@
         <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Вестник ПНИПУ. Культура. История. Философия. Право. </t>
+      <t xml:space="preserve">Вестник ПНИПУ. Культура. История. Философия. Право_. </t>
     </r>
     <r>
       <rPr>
@@ -5449,8 +6296,8 @@
         <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">№ 2. С. 69);
-«Социальная, или, лучше сказать, междисциплинарная оценка техники, а точнее – научно-технического развития, не является классической научной дисциплиной. Это феномен нашего времени, возникший в связи с пониманием значимости общественного влияния на процессы принятия решений в сфере научно-технического развития. Вместе с тем хотя социальная оценка техники не может быть причислена к научным дисциплинам классического типа, а является неклассическим меж- и трансдисциплинарным исследованием, это не исключает для нее возможности сформировать особую дисциплинарную организацию и стать комплексной научно-технической дисциплиной, подобной системотехнике или системному анализу. Для этого необходимо организовать специальное профессиональное образование в этой области, которое должно быть не только междисциплинарным, но и интернациональным» (Горохов В.Г., Грунвальд А. (2011), «Каждая инновация имеет социальный характер (Социальная оценка техники как прикладная философия техники)», </t>
+      <t>№ 2. С. 69);
+«Социальная, или, лучше сказать, междисциплинарная оценка техники, а точнее – научно-технического развития, не является классической научной дисциплиной. Это феномен нашего времени, возникший в связи с пониманием значимости общественного влияния на процессы принятия решений в сфере научно-технического развития. Вместе с тем хотя социальная оценка техники не может быть причислена к научным дисциплинам классического типа, а является неклассическим меж- и трансдисциплинарным исследованием, это не исключает для нее возможности сформировать особую дисциплинарную организацию и стать комплексной научно-технической дисциплиной, подобной системотехнике или системному анализу. Для этого необходимо организовать специальное профессиональное образование в этой области, которое должно быть не только междисциплинарным, но и интернациональным» (Горохов В.Г., Грунвальд А. (2011), «Каждая инновация имеет социальный характер (Социальная оценка техники как прикладная философия техники)», _</t>
     </r>
     <r>
       <rPr>
@@ -5459,7 +6306,7 @@
         <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Высшее образование в России</t>
+      <t>Высшее образование в России_</t>
     </r>
     <r>
       <rPr>
@@ -5467,8 +6314,8 @@
         <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">, №5. С. 144);
-«Eine Technikfolgenbeurteilung in dem Sinn, daß bestimmte Handlungen als geboten, erlaubt oder verboten ausgezeichnet werden, übernimmt die Rolle, die traditionellerweise einer philosophischen Disziplin zukommt, nämlich der Ethik, der Rechtfertigung von Handlungen. Allerdings setzt ein frühes Abschätzen von Technikfolgen in komplexen Umständen ein hohes Maß an prognostischen Fähigkeiten voraus, so daß man zweifeln kann, ob es eine Technikfolgenabschätzung in relevantem Ausmaß je geben wird und ob eine philosophische Technikbeurteilung im hier exemplarisch entwickelten Sinn zu einem hinreichend genauen Urteil und zu einem nicht nur verantworteten, sondern auch wirksamen und für die Zukunft wünschbaren Handeln, zu einem reflektierten Planen führen kann. &lt;…&gt; Will man aus einer Technikbeurteilung Orientierungen des menschlichen Handelns folgern, dann muß eine spezifische normative Rationalität ausgebildet werden. Die Skepsis gegen die soziologische Technikfolgenabschätzung führt hier dazu, als Alternative eine Ethik der Technik bzw. des technischen Handelns vorzuschlagen. Sie übernimmt die Aufgabe, diese Rechtfertigungsrationalität herauszuarbeiten». (Gethmann-Siefert A. (Hg.) (2000), </t>
+      <t>, №5. С. 144);
+«Eine Technikfolgenbeurteilung in dem Sinn, daß bestimmte Handlungen als geboten, erlaubt oder verboten ausgezeichnet werden, übernimmt die Rolle, die traditionellerweise einer philosophischen Disziplin zukommt, nämlich der Ethik, der Rechtfertigung von Handlungen. Allerdings setzt ein frühes Abschätzen von Technikfolgen in komplexen Umständen ein hohes Maß an prognostischen Fähigkeiten voraus, so daß man zweifeln kann, ob es eine Technikfolgenabschätzung in relevantem Ausmaß je geben wird und ob eine philosophische Technikbeurteilung im hier exemplarisch entwickelten Sinn zu einem hinreichend genauen Urteil und zu einem nicht nur verantworteten, sondern auch wirksamen und für die Zukunft wünschbaren Handeln, zu einem reflektierten Planen führen kann. &lt;…&gt; Will man aus einer Technikbeurteilung Orientierungen des menschlichen Handelns folgern, dann muß eine spezifische normative Rationalität ausgebildet werden. Die Skepsis gegen die soziologische Technikfolgenabschätzung führt hier dazu, als Alternative eine Ethik der Technik bzw. des technischen Handelns vorzuschlagen. Sie übernimmt die Aufgabe, diese Rechtfertigungsrationalität herauszuarbeiten». (Gethmann-Siefert A. (Hg.) (2000), _</t>
     </r>
     <r>
       <rPr>
@@ -5477,7 +6324,7 @@
         <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Philosophie und Technik</t>
+      <t>Philosophie und Technik_</t>
     </r>
     <r>
       <rPr>
@@ -5508,11 +6355,103 @@
 Роберт Хейльбронер (Robert L. Heilbroner)</t>
   </si>
   <si>
-    <t>Trist E.L. (1981), The Evolution of Socio-technical Systems: a Conceptual Framework and an Action Research Program. Toronto: Ontario Ministry of Labour, Ontario Quality of Working Life Centre;
-Johnson D.G., Wetmore J.M. (2009), Technology and Society: Building Our Sociotechnical Future. Cambridge, Massachusetts: MIT Press;
-Douglas D.G. (2012), The Social Construction of Technological Systems, Anniversary Edition: New Directions in the Sociology and History of Technology. Cambridge, Massachusetts: MIT Press.;
-Małgorzata Pańkowska (2021), Handbook of Research on Autopoiesis and Self-Sustaining Processes for Organizational Success. Hershey, PA : IGI Global.;
-Jeremy Stranks (2007) Human Factors and Behavioural Safety. London: Routledge.</t>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Trist E.L. (1981), _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>The Evolution of Socio-technical Systems: a Conceptual Framework and an Action Research Program</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>_. Toronto: Ontario Ministry of Labour, Ontario Quality of Working Life Centre;
+Johnson D.G., Wetmore J.M. (2009), _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Technology and Society: Building Our Sociotechnical Future</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>_. Cambridge, Massachusetts: MIT Press;
+Douglas D.G. (2012), _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>The Social Construction of Technological Systems, Anniversary Edition: New Directions in the Sociology and History of Technology</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>_. Cambridge, Massachusetts: MIT Press.;
+Małgorzata Pańkowska (2021), _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Handbook of Research on Autopoiesis and Self-Sustaining Processes for Organizational Success</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>_. Hershey, PA : IGI Global.;
+Jeremy Stranks (2007), _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Human Factors and Behavioural Safety</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>_. London: Routledge.</t>
+    </r>
   </si>
   <si>
     <t>Европейская ассоциация по изучению науки и техники (European Association for the Study of Science and Technology);
@@ -5524,11 +6463,52 @@
 Социальная психология (Social Psychology)</t>
   </si>
   <si>
-    <t xml:space="preserve">"System taking into account social and technical aspects, social interactions between its autonomous technical components and between social participants and the relevant technical components."
-"Система, учитывающая социальные и технические аспекты, социальные взаимодействия между ее автономными техническими компонентами и между социальными участниками и соответствующими техническими компонентами." - Autopoietic Cognitive Systems in Management Applications: A Critical Review, in Małgorzata Pańkowska (2021), Handbook of Research on Autopoiesis and Self-Sustaining Processes for Organizational Success. Hershey, PA : IGI Global.;
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>"System taking into account social and technical aspects, social interactions between its autonomous technical components and between social participants and the relevant technical components."
+"Система, учитывающая социальные и технические аспекты, социальные взаимодействия между ее автономными техническими компонентами и между социальными участниками и соответствующими техническими компонентами." - Autopoietic Cognitive Systems in Management Applications: A Critical Review, in Małgorzata Pańkowska (2021), _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Handbook of Research on Autopoiesis and Self-Sustaining Processes for Organizational Success_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>. Hershey, PA : IGI Global.;
 "Fundamentally, in the development of organizations, ‘sociotechnical systems’ is an approach to complex organizational work design that recognizes the interaction between people and technology in workplaces. The term also refers to the interaction between society’s complex infrastructures and human behaviour. Within this concept, society itself and most of its substructures, are complex sociotechnical systems."
-"В своей основе, в сфере развития организаций "социотехнические системы" - это подход к проектированию сложной организационной работы, который признает взаимодействие между людьми и технологиями на рабочих местах. Этот термин также относится к взаимодействию между сложными инфраструктурами общества и поведением людей. В рамках этой концепции само общество и большинство его подструктур являются сложными социотехническими системами". - Jeremy Stranks (2007) Human Factors and Behavioural Safety. London: Routledge.
+"В своей основе, в сфере развития организаций "социотехнические системы" - это подход к проектированию сложной организационной работы, который признает взаимодействие между людьми и технологиями на рабочих местах. Этот термин также относится к взаимодействию между сложными инфраструктурами общества и поведением людей. В рамках этой концепции само общество и большинство его подструктур являются сложными социотехническими системами". - Jeremy Stranks (2007), _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Human Factors and Behavioural Safety_.</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve"> London: Routledge.
 </t>
+    </r>
   </si>
   <si>
     <r>
@@ -5537,7 +6517,7 @@
         <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">"Fundamentally, in the development of organizations, ‘sociotechnical systems’ is an approach to complex organizational work design that recognizes the interaction between people and technology in workplaces. The term also refers to the interaction between society’s complex infrastructures and human behaviour. Within this concept, society itself and most of its substructures, are complex sociotechnical systems.
+      <t>"Fundamentally, in the development of organizations, ‘sociotechnical systems’ is an approach to complex organizational work design that recognizes the interaction between people and technology in workplaces. The term also refers to the interaction between society’s complex infrastructures and human behaviour. Within this concept, society itself and most of its substructures, are complex sociotechnical systems.
 Sociotechnical systems theory is an approach to the design and management of systems that aims to satisfy four closely related objectives:
 - user satisfaction,
 - system efficiency,
@@ -5545,7 +6525,7 @@
 - effective change management.
 The approach is commonly used in managing organizational change or in certain projects where business process re-engineering may be involved.
 Human factors has an important role in the sociotechnical system, involving areas such as job design, task analysis, job enrichment, job enlargement, job rotation, motivation, satisfaction, autonomy, process improvement and the move towards self-managing teams in the workplace. Sociotechnical systems theory has two important objectives:
-1) to design systems that improve the welfare and quality of users’ lives; and
+1) to design systems that improve the welfare and quality of users’ lives;and
 2) to improve the performance of the organization by adding shareholder value, increasing productivity and competitiveness."
 "В своей основе, в сфере развития организаций "социотехнические системы" - это подход к проектированию сложной организационной работы, который признает взаимодействие между людьми и технологиями на рабочих местах. Этот термин также относится к взаимодействию между сложными инфраструктурами общества и поведением людей. В рамках этой концепции само общество и большинство его подструктур являются сложными социотехническими системами. Теория социотехнических систем - это подход к проектированию и управлению системами, направленный на достижение четырех тесно связанных между собой целей:
 - удовлетворение потребностей пользователей,
@@ -5557,7 +6537,7 @@
 1) разработка систем, улучшающих благосостояние и качество жизни пользователей
 жизни пользователей, 
 2) повышение эффективности работы организации за счет увеличения акционерной стоимости, повышения производительности и конкурентоспособности." 
-(Stranks J. (2007), </t>
+(Stranks J. (2007), _</t>
     </r>
     <r>
       <rPr>
@@ -5566,7 +6546,7 @@
         <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Human Factors and Behavioural Safety</t>
+      <t>Human Factors and Behavioural Safety_</t>
     </r>
     <r>
       <rPr>
@@ -5596,14 +6576,157 @@
 Саша Дикель, Кристоф Шнайдер, Каролина Тим, Клара-Эйлин Вентен (Sascha Dickel, Christoph Schneider, Carolin Thiem, Klara-Aylin Wenten)</t>
   </si>
   <si>
-    <t xml:space="preserve">Jasanoff S., Kim, S.-H. (2009), "Containing the Atom: Sociotechnical Imaginaries and Nuclear Power in the United States and South Korea", Minerva, № 2, pp. 119-146.;
-Solbu G. (2018), "The Physiology of Imagined Publics: From a Deficit to an Ambivalence Model", Science &amp; Technology Studies, № 2, pp. 39–54.;
-Aspria M., Mul M. de Adams S., Bal R. (2016), "Of Blooming Flowers and Multiple Sockets: The Role of Metaphors in the Politics of Infrastructural Work", Science &amp; Technology Studies, № 3, pp. 68–87.;
-Faulkner A. (2017), "Bioinformatics Imaginaries in the Engine-Room of Genomic Health Policy: Integration and Heterogeneity in India and the UK", Science &amp; Technology Studies, № 3, pp. 35–53.;
-Chiang S.-N. (2020), "Futures in the Making", Science &amp; Technology Studies, № 4, pp. 72-75.;
-Dickel S., Schneider C., Thiem, C., Wenten K.-A. (2019), "Engineering Publics: The Different Modes of Civic Technoscience", Science &amp; Technology Studies, № 2, pp. 8–23.;
-Jacqueline Hettel Tidwell, Abraham S.D. Tidwell (2018), "Energy ideals, visions, narratives, and rhetoric: Examining sociotechnical imaginaries theory and methodology in energy research", Energy Research &amp; Social Science, Vol. 39, P. 103-107;
-Jasanoff S., Kim, S.-H. (2022) Dreamscapes of Modernity. Sociotechnical Imaginaries and the Fabrication of Power. Chicago, London: The University of Chicago Press </t>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Jasanoff S., Kim, S.-H. (2009), "Containing the Atom: Sociotechnical Imaginaries and Nuclear Power in the United States and South Korea", _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Minerva</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>_, № 2, pp. 119-146.;
+Solbu G. (2018), "The Physiology of Imagined Publics: From a Deficit to an Ambivalence Model", _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Science &amp; Technology Studies</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>_, № 2, pp. 39–54.;
+Aspria M., Mul M. de Adams S., Bal R. (2016), "Of Blooming Flowers and Multiple Sockets: The Role of Metaphors in the Politics of Infrastructural Work", _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Science &amp; Technology Studies_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>, № 3, pp. 68–87.;
+Faulkner A. (2017), "Bioinformatics Imaginaries in the Engine-Room of Genomic Health Policy: Integration and Heterogeneity in India and the UK", _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Science &amp; Technology Studies</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>_, № 3, pp. 35–53.;
+Chiang S.-N. (2020), "Futures in the Making", _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Science &amp; Technology Studies_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>, № 4, pp. 72-75.;
+Dickel S., Schneider C., Thiem, C., Wenten K.-A. (2019), "Engineering Publics: The Different Modes of Civic Technoscience", _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Science &amp; Technology Studies_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>, № 2, pp. 8–23.;
+Jacqueline Hettel Tidwell, Abraham S.D. Tidwell (2018), "Energy ideals, visions, narratives, and rhetoric: Examining sociotechnical imaginaries theory and methodology in energy research", _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Energy Research &amp; Social Science_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>, Vol. 39, P. 103-107;
+Jasanoff S., Kim, S.-H. (2022), _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Dreamscapes of Modernity. Sociotechnical Imaginaries and the Fabrication of Power</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">_. Chicago, London: The University of Chicago Press </t>
+    </r>
   </si>
   <si>
     <t>Европейская ассоциация по изучению науки и техники (European Association for the Study of Science and Technology);
@@ -5625,8 +6748,8 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">“Collectively imagined forms of social life and social order reflected in the design and fulfillment of nation- specific scientific and/or technological projects”
-«Коллективно представляемые формы общественной жизни и общественного порядка, отраженные в разработке и реализации национальных научных и/или технологических проектов» (Jasanoff S., Kim, S.-H. (2009), "Containing the Atom: Sociotechnical Imaginaries and Nuclear Power in the United States and South Korea". </t>
+      <t>“Collectively imagined forms of social life and social order reflected in the design and fulfillment of nation- specific scientific and/or technological projects”
+«Коллективно представляемые формы общественной жизни и общественного порядка, отраженные в разработке и реализации национальных научных и/или технологических проектов» (Jasanoff S., Kim, S.-H. (2009), "Containing the Atom: Sociotechnical Imaginaries and Nuclear Power in the United States and South Korea". _</t>
     </r>
     <r>
       <rPr>
@@ -5635,7 +6758,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Minerva, № 2.</t>
+      <t>Minerva_, № 2.</t>
     </r>
     <r>
       <rPr>
@@ -5645,7 +6768,7 @@
       </rPr>
       <t xml:space="preserve"> Зp. 119-146.;
 "Taking these complexities into account, we redefine sociotechnical imaginaries in this book as collectively held, institutionally stabilized, and publicly performed visions of desirable futures, animated by shared understandings of forms of social life and social order attainable through, and supportive of, advances in science and technology."
-"Принимая во внимание эти сложности, мы переопределяем социотехнические фантазии в этой книге как коллективно удерживаемые, институционально стабилизированные и публично реализованные видения желательного будущего, оживленные общим пониманием форм социальной жизни и социального порядка, достижимых через и поддерживая достижения в науке и технике." (Jasanoff S., Kim, S.-H. (2022), </t>
+"Принимая во внимание эти сложности, мы переопределяем социотехнические фантазии в этой книге как коллективно удерживаемые, институционально стабилизированные и публично реализованные видения желательного будущего, оживленные общим пониманием форм социальной жизни и социального порядка, достижимых через и поддерживая достижения в науке и технике." (Jasanoff S., Kim, S.-H. (2022), _</t>
     </r>
     <r>
       <rPr>
@@ -5654,7 +6777,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Dreamscapes of Modernity. Sociotechnical Imaginaries and the Fabrication of Power.</t>
+      <t>Dreamscapes of Modernity. Sociotechnical Imaginaries and the Fabrication of Power_.</t>
     </r>
     <r>
       <rPr>
@@ -5672,8 +6795,8 @@
         <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">"Sociotechnical imaginaries emerged in the last decade as a potentially fruitful approach to understanding how collective social values inflect on the production of scientific knowledge and the design of technological systems. Yet insights generated to date have focused on the categories experts use to define a society’s idealized organization, either as the direct subject of analysis by documentary analysis or through the ways such categories circumscribe the field of authorized “values” open for adjudication in public engagement events. We argue that sociotechnical imaginaries require a new methodological framework for designing research in order to examine the collective values of citizens as they live their daily lives, rather than focusing on experts and the state in order to understand the shared moral, material, and scientific goals of a society". 
-"Социотехнические фантазии появились в последнее десятилетие как потенциально плодотворный подход к пониманию того, как коллективные социальные ценности влияют на производство научных знаний и проектирование технологических систем. Тем не менее, до сегодняшнего дня в центре внимания находились категории, используемые экспертами для определения идеализированной организации общества, либо как непосредственный предмет анализа с помощью документального анализа, либо через способы, которыми такие категории ограничивают поле санкционированных "ценностей", открытых для обсуждения в рамках мероприятий по вовлечению общественности. Мы утверждаем, что социотехнические воображаемые требуют новой методологической основы для проектирования исследований, чтобы изучать коллективные ценности граждан в их повседневной жизни, а не фокусироваться на экспертах и государстве, чтобы понять общие моральные, материальные и научные цели общества". (Jacqueline Hettel Tidwell, Abraham S.D. Tidwell (2018), "Energy ideals, visions, narratives, and rhetoric: Examining sociotechnical imaginaries theory and methodology in energy research". </t>
+      <t>"Sociotechnical imaginaries emerged in the last decade as a potentially fruitful approach to understanding how collective social values inflect on the production of scientific knowledge and the design of technological systems. Yet insights generated to date have focused on the categories experts use to define a society’s idealized organization, either as the direct subject of analysis by documentary analysis or through the ways such categories circumscribe the field of authorized “values” open for adjudication in public engagement events. We argue that sociotechnical imaginaries require a new methodological framework for designing research in order to examine the collective values of citizens as they live their daily lives, rather than focusing on experts and the state in order to understand the shared moral, material, and scientific goals of a society". 
+"Социотехнические фантазии появились в последнее десятилетие как потенциально плодотворный подход к пониманию того, как коллективные социальные ценности влияют на производство научных знаний и проектирование технологических систем. Тем не менее, до сегодняшнего дня в центре внимания находились категории, используемые экспертами для определения идеализированной организации общества, либо как непосредственный предмет анализа с помощью документального анализа, либо через способы, которыми такие категории ограничивают поле санкционированных "ценностей", открытых для обсуждения в рамках мероприятий по вовлечению общественности. Мы утверждаем, что социотехнические воображаемые требуют новой методологической основы для проектирования исследований, чтобы изучать коллективные ценности граждан в их повседневной жизни, а не фокусироваться на экспертах и государстве, чтобы понять общие моральные, материальные и научные цели общества". (Jacqueline Hettel Tidwell, Abraham S.D. Tidwell (2018), "Energy ideals, visions, narratives, and rhetoric: Examining sociotechnical imaginaries theory and methodology in energy research". _</t>
     </r>
     <r>
       <rPr>
@@ -5682,7 +6805,7 @@
         <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Energy Research &amp; Social Science</t>
+      <t>Energy Research &amp; Social Science_</t>
     </r>
     <r>
       <rPr>
@@ -5690,9 +6813,9 @@
         <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">, Vol. 39. P. 103-107);
+      <t>, Vol. 39. P. 103-107);
 "Our starting point is the definition Sang-Hyun Kim and I offered in an earlier study of US and South Korean responses to nuclear power: national sociotechnical imaginaries are “collectively imagined forms of social life and social order reflected in the design and fulfillment of nation-specific scientific and/or technological projects” (Jasanoff and Kim 2009, 120). 
-"Нашей отправной точкой является определение, которое Сан Хён Ким и я предложили в более раннем исследовании реакции США и Южной Кореи на ядерную энергетику: национальные социотехнические образы - это «коллективно воображаемые формы социальной жизни и социального порядка, отраженные в разработке и реализации национальных научных и/или технологических проектов» (Jasanoff and Kim 2009, 120)". (Jasanoff S., Kim, S.-H. (2009), "Containing the Atom: Sociotechnical Imaginaries and Nuclear Power in the United States and South Korea". </t>
+"Нашей отправной точкой является определение, которое Сан Хён Ким и я предложили в более раннем исследовании реакции США и Южной Кореи на ядерную энергетику: национальные социотехнические образы - это «коллективно воображаемые формы социальной жизни и социального порядка, отраженные в разработке и реализации национальных научных и/или технологических проектов» (Jasanoff and Kim 2009, 120)". (Jasanoff S., Kim, S.-H. (2009), "Containing the Atom: Sociotechnical Imaginaries and Nuclear Power in the United States and South Korea". _</t>
     </r>
     <r>
       <rPr>
@@ -5701,7 +6824,7 @@
         <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Minerva</t>
+      <t>Minerva_</t>
     </r>
     <r>
       <rPr>
@@ -5709,9 +6832,9 @@
         <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">, № 2. Зp. 119-146);
+      <t>, № 2. Зp. 119-146);
 "Taking these complexities into account, we redefine sociotechnical imaginaries in this book as collectively held, institutionally stabilized, and publicly performed visions of desirable futures, animated by shared understandings of forms of social life and social order attainable through, and supportive of, advances in science and technology."
-"Принимая во внимание эти сложности, мы переопределяем социотехнические фантазии в этой книге как коллективно удерживаемые, институционально стабилизированные и публично реализованные видения желательного будущего, оживленные общим пониманием форм социальной жизни и социального порядка, достижимых через и поддерживая достижения в науке и технике." (Jasanoff S., Kim, S.-H. (2022), </t>
+"Принимая во внимание эти сложности, мы переопределяем социотехнические фантазии в этой книге как коллективно удерживаемые, институционально стабилизированные и публично реализованные видения желательного будущего, оживленные общим пониманием форм социальной жизни и социального порядка, достижимых через и поддерживая достижения в науке и технике." (Jasanoff S., Kim, S.-H. (2022), _</t>
     </r>
     <r>
       <rPr>
@@ -5720,7 +6843,7 @@
         <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Dreamscapes of Modernity. Sociotechnical Imaginaries and the Fabrication of Power.</t>
+      <t>Dreamscapes of Modernity. Sociotechnical Imaginaries and the Fabrication of Power_.</t>
     </r>
     <r>
       <rPr>
@@ -5751,7 +6874,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Turing A. (1950), "Computing Machinery and Intelligence", </t>
+      <t>Turing A. (1950), "Computing Machinery and Intelligence", _</t>
     </r>
     <r>
       <rPr>
@@ -5760,7 +6883,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Mind, №</t>
+      <t>Mind_, №</t>
     </r>
     <r>
       <rPr>
@@ -5784,7 +6907,7 @@
         <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">«The new form of the problem can be described in terms of a game which we call the ‘imitation game’... In any case there is no intention to investigate here the theory of the game, and it will be assumed that the best strategy is  to try to provide answers that would naturally be given by a man» (Turing A. (1950), "Computing Machinery and Intelligence". </t>
+      <t>«The new form of the problem can be described in terms of a game which we call the ‘imitation game’... In any case there is no intention to investigate here the theory of the game, and it will be assumed that the best strategy is  to try to provide answers that would naturally be given by a man» (Turing A. (1950), "Computing Machinery and Intelligence". _</t>
     </r>
     <r>
       <rPr>
@@ -5793,7 +6916,7 @@
         <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Mind</t>
+      <t>Mind_</t>
     </r>
     <r>
       <rPr>
@@ -5802,7 +6925,24 @@
         <sz val="12.0"/>
       </rPr>
       <t>, № 236. P. 433, 435);
-«Нашу новую задачу представляется возможным описать в терминах игры, которую мы назовем игрой в имитацию... В любом случае у нас нет намерения углубляться в теорию игр, поэтому можно допустить, что наилучшей стратегией для машины будет предлагать исследователю ответы того типа, какие в данных обстоятельствах давал бы человек» (Тьюринг А. (2018), Вычислительные машины и разум. Москва: Издательство АСТ. С. 4, 13).</t>
+«Нашу новую задачу представляется возможным описать в терминах игры, которую мы назовем игрой в имитацию... В любом случае у нас нет намерения углубляться в теорию игр, поэтому можно допустить, что наилучшей стратегией для машины будет предлагать исследователю ответы того типа, какие в данных обстоятельствах давал бы человек» (Тьюринг А. (2018), _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Вычислительные машины и разум_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>. Москва: Издательство АСТ. С. 4, 13).</t>
     </r>
   </si>
   <si>
@@ -5857,7 +6997,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Ortega y Gasset J. (1935), </t>
+      <t>Ortega y Gasset J. (1935), _</t>
     </r>
     <r>
       <rPr>
@@ -5866,15 +7006,15 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Meditacion de la tecnica. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">Buenos Aires: La Nación (рус. пер.: Ортега-и-Гассет Х. (1993), Размышления о технике. // </t>
+      <t xml:space="preserve">Meditacion de la tecnica_. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Buenos Aires: La Nación (рус. пер.: Ортега-и-Гассет Х. (1993), Размышления о технике. // _</t>
     </r>
     <r>
       <rPr>
@@ -5883,16 +7023,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Журнал «Вопросы философии»</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">, № 5, С. 164–232.);
-Ясперс К. (1986), </t>
+      <t>Журнал «Вопросы философии»_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>, № 5, С. 164–232.);
+Ясперс К. (1986), _</t>
     </r>
     <r>
       <rPr>
@@ -5901,7 +7041,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Современная техника. Новая технократическая волна на Западе: Сборник статей.</t>
+      <t>Современная техника. Новая технократическая волна на Западе: Сборник статей_.</t>
     </r>
     <r>
       <rPr>
@@ -5910,7 +7050,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> М.: Прогресс;
-Jünger F.G. (1946) </t>
+Jünger F.G. (1946), _</t>
     </r>
     <r>
       <rPr>
@@ -5919,15 +7059,15 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Die Perfektion der Technik.</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve"> Frankfurt a. M.: Vittorio Klostermann GmbH (рус. пер.: Юнгер Ф.Г. (2002), </t>
+      <t>Die Perfektion der Technik_.</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve"> Frankfurt a. M.: Vittorio Klostermann GmbH (рус. пер.: Юнгер Ф.Г. (2002), _</t>
     </r>
     <r>
       <rPr>
@@ -5936,7 +7076,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Совершенство техники.</t>
+      <t>Совершенство техники_.</t>
     </r>
     <r>
       <rPr>
@@ -5954,15 +7094,15 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve"> The Myth of the Machine.</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve"> San Diego: Harcourt (рус. пер.: Мамфорд, Л. (2001), </t>
+      <t xml:space="preserve"> _The Myth of the Machine_.</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve"> San Diego: Harcourt (рус. пер.: Мамфорд, Л. (2001), _</t>
     </r>
     <r>
       <rPr>
@@ -5971,7 +7111,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Миф машины. Техника и развитие человечества.</t>
+      <t>Миф машины. Техника и развитие человечества_.</t>
     </r>
     <r>
       <rPr>
@@ -5980,7 +7120,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> / Перевод с английского: Т. Азаркович, Б. Скуратов, М.: Логос;
-Heidegger M. (1954), Die Frage nach der Technik, in: Martin Heidegger, </t>
+Heidegger M. (1954), Die Frage nach der Technik, in: Martin Heidegger, _</t>
     </r>
     <r>
       <rPr>
@@ -5989,15 +7129,15 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Vorträge und Aufsätze</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">. Pfullingen: Neske, S. 13–44. (рус. пер.: Хайдеггер М. (1993), Вопрос о технике // Хайдеггер М. </t>
+      <t>Vorträge und Aufsätze_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>. Pfullingen: Neske, S. 13–44. (рус. пер.: Хайдеггер М. (1993), Вопрос о технике // Хайдеггер М. _</t>
     </r>
     <r>
       <rPr>
@@ -6006,16 +7146,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Время и бытие (статьи и выступления) </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">/ Пер. с нем. и комм. В.В. Бибихина. М.: Республика. С. 221-238.);
-Spengler O. (1931), </t>
+      <t xml:space="preserve">Время и бытие_ (статьи и выступления) </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>/ Пер. с нем. и комм. В.В. Бибихина. М.: Республика. С. 221-238.);
+Spengler O. (1931), _</t>
     </r>
     <r>
       <rPr>
@@ -6024,16 +7164,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Der Mensch und die Technik. Beitrag zu einer Philosophie des Lebens. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">München: C.H. Beck’sche Verlagsbuchhandlung;
-Митчем К. (1995), </t>
+      <t xml:space="preserve">Der Mensch und die Technik. Beitrag zu einer Philosophie des Lebens_. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>München: C.H. Beck’sche Verlagsbuchhandlung;
+Митчем К. (1995), _</t>
     </r>
     <r>
       <rPr>
@@ -6042,16 +7182,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Что такое философия техники? </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">/ Под ред. проф. Горохова В. Г. М.: Аспект Пресс;
-Mitcham C., Mackey R. (eds.). (1983), </t>
+      <t xml:space="preserve">Что такое философия техники?_ </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>/ Под ред. проф. Горохова В. Г. М.: Аспект Пресс;
+Mitcham C., Mackey R. (eds.). (1983), _</t>
     </r>
     <r>
       <rPr>
@@ -6060,7 +7200,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Philosophy and Technology (Vol. 80).</t>
+      <t>Philosophy and Technology (Vol. 80)_.</t>
     </r>
     <r>
       <rPr>
@@ -6069,7 +7209,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> New York: Simon and Schuster;
-Mitcham C. (2022), </t>
+Mitcham C. (2022), _</t>
     </r>
     <r>
       <rPr>
@@ -6078,7 +7218,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Thinking Through Technology: The Path Between Engineering and Philosophy.</t>
+      <t>Thinking Through Technology: The Path Between Engineering and Philosophy_.</t>
     </r>
     <r>
       <rPr>
@@ -6102,7 +7242,24 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">"Техника – исторически развивающаяся совокупность создаваемых людьми средств (орудий, устройств, механизмов и т.п.), которые позволяют людям использовать естественные материалы, явления и процессы для удовлетворения своих потребностей; нередко к технике относят также и те знания и навыки, с помощью которых люди создают и используют эти средства в своей деятельности". (Новая философская энциклопедия (2001). Т. IV. М.: Мысль. C. 61-62.);
+      <t>"Техника – исторически развивающаяся совокупность создаваемых людьми средств (орудий, устройств, механизмов и т.п.), которые позволяют людям использовать естественные материалы, явления и процессы для удовлетворения своих потребностей;нередко к технике относят также и те знания и навыки, с помощью которых люди создают и используют эти средства в своей деятельности". (_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Новая философская энциклопедия (2001)_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>. Т. IV. М.: Мысль. C. 61-62.);
 В современном понимании «техника» в широком смысле слова представляет собой:
 - совокупность технических устройств, технологий, знаний и деятельности
 - область знания, выступающего в качестве связующего звена между эмпирией и теоретическим знанием
@@ -6110,7 +7267,7 @@
 - совокупность умений и навыков, составляющих профессиональные особенности того или иного рода человеческой деятельности (совершенное владение навыками) 
 - искусство и мастерство человека, занимающегося этой деятельностью (или совокупность приемов, способов, методов, применяемых в какой-либо деятельности)
 - среда обитания человека, формирующая его мировосприятие и образ жизни 
-(Сидорина Т.Ю. </t>
+(Сидорина Т.Ю. _</t>
     </r>
     <r>
       <rPr>
@@ -6119,7 +7276,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Курс лекций по философии техники</t>
+      <t>Курс лекций по философии техники_</t>
     </r>
     <r>
       <rPr>
@@ -6173,7 +7330,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> № 5. 1993. С. 170);
-"Техника — это главным образом усилие ради сбережения усилий. Иными словами, это действия, которые мы предпринимаем, чтобы полностью или частично избежать неотложных забот и дел, навязываемых обстоятельствами". (Ортега-и-Гассет Х. (1993), "Размышления о технике". </t>
+"Техника — это главным образом усилие ради сбережения усилий. Иными словами, это действия, которые мы предпринимаем, чтобы полностью или частично избежать неотложных забот и дел, навязываемых обстоятельствами". (Ортега-и-Гассет Х. (1993), "Размышления о технике". _</t>
     </r>
     <r>
       <rPr>
@@ -6182,7 +7339,7 @@
         <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Вопросы философии.</t>
+      <t>Вопросы философии_.</t>
     </r>
     <r>
       <rPr>
@@ -6191,7 +7348,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> № 5. 1993. С. 181);
-"Техника — это умение, методы которого являются внешними по отношению к цели. Это умение — способность делать и обладать, а не созидать и предоставлять расти. Применяя силу природы против силы природы, техника господствует над природой посредством самой природы. Это господство основано на знании". (Ортега-и-Гассет Х. (1993), "Размышления о технике". </t>
+"Техника — это умение, методы которого являются внешними по отношению к цели. Это умение — способность делать и обладать, а не созидать и предоставлять расти. Применяя силу природы против силы природы, техника господствует над природой посредством самой природы. Это господство основано на знании". (Ортега-и-Гассет Х. (1993), "Размышления о технике". _</t>
     </r>
     <r>
       <rPr>
@@ -6200,7 +7357,7 @@
         <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Вопросы философии.</t>
+      <t>Вопросы философии_.</t>
     </r>
     <r>
       <rPr>
@@ -6209,7 +7366,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> № 5. 1993. С. 181);
-"Техника — это совокупность действий знающего человека, направленных на господство над природой; цель их — придать жизни человека такой облик, который позволил бы ему снять с себя бремя нужды и обрести нужную ему форму окружающей среды. Как природа меняет свой облик под воздействием техники, какое обратное действие на человека оказывает его техническая деятельность, то есть как характер его труда, организация его труда и его воздействие на среду меняют его самого, — все это составляет основной фактор исторического развития". (Ясперс К. (1986), "Современная техника" / Пер. c нем. М.И. Левина. </t>
+"Техника — это совокупность действий знающего человека, направленных на господство над природой;цель их — придать жизни человека такой облик, который позволил бы ему снять с себя бремя нужды и обрести нужную ему форму окружающей среды. Как природа меняет свой облик под воздействием техники, какое обратное действие на человека оказывает его техническая деятельность, то есть как характер его труда, организация его труда и его воздействие на среду меняют его самого, — все это составляет основной фактор исторического развития". (Ясперс К. (1986), "Современная техника" / Пер. c нем. М.И. Левина. _</t>
     </r>
     <r>
       <rPr>
@@ -6218,7 +7375,7 @@
         <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Новая технократическая волна на Западе. Сборник статей. </t>
+      <t xml:space="preserve">Новая технократическая волна на Западе. Сборник статей_. </t>
     </r>
     <r>
       <rPr>
@@ -6244,7 +7401,7 @@
         <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve"> (1986), "Другая революция". </t>
+      <t xml:space="preserve"> (1986), "Другая революция". _</t>
     </r>
     <r>
       <rPr>
@@ -6253,7 +7410,7 @@
         <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Новая технократическая волна на Западе. Сборник статей.</t>
+      <t>Новая технократическая волна на Западе. Сборник статей_.</t>
     </r>
     <r>
       <rPr>
@@ -6262,7 +7419,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> М.: Прогресс. C. 148);
-«Техника как умение применять орудия труда существует с тех пор, как существуют люди. Техника на основе знания простых физических законов издавна действовала в области ремесла, применения оружия, при использовании колеса, лопаты, плуга, лодки, силы животных, паруса и огня – мы обнаруживаем эту технику во все времена, доступные нашей исторической памяти. В великих культурах древности, особенно в западном мире, высокоразвитая механика позволяла перевозить огромные тяжести, воздвигать здания, строить дороги и корабли, конструировать осадные и оборонительные машины». (Ясперс К. (1986), "Современная техника". </t>
+«Техника как умение применять орудия труда существует с тех пор, как существуют люди. Техника на основе знания простых физических законов издавна действовала в области ремесла, применения оружия, при использовании колеса, лопаты, плуга, лодки, силы животных, паруса и огня – мы обнаруживаем эту технику во все времена, доступные нашей исторической памяти. В великих культурах древности, особенно в западном мире, высокоразвитая механика позволяла перевозить огромные тяжести, воздвигать здания, строить дороги и корабли, конструировать осадные и оборонительные машины». (Ясперс К. (1986), "Современная техника". _</t>
     </r>
     <r>
       <rPr>
@@ -6271,7 +7428,7 @@
         <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Новая технократическая волна на Западе.</t>
+      <t>Новая технократическая волна на Западе_.</t>
     </r>
     <r>
       <rPr>
@@ -6303,7 +7460,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Von Wright G.H. (1963), </t>
+      <t>Von Wright G.H. (1963), _</t>
     </r>
     <r>
       <rPr>
@@ -6312,7 +7469,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Norm and Action: A Logical Enquiry.</t>
+      <t>Norm and Action: A Logical Enquiry_.</t>
     </r>
     <r>
       <rPr>
@@ -6321,7 +7478,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> London: Routledge and Kegan Paul;
-Krohn W., Layton Jr E. T., Weingart P. (eds.). (2012), </t>
+Krohn W., Layton Jr E. T., Weingart P. (eds.). (2012), _</t>
     </r>
     <r>
       <rPr>
@@ -6330,16 +7487,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">The Dynamics of Science and Technology: Social Values, Technical Norms and Scientific Criteria in the Development of Knowledge (Vol. 2). Berlin: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">Springer Science &amp; Business Media;
-Niiniluoto I. (1993), "The Aim and Structure of Applied Research", </t>
+      <t xml:space="preserve">The Dynamics of Science and Technology: Social Values, Technical Norms and Scientific Criteria in the Development of Knowledge (Vol. 2)_. Berlin: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Springer Science &amp; Business Media;
+Niiniluoto I. (1993), "The Aim and Structure of Applied Research", _</t>
     </r>
     <r>
       <rPr>
@@ -6348,7 +7505,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Erkenntnis</t>
+      <t>Erkenntnis_</t>
     </r>
     <r>
       <rPr>
@@ -6401,7 +7558,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Marcuse H. (1941), "Some Social Implications of Modern Technology", </t>
+      <t>Marcuse H. (1941), "Some Social Implications of Modern Technology", _</t>
     </r>
     <r>
       <rPr>
@@ -6410,16 +7567,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Studies in Philosophy and Social Science</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">, № 3, pp. 414-439.;
-Marcuse H. (1964), </t>
+      <t>Studies in Philosophy and Social Science_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>, № 3, pp. 414-439.;
+Marcuse H. (1964), _</t>
     </r>
     <r>
       <rPr>
@@ -6428,7 +7585,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>One-Dimensional Man: Studies in the Ideology of Advanced Industrial Society.</t>
+      <t>One-Dimensional Man: Studies in the Ideology of Advanced Industrial Society_.</t>
     </r>
     <r>
       <rPr>
@@ -6437,7 +7594,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> Boston: Beacon;
-Habermas J. (1968), </t>
+Habermas J. (1968), _</t>
     </r>
     <r>
       <rPr>
@@ -6446,15 +7603,15 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Technik und Wissenschaft als Ideologie</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">. Frankfurt a. M.: Suhrkamp Verlag (Рус.пер.: Хабермас Ю. (2007), </t>
+      <t>Technik und Wissenschaft als Ideologie_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>. Frankfurt a. M.: Suhrkamp Verlag (Рус.пер.: Хабермас Ю. (2007), _</t>
     </r>
     <r>
       <rPr>
@@ -6463,16 +7620,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Техника и наука как «идеология»</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">. М.: Праксис);
-Habermas H. (ed.) (1968), </t>
+      <t>Техника и наука как «идеология»_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>. М.: Праксис);
+Habermas H. (ed.) (1968), _</t>
     </r>
     <r>
       <rPr>
@@ -6481,7 +7638,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Antworten auf Herbert Marcuse.</t>
+      <t>Antworten auf Herbert Marcuse_.</t>
     </r>
     <r>
       <rPr>
@@ -6499,16 +7656,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve"> Inquiry</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">, № 3-4, pp. 301-322.;
-Feenberg A. (1996), "Marcuse or Habermas: Two Critiques of Technology", </t>
+      <t xml:space="preserve"> _Inquiry_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>, № 3-4, pp. 301-322.;
+Feenberg A. (1996), "Marcuse or Habermas: Two Critiques of Technology", _</t>
     </r>
     <r>
       <rPr>
@@ -6517,7 +7674,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Inquiry</t>
+      <t>Inquiry_</t>
     </r>
     <r>
       <rPr>
@@ -6541,7 +7698,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">"Общество, нацеленное на технологическую трансформацию природы и уже осуществляющее её, изменяет основу господства, постепенно замещая личную зависимость (раба от господина, крепостного от владельца поместья, а последнего от дарителя феода и так далее) зависимостью от «объективного порядка вещей» (экономических законов, рынка, и так далее). Разумеется, «объективный порядок вещей» сам является результатом господства, но &lt;…&gt;теперь господство порождает более высокий тип рациональности — рациональности общества, которое поддерживает свою иерархическую структуру за счёт все более эффективной эксплуатации природных и интеллектуальных ресурсов и всё более широкого распределения продуктов этой эксплуатации. Ограниченность этой рациональности и её зловещая сила проявляются в прогрессирующем порабощении человека аппаратом производства, который увековечивает борьбу за существование и доводит её до всеобщей международной борьбы, разрушающей жизнь тех, кто сооружает и использует этот аппарат" (Маркузе Г. (1994). </t>
+      <t>"Общество, нацеленное на технологическую трансформацию природы и уже осуществляющее её, изменяет основу господства, постепенно замещая личную зависимость (раба от господина, крепостного от владельца поместья, а последнего от дарителя феода и так далее) зависимостью от «объективного порядка вещей» (экономических законов, рынка, и так далее). Разумеется, «объективный порядок вещей» сам является результатом господства, но &lt;…&gt;теперь господство порождает более высокий тип рациональности — рациональности общества, которое поддерживает свою иерархическую структуру за счёт все более эффективной эксплуатации природных и интеллектуальных ресурсов и всё более широкого распределения продуктов этой эксплуатации. Ограниченность этой рациональности и её зловещая сила проявляются в прогрессирующем порабощении человека аппаратом производства, который увековечивает борьбу за существование и доводит её до всеобщей международной борьбы, разрушающей жизнь тех, кто сооружает и использует этот аппарат" (Маркузе Г. (1994). _</t>
     </r>
     <r>
       <rPr>
@@ -6550,7 +7707,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Одномерный человек. </t>
+      <t xml:space="preserve">Одномерный человек_. </t>
     </r>
     <r>
       <rPr>
@@ -6568,7 +7725,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">"Научное управление и научное разделение труда в огромной степени увеличили производительность экономического, политического и культурного предпринимательства. Результатом явился более высокий уровень жизни. В то же самое время и на той же самой основе это рациональное предпринимательство привело к созданию модели сознания и поведения, которые оправдывали &lt;…&gt; даже те черты этого предпринимательства, которые в наибольшей степени способствуют разрушению и угнетению. Научно-техническая рациональность и манипулирование слились в новую форму социального управления. Можно ли удовлетвориться предположением, что этот ненаучный результат является результатом специфического общественного применения науки? Я думаю, что общее направление этого применения присуще чистой науке даже там, где она не преследует никаких практических целей, и что вполне можно определить точку, в которой теоретический Разум превращается в социальную практику. &lt;….&gt;" (Маркузе Г. (1994). </t>
+      <t>"Научное управление и научное разделение труда в огромной степени увеличили производительность экономического, политического и культурного предпринимательства. Результатом явился более высокий уровень жизни. В то же самое время и на той же самой основе это рациональное предпринимательство привело к созданию модели сознания и поведения, которые оправдывали &lt;…&gt; даже те черты этого предпринимательства, которые в наибольшей степени способствуют разрушению и угнетению. Научно-техническая рациональность и манипулирование слились в новую форму социального управления. Можно ли удовлетвориться предположением, что этот ненаучный результат является результатом специфического общественного применения науки? Я думаю, что общее направление этого применения присуще чистой науке даже там, где она не преследует никаких практических целей, и что вполне можно определить точку, в которой теоретический Разум превращается в социальную практику. &lt;….&gt;" (Маркузе Г. (1994). _</t>
     </r>
     <r>
       <rPr>
@@ -6577,7 +7734,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Одномерный человек.</t>
+      <t>Одномерный человек_.</t>
     </r>
     <r>
       <rPr>
@@ -6637,7 +7794,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve"> I, robot (Vol. 1).</t>
+      <t xml:space="preserve"> _I, robot (Vol. 1)_.</t>
     </r>
     <r>
       <rPr>
@@ -6646,7 +7803,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> New York: Spectra;
-Lem S. (1964), </t>
+Lem S. (1964), _</t>
     </r>
     <r>
       <rPr>
@@ -6655,7 +7812,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Summa Technologiae.</t>
+      <t>Summa Technologiae_.</t>
     </r>
     <r>
       <rPr>
@@ -6673,16 +7830,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve"> Dzienniki gwiazdowe. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">Kraków: Wydawnictwo Literackie;
-Bacon F. (2016). </t>
+      <t xml:space="preserve"> _Dzienniki gwiazdowe_. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Kraków: Wydawnictwo Literackie;
+Bacon F. (2016). _</t>
     </r>
     <r>
       <rPr>
@@ -6691,7 +7848,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>New Atlantis and the Great Instauration.</t>
+      <t>New Atlantis and the Great Instauration_.</t>
     </r>
     <r>
       <rPr>
@@ -6700,7 +7857,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> Hoboken: John Wiley &amp; Sons;
-Циолковский К.Э. (1925), </t>
+Циолковский К.Э. (1925), _</t>
     </r>
     <r>
       <rPr>
@@ -6717,8 +7874,8 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve"> (Конспект. Март 1925 г.). Калуга: Б. и., 1925 (1-я Гос. Типо-лит.);
-Циолковский К.Э. (1958), </t>
+      <t xml:space="preserve"> (Конспект. Март 1925 г.)_. Калуга: Б. и., 1925 (1-я Гос. Типо-лит.);
+Циолковский К.Э. (1958), _</t>
     </r>
     <r>
       <rPr>
@@ -6727,16 +7884,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Вне Земли. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">Изд. 2-е, испр. М.: Изд-во Акад. наук СССР;
-Толстой А.Н. (1927), </t>
+      <t xml:space="preserve">Вне Земли_. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Изд. 2-е, испр. М.: Изд-во Акад. наук СССР;
+Толстой А.Н. (1927), _</t>
     </r>
     <r>
       <rPr>
@@ -6745,7 +7902,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Гиперболоид инженера Гарина.</t>
+      <t>Гиперболоид инженера Гарина_.</t>
     </r>
     <r>
       <rPr>
@@ -6754,7 +7911,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> М.-Л.: Государственное издательство;
-Bradbury R. (1950), </t>
+Bradbury R. (1950), _</t>
     </r>
     <r>
       <rPr>
@@ -6763,16 +7920,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">The Martian Chronicles. New York: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">Doubleday &amp; Co.;
-Bradbury R. (1953), </t>
+      <t xml:space="preserve">The Martian Chronicles_. New York: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Doubleday &amp; Co.;
+Bradbury R. (1953), _</t>
     </r>
     <r>
       <rPr>
@@ -6781,7 +7938,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Fahrenheit 451.</t>
+      <t>Fahrenheit 451_.</t>
     </r>
     <r>
       <rPr>
@@ -6804,14 +7961,31 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Утопия и антиутопия (от греч. ού  – отрицательная частица и τόπος – место, т.е. место, которого нет) – изображение идеального общественного строя либо в якобы уже существовавшей или существующей где-то стране, либо как проекта социальных преобразований, ведущих к его воплощению в жизнь. Термин «утопия» ведет свое происхождение от сокращенного названия книги Т. Мора (1516). В 19 и 20 вв. этот термин приобрел характер отрицательного обозначения всех сочинений и трактатов, содержащих нереальные планы радикального переустройства общественных отношений (Новая философская энциклопедия (2001). Т. 4. М.: Мысль. С. 152-154);
+      <t>Утопия и антиутопия (от греч. ού  – отрицательная частица и τόπος – место, т.е. место, которого нет) – изображение идеального общественного строя либо в якобы уже существовавшей или существующей где-то стране, либо как проекта социальных преобразований, ведущих к его воплощению в жизнь. Термин «утопия» ведет свое происхождение от сокращенного названия книги Т. Мора (1516). В 19 и 20 вв. этот термин приобрел характер отрицательного обозначения всех сочинений и трактатов, содержащих нереальные планы радикального переустройства общественных отношений (_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Новая философская энциклопедия (2001)_.</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve"> Т. 4. М.: Мысль. С. 152-154);
 Космическое человечество — это (сущность и этапы эволюции сообщества людей — человеческой цивилизации):
 1) Человечество, живущее на Земле, ощущающее, знающее, понимающее свое космическое происхождение, взаимосвязь с Космосом и космическое предназначение.
 2) Человечество, живущее на Земле, ведущее аэрокосмическую деятельность в целях исследования и использования аэрокосмического пространства (Неба, Космоса) для выживания и развития.
 3) Человечество, живущее на Земле и вне Земли — в Солнечной системе, сохраняющее Землю и осваивающее Космос для выживания и развития.
 4) Человечество, расселившееся и живущее в Космосе.
 Эти четыре этапа — восходящие ступени эволюции и создания космического человечества как сложный процесс синтеза свойств и расширения пространства-времени существования-бытия человека и общества — человеческой цивилизации на Земле, затем и вне Земли, в Солнечной системе, Галактике, Вселенной. Сейчас человечество находится в процессе перехода от 2-го к 3-му этапу. В процессе этой эволюции происходит сложная трансформация человека и общества".
-(Кричевский С. (2017), "Космическое человечество: утопии, реалии, перспективы". </t>
+(Кричевский С. (2017), "Космическое человечество: утопии, реалии, перспективы". _</t>
     </r>
     <r>
       <rPr>
@@ -6828,7 +8002,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve"> Volume. 7. 2017. С. 53);
+      <t xml:space="preserve"> Volume. 7_. 2017. С. 53);
 «Космическая мечта» — идеальный образ будущего человека и человечества, связанного с освоением Космоса. Циолковский выделял ведущую роль космической мечты (как идеи, мысли) и указывал на длительный и сложный путь ее воплощения через науку и практику: «Сначала неизбежно идут мысль, фантазия, сказка. За ними шествует научный расчет. И уже в конце концов исполнение венчает мысль… Пройдут, вероятно, сотни лет прежде чем высказанные мною мысли найдут применение, и люди воспользуются ими, чтобы расселяться не только по лицу земли, но и по лицу всей вселенной» (Циолковский К.Э. (1926), </t>
     </r>
     <r>
@@ -6847,7 +8021,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> Калуга. С. 3);
-Космические мечты как прообразы космического будущего и «генераторы» космонавтики, космической деятельности отражены во множестве произведений: «мифологических», фантастических, философских и т.д., — в космической философии, космизме, трансгуманизме, футурологии, в других «блоках» и артефактах культуры и науки, в концепциях, стратегиях освоения Космоса, в проектах, программах космической деятельности, имеющих широкий спектр: от фантазий и утопий — до праксеологии и практики космической деятельности". (Кричевский С. (2017), "Космическое человечество: утопии, реалии, перспективы". </t>
+Космические мечты как прообразы космического будущего и «генераторы» космонавтики, космической деятельности отражены во множестве произведений: «мифологических», фантастических, философских и т.д., — в космической философии, космизме, трансгуманизме, футурологии, в других «блоках» и артефактах культуры и науки, в концепциях, стратегиях освоения Космоса, в проектах, программах космической деятельности, имеющих широкий спектр: от фантазий и утопий — до праксеологии и практики космической деятельности". (Кричевский С. (2017), "Космическое человечество: утопии, реалии, перспективы". _</t>
     </r>
     <r>
       <rPr>
@@ -6856,7 +8030,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Future Human Image.</t>
+      <t>Future Human Image_.</t>
     </r>
     <r>
       <rPr>
@@ -6875,8 +8049,8 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Технические утопии. — "Темой современной утопии служит уже не государство, а техника. — Утопия как сочетание научности и литературного сюжета.
-Сочинения в жанре технической утопии, как показывает наблюдение, отнюдь не редкость в литературе и даже напротив: их так много и читательский спрос на них так велик, что невольно заставляет предполагать существующую в обществе потребность в такого рода книгах. Следовательно, сам собой напрашивается вопрос: почему именно техника даёт такую обильную пищу для разума, упражняющегося в построении утопий? В прежние времена авторов такого рода сочинений прежде всего интересовало государство, и книга, давшая название всему этому направлению, трактат Томаса Мора «De optimo rei publicae statu, de que nova insula Utopia», была романом о государстве. Самый выбор темы, вытеснение старых тем новыми показывает, как меняется интерес к данному предмету. Интерес к себе вызывает не то, что уже доступно для наблюдения в готовом, законченном виде: прошлое и настоящее не привлекают внимания, любопытными представляются те возможности, которые таит в себе будущее, и объектом интереса становятся явления, в которых вырисовываются черты будущего. Для утопии требуется схема, несущая в себе возможности рационального развёртывания, а в настоящее время самую удобную схему подобного рода предлагает техника". (Юнгер Ф. (2002), </t>
+      <t>Технические утопии. — "Темой современной утопии служит уже не государство, а техника. — Утопия как сочетание научности и литературного сюжета.
+Сочинения в жанре технической утопии, как показывает наблюдение, отнюдь не редкость в литературе и даже напротив: их так много и читательский спрос на них так велик, что невольно заставляет предполагать существующую в обществе потребность в такого рода книгах. Следовательно, сам собой напрашивается вопрос: почему именно техника даёт такую обильную пищу для разума, упражняющегося в построении утопий? В прежние времена авторов такого рода сочинений прежде всего интересовало государство, и книга, давшая название всему этому направлению, трактат Томаса Мора «De optimo rei publicae statu, de que nova insula Utopia», была романом о государстве. Самый выбор темы, вытеснение старых тем новыми показывает, как меняется интерес к данному предмету. Интерес к себе вызывает не то, что уже доступно для наблюдения в готовом, законченном виде: прошлое и настоящее не привлекают внимания, любопытными представляются те возможности, которые таит в себе будущее, и объектом интереса становятся явления, в которых вырисовываются черты будущего. Для утопии требуется схема, несущая в себе возможности рационального развёртывания, а в настоящее время самую удобную схему подобного рода предлагает техника". (Юнгер Ф. (2002), _</t>
     </r>
     <r>
       <rPr>
@@ -6885,16 +8059,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Совершенство техники</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">. М.: Владимир Даль. С. 13–14);
-"Мы живем в техническом и рационалистическом мире. Мы всё лучше распознаем опасность этого мира. Нам нужна какая-то опора. И поскольку невозможно найти единственный точный ответ, выявить выход из этого мира, удовлетворительным образом, предрассчитать приемлемое будущее, футурологи хватаются за образ такого будущего, предрассчитать которое нельзя, мысленно перескакивают через препятствия, конструируют нереальное общество… Из кольца техники и технологии они каким-то образом вырываются, но подобное предприятие справедливо именуется: Утопией… Это слово витает над нами не случайно. Ибо утопия — это как раз то, что позволяет, по существу, не вступать в конфликт с техническим миром. Все утопии были триумфом технологизма. То, что бессознательно предлагают нам футурологи, — это радикально технизированный мир, из которого убраны только явные, вопиющие неудобства техники; это абсолютный триумф технического рационализма под прикрытием мечты. Утопия есть самая монотонная, самая тошнотворно скучная из всех мыслимых вселенных. Характернейшая черта утопии — это маниакальная страсть к организованности. Обитатель утопии безнадежно и окончательно инфантилен. При всём том утопия не просто теоретическая и заоблачная модель: сейчас мы благодаря нашему техническому оснащению в состоянии осуществить ее более или менее полностью…" (Эллюль Ж. (1986), "Другая революция". </t>
+      <t>Совершенство техники_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>. М.: Владимир Даль. С. 13–14);
+"Мы живем в техническом и рационалистическом мире. Мы всё лучше распознаем опасность этого мира. Нам нужна какая-то опора. И поскольку невозможно найти единственный точный ответ, выявить выход из этого мира, удовлетворительным образом, предрассчитать приемлемое будущее, футурологи хватаются за образ такого будущего, предрассчитать которое нельзя, мысленно перескакивают через препятствия, конструируют нереальное общество… Из кольца техники и технологии они каким-то образом вырываются, но подобное предприятие справедливо именуется: Утопией… Это слово витает над нами не случайно. Ибо утопия — это как раз то, что позволяет, по существу, не вступать в конфликт с техническим миром. Все утопии были триумфом технологизма. То, что бессознательно предлагают нам футурологи, — это радикально технизированный мир, из которого убраны только явные, вопиющие неудобства техники;это абсолютный триумф технического рационализма под прикрытием мечты. Утопия есть самая монотонная, самая тошнотворно скучная из всех мыслимых вселенных. Характернейшая черта утопии — это маниакальная страсть к организованности. Обитатель утопии безнадежно и окончательно инфантилен. При всём том утопия не просто теоретическая и заоблачная модель: сейчас мы благодаря нашему техническому оснащению в состоянии осуществить ее более или менее полностью…" (Эллюль Ж. (1986), _</t>
     </r>
     <r>
       <rPr>
@@ -6903,7 +8077,24 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Новая технократическая волна на Западе.</t>
+      <t>"Другая революция".</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Новая технократическая волна на Западе_.</t>
     </r>
     <r>
       <rPr>
@@ -6912,7 +8103,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> М.: Прогресс. С. 147);
-Космическая утопия: "Выход человечества в околоземное космическое пространство породил целую эпоху оптимистических мечтаний. К концу восьмидесятых годов XX века состоится полет человека на Марс. Середина девяностых – основание постоянного космического поселения на луне. «Незначительные», как тогда казалось, достижения космонавтики в обеспечении спутниковой связи, наблюдении за погодой и т.п., тогда не привлекли к себе внимания ни экспертов, ни общества в целом. Вскоре возник целый жанр научно-фантастической литературы, захватывающе описывающей грядущую космическую экспансию человечества, его расселение по галактике. Конечно, у литературы есть своя правда – художественная. Она может являться психологически убедительной, но не обязана быть научно достоверной. Если в физике не произойдет новой революции, которая снимет ограничения теории относительности, то звезды навсегда останутся для нас недоступными. Человечеству нечего делать в космосе". (Недорезов В.Г. (2015), "Технооптимизм и технопессимизм как культурные феномены". </t>
+Космическая утопия: "Выход человечества в околоземное космическое пространство породил целую эпоху оптимистических мечтаний. К концу восьмидесятых годов XX века состоится полет человека на Марс. Середина девяностых – основание постоянного космического поселения на луне. «Незначительные», как тогда казалось, достижения космонавтики в обеспечении спутниковой связи, наблюдении за погодой и т.п., тогда не привлекли к себе внимания ни экспертов, ни общества в целом. Вскоре возник целый жанр научно-фантастической литературы, захватывающе описывающей грядущую космическую экспансию человечества, его расселение по галактике. Конечно, у литературы есть своя правда – художественная. Она может являться психологически убедительной, но не обязана быть научно достоверной. Если в физике не произойдет новой революции, которая снимет ограничения теории относительности, то звезды навсегда останутся для нас недоступными. Человечеству нечего делать в космосе". (Недорезов В.Г. (2015), "Технооптимизм и технопессимизм как культурные феномены". _</t>
     </r>
     <r>
       <rPr>
@@ -6921,7 +8112,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Открытая электронная библиотека научно-образовательных ресурсов Оренбуржья.</t>
+      <t>Открытая электронная библиотека научно-образовательных ресурсов Оренбуржья_.</t>
     </r>
     <r>
       <rPr>
@@ -6971,12 +8162,121 @@
 Кларенс Эйрс (Clarence Ayres)</t>
   </si>
   <si>
-    <t>Winner L. (1980), "Do Artifacts Have Politics?", Daedalus, № 1, pp. 121-136.;
-Ellul J. (1964), The Technological Society. New York: Vintage Books;
-Mumford L. (1934), Technics and Civilization. San Diego: Harcourt;
-Feenberg A. (2008), "Critical Theory of Technology: An Overview", Inquiry, № 4, pp. 351-368.;
-Cowan R., Foray D. (1997), "The Economics of Codification and the Diffusion of Knowledge", Industrial and Corporate Change, № 3, pp. 595-622.;
-Chandler, Daniel. 1995. Technological or Media determinism. Aberystwyth, UK: MCS.</t>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Winner L. (1980), "Do Artifacts Have Politics?", _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Daedalus_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>, № 1, pp. 121-136.;
+Ellul J. (1964), _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>The Technological Society_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>. New York: Vintage Books;
+Mumford L. (1934),</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve"> _Technics and Civilization_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>. San Diego: Harcourt;
+Feenberg A. (2008), "Critical Theory of Technology: An Overview", _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Inquiry_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>, № 4, pp. 351-368.;
+Cowan R., Foray D. (1997), "The Economics of Codification and the Diffusion of Knowledge",</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve"> _Industrial and Corporate Change_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>, № 3, pp. 595-622.;
+Chandler, Daniel. 1995. _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Technological or Media determinism_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>. Aberystwyth, UK: MCS.</t>
+    </r>
   </si>
   <si>
     <t>Департамент научных и технологических исследований Политехнического института Ренсселера (Department of Science and Technology Studies at Rensselaer Polytechnic Institute);
@@ -6997,8 +8297,8 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">"Both utopian and dystopian perspectives of technology reflect a particular technological determinism that positions technology as a determinant of social forms and processes. In other words, technological determinism is molded by a set of narratives that presume "new" technologies impact (positively or negatively) directly upon society, replacing what has come before, and producing a predictable set of effects regardless of the unique specificities of time and place."
-"Как утопические, так и антиутопические взгляды на технологию воплощены в особом технологическом детерминизме, который позиционирует технологию как детерминанту социальных форм и процессов. Другими словами, технологический детерминизм формируется набором нарративов, которые предполагают, что "новые" технологии оказывают (позитивное или негативное) прямое воздействие на общество, заменяя то, что было раньше, и производя предсказуемый набор эффектов независимо от специфики времени и места". (Colman A. (2005), "Un/Becoming Digital: The Ontology of Technological Determinism and its Implications of Art Education". </t>
+      <t>"Both utopian and dystopian perspectives of technology reflect a particular technological determinism that positions technology as a determinant of social forms and processes. In other words, technological determinism is molded by a set of narratives that presume "new" technologies impact (positively or negatively) directly upon society, replacing what has come before, and producing a predictable set of effects regardless of the unique specificities of time and place."
+"Как утопические, так и антиутопические взгляды на технологию воплощены в особом технологическом детерминизме, который позиционирует технологию как детерминанту социальных форм и процессов. Другими словами, технологический детерминизм формируется набором нарративов, которые предполагают, что "новые" технологии оказывают (позитивное или негативное) прямое воздействие на общество, заменяя то, что было раньше, и производя предсказуемый набор эффектов независимо от специфики времени и места". (Colman A. (2005), "Un/Becoming Digital: The Ontology of Technological Determinism and its Implications of Art Education".</t>
     </r>
     <r>
       <rPr>
@@ -7007,7 +8307,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The Journal of Social Theory in Art Education</t>
+      <t xml:space="preserve"> _The Journal of Social Theory in Art Education_</t>
     </r>
     <r>
       <rPr>
@@ -7053,7 +8353,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Kuhn T. (1962), </t>
+      <t>Kuhn T. (1962), _</t>
     </r>
     <r>
       <rPr>
@@ -7062,7 +8362,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The Structure of Scientific Revolutions.</t>
+      <t>The Structure of Scientific Revolutions_.</t>
     </r>
     <r>
       <rPr>
@@ -7071,7 +8371,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> Chicago: University of Chicago Press;
-Rogers E.M. (1995), </t>
+Rogers E.M. (1995), _</t>
     </r>
     <r>
       <rPr>
@@ -7080,16 +8380,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Diffusion of innovations (4th. ed.). </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">New York: The Free Press;
-Green L. (2001), "Technoculture: Another Term That Means Nothing and Gets Us Nowhere?", </t>
+      <t xml:space="preserve">Diffusion of innovations (4th. ed.)_. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>New York: The Free Press;
+Green L. (2001), "Technoculture: Another Term That Means Nothing and Gets Us Nowhere?", _</t>
     </r>
     <r>
       <rPr>
@@ -7098,16 +8398,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Media International Australia</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">, № 1, pp. 11-25.;
-Niiniluoto I. (1984), </t>
+      <t>Media International Australia_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>, № 1, pp. 11-25.;
+Niiniluoto I. (1984), _</t>
     </r>
     <r>
       <rPr>
@@ -7116,16 +8416,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Is Science Progressive?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">. Dordrecht: Reidel;
-Ortega y Gasset J. (1939), </t>
+      <t>Is Science Progressive?_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>. Dordrecht: Reidel;
+Ortega y Gasset J. (1939), _</t>
     </r>
     <r>
       <rPr>
@@ -7134,16 +8434,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Meditación de la Técnica. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">Madrid: Revista de Occidente;
-Popper K. (1963), </t>
+      <t xml:space="preserve">Meditación de la Técnica_. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Madrid: Revista de Occidente;
+Popper K. (1963), _</t>
     </r>
     <r>
       <rPr>
@@ -7152,7 +8452,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Conjectures and Refutations.</t>
+      <t>Conjectures and Refutations_.</t>
     </r>
     <r>
       <rPr>
@@ -7161,7 +8461,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> New York: Basic Books;
-Quintanilla M.Á. (1982), "La Verosimilitud de las Teorías". In: Hidalgo A., Sánchez G.B. (eds.), </t>
+Quintanilla M.Á. (1982), "La Verosimilitud de las Teorías". In: Hidalgo A., Sánchez G.B. (eds.), _</t>
     </r>
     <r>
       <rPr>
@@ -7170,7 +8470,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Actas del Primer Congreso de Teoría y Metodología de las Ciencias.</t>
+      <t>Actas del Primer Congreso de Teoría y Metodología de las Ciencias_.</t>
     </r>
     <r>
       <rPr>
@@ -7179,7 +8479,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> Oviedo: Ediciones Pentalfa, pp. 473-503.;
-Quintanilla M.Á. (1996), "The Incompleteness of Technics". In: Munévar G. (ed.), </t>
+Quintanilla M.Á. (1996), "The Incompleteness of Technics". In: Munévar G. (ed.), _</t>
     </r>
     <r>
       <rPr>
@@ -7196,8 +8496,8 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Dordrecht: Springer Netherlands, pp. 89-102.;
-Quintanilla M.Á. (1998), "Technical Systems and Technical Progress: a Conceptual Framework", </t>
+      <t>Dordrecht: Springer Netherlands_, pp. 89-102.;
+Quintanilla M.Á. (1998), "Technical Systems and Technical Progress: a Conceptual Framework", _</t>
     </r>
     <r>
       <rPr>
@@ -7206,16 +8506,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Society for Philosophy and Technology Quarterly Electronic Journal</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">, № 1, pp. 72-79.;
-Quintanilla M.Á. (2017), </t>
+      <t>Society for Philosophy and Technology Quarterly Electronic Journal_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>, № 1, pp. 72-79.;
+Quintanilla M.Á. (2017), _</t>
     </r>
     <r>
       <rPr>
@@ -7224,7 +8524,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Tecnología: un enfoque filosófico y otros ensayos de filosofía de la tecnología.</t>
+      <t>Tecnología: un enfoque filosófico y otros ensayos de filosofía de la tecnología_.</t>
     </r>
     <r>
       <rPr>
@@ -7233,7 +8533,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> Mexico City: Fondo de Cultura Económica;
-Skolimowski H. (1966), "The Structure of Thinking in Technology", </t>
+Skolimowski H. (1966), "The Structure of Thinking in Technology", _</t>
     </r>
     <r>
       <rPr>
@@ -7242,7 +8542,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Technology and Culture</t>
+      <t>Technology and Culture_</t>
     </r>
     <r>
       <rPr>
@@ -7257,16 +8557,13 @@
     <t>NATIONAL CENTER FOR TECHNOLOGICAL PROGRESS. URL: http://www.nacentech.vn/</t>
   </si>
   <si>
-    <t>"Технический прогресс – взаимообусловленное, взаимостимулирующее развитие науки и техники. Понятие было введено в 20 в. в контексте обоснования, использующего потребительное отношение к природе, и традиционной научно-инженерной картины мира. Цель технического прогресса определяется как удовлетворение постоянно растущих потребностей человека; способ удовлетворения этих потребностей – реализация достижений естественных наук и техники. В техническом прогрессе различаются предпосылочный этап медленного опытного и независимого друг от друга развития науки и техники и этап научно-технических революций, первая из которых приходится на 16–17 вв. В настоящее время концепция технического прогресса подвергается серьезной критике в связи с общим переосмыслением ценностей современной техногенной цивилизации". (Новая философская энциклопедия: В 4 томах (2001), т. IV. М.: Мысль. C. 63)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">"Технический прогресс ведет к вульгарности... техническая репродукция и ротационная машина сделали возможным неограниченное размножение сочинений и картин. Всеобщее школьное образование и относительно высокие заработки породили очень широкую публику, которая умеет читать и в состоянии приобретать чтиво и репродуцированные изображения. Чтобы снабжать их этим, была создана значительная индустрия. Однако художественный талант - явление чрезвычайно редкое; следовательно... везде и во все времена большая часть художественной продукции была невысокой ценности. Сегодня же процент отбросов в общем объеме художественной продукции выше, чем когда бы то ни было... Перед нами простая арифметическая пропорция. За прошедшее столетие население Европы увеличилось несколько больше, чем в два раза. В то же время печатная и художественная продукция возросла, насколько я могу судить, по крайней мере в 20 раз, а возможно и в 50 и даже 100 раз. Если х миллионов населения содержат п художественных талантов, то 2х миллионов населения будут очевидно содержать 2п художественных талантов. Ситуация может быть охарактеризована следующим образом. Если 100 лет назад публиковалась одна страница текста или рисунков, то сегодня публикуется двадцать, если не сто страниц. В то же время на месте одного таланта сегодня существуют два. Я допускаю, что благодаря всеобщему школьному образованию в наши дни может действовать большое число потенциальных талантов, которые в прежние времена не смогли бы реализовать свои способности. Итак, предположим,... что сегодня на одного талантливого художника прошлого приходится три или даже четыре. Тем не менее не подлежит сомнению, что потребляемая печатная продукция многократно превосходит естественные возможности способных писателей и художников. В музыке ситуация та же. Экономический бум, граммофон и радио вызвали к жизни обширную публику, чьи потребности в музыкальной продукции никак не соответствуют приросту населения и соответствующему нормальному увеличению талантливых музыкантов. Следовательно, получается, что во всех искусствах, как в абсолютном, так и в относительном измерении, производство халтуры больше, чем было прежде; и эта ситуация сохранится, пока люди будут продолжать потреблять несоразмерно большое количество чтива, картин и музыки." (Huxley A (1935), </t>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>"Технический прогресс – взаимообусловленное, взаимостимулирующее развитие науки и техники. Понятие было введено в 20 в. в контексте обоснования, использующего потребительное отношение к природе, и традиционной научно-инженерной картины мира. Цель технического прогресса определяется как удовлетворение постоянно растущих потребностей человека;способ удовлетворения этих потребностей – реализация достижений естественных наук и техники. В техническом прогрессе различаются предпосылочный этап медленного опытного и независимого друг от друга развития науки и техники и этап научно-технических революций, первая из которых приходится на 16–17 вв. В настоящее время концепция технического прогресса подвергается серьезной критике в связи с общим переосмыслением ценностей современной техногенной цивилизации". (_</t>
     </r>
     <r>
       <rPr>
@@ -7275,16 +8572,25 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Croisiere d'hiver. Voyage en Amerique Centrale. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">Paris. P. 273-275);
-«Из всех представлений, связанных с техническим прогрессом, кажется, наиболее прочно укоренилось в умах представление о том, что технический прогресс порождает богатство. Найдётся ли кто-нибудь, кто бы ещё сомневался, что промышленность способствует росту благосостояния, которое все увеличивается по мере её развития благодаря техническому прогрессу? В этом не сомневается никто, разве что кроме тех, кто на свою беду очутился в условиях неблагоприятной конъюнктуры, которая под корень подрубила его оптимистические ожидания». (Юнгер Ф. (2002), </t>
+      <t>Новая философская энциклопедия: В 4 томах (2001)_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>, т. IV. М.: Мысль. C. 63)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>"Технический прогресс ведет к вульгарности... техническая репродукция и ротационная машина сделали возможным неограниченное размножение сочинений и картин. Всеобщее школьное образование и относительно высокие заработки породили очень широкую публику, которая умеет читать и в состоянии приобретать чтиво и репродуцированные изображения. Чтобы снабжать их этим, была создана значительная индустрия. Однако художественный талант - явление чрезвычайно редкое;следовательно... везде и во все времена большая часть художественной продукции была невысокой ценности. Сегодня же процент отбросов в общем объеме художественной продукции выше, чем когда бы то ни было... Перед нами простая арифметическая пропорция. За прошедшее столетие население Европы увеличилось несколько больше, чем в два раза. В то же время печатная и художественная продукция возросла, насколько я могу судить, по крайней мере в 20 раз, а возможно и в 50 и даже 100 раз. Если х миллионов населения содержат п художественных талантов, то 2х миллионов населения будут очевидно содержать 2п художественных талантов. Ситуация может быть охарактеризована следующим образом. Если 100 лет назад публиковалась одна страница текста или рисунков, то сегодня публикуется двадцать, если не сто страниц. В то же время на месте одного таланта сегодня существуют два. Я допускаю, что благодаря всеобщему школьному образованию в наши дни может действовать большое число потенциальных талантов, которые в прежние времена не смогли бы реализовать свои способности. Итак, предположим,... что сегодня на одного талантливого художника прошлого приходится три или даже четыре. Тем не менее не подлежит сомнению, что потребляемая печатная продукция многократно превосходит естественные возможности способных писателей и художников. В музыке ситуация та же. Экономический бум, граммофон и радио вызвали к жизни обширную публику, чьи потребности в музыкальной продукции никак не соответствуют приросту населения и соответствующему нормальному увеличению талантливых музыкантов. Следовательно, получается, что во всех искусствах, как в абсолютном, так и в относительном измерении, производство халтуры больше, чем было прежде;и эта ситуация сохранится, пока люди будут продолжать потреблять несоразмерно большое количество чтива, картин и музыки." (Huxley A (1935), _</t>
     </r>
     <r>
       <rPr>
@@ -7293,7 +8599,25 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Совершенство техники.</t>
+      <t xml:space="preserve">Croisiere d'hiver. Voyage en Amerique Centrale_. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Paris. P. 273-275);
+«Из всех представлений, связанных с техническим прогрессом, кажется, наиболее прочно укоренилось в умах представление о том, что технический прогресс порождает богатство. Найдётся ли кто-нибудь, кто бы ещё сомневался, что промышленность способствует росту благосостояния, которое все увеличивается по мере её развития благодаря техническому прогрессу? В этом не сомневается никто, разве что кроме тех, кто на свою беду очутился в условиях неблагоприятной конъюнктуры, которая под корень подрубила его оптимистические ожидания». (Юнгер Ф. (2002), _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Совершенство техники_.</t>
     </r>
     <r>
       <rPr>
@@ -7303,7 +8627,7 @@
       </rPr>
       <t xml:space="preserve"> М.: Владимир Даль. С. 24–25);
 «Мы в западной цивилизации рассматриваем изменение просто как фактор прогресса. Поскольку прогресс — необходимая часть нашего понимания жизни, перемена трактуется ка то, что принадлежит к сущности наше жизни. Перемены, подобно вечному движению, должны совершаться вновь и вновь, невзирая н ту цену, которую платит за них человек. Когда мы позволяем себе роскошь приостановиться на мгновение для размышления, то понимаем внезапно, сколь странно для человеческого существа быть захваченным постоянным лунатическим движением, именуемым изменением. 
-Изменение становится движущей силой нашей цивилизации. Мы не ставим его под сомнение, поскольку он был отождествлен с прогрессом, прогресс же до недавнего времени являлся священным табу: никому не было дозволено выступать против прогресса. Хотя мы льстим себя надеждой, что мы — существа насквозь рациональные, наш западная метафизика с ее скрытыми мифами прогресса и изменения не менее таинственна и не более рационально проверяема, чем метафизика других цивилизаций, которыми мы пренебрегаем как мистическими и иррациональными. Лишь история может рассудить, где заключена большая истина: в китайской ли культуре, которая не придавала цены переменам, или культуре западной, которая превозносит перемены и выбирает их как основную модальность своего существования». (Сколимовски Х. (1986), «Философия техники как философия человека». В сб.: </t>
+Изменение становится движущей силой нашей цивилизации. Мы не ставим его под сомнение, поскольку он был отождествлен с прогрессом, прогресс же до недавнего времени являлся священным табу: никому не было дозволено выступать против прогресса. Хотя мы льстим себя надеждой, что мы — существа насквозь рациональные, наш западная метафизика с ее скрытыми мифами прогресса и изменения не менее таинственна и не более рационально проверяема, чем метафизика других цивилизаций, которыми мы пренебрегаем как мистическими и иррациональными. Лишь история может рассудить, где заключена большая истина: в китайской ли культуре, которая не придавала цены переменам, или культуре западной, которая превозносит перемены и выбирает их как основную модальность своего существования». (Сколимовски Х. (1986), «Философия техники как философия человека». В сб.: _</t>
     </r>
     <r>
       <rPr>
@@ -7312,7 +8636,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Новая технократическая волна на Западе.</t>
+      <t>Новая технократическая волна на Западе_.</t>
     </r>
     <r>
       <rPr>
@@ -7355,7 +8679,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Spengler O. (1918), </t>
+      <t>Spengler O. (1918), _</t>
     </r>
     <r>
       <rPr>
@@ -7364,16 +8688,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Der Untergang des Abendlandes. Band 1: Gestalt und Wirklichkeit. Wien: Braumüller</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">;
-Spengler O. (1922), </t>
+      <t>Der Untergang des Abendlandes. Band 1: Gestalt und Wirklichkeit_. Wien: Braumüller</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>;
+Spengler O. (1922), _</t>
     </r>
     <r>
       <rPr>
@@ -7382,7 +8706,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Der Untergang des Abendlandes. Band 2: Welthistorische Perspektiven. München: C. H. Beck</t>
+      <t>Der Untergang des Abendlandes. Band 2: Welthistorische Perspektiven_. München: C. H. Beck</t>
     </r>
     <r>
       <rPr>
@@ -7408,7 +8732,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Степин В.С., Кузнецова Л.Ф. (1994), </t>
+      <t>Степин В.С., Кузнецова Л.Ф. (1994), _</t>
     </r>
     <r>
       <rPr>
@@ -7417,7 +8741,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Научная картина мира в культуре техногенной цивилизации.</t>
+      <t>Научная картина мира в культуре техногенной цивилизации_.</t>
     </r>
     <r>
       <rPr>
@@ -7426,7 +8750,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> М.: ИФ РАН;
-Ивлев В.Ю., Ивлева М.Л., &amp; Иноземцев В.А. (2013), Кризис техногенной цивилизации и формирование новой экологической парадигмы общественного сознания // </t>
+Ивлев В.Ю., Ивлева М.Л., &amp; Иноземцев В.А. (2013), Кризис техногенной цивилизации и формирование новой экологической парадигмы общественного сознания // _</t>
     </r>
     <r>
       <rPr>
@@ -7435,7 +8759,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Известия Московского государственного технического университета МАМИ</t>
+      <t>Известия Московского государственного технического университета МАМИ_</t>
     </r>
     <r>
       <rPr>
@@ -7456,9 +8780,9 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Являющийся следствием развития техники, результатом применения различных технологий производства;
+      <t>Являющийся следствием развития техники, результатом применения различных технологий производства;
 Cвязанный с технической и технологической деятельностью людей;
-"Современное общество в процессе его становления получило множество интерпретаций, на основе которых были разработаны подходы к его изучению. С конца XX в. – начала XXI в. все чаще в науке стало использоваться понятие «техногенная культура», обозначающее совокупность отличий и особенностей современного общества как некоего культурного и цивилизационного организма, в котором происходят активные социальные трансформации разного рода, обусловленные эффективным внедрением научно-технических достижений в пространство социума в целом... Под техногенной культурой понимается культура, которая формируется исключительно в техногенном обществе под влиянием урбанизации, индустриализации, а также информатизации и глобализационных процессов". (Кашкаров А.М. (2018), "Техногенная культура: понятие и этапы формирования". </t>
+"Современное общество в процессе его становления получило множество интерпретаций, на основе которых были разработаны подходы к его изучению. С конца XX в. – начала XXI в. все чаще в науке стало использоваться понятие «техногенная культура», обозначающее совокупность отличий и особенностей современного общества как некоего культурного и цивилизационного организма, в котором происходят активные социальные трансформации разного рода, обусловленные эффективным внедрением научно-технических достижений в пространство социума в целом... Под техногенной культурой понимается культура, которая формируется исключительно в техногенном обществе под влиянием урбанизации, индустриализации, а также информатизации и глобализационных процессов". (Кашкаров А.М. (2018), "Техногенная культура: понятие и этапы формирования". _</t>
     </r>
     <r>
       <rPr>
@@ -7467,7 +8791,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Вестник калмыцкого университета.</t>
+      <t>Вестник калмыцкого университета_.</t>
     </r>
     <r>
       <rPr>
@@ -7486,7 +8810,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">«Технократические факторы в совокупности с техногенными модернизациями определяют особенности современной социальной эволюции, техноэволюции и биоэволюции. В информационно-техногенную эпоху социумом производится глобальная техносферизация биосферы, трансформации естественных природных механизмов регуляции благоприятного для жизни постоянства среды и изменения биологии современного мира» (Дергачева Е.А. (2012), "Техногенность в глобализации социума и биосферы". </t>
+      <t>«Технократические факторы в совокупности с техногенными модернизациями определяют особенности современной социальной эволюции, техноэволюции и биоэволюции. В информационно-техногенную эпоху социумом производится глобальная техносферизация биосферы, трансформации естественных природных механизмов регуляции благоприятного для жизни постоянства среды и изменения биологии современного мира» (Дергачева Е.А. (2012), "Техногенность в глобализации социума и биосферы". _</t>
     </r>
     <r>
       <rPr>
@@ -7495,7 +8819,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Современные исследования социальных проблем (электронный научный журнал)</t>
+      <t>Современные исследования социальных проблем (электронный научный журнал)_</t>
     </r>
     <r>
       <rPr>
@@ -7520,8 +8844,8 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">);
-"В становлении техногенной культуры существенную роль играет постоянное развитие новых технологий, стандартизация социального устройства, конструирование прогрессивного мировоззрения, улучшение качества жизни и увеличение ее продолжительности под влиянием технического прогресса. Становление техногенной культуры задает принципиально новое направление всей жизнедеятельности в целом, предназначение человека просматривается в преобразующей деятельности. Так, идеал человека техногенной эпохи предстает в виде деятельностно-активного начала, опирающегося на новые ценности, возникшие в пространстве техногенной культуры. Осознание человеческого предназначения в пространстве техногенной культуры напрямую связано с переосмыслением мировоззренческих ориентаций относительно понимания природы, ее роли в жизни общества. Изобретение новейших технологий открывает широкие перспективы в осуществлении тотального контроля над когда-то упорядоченным, закономерным полем природы. Искусственное изменение природных процессов, направленных на удовлетворение все расширяющихся человеческих потребностей, на сегодняшний день является нормой. Характерный для техногенной цивилизации процесс покорения и преобразования мира природы порождает особое отношение к идеям господства силы и власти индивида над внешними процессами и объектами". (Кашкаров А.М. (2018), "Техногенная культура: понятие и этапы формирования". </t>
+      <t>);
+"В становлении техногенной культуры существенную роль играет постоянное развитие новых технологий, стандартизация социального устройства, конструирование прогрессивного мировоззрения, улучшение качества жизни и увеличение ее продолжительности под влиянием технического прогресса. Становление техногенной культуры задает принципиально новое направление всей жизнедеятельности в целом, предназначение человека просматривается в преобразующей деятельности. Так, идеал человека техногенной эпохи предстает в виде деятельностно-активного начала, опирающегося на новые ценности, возникшие в пространстве техногенной культуры. Осознание человеческого предназначения в пространстве техногенной культуры напрямую связано с переосмыслением мировоззренческих ориентаций относительно понимания природы, ее роли в жизни общества. Изобретение новейших технологий открывает широкие перспективы в осуществлении тотального контроля над когда-то упорядоченным, закономерным полем природы. Искусственное изменение природных процессов, направленных на удовлетворение все расширяющихся человеческих потребностей, на сегодняшний день является нормой. Характерный для техногенной цивилизации процесс покорения и преобразования мира природы порождает особое отношение к идеям господства силы и власти индивида над внешними процессами и объектами". (Кашкаров А.М. (2018), "Техногенная культура: понятие и этапы формирования". _</t>
     </r>
     <r>
       <rPr>
@@ -7530,7 +8854,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Вестник калмыцкого университета.</t>
+      <t>Вестник калмыцкого университета_.</t>
     </r>
     <r>
       <rPr>
@@ -7577,7 +8901,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve"> Homo creator. Technik als philosophische Herausforderung.</t>
+      <t xml:space="preserve"> _Homo creator. Technik als philosophische Herausforderung_.</t>
     </r>
     <r>
       <rPr>
@@ -7621,7 +8945,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve"> besteht in der Zulassung der Möglichkeit einer solchen Einschränkung oder Zerstörung als Preis für die Ermöglichung menschlichen Lebens, menschlicher Kultur und menschlicher Freiheit, denn die voraufgegangenen Überlegungen zeigten, dass menschliches Leben ohne Technik nicht bestehen könnte» (Poser H. (2016), </t>
+      <t xml:space="preserve"> besteht in der Zulassung der Möglichkeit einer solchen Einschränkung oder Zerstörung als Preis für die Ermöglichung menschlichen Lebens, menschlicher Kultur und menschlicher Freiheit, denn die voraufgegangenen Überlegungen zeigten, dass menschliches Leben ohne Technik nicht bestehen könnte» (Poser H. (2016), _</t>
     </r>
     <r>
       <rPr>
@@ -7630,7 +8954,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Homo creator</t>
+      <t>Homo creator_</t>
     </r>
     <r>
       <rPr>
@@ -7673,7 +8997,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Veblen T. (1921), </t>
+      <t>Veblen T. (1921), _</t>
     </r>
     <r>
       <rPr>
@@ -7682,16 +9006,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The Engineers and the Price System (Vol. 31)</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">. Piscataway: Transaction Publishers;
-Burnham J. (1941), </t>
+      <t>The Engineers and the Price System (Vol. 31)_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>. Piscataway: Transaction Publishers;
+Burnham J. (1941), _</t>
     </r>
     <r>
       <rPr>
@@ -7700,7 +9024,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The Managerial Revolution: What is Really Happening in the World.</t>
+      <t>The Managerial Revolution: What is Really Happening in the World_.</t>
     </r>
     <r>
       <rPr>
@@ -7709,7 +9033,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> New York: John Day Co.;
-Theodore R. (1969), </t>
+Theodore R. (1969), _</t>
     </r>
     <r>
       <rPr>
@@ -7735,16 +9059,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Reflections on Technocratic Society and Its Youthful Opposition. Berkeley: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">University of California Press;
-Galbraith J.K. (2007), </t>
+      <t xml:space="preserve">Reflections on Technocratic Society and Its Youthful Opposition_. Berkeley: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>University of California Press;
+Galbraith J.K. (2007), _</t>
     </r>
     <r>
       <rPr>
@@ -7753,16 +9077,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The New Industrial State (Vol. 9)</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">. Princeton: Princeton University Press;
-Lenk H. (1982), </t>
+      <t>The New Industrial State (Vol. 9)_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>. Princeton: Princeton University Press;
+Lenk H. (1982), _</t>
     </r>
     <r>
       <rPr>
@@ -7771,7 +9095,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Zur Sozialphilosophie der Technik</t>
+      <t>Zur Sozialphilosophie der Technik_</t>
     </r>
     <r>
       <rPr>
@@ -7813,7 +9137,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve"> (Рус.пер.: Ленк Х. (1996), </t>
+      <t xml:space="preserve"> (Рус.пер.: Ленк Х. (1996), _</t>
     </r>
     <r>
       <rPr>
@@ -7822,15 +9146,15 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Размышления о современной технике</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve"> / Пер. с нем. под ред. В.С. Степина; Ин-т "Открытое о-во". М.: Аспект-пресc)</t>
+      <t>Размышления о современной технике_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve"> / Пер. с нем. под ред. В.С. Степина;Ин-т "Открытое о-во". М.: Аспект-пресc)</t>
     </r>
   </si>
   <si>
@@ -7843,7 +9167,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">"Понятие (от греч. techne — мастерство, ремесло и kratos — власть), обозначающее установление политической власти технических специалистов, результатом чего будет управление обществом не на основе «частных» интересов того или иного класса, а на базе научного знания, применяемого группами технических специалистов в интересах всех людей. Идея Т. наиболее полно представлена в работах амер экономиста и политолога Дж.К. Гелбрейта «Новое индустриальное общество» (рус. пер. М., 1969) и «Экономические теории и цели общества» (рус. пер. М., 1976). Центральное понятие Гэлбрейта — «техноструктура» — обозначает складывающуюся в обществе иерархию технических специалистов в зависимости от функции управления и уровней принятия решений. В современных западных обществах «техноструктура» все в большей степени становится причастной к процессу принятия политических решений". (Блюхер Ф.Н. (1998), "Технократия", </t>
+      <t>"Понятие (от греч. techne — мастерство, ремесло и kratos — власть), обозначающее установление политической власти технических специалистов, результатом чего будет управление обществом не на основе «частных» интересов того или иного класса, а на базе научного знания, применяемого группами технических специалистов в интересах всех людей. Идея Т. наиболее полно представлена в работах амер экономиста и политолога Дж.К. Гелбрейта «Новое индустриальное общество» (рус. пер. М., 1969) и «Экономические теории и цели общества» (рус. пер. М., 1976). Центральное понятие Гэлбрейта — «техноструктура» — обозначает складывающуюся в обществе иерархию технических специалистов в зависимости от функции управления и уровней принятия решений. В современных западных обществах «техноструктура» все в большей степени становится причастной к процессу принятия политических решений". (Блюхер Ф.Н. (1998), "Технократия", _</t>
     </r>
     <r>
       <rPr>
@@ -7852,7 +9176,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Современная западная философия: Словарь.</t>
+      <t>Современная западная философия: Словарь_.</t>
     </r>
     <r>
       <rPr>
@@ -7871,7 +9195,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">"As a matter of course, the powers and duties of the incoming directorate will be of a technological nature, in the main if not altogether; inasmuch as the purpose of its coming into control is the care of the community's material welfare by a more competent management of the country's industrial system". (Veblen T. (2006, original work from 1921), </t>
+      <t>"As a matter of course, the powers and duties of the incoming directorate will be of a technological nature, in the main if not altogether;inasmuch as the purpose of its coming into control is the care of the community's material welfare by a more competent management of the country's industrial system". (Veblen T. (2006, original work from 1921), _</t>
     </r>
     <r>
       <rPr>
@@ -7880,7 +9204,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The Engineers and the Price System.</t>
+      <t>The Engineers and the Price System_.</t>
     </r>
     <r>
       <rPr>
@@ -7890,7 +9214,7 @@
       </rPr>
       <t xml:space="preserve"> Cosimo Classics. P. 88)
 "Само собой, полномочия и обязанности будущего директората будут иметь технологическую природу в основном, если не во всем, поскольку цель этого управления – заботиться о материальном благополучии общества посредством более компетентного менеджмента индустриальной системы страны".;
-"...the central directorate will apparently take the shape of a loosely tripartite executive council, with power to act in matters of industrial administration; the council to include technicians whose qualifications enable them to be called Resource Engineers, together with similarly competent spokesmen of the transportation system and of the distributive traffic in finished products and services". (Thorstein V. (2006, original work from 1921), </t>
+"...the central directorate will apparently take the shape of a loosely tripartite executive council, with power to act in matters of industrial administration;the council to include technicians whose qualifications enable them to be called Resource Engineers, together with similarly competent spokesmen of the transportation system and of the distributive traffic in finished products and services". (Thorstein V. (2006, original work from 1921), _</t>
     </r>
     <r>
       <rPr>
@@ -7899,7 +9223,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The Engineers and the Price System.</t>
+      <t>The Engineers and the Price System_.</t>
     </r>
     <r>
       <rPr>
@@ -7909,7 +9233,7 @@
       </rPr>
       <t xml:space="preserve"> Cosimo Classics. P. 89)
 "...главный директорат наверняка принял бы форму тройственного исполнительного совета, уполномоченного принимать решения по управлению промышленностью. Совет включал бы технических специалистов, чья квалификация позволила бы называть их инженерами по ресурсам, а также столь же компетентных представителей транспортной системы и системы сбыта готовых продуктов и услуг".;
-"The main line of duties indicated by the character of the work incumbent on the directorate, as well as the main line of qualifications in its personnel, both executive and advisory, is such as will call for the services of Production Engineers, to use a term which is coming into use. But it is also evident that in its continued work of planning and advisement the directorate will require the services of an appreciable number of consulting economists; men who are qualified to be called Production Economists". (Thorstein V. (2006, original work from 1921), </t>
+"The main line of duties indicated by the character of the work incumbent on the directorate, as well as the main line of qualifications in its personnel, both executive and advisory, is such as will call for the services of Production Engineers, to use a term which is coming into use. But it is also evident that in its continued work of planning and advisement the directorate will require the services of an appreciable number of consulting economists;men who are qualified to be called Production Economists". (Thorstein V. (2006, original work from 1921), _</t>
     </r>
     <r>
       <rPr>
@@ -7918,7 +9242,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The Engineers and the Price System.</t>
+      <t>The Engineers and the Price System_.</t>
     </r>
     <r>
       <rPr>
@@ -7928,13 +9252,30 @@
       </rPr>
       <t xml:space="preserve"> Cosimo Classics. P. 89)
 "Основное направление работы директората, в котором должны быть компетентны его представители, как консультанты, так и исполнители, соответствует задачам производственного инженера (термин, который сейчас входит в обиход). Но также очевидно, что для дальнейшей работы по планированию и консультированию директорату понадобятся услуги довольно многочисленных экономистов – людей, чья квалификация позволила бы назвать их производственными экономистами";
-"Взгляды Веблена на инженеров как на класс, способный использовать плоды технологического развития на благо общественного переустройства и достижения экономической эффективности, не сводятся к простым констатациям отдельных недостатков и несовершенств рыночной экономики или к жесткому классовому подходу в духе марксизма. Сам Веблен уважительно отзывался о Марксе, считая, что хотя тот и не открыл фундаментально новых истин, но его работы поражают логической последовательностью и цельностью [15]. Концепция технократии, предлагаемая Вебленом, действительно являлась альтернативой как по отношению к классической теории «невидимой руки рынка» А. Смита, так и к коммунистическим проектам экономического переустройства. Книга «Технократия инженеров» во многом базируется на философских воззрениях и на теории социальных инстинктов Веблена, определяющих жизнь и поведение человека во всем его многообразии". (Макаров А. (2015), "«Технократия инженеров» Т. Веблена как альтернативная концепция управления экономикой". Вестник ИЭ РАН. №3. С. 167);
+"Взгляды Веблена на инженеров как на класс, способный использовать плоды технологического развития на благо общественного переустройства и достижения экономической эффективности, не сводятся к простым констатациям отдельных недостатков и несовершенств рыночной экономики или к жесткому классовому подходу в духе марксизма. Сам Веблен уважительно отзывался о Марксе, считая, что хотя тот и не открыл фундаментально новых истин, но его работы поражают логической последовательностью и цельностью [15]. Концепция технократии, предлагаемая Вебленом, действительно являлась альтернативой как по отношению к классической теории «невидимой руки рынка» А. Смита, так и к коммунистическим проектам экономического переустройства. Книга «Технократия инженеров» во многом базируется на философских воззрениях и на теории социальных инстинктов Веблена, определяющих жизнь и поведение человека во всем его многообразии". (Макаров А. (2015), "«Технократия инженеров» Т. Веблена как альтернативная концепция управления экономикой". _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Вестник ИЭ РАН</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>_. №3. С. 167);
 Типологию распространенных концепций технократии, предложенную современным немецким философом техники Хансом Ленком. Эта типология расширяет трактовку технократии как власти инженеров и техников (представлена в работе «Размышления о современной технике», публ. на рус. в 1996):
 - Технократия – это ориентация на технику как на, так называемый, «технологический императив» (Людвиг Маркузе (немецкий философ (умер в 1971), писатель и философ Станислав Лем (1921-2006)): все, что можно изготовить, изготовляется и притом для удовлетворения определенных потребностей
 - Идея второй концепции в том, что «Технократия понимается как господство предметной необходимости вплоть до появления тотального «технического государства» (так утверждает, например, социальный теоретик Хельмут Шельски), в котором лишь еще управляют, однако политических решений уже не принимают 
 - Технократия - как господство техни¬ческих экспертов (экспертократия) 
 - Технократия выступает в качестве тенденции к информационно- и системно-контролируемому обществу в более общем виде: к информационной системнотехнократии.
-Уже в этой типологии можно видеть тенденции в развитии модели технократии. Причем Ленк пишет, что возрастающий страх человека перед техникой, перед каким-то заговором техников, с помощью которого они хотели бы захватить власть над обществом, не имеет серьезных оснований, и речь идет не о заговоре, «как изначально можно было бы понимать технократию… а о растущем значении технических функций и систем…». (Ленк Х. (1996), </t>
+Уже в этой типологии можно видеть тенденции в развитии модели технократии. Причем Ленк пишет, что возрастающий страх человека перед техникой, перед каким-то заговором техников, с помощью которого они хотели бы захватить власть над обществом, не имеет серьезных оснований, и речь идет не о заговоре, «как изначально можно было бы понимать технократию… а о растущем значении технических функций и систем…». (Ленк Х. (1996), _</t>
     </r>
     <r>
       <rPr>
@@ -7943,7 +9284,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Размышления о современной технике.</t>
+      <t>Размышления о современной технике_.</t>
     </r>
     <r>
       <rPr>
@@ -7980,7 +9321,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Kuhn T. (1962), </t>
+      <t>Kuhn T. (1962), _</t>
     </r>
     <r>
       <rPr>
@@ -7989,7 +9330,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The Structure of Scientific Revolutions.</t>
+      <t>The Structure of Scientific Revolutions_.</t>
     </r>
     <r>
       <rPr>
@@ -7998,7 +9339,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> Chicago: University of Chicago Press;
-Rifkin J. (2011), </t>
+Rifkin J. (2011), _</t>
     </r>
     <r>
       <rPr>
@@ -8007,7 +9348,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The Third Industrial Revolution: How Lateral Power is Transforming Energy, the Economy, and the World.</t>
+      <t>The Third Industrial Revolution: How Lateral Power is Transforming Energy, the Economy, and the World_.</t>
     </r>
     <r>
       <rPr>
@@ -8016,7 +9357,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> London: Palgrave Macmillan;
-Mokyr J. (1992), </t>
+Mokyr J. (1992), _</t>
     </r>
     <r>
       <rPr>
@@ -8025,7 +9366,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The Lever of Riches: Technological Creativity and Economic Progress.</t>
+      <t>The Lever of Riches: Technological Creativity and Economic Progress_.</t>
     </r>
     <r>
       <rPr>
@@ -8034,7 +9375,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> Oxford: Oxford University Press;
-Perez C. (2003), </t>
+Perez C. (2003), _</t>
     </r>
     <r>
       <rPr>
@@ -8043,16 +9384,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Technological Revolutions and Financial Capital. Cheltenham: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">Edward Elgar Publishing;
-Bessen J. (2015), </t>
+      <t xml:space="preserve">Technological Revolutions and Financial Capital_. Cheltenham: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Edward Elgar Publishing;
+Bessen J. (2015), _</t>
     </r>
     <r>
       <rPr>
@@ -8061,7 +9402,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Learning by Doing: the Real Connection Between Innovation, Wages, and Wealth. New Haven: </t>
+      <t xml:space="preserve">Learning by Doing: the Real Connection Between Innovation, Wages, and Wealth_. New Haven: </t>
     </r>
     <r>
       <rPr>
@@ -8087,7 +9428,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">, </t>
+      <t>, _</t>
     </r>
     <r>
       <rPr>
@@ -8096,7 +9437,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Journal of Evolutionary Economics</t>
+      <t>Journal of Evolutionary Economics_</t>
     </r>
     <r>
       <rPr>
@@ -8132,8 +9473,8 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>"On a first approximation a technological revolution can be defined as a set of interrelated radical breakthroughs, forming a major constellation of interdependen technologies; a cluster of clusters or a system of systems."
-"В первом приближении технологическую революцию можно определить как набор взаимосвязанных радикальных прорывов, образующих констелляцию взаимозависимых технологий; кластер кластеров или систему систем." (Perez C. (2010), "Technological revolutions and techno-economic paradigms".</t>
+      <t>"On a first approximation a technological revolution can be defined as a set of interrelated radical breakthroughs, forming a major constellation of interdependen technologies;a cluster of clusters or a system of systems."
+"В первом приближении технологическую революцию можно определить как набор взаимосвязанных радикальных прорывов, образующих констелляцию взаимозависимых технологий;кластер кластеров или систему систем." (Perez C. (2010), "Technological revolutions and techno-economic paradigms".</t>
     </r>
     <r>
       <rPr>
@@ -8142,7 +9483,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve"> Cambridge Journal of Economics.</t>
+      <t xml:space="preserve"> _Cambridge Journal of Economics_.</t>
     </r>
     <r>
       <rPr>
@@ -8177,7 +9518,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Vinge V. (1993), "The Coming Technological Singularity: How to Survive in the Post-Human Era". In: Latham R. (ed.), </t>
+      <t>Vinge V. (1993), "The Coming Technological Singularity: How to Survive in the Post-Human Era". In: Latham R. (ed.), _</t>
     </r>
     <r>
       <rPr>
@@ -8186,7 +9527,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Science Fiction Criticism: An Anthology of Essential Writings. London: </t>
+      <t xml:space="preserve">Science Fiction Criticism: An Anthology of Essential Writings_. London: </t>
     </r>
     <r>
       <rPr>
@@ -8212,7 +9553,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> pp. 352-363.;
-Kurzweil R. (2005), "The Singularity is Near". In: Sandler R.L. (ed.), </t>
+Kurzweil R. (2005), "The Singularity is Near". In: Sandler R.L. (ed.), _</t>
     </r>
     <r>
       <rPr>
@@ -8221,16 +9562,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Ethics and Emerging Technologies. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">London: Palgrave Macmillan, pp. 393-406.;
-Eden A.H., Steinhart E., Pearce D., Moor J.H. (2013), "Singularity Hypotheses: An Overview". In: Eden A.H., Steinhart E., Moor J.H., Søraker J.H. (eds.), </t>
+      <t xml:space="preserve">Ethics and Emerging Technologies_. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>London: Palgrave Macmillan, pp. 393-406.;
+Eden A.H., Steinhart E., Pearce D., Moor J.H. (2013), "Singularity Hypotheses: An Overview". In: Eden A.H., Steinhart E., Moor J.H., Søraker J.H. (eds.), _</t>
     </r>
     <r>
       <rPr>
@@ -8239,7 +9580,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Singularity Hypotheses: A Scientific and Philosophical Assessment. </t>
+      <t xml:space="preserve">Singularity Hypotheses: A Scientific and Philosophical Assessment_. </t>
     </r>
     <r>
       <rPr>
@@ -8257,7 +9598,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve"> Superintelligence: Paths, Dangers, Strategies.</t>
+      <t xml:space="preserve"> _Superintelligence: Paths, Dangers, Strategies_.</t>
     </r>
     <r>
       <rPr>
@@ -8266,7 +9607,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> Oxford: Oxford University Press;
-Shanahan M. (2015), </t>
+Shanahan M. (2015), _</t>
     </r>
     <r>
       <rPr>
@@ -8275,7 +9616,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The Technological Singularity.</t>
+      <t>The Technological Singularity_.</t>
     </r>
     <r>
       <rPr>
@@ -8305,7 +9646,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">"The idea of singularity is that if the trajectory of artificial intelligence reaches up to systems that have a human level of intelligence, then these systems would themselves have the ability to develop AI systems that surpass the human level of intelligence, i.e., they are “superintelligent”. Such superintelligent AI systems would quickly self-improve or develop even more intelligent systems. This sharp turn of events after reaching superintelligent AI is the “singularity” from which the development of AI is out of human control and hard to predict (Kurzweil 2005: 487)". (Müller V.C. (2023), "Ethics of Artificial Intelligence and Robotics". </t>
+      <t>"The idea of singularity is that if the trajectory of artificial intelligence reaches up to systems that have a human level of intelligence, then these systems would themselves have the ability to develop AI systems that surpass the human level of intelligence, i.e., they are “superintelligent”. Such superintelligent AI systems would quickly self-improve or develop even more intelligent systems. This sharp turn of events after reaching superintelligent AI is the “singularity” from which the development of AI is out of human control and hard to predict (Kurzweil 2005: 487)". (Müller V.C. (2023), "Ethics of Artificial Intelligence and Robotics". _</t>
     </r>
     <r>
       <rPr>
@@ -8322,8 +9663,8 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve"> (Fall 2023 Edition), Edward N. Zalta &amp; Uri Nodelman (eds.), https://plato.stanford.edu/archives/fall2023/entries/ethics-ai/ (assessed April 7, 2024));
-"The idea of accelerating technological progress driven by machine super-intelligence dates back several decades. This idea, now frequently referred to as “the singularity,” was explicitly pondered in a 1958 conversation between Stanislaw Ulam and John von Neumann during which they discussed “the ever accelerating progress of technology and changes in the mode of human life, which gives the appearance of approaching some essential singularity in the history of the race beyond which human affairs, as we know them, could not continue” (Ulam 1958). In 1965, I.J. Good argued that AI development would lead to an intelligence explosion. These ideas were taken up and elaborated and extended by several other influential writers (Bostrom 1998; Broderick 2001; Kurzweil 1990, 1999; Moravec 1989; Vinge 1993)". (More M. (2013), “The Philosophy of Transhumanism”. In: More M., Vita-More N. (eds.), </t>
+      <t xml:space="preserve"> (Fall 2023 Edition)_, Edward N. Zalta &amp; Uri Nodelman (eds.), https://plato.stanford.edu/archives/fall2023/entries/ethics-ai/ (assessed April 7, 2024));
+"The idea of accelerating technological progress driven by machine super-intelligence dates back several decades. This idea, now frequently referred to as “the singularity,” was explicitly pondered in a 1958 conversation between Stanislaw Ulam and John von Neumann during which they discussed “the ever accelerating progress of technology and changes in the mode of human life, which gives the appearance of approaching some essential singularity in the history of the race beyond which human affairs, as we know them, could not continue” (Ulam 1958). In 1965, I.J. Good argued that AI development would lead to an intelligence explosion. These ideas were taken up and elaborated and extended by several other influential writers (Bostrom 1998;Broderick 2001;Kurzweil 1990, 1999;Moravec 1989;Vinge 1993)". (More M. (2013), “The Philosophy of Transhumanism”. In: More M., Vita-More N. (eds.), </t>
     </r>
     <r>
       <rPr>
@@ -8332,7 +9673,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The transhumanist reader: classical and contemporary essays on the science, technology, and philosophy of the human future</t>
+      <t>_The Transhumanist Reader: Classical and Contemporary Essays on the Science, Technology, and Philosophy of the Human Future_</t>
     </r>
     <r>
       <rPr>
@@ -8340,8 +9681,8 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">. Pp. 11-12);
-"In science, the singularity may refer to a discontinuity or a mathematical point where an object is not defined, or to a cosmological event where measure of the gravitational field becomes infinite. In theory, the technological singularity is a conjecture about the emergence of super-intelligent minds". (More M., Vita-More N. (eds.) (2013), </t>
+      <t>. Pp. 11-12);
+"In science, the singularity may refer to a discontinuity or a mathematical point where an object is not defined, or to a cosmological event where measure of the gravitational field becomes infinite. In theory, the technological singularity is a conjecture about the emergence of super-intelligent minds". (More M., Vita-More N. (eds.) (2013), _</t>
     </r>
     <r>
       <rPr>
@@ -8350,7 +9691,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The transhumanist reader: classical and contemporary essays on the science, technology, and philosophy of the human future.</t>
+      <t>The Transhumanist Reader: Classical and Contemporary Essays on the Science, Technology, and Philosophy of the Human Future_.</t>
     </r>
     <r>
       <rPr>
@@ -8368,7 +9709,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The transhumanist reader: classical and contemporary essays on the science, technology, and philosophy of the human future.</t>
+      <t>_The Transhumanist Reader: Classical and Contemporary Essays on the Science, Technology, and Philosophy of the Human Future_.</t>
     </r>
     <r>
       <rPr>
@@ -8377,7 +9718,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> P. 366);
-"A brief list of meanings of the term “tecnological singularity” found in the literature and some of their proponents: A. [Accelerating change] Exponential or superexponential technological growth (with linked economic growth and social change) (Kurzweil 2005; Smart 2008) B. [Self-improving technology] Better technology allows faster development of new and better technology (Flake 2006) C. [Intelligence explosion] Smarter systems can improve themselves, producing even more intelligence in a strong feedback loop (Good 1965; Yudkowsky 2007) D. [Emergence of superintelligence] (Singularity Institute) E. [Prediction horizon] Rapid change or the emergence of superhuman intelligence makes the future impossible to predict from our current limited knowledge and experience. (Vinge 1993) F. [Phase transition] The singularity represents a shift to new forms of organization. This could be a fundamental difference in kind such as humanity being succeeded by posthuman or artificial intelligences, a punctuated equilibrium transition or the emergence of a new metasystem level. (Teilhard de Chardin; Turchin 1977; Heylighen 2007) G. [Complexity disaster] Increasing complexity and interconnectedness causes increasing payoffs, but increases instability. Eventually this produces a crisis, beyond which point the dynamics must be different. (Sornette in Johansen and Sornette 2001; Geoffrey West in Bettencourt et al. 2007) H. [Inflexion point] Large-scale growth of technology or economy follows a logistic growth curve. The singularity represents the inflexion point where change shifts from acceleration to deacceleration. (Extropy Institute’s Transhumanist FAQ (1990s); Modis 2002) I. [Infinite progress] The rate of progress in some domain goes to infinity in finite time. (Few, if any, hold this to be plausible.2) The three major groupings appear to be accelerating change, prediction horizon, and intelligence explosion leading to superintelligence (as originally noted by Bostrom (1998) and discussed in Yudkowsky [2007])". (Sandberg A. (2013), “An Overview of Models of Technological Singularity”. In: More M., Vita-More N. (eds.), </t>
+"A brief list of meanings of the term “tecnological singularity” found in the literature and some of their proponents: A. [Accelerating change] Exponential or superexponential technological growth (with linked economic growth and social change) (Kurzweil 2005;Smart 2008) B. [Self-improving technology] Better technology allows faster development of new and better technology (Flake 2006) C. [Intelligence explosion] Smarter systems can improve themselves, producing even more intelligence in a strong feedback loop (Good 1965;Yudkowsky 2007) D. [Emergence of superintelligence] (Singularity Institute) E. [Prediction horizon] Rapid change or the emergence of superhuman intelligence makes the future impossible to predict from our current limited knowledge and experience. (Vinge 1993) F. [Phase transition] The singularity represents a shift to new forms of organization. This could be a fundamental difference in kind such as humanity being succeeded by posthuman or artificial intelligences, a punctuated equilibrium transition or the emergence of a new metasystem level. (Teilhard de Chardin;Turchin 1977;Heylighen 2007) G. [Complexity disaster] Increasing complexity and interconnectedness causes increasing payoffs, but increases instability. Eventually this produces a crisis, beyond which point the dynamics must be different. (Sornette in Johansen and Sornette 2001;Geoffrey West in Bettencourt et al. 2007) H. [Inflexion point] Large-scale growth of technology or economy follows a logistic growth curve. The singularity represents the inflexion point where change shifts from acceleration to deacceleration. (Extropy Institute’s Transhumanist FAQ (1990s);Modis 2002) I. [Infinite progress] The rate of progress in some domain goes to infinity in finite time. (Few, if any, hold this to be plausible.2) The three major groupings appear to be accelerating change, prediction horizon, and intelligence explosion leading to superintelligence (as originally noted by Bostrom (1998) and discussed in Yudkowsky [2007])". (Sandberg A. (2013), “An Overview of Models of Technological Singularity”. In: More M., Vita-More N. (eds.), </t>
     </r>
     <r>
       <rPr>
@@ -8386,7 +9727,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The transhumanist reader: classical and contemporary essays on the science, technology, and philosophy of the human future</t>
+      <t>_The Transhumanist Reader: Classical and Contemporary Essays on the Science, Technology, and Philosophy of the Human Future_</t>
     </r>
     <r>
       <rPr>
@@ -8394,8 +9735,8 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">. P. 377;
-"Criticism of the singularity narrative has been raised from various angles. Kurzweil and Bostrom seem to assume that intelligence is a one-dimensional property and that the set of intelligent agents is totally-ordered in the mathematical sense—but neither discusses intelligence at any length in their books. Generally, it is fair to say that despite some efforts, the assumptions made in the powerful narrative of superintelligence and singularity have not been investigated in detail. One question is whether such a singularity will ever occur-it may be conceptually impossible, practically impossible or may just not happen because of contingent events, including people actively preventing it. Philosophically, the interesting question is whether singularity is just a “myth” (Floridi 2016; Ganascia 2017), and not on the trajectory of actual AI research. This is something that practitioners often assume (e.g., Brooks 2017 [OIR]). They may do so because they fear the public relations backlash, because they overestimate the practical problems, or because they have good reasons to think that superintelligence is an unlikely outcome of current AI research (Müller forthcoming). This discussion raises the question whether the concern about “singularity” is just a narrative about fictional AI based on human fears. But even if one does find negative reasons compelling and the singularity not likely to occur, there is still a significant possibility that one may turn out to be wrong. Philosophy is not on the “secure path of a science” (Kant 1791: B15), and maybe AI and robotics aren’t either (Müller 2020). So, it appears that discussing the very high-impact risk of singularity has justification even if one thinks the probability of such singularity ever occurring is very low". (Müller V.C. (2013), "Ethics of Artificial Intelligence and Robotics". </t>
+      <t>. P. 377;
+"Criticism of the singularity narrative has been raised from various angles. Kurzweil and Bostrom seem to assume that intelligence is a one-dimensional property and that the set of intelligent agents is totally-ordered in the mathematical sense—but neither discusses intelligence at any length in their books. Generally, it is fair to say that despite some efforts, the assumptions made in the powerful narrative of superintelligence and singularity have not been investigated in detail. One question is whether such a singularity will ever occur-it may be conceptually impossible, practically impossible or may just not happen because of contingent events, including people actively preventing it. Philosophically, the interesting question is whether singularity is just a “myth” (Floridi 2016;Ganascia 2017), and not on the trajectory of actual AI research. This is something that practitioners often assume (e.g., Brooks 2017 [OIR]). They may do so because they fear the public relations backlash, because they overestimate the practical problems, or because they have good reasons to think that superintelligence is an unlikely outcome of current AI research (Müller forthcoming). This discussion raises the question whether the concern about “singularity” is just a narrative about fictional AI based on human fears. But even if one does find negative reasons compelling and the singularity not likely to occur, there is still a significant possibility that one may turn out to be wrong. Philosophy is not on the “secure path of a science” (Kant 1791: B15), and maybe AI and robotics aren’t either (Müller 2020). So, it appears that discussing the very high-impact risk of singularity has justification even if one thinks the probability of such singularity ever occurring is very low". (Müller V.C. (2013), "Ethics of Artificial Intelligence and Robotics". _</t>
     </r>
     <r>
       <rPr>
@@ -8412,7 +9753,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve"> (Fall 2023 Edition), Edward N. Zalta &amp; Uri Nodelman (eds.), https://plato.stanford.edu/archives/fall2023/entries/ethics-ai/ (assessed April 7, 2024)).</t>
+      <t xml:space="preserve"> (Fall 2023 Edition)_, Edward N. Zalta &amp; Uri Nodelman (eds.), https://plato.stanford.edu/archives/fall2023/entries/ethics-ai/ (accessed April 7, 2024)).</t>
     </r>
   </si>
   <si>
@@ -8448,7 +9789,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Морозов Е. (2014), </t>
+      <t>Морозов Е. (2014), _</t>
     </r>
     <r>
       <rPr>
@@ -8457,7 +9798,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Техноненависть: как интернет отучил нас думать.</t>
+      <t>Техноненависть: как интернет отучил нас думать_.</t>
     </r>
     <r>
       <rPr>
@@ -8466,7 +9807,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> М.: Common Place;
-Agar N. (2019), </t>
+Agar N. (2019), _</t>
     </r>
     <r>
       <rPr>
@@ -8475,7 +9816,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>How to be Human in the Digital Economy.</t>
+      <t>How to be Human in the Digital Economy_.</t>
     </r>
     <r>
       <rPr>
@@ -8484,7 +9825,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> Cambridge, Massachusetts: MIT Press;
-Postman, N. (2011), </t>
+Postman, N. (2011), _</t>
     </r>
     <r>
       <rPr>
@@ -8493,16 +9834,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Technopoly: The Surrender of Culture to Technology</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">. New York: Vintage;
-Haraway D. (2000), "A Cyborg Manifesto". In: Bell D., Kennedy B. (eds.), </t>
+      <t>Technopoly: The Surrender of Culture to Technology_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>. New York: Vintage;
+Haraway D. (2000), "A Cyborg Manifesto". In: Bell D., Kennedy B. (eds.), _</t>
     </r>
     <r>
       <rPr>
@@ -8511,16 +9852,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The Cybercultures Reader</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">. London: Routledge, pp. 291–324.;
-Харауэй Д. (2016), Антропоцен, Капиталоцен, Плантациоцен, Ктулуцен: создание племени // </t>
+      <t>The Cybercultures Reader_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>. London: Routledge, pp. 291–324.;
+Харауэй Д. (2016), Антропоцен, Капиталоцен, Плантациоцен, Ктулуцен: создание племени // _</t>
     </r>
     <r>
       <rPr>
@@ -8529,7 +9870,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Художественный Журнал</t>
+      <t>Художественный Журнал_</t>
     </r>
     <r>
       <rPr>
@@ -8554,8 +9895,8 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">;
-Харауэй Д. (2005), Манифест киборгов: наука, технология и социалистический феминизм 1980-х гг. // </t>
+      <t>;
+Харауэй Д. (2005), Манифест киборгов: наука, технология и социалистический феминизм 1980-х гг. // _</t>
     </r>
     <r>
       <rPr>
@@ -8564,16 +9905,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Гендерная теория и искусство. Антология: 1970—2000</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">. Пер. С англ.; Под ред. Л. М. Бредихиной, К. Дипуэлл. М.: «Российская политическая энциклопедия» (РОССПЭН);
-Gendron B. (1977), </t>
+      <t>Гендерная теория и искусство. Антология: 1970—2000_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>. Пер. С англ.;Под ред. Л. М. Бредихиной, К. Дипуэлл. М.: «Российская политическая энциклопедия» (РОССПЭН);
+Gendron B. (1977), _</t>
     </r>
     <r>
       <rPr>
@@ -8582,16 +9923,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Technology and the Human Condition</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">. New York: St.Martin's Press;
-Crovitz G. (2011), "Techno-Utopians Are Mugged by Reality". </t>
+      <t>Technology and the Human Condition_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>. New York: St.Martin's Press;
+Crovitz G. (2011), "Techno-Utopians Are Mugged by Reality". _</t>
     </r>
     <r>
       <rPr>
@@ -8600,7 +9941,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Wall Street Journal</t>
+      <t>Wall Street Journal_</t>
     </r>
     <r>
       <rPr>
@@ -8625,8 +9966,8 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">;
-Hughes J. (2003), </t>
+      <t>;
+Hughes J. (2003), _</t>
     </r>
     <r>
       <rPr>
@@ -8635,7 +9976,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Rediscovering Utopia.</t>
+      <t>Rediscovering Utopia_.</t>
     </r>
     <r>
       <rPr>
@@ -8644,7 +9985,7 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> Gainesville: Betterhumans Archives;
-Adler R. B., Proctor II R. F. (2022), </t>
+Adler R. B., Proctor II R. F. (2022), _</t>
     </r>
     <r>
       <rPr>
@@ -8653,7 +9994,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Looking Out, Looking In</t>
+      <t>Looking Out, Looking In_</t>
     </r>
     <r>
       <rPr>
@@ -8676,7 +10017,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">"Технопессимизм существовал параллельно с технооптимизмом, не вступая с ним в открытый конфликт. Люди перестали верить в возможности человеческого разума, как это было в XVIII – XIX веках и в способность науки и техники исправить недостатки общества, «овладеть» историческим процессом. Несмотря на впечатляющие успехи науки XX века, появляется новый мистицизм, новые оккультные и религиозные течения. Становится влиятельным феномен паранауки: уфологии, астрологии, хиромантии и. т.д." (Недорезов В.Г. (2015), "Технооптимизм и технопессимизм как культурные феномены". </t>
+      <t>"Технопессимизм существовал параллельно с технооптимизмом, не вступая с ним в открытый конфликт. Люди перестали верить в возможности человеческого разума, как это было в XVIII – XIX веках и в способность науки и техники исправить недостатки общества, «овладеть» историческим процессом. Несмотря на впечатляющие успехи науки XX века, появляется новый мистицизм, новые оккультные и религиозные течения. Становится влиятельным феномен паранауки: уфологии, астрологии, хиромантии и. т.д." (Недорезов В.Г. (2015), "Технооптимизм и технопессимизм как культурные феномены". _</t>
     </r>
     <r>
       <rPr>
@@ -8685,7 +10026,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Открытая электронная библиотека научно-образовательных ресурсов Оренбуржья. </t>
+      <t xml:space="preserve">Открытая электронная библиотека научно-образовательных ресурсов Оренбуржья_. </t>
     </r>
     <r>
       <rPr>
@@ -8737,7 +10078,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Sandel M.J. (2009), </t>
+      <t>Sandel M.J. (2009), _</t>
     </r>
     <r>
       <rPr>
@@ -8746,16 +10087,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The Case Against Perfection</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">. Cambridge, Massachusetts: Harvard University Press;
-Kass L. (2003), "Ageless Bodies, Happy Souls: Biotechnology and the Pursuit of Perfection", </t>
+      <t>The Case Against Perfection_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>. Cambridge, Massachusetts: Harvard University Press;
+Kass L. (2003), "Ageless Bodies, Happy Souls: Biotechnology and the Pursuit of Perfection", _</t>
     </r>
     <r>
       <rPr>
@@ -8764,16 +10105,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>New Atlantis</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">, № 1, pp. 9–28.;
-Habermas J. (2003), </t>
+      <t>New Atlantis_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>, № 1, pp. 9–28.;
+Habermas J. (2003), _</t>
     </r>
     <r>
       <rPr>
@@ -8782,16 +10123,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The Future of Human Nature</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">. Cambridge, United Kingdom: Polity;
-Bostrom N. (2005), "In Defense of Posthuman Dignity", </t>
+      <t>The Future of Human Nature_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>. Cambridge, United Kingdom: Polity;
+Bostrom N. (2005), "In Defense of Posthuman Dignity", _</t>
     </r>
     <r>
       <rPr>
@@ -8800,7 +10141,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Bioethics</t>
+      <t>Bioethics_</t>
     </r>
     <r>
       <rPr>
@@ -8840,7 +10181,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve"> The Stanford Encyclopedia of Philosophy</t>
+      <t xml:space="preserve"> _The Stanford Encyclopedia of Philosophy</t>
     </r>
     <r>
       <rPr>
@@ -8848,25 +10189,8 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve"> (Winter 2021 Edition), Edward N. Zalta (ed.), https://plato.stanford.edu/archives/win2021/entries/life/ (assessed April 7, 2024);
-According to my early definition (More 1990), the term refers to: Philosophies of life (such as extropian perspectives) that seek the continuation and acceleration of the evolution of intelligent life beyond its currently human form and human limitations by means of science and technology, guided by life-promoting principles and values. According to the Transhumanist FAQ (Various 2003), transhumanism is: The intellectual and cultural movement that affirms the possibility and desirability of fundamentally improving the human condition through applied reason, especially by developing and making widely available technologies to eliminate aging and to greatly enhance human intellectual, physical, and psychological capacities. A corollary definition (also from the FAQ) focuses on the activity rather than the content of transhumanism: The study of the ramifications, promises, and potential dangers of technologies that will enable us to overcome fundamental human limitations, and the related study of the ethical matters involved in developing and using such technologies. Thus transhumanism is a life philosophy, an intellectual and cultural movement, and an area of study. In referring to it as a life philosophy, the 1990 definition places transhumanism in the company of complex worldviews such as secular humanism and Confucianism that have practical implications for our lives without basing themselves on any supernatural or physically transcendent belief. Transhumanism could be described by the term “eupraxsophy,” coined by secular humanist Paul Kurtz, as a type of nonreligious philosophy of life that rejects faith, worship, and the supernatural, instead emphasizing a meaningful and ethical approach to living informed by reason, science, progress, and the value of existence in our current life. What is the core content of this philosophy? A simple yet helpful way to grasp its nature is to think of transhumanism as “trans-humanism” plus “transhuman-ism.” “Trans-humanism” emphasizes the philosophy’s roots in Enlightenment humanism. From here comes the emphasis on progress (its possibility and desirability, not its inevitability), on taking personal charge of creating better futures rather than hoping or praying for them to be brought about by supernatural forces, on reason, technology, scientific method, and human creativity rather than faith. While firmly committed to improving the human condition and generally optimistic about our prospects for doing so, transhumanism does not entail any belief in the inevitability of progress nor in a future free of dangers and downsides. The same powerful technologies that can transform human nature for the better could also be used in ways that, intentionally or unintentionally, cause direct damage or more subtly undermine our lives. The transhumanist concern with rationality and its concomitant acknowledgment of uncertainty implies recognizing and proactively warding off risks and minimizing costs. More, M. “The Philosophy of Transhumanism” // In More M., Vita-More N. (eds.) (2013). «</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <i/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>The transhumanist reader: classical and contemporary essays on the science, technology, and philosophy of the human future</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>», pp. 3-4.</t>
+      <t xml:space="preserve"> (Winter 2021 Edition)_, Edward N. Zalta (ed.), https://plato.stanford.edu/archives/win2021/entries/life/ (assessed April 7, 2024);
+According to my early definition (More 1990), the term refers to: Philosophies of life (such as extropian perspectives) that seek the continuation and acceleration of the evolution of intelligent life beyond its currently human form and human limitations by means of science and technology, guided by life-promoting principles and values. According to the Transhumanist FAQ (Various 2003), transhumanism is: The intellectual and cultural movement that affirms the possibility and desirability of fundamentally improving the human condition through applied reason, especially by developing and making widely available technologies to eliminate aging and to greatly enhance human intellectual, physical, and psychological capacities. A corollary definition (also from the FAQ) focuses on the activity rather than the content of transhumanism: The study of the ramifications, promises, and potential dangers of technologies that will enable us to overcome fundamental human limitations, and the related study of the ethical matters involved in developing and using such technologies. Thus transhumanism is a life philosophy, an intellectual and cultural movement, and an area of study. In referring to it as a life philosophy, the 1990 definition places transhumanism in the company of complex worldviews such as secular humanism and Confucianism that have practical implications for our lives without basing themselves on any supernatural or physically transcendent belief. Transhumanism could be described by the term “eupraxsophy,” coined by secular humanist Paul Kurtz, as a type of nonreligious philosophy of life that rejects faith, worship, and the supernatural, instead emphasizing a meaningful and ethical approach to living informed by reason, science, progress, and the value of existence in our current life. What is the core content of this philosophy? A simple yet helpful way to grasp its nature is to think of transhumanism as “trans-humanism” plus “transhuman-ism.” “Trans-humanism” emphasizes the philosophy’s roots in Enlightenment humanism. From here comes the emphasis on progress (its possibility and desirability, not its inevitability), on taking personal charge of creating better futures rather than hoping or praying for them to be brought about by supernatural forces, on reason, technology, scientific method, and human creativity rather than faith. While firmly committed to improving the human condition and generally optimistic about our prospects for doing so, transhumanism does not entail any belief in the inevitability of progress nor in a future free of dangers and downsides. The same powerful technologies that can transform human nature for the better could also be used in ways that, intentionally or unintentionally, cause direct damage or more subtly undermine our lives. The transhumanist concern with rationality and its concomitant acknowledgment of uncertainty implies recognizing and proactively warding off risks and minimizing costs. More, M. “The Philosophy of Transhumanism” // In More M., Vita-More N. (eds.) (2013). _The Transhumanist Reader: Classical and Contemporary Essays on the Science, Technology, and Philosophy of the Human Future_, pp. 3-4.</t>
     </r>
   </si>
   <si>
@@ -8886,11 +10210,103 @@
 Донна Харауэй (Donna Haraway)</t>
   </si>
   <si>
-    <t>Waldby C., Wakeford N., Green N. (2006), "Feminist Technoscience: Intimacy, Embodiment and Abjection in Science Studies", Science &amp; Technology Studies, № 2, pp. 3–5.;
-Myers N. (2006), "Animating Mechanism: Animations and the Propagation of Affect in the Lively Arts of Protein Modelling", Science &amp; Technology Studies, № 2, pp. 6–30.;
-Landström C. (2006), "A Gendered Economy of Pleasure: Representions of Cars and Humans in Motoring Magazines", Science &amp; Technology Studies, № 2, pp. 26–48.;
-Roberts C. (2006), "‘What Can I Do to Help Myself?’ Somatic Individuality and Contemporary Hormonal Bodies", Science &amp; Technology Studies, № 2, pp. 54–76.;
-Åsberg, Cecilia; Lykke, Nina (5 November 2010). "Feminist technoscience studies". European Journal of Women's Studies. 17 (4): 299–305</t>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Waldby C., Wakeford N., Green N. (2006), "Feminist Technoscience: Intimacy, Embodiment and Abjection in Science Studies", _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Science &amp; Technology Studies</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>_, № 2, pp. 3–5.;
+Myers N. (2006), "Animating Mechanism: Animations and the Propagation of Affect in the Lively Arts of Protein Modelling", _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Science &amp; Technology Studies</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>_, № 2, pp. 6–30.;
+Landström C. (2006), "A Gendered Economy of Pleasure: Representions of Cars and Humans in Motoring Magazines", _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Science &amp; Technology Studies</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>_, № 2, pp. 26–48.;
+Roberts C. (2006), "‘What Can I Do to Help Myself?’ Somatic Individuality and Contemporary Hormonal Bodies", _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Science &amp; Technology Studies</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>_, № 2, pp. 54–76.;
+Åsberg, Cecilia;Lykke, Nina (5 November 2010). "Feminist technoscience studies", _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>European Journal of Women's Studies</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>_. 17 (4): 299–305</t>
+    </r>
   </si>
   <si>
     <t>Европейская ассоциация по изучению науки и техники (European Association for the Study of Science and Technology);
@@ -8904,9 +10320,62 @@
 Технонаука</t>
   </si>
   <si>
-    <t xml:space="preserve">"Feminist technoscience studies is a relentlessly transdisciplinary field of research which emerged out of decades of feminist critiques. These critiques have revealed the ways in which gender, in its intersections with other sociocultural power differentials and iden-tity markers, is entangled in natural, medical and technical sciences as well as in the sociotechnical networks and practices of a globalized world. As the sociocultural embed-dedness of all scientific and technological theories and practices is a basic assumption among researchers within this field, the positivist distinction between scientific theories and their technological/practical applications is taken to be unsustainable. The term ‘technoscience’ is meant to challenge critically this distinction and the ensuing separation of ‘basic’ and ‘applied’ science. For researchers within the overlapping fields of science and technology studies (STS) and feminist technoscience studies, there is no such thing as a pure and politically innocent ‘basic’ science that can be transformed into technological applications to be ‘applied’ in ‘good’ or ‘bad’ ways at a comfortable dis-tance from the ‘clean’ hands of the researcher engaged in the former. It is a shared assumption of researchers within the fields of STS and feminist technoscience studies that ‘pure’, ‘basic’ science is as entangled in societal interests, and can be held as politi-cally and ethically accountable, as the technological practices and interventions to which it may give rise. The compound word ‘technoscience’ was coined to emphasize this unavoidable link."
-Феминистские исследования технонауки - это развивающаяся междисциплинарная область исследований, возникшая в результате десятилетий существования феминистской критики. Эта критика выявила пути, по которым гендер, в его пересечениях с другими социокультурными разделениями власти и маркерами идентичности, вплетен в естественные, медицинские и технические науки, а также в социотехнические сети и практики глобализированного мира. Поскольку социокультурная обусловленность всех научных и технологических теорий и практик является основной предпосылкой исследователей в этой области, позитивистское разграничение между научными теориями и их технологическими/практическими приложениями считается несостоятельным. Термин "технонаука" призван критически оспорить это различие и вытекающее из него разделение "фундаментальной" и "прикладной" науки. Для исследователей в пересекающихся областях исследований науки и техники (STS) и феминистских исследований технонауки не существует такого понятия, как чистая и политически невинная "фундаментальная" наука, которая может быть преобразована в технологические приложения, чтобы быть "примененной" "хорошим" или "плохим" способом в комфортном отрыве от "чистых" рук исследователя, занимающегося первой. Исследователи в области STS и феминистских исследований технонауки разделяют предположение о том, что "чистая", "фундаментальная" наука так же вовлечена в общественные интересы и может нести такую же политическую и этическую ответственность, как и технологические практики и вмешательства, которые она может породить. Сложное слово "технонаука" было придумано, чтобы подчеркнуть эту неизбежную связь. - Åsberg, Cecilia; Lykke, Nina (5 November 2010). "Feminist technoscience studies". European Journal of Women's Studies. 17 (4): 299–305
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>"Feminist technoscience studies is a relentlessly transdisciplinary field of research which emerged out of decades of feminist critiques. These critiques have revealed the ways in which gender, in its intersections with other sociocultural power differentials and iden-tity markers, is entangled in natural, medical and technical sciences as well as in the sociotechnical networks and practices of a globalized world. As the sociocultural embed-dedness of all scientific and technological theories and practices is a basic assumption among researchers within this field, the positivist distinction between scientific theories and their technological/practical applications is taken to be unsustainable. The term ‘technoscience’ is meant to challenge critically this distinction and the ensuing separation of ‘basic’ and ‘applied’ science. For researchers within the overlapping fields of science and technology studies (STS) and feminist technoscience studies, there is no such thing as a pure and politically innocent ‘basic’ science that can be transformed into technological applications to be ‘applied’ in ‘good’ or ‘bad’ ways at a comfortable dis-tance from the ‘clean’ hands of the researcher engaged in the former. It is a shared assumption of researchers within the fields of STS and feminist technoscience studies that ‘pure’, ‘basic’ science is as entangled in societal interests, and can be held as politi-cally and ethically accountable, as the technological practices and interventions to which it may give rise. The compound word ‘technoscience’ was coined to emphasize this unavoidable link."
+Феминистские исследования технонауки - это развивающаяся междисциплинарная область исследований, возникшая в результате десятилетий существования феминистской критики. Эта критика выявила пути, по которым гендер, в его пересечениях с другими социокультурными разделениями власти и маркерами идентичности, вплетен в естественные, медицинские и технические науки, а также в социотехнические сети и практики глобализированного мира. Поскольку социокультурная обусловленность всех научных и технологических теорий и практик является основной предпосылкой исследователей в этой области, позитивистское разграничение между научными теориями и их технологическими/практическими приложениями считается несостоятельным. Термин "технонаука" призван критически оспорить это различие и вытекающее из него разделение "фундаментальной" и "прикладной" науки. Для исследователей в пересекающихся областях исследований науки и техники (STS) и феминистских исследований технонауки не существует такого понятия, как чистая и политически невинная "фундаментальная" наука, которая может быть преобразована в технологические приложения, чтобы быть "примененной" "хорошим" или "плохим" способом в комфортном отрыве от "чистых" рук исследователя, занимающегося первой. Исследователи в области STS и феминистских исследований технонауки разделяют предположение о том, что "чистая", "фундаментальная" наука так же вовлечена в общественные интересы и может нести такую же политическую и этическую ответственность, как и технологические практики и вмешательства, которые она может породить. Сложное слово "технонаука" было придумано, чтобы подчеркнуть эту неизбежную связь. - Åsberg, Cecilia;Lykke, Nina (5 November 2010). "Feminist technoscience studies". _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>European Journal of Women's Studies</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">_. 17 (4): 299–305
 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>"Feminist technoscience studies is a relentlessly transdisciplinary field of research which emerged out of decades of feminist critiques. These critiques have revealed the ways in which gender, in its intersections with other sociocultural power differentials and iden-tity markers, is entangled in natural, medical and technical sciences as well as in the sociotechnical networks and practices of a globalized world. As the sociocultural embed-dedness of all scientific and technological theories and practices is a basic assumption among researchers within this field, the positivist distinction between scientific theories and their technological/practical applications is taken to be unsustainable. The term ‘technoscience’ is meant to challenge critically this distinction and the ensuing separation of ‘basic’ and ‘applied’ science. For researchers within the overlapping fields of science and technology studies (STS) and feminist technoscience studies, there is no such thing as a pure and politically innocent ‘basic’ science that can be transformed into technological applications to be ‘applied’ in ‘good’ or ‘bad’ ways at a comfortable dis-tance from the ‘clean’ hands of the researcher engaged in the former. It is a shared assumption of researchers within the fields of STS and feminist technoscience studies that ‘pure’, ‘basic’ science is as entangled in societal interests, and can be held as politi-cally and ethically accountable, as the technological practices and interventions to which it may give rise. The compound word ‘technoscience’ was coined to emphasize this unavoidable link."
+Феминистские исследования технонауки - это развивающаяся междисциплинарная область исследований, возникшая в результате десятилетий существования феминистской критики. Эта критика выявила пути, по которым гендер, в его пересечениях с другими социокультурными разделениями власти и маркерами идентичности, вплетен в естественные, медицинские и технические науки, а также в социотехнические сети и практики глобализированного мира. Поскольку социокультурная обусловленность всех научных и технологических теорий и практик является основной предпосылкой исследователей в этой области, позитивистское разграничение между научными теориями и их технологическими/практическими приложениями считается несостоятельным. Термин "технонаука" призван критически оспорить это различие и вытекающее из него разделение "фундаментальной" и "прикладной" науки. Для исследователей в пересекающихся областях исследований науки и техники (STS) и феминистских исследований технонауки не существует такого понятия, как чистая и политически невинная "фундаментальная" наука, которая может быть преобразована в технологические приложения, чтобы быть "примененной" "хорошим" или "плохим" способом в комфортном отрыве от "чистых" рук исследователя, занимающегося первой. Исследователи в области STS и феминистских исследований технонауки разделяют предположение о том, что "чистая", "фундаментальная" наука так же вовлечена в общественные интересы и может нести такую же политическую и этическую ответственность, как и технологические практики и вмешательства, которые она может породить. Сложное слово "технонаука" было придумано, чтобы подчеркнуть эту неизбежную связь. - Åsberg, Cecilia;Lykke, Nina (5 November 2010). "Feminist technoscience studies". _</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <i/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>European Journal of Women's Studies_.</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve"> 17 (4): 299–305
+</t>
+    </r>
   </si>
   <si>
     <t>Человеко-роботное взаимодействие</t>
@@ -8931,7 +10400,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Kanda T., Ishiguro H. (2012), </t>
+      <t>Kanda T., Ishiguro H. (2012), _</t>
     </r>
     <r>
       <rPr>
@@ -8940,7 +10409,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Human-Robot Interaction in Social Robotics</t>
+      <t>Human-Robot Interaction in Social Robotics_</t>
     </r>
     <r>
       <rPr>
@@ -8949,7 +10418,7 @@
         <sz val="12.0"/>
       </rPr>
       <t>. Boca Raton: CRC Press;
-Bartneck C., Belpaeme T., Eyssel F., Kanda T., Keijsers M., Šabanović S. (2019), </t>
+Bartneck C., Belpaeme T., Eyssel F., Kanda T., Keijsers M., Šabanović S. (2019), _</t>
     </r>
     <r>
       <rPr>
@@ -8958,7 +10427,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Human-Robot Interaction: an Introduction.</t>
+      <t>Human-Robot Interaction: an Introduction_.</t>
     </r>
     <r>
       <rPr>
@@ -8987,7 +10456,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">"Междисциплинарное поле исследования, включающее в себя последние разработки в области робототехники, программирования, психологии, когнитивных наук, нейробиологии &lt;…&gt; Среди прочего, &lt;…&gt; изучает проблему антропоморфизации бытовой техники и фокусируется на том, как человекоподобный внешний вид и поведение «рационального агента» способствуют улучшению взаимодействия между пользователем и машинами". (Середкина Е., Безукладников И., Ядова Е. (2019). "Взаимодействие человека и робота: социально-гуманитарная экспертиза". </t>
+      <t>"Междисциплинарное поле исследования, включающее в себя последние разработки в области робототехники, программирования, психологии, когнитивных наук, нейробиологии &lt;…&gt; Среди прочего, &lt;…&gt; изучает проблему антропоморфизации бытовой техники и фокусируется на том, как человекоподобный внешний вид и поведение «рационального агента» способствуют улучшению взаимодействия между пользователем и машинами". (Середкина Е., Безукладников И., Ядова Е. (2019). "Взаимодействие человека и робота: социально-гуманитарная экспертиза". _</t>
     </r>
     <r>
       <rPr>
@@ -8996,7 +10465,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>Социально-гуманитарные знания.</t>
+      <t>Социально-гуманитарные знания_.</t>
     </r>
     <r>
       <rPr>
@@ -9033,7 +10502,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">More M., Vita-More N. (eds.) (2013), </t>
+      <t>More M., Vita-More N. (eds.) (2013), _</t>
     </r>
     <r>
       <rPr>
@@ -9042,7 +10511,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The Transhumanist Reader: Classical and Contemporary Essays on the Science, Technology, and Philosophy of the Human Future.</t>
+      <t>The Transhumanist Reader: Classical and Contemporary Essays on the Science, Technology, and Philosophy of the Human Future_.</t>
     </r>
     <r>
       <rPr>
@@ -9060,16 +10529,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve"> Principles of Extropy (Version 3.11): An Evolving Framework of Values and Standards for Continuously Improving the Human Condition</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">. Extropy Institute;
-Tomasson B., Pellissier H. (2010), </t>
+      <t xml:space="preserve"> _Principles of Extropy (Version 3.11): An Evolving Framework of Values and Standards for Continuously Improving the Human Condition_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>. Extropy Institute;
+Tomasson B., Pellissier H. (2010), _</t>
     </r>
     <r>
       <rPr>
@@ -9078,7 +10547,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">The Extropist Manifesto. The Extropist Examiner (blog). </t>
+      <t xml:space="preserve">The Extropist Manifesto. The Extropist Examiner (blog)_. </t>
     </r>
     <r>
       <rPr>
@@ -9156,7 +10625,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The transhumanist reader: classical and contemporary essays on the science, technology, and philosophy of the human future.</t>
+      <t>_The Transhumanist Reader: Classical and Contemporary Essays on the Science, Technology, and Philosophy of the Human Future_.</t>
     </r>
     <r>
       <rPr>
@@ -9174,7 +10643,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The transhumanist reader: classical and contemporary essays on the science, technology, and philosophy of the human future</t>
+      <t>_The Transhumanist Reader: Classical and Contemporary Essays on the Science, Technology, and Philosophy of the Human Future_</t>
     </r>
     <r>
       <rPr>
@@ -9192,7 +10661,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The transhumanist reader: classical and contemporary essays on the science, technology, and philosophy of the human future.</t>
+      <t>_The Transhumanist Reader: Classical and Contemporary Essays on the Science, Technology, and Philosophy of the Human Future_.</t>
     </r>
     <r>
       <rPr>
@@ -9210,7 +10679,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The transhumanist reader: classical and contemporary essays on the science, technology, and philosophy of the human future</t>
+      <t>_The Transhumanist Reader: Classical and Contemporary Essays on the Science, Technology, and Philosophy of the Human Future_</t>
     </r>
     <r>
       <rPr>
@@ -9228,16 +10697,16 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t>The transhumanist reader: classical and contemporary essays on the science, technology, and philosophy of the human future</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">. P. 264;
-"Extropy is the opposite of entropy; it is the inverse of chaos and lethargy. In a way, it is the only exception to the Second Law of Thermodynamics. Extropy is intelligence, creativity, order, critical thinking, ingenuity and boundless energy". (Tomasson, B.; Pellissier, H. (2010), "The Extropist Manifesto". </t>
+      <t>_The Transhumanist Reader: Classical and Contemporary Essays on the Science, Technology, and Philosophy of the Human Future_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>. P. 264;
+"Extropy is the opposite of entropy;it is the inverse of chaos and lethargy. In a way, it is the only exception to the Second Law of Thermodynamics. Extropy is intelligence, creativity, order, critical thinking, ingenuity and boundless energy". (Tomasson, B.;Pellissier, H. (2010), "The Extropist Manifesto". _</t>
     </r>
     <r>
       <rPr>
@@ -9254,7 +10723,7 @@
         <color rgb="FF000000"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve"> (blog). https://extropism.tumblr.com/post/393563122/the-extropist-manifesto (accessed April 3, 2024)).</t>
+      <t xml:space="preserve"> (blog)_. https://extropism.tumblr.com/post/393563122/the-extropist-manifesto (accessed April 3, 2024)).</t>
     </r>
   </si>
 </sst>
@@ -9840,7 +11309,7 @@
       <c r="J4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>39</v>
       </c>
       <c r="L4" s="5" t="s">
@@ -10047,7 +11516,7 @@
       <c r="G8" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I8" s="4" t="s">
@@ -10156,7 +11625,7 @@
       <c r="J10" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="5" t="s">
         <v>94</v>
       </c>
       <c r="L10" s="8" t="s">
@@ -10314,7 +11783,7 @@
       <c r="J13" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="5" t="s">
         <v>120</v>
       </c>
       <c r="L13" s="5" t="s">
@@ -10361,7 +11830,7 @@
       <c r="G14" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="5" t="s">
         <v>128</v>
       </c>
       <c r="I14" s="4" t="s">
@@ -10373,7 +11842,7 @@
       <c r="K14" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="5" t="s">
         <v>132</v>
       </c>
       <c r="M14" s="6"/>
@@ -10729,7 +12198,7 @@
       <c r="G21" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="5" t="s">
         <v>193</v>
       </c>
       <c r="I21" s="4"/>
@@ -10779,7 +12248,7 @@
       <c r="G22" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="5" t="s">
         <v>201</v>
       </c>
       <c r="I22" s="4"/>
@@ -10890,7 +12359,7 @@
       <c r="J24" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="K24" s="5" t="s">
         <v>219</v>
       </c>
       <c r="L24" s="5" t="s">
@@ -11048,7 +12517,7 @@
       <c r="J27" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="K27" s="5" t="s">
         <v>247</v>
       </c>
       <c r="L27" s="5" t="s">
@@ -11098,7 +12567,7 @@
       <c r="H28" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="5" t="s">
         <v>256</v>
       </c>
       <c r="J28" s="4" t="s">
@@ -11309,7 +12778,7 @@
       <c r="G32" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H32" s="5" t="s">
         <v>294</v>
       </c>
       <c r="I32" s="4" t="s">
@@ -11573,7 +13042,7 @@
       <c r="G37" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H37" s="5" t="s">
         <v>340</v>
       </c>
       <c r="I37" s="4" t="s">
@@ -11991,7 +13460,7 @@
       <c r="G45" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="H45" s="5" t="s">
         <v>412</v>
       </c>
       <c r="I45" s="4"/>
@@ -12319,8 +13788,8 @@
       <c r="K51" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="L51" s="4" t="s">
-        <v>469</v>
+      <c r="L51" s="5" t="s">
+        <v>470</v>
       </c>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
@@ -12345,34 +13814,34 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
@@ -12397,34 +13866,34 @@
     </row>
     <row r="53">
       <c r="A53" s="4" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>75</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J53" s="4" t="s">
         <v>133</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
